--- a/Test Case In Managerium.xlsx
+++ b/Test Case In Managerium.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="428">
   <si>
     <t>Product Name</t>
   </si>
@@ -1473,6 +1473,38 @@
   </si>
   <si>
     <t>it should be successfully Create Sales Quotation</t>
+  </si>
+  <si>
+    <t>TC_068</t>
+  </si>
+  <si>
+    <t>Checking Item Type drop down option showing same Item Type list in item profile page</t>
+  </si>
+  <si>
+    <t>Configuration-&gt;Item profile-&gt;Item Type-&gt;view</t>
+  </si>
+  <si>
+    <t>Item Type:Raw Material</t>
+  </si>
+  <si>
+    <t>Should be Item Type drop down option showing same Item Type list in item profile page</t>
+  </si>
+  <si>
+    <t>TC_069</t>
+  </si>
+  <si>
+    <t>Checking SL No Filter in Item profile when switching page</t>
+  </si>
+  <si>
+    <t>Configuration-&gt;Item profile-&gt;Item Type-&gt;view-&gt;Filter button</t>
+  </si>
+  <si>
+    <t>Item Type:Raw Material 
+Range:100 
+Filter: 101-200</t>
+  </si>
+  <si>
+    <t>Should be SL No showing Filter in Item profile when switching page</t>
   </si>
 </sst>
 </file>
@@ -1798,7 +1830,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1901,12 +1933,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2078,30 +2170,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2112,17 +2185,11 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2139,14 +2206,81 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2369,8 +2503,8 @@
   </sheetPr>
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
@@ -2385,232 +2519,232 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="70"/>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="73" t="s">
+      <c r="C1" s="86"/>
+      <c r="D1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="74" t="s">
+      <c r="E1" s="86"/>
+      <c r="F1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="75">
+      <c r="G1" s="86"/>
+      <c r="H1" s="91">
         <v>45615</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="76" t="s">
+      <c r="I1" s="86"/>
+      <c r="J1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="78" t="s">
+      <c r="K1" s="86"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
       <c r="P1" s="69"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="13.8">
       <c r="A2" s="70"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="74" t="s">
+      <c r="E2" s="86"/>
+      <c r="F2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="80" t="s">
+      <c r="G2" s="86"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="81">
+      <c r="K2" s="74">
         <f>COUNTIF(M8:M1821,"Pass")</f>
-        <v>72</v>
-      </c>
-      <c r="L2" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="13.8">
       <c r="A3" s="70"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="74" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="84" t="s">
+      <c r="G3" s="86"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="85">
+      <c r="K3" s="77">
         <f>COUNTIF(M8:M1821,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="L3" s="82" t="s">
+      <c r="L3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="171.6">
       <c r="A4" s="70"/>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="74" t="s">
+      <c r="E4" s="86"/>
+      <c r="F4" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="80" t="s">
+      <c r="G4" s="86"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="87">
+      <c r="K4" s="78">
         <f>COUNTIF(M9:M1821,"Out of Scope")</f>
         <v>0</v>
       </c>
-      <c r="L4" s="88" t="s">
+      <c r="L4" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="70"/>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="73" t="s">
+      <c r="C5" s="86"/>
+      <c r="D5" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="74" t="s">
+      <c r="E5" s="86"/>
+      <c r="F5" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="79" t="s">
+      <c r="G5" s="86"/>
+      <c r="H5" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="89" t="s">
+      <c r="I5" s="86"/>
+      <c r="J5" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="90">
+      <c r="K5" s="81">
         <f>SUM(K2+K3+K4)</f>
-        <v>72</v>
-      </c>
-      <c r="L5" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="91"/>
-      <c r="B6" s="91"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="92"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="82" t="s">
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" ht="26.4">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="94" t="s">
+      <c r="G7" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="94" t="s">
+      <c r="H7" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="93" t="s">
+      <c r="I7" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="93" t="s">
+      <c r="J7" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="94" t="s">
+      <c r="K7" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="94" t="s">
+      <c r="N7" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="94" t="s">
+      <c r="O7" s="84" t="s">
         <v>39</v>
       </c>
       <c r="P7" s="2"/>
@@ -5649,47 +5783,109 @@
       <c r="Y79" s="36"/>
       <c r="Z79" s="36"/>
     </row>
-    <row r="80" spans="1:26">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
-    </row>
-    <row r="81" spans="1:18">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
-    </row>
-    <row r="82" spans="1:18">
+    <row r="80" spans="1:26" ht="106.2" thickBot="1">
+      <c r="A80" s="95">
+        <v>45394</v>
+      </c>
+      <c r="B80" s="96" t="s">
+        <v>290</v>
+      </c>
+      <c r="C80" s="96" t="s">
+        <v>234</v>
+      </c>
+      <c r="D80" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80" s="98" t="s">
+        <v>418</v>
+      </c>
+      <c r="F80" s="96" t="s">
+        <v>419</v>
+      </c>
+      <c r="G80" s="99" t="s">
+        <v>291</v>
+      </c>
+      <c r="H80" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="I80" s="96" t="s">
+        <v>421</v>
+      </c>
+      <c r="J80" s="96"/>
+      <c r="K80" s="96" t="s">
+        <v>422</v>
+      </c>
+      <c r="L80" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="M80" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="N80" s="36"/>
+      <c r="O80" s="36"/>
+      <c r="P80" s="36"/>
+      <c r="Q80" s="36"/>
+      <c r="R80" s="36"/>
+      <c r="S80" s="36"/>
+      <c r="T80" s="36"/>
+      <c r="U80" s="36"/>
+      <c r="V80" s="36"/>
+      <c r="W80" s="36"/>
+      <c r="X80" s="36"/>
+      <c r="Y80" s="36"/>
+      <c r="Z80" s="36"/>
+    </row>
+    <row r="81" spans="1:26" ht="79.8" thickBot="1">
+      <c r="A81" s="102"/>
+      <c r="B81" s="103" t="s">
+        <v>290</v>
+      </c>
+      <c r="C81" s="103" t="s">
+        <v>234</v>
+      </c>
+      <c r="D81" s="104" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81" s="105" t="s">
+        <v>423</v>
+      </c>
+      <c r="F81" s="103" t="s">
+        <v>424</v>
+      </c>
+      <c r="G81" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="H81" s="103" t="s">
+        <v>425</v>
+      </c>
+      <c r="I81" s="103" t="s">
+        <v>426</v>
+      </c>
+      <c r="J81" s="103"/>
+      <c r="K81" s="103" t="s">
+        <v>427</v>
+      </c>
+      <c r="L81" s="107" t="s">
+        <v>53</v>
+      </c>
+      <c r="M81" s="108" t="s">
+        <v>41</v>
+      </c>
+      <c r="N81" s="36"/>
+      <c r="O81" s="36"/>
+      <c r="P81" s="36"/>
+      <c r="Q81" s="36"/>
+      <c r="R81" s="36"/>
+      <c r="S81" s="36"/>
+      <c r="T81" s="36"/>
+      <c r="U81" s="36"/>
+      <c r="V81" s="36"/>
+      <c r="W81" s="36"/>
+      <c r="X81" s="36"/>
+      <c r="Y81" s="36"/>
+      <c r="Z81" s="36"/>
+    </row>
+    <row r="82" spans="1:26">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -5709,7 +5905,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:26">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -5729,7 +5925,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:26">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -5749,7 +5945,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:26">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -5769,7 +5965,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:26">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -5789,7 +5985,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:26">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -5809,7 +6005,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:26">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -5829,7 +6025,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:26">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -5849,7 +6045,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:26">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -5869,7 +6065,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:26">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -5889,7 +6085,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:26">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -5909,7 +6105,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:26">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -5929,7 +6125,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:26">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -5949,7 +6145,7 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:26">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -5969,7 +6165,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:26">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -24131,6 +24327,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -24145,14 +24349,6 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="M8 M18">

--- a/Test Case In Managerium.xlsx
+++ b/Test Case In Managerium.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="484">
   <si>
     <t>Product Name</t>
   </si>
@@ -1506,6 +1506,275 @@
   <si>
     <t>Should be SL No showing Filter in Item profile when switching page</t>
   </si>
+  <si>
+    <r>
+      <t>MGM-7443</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Configuration</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the functionality to create a new item wth weght.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Configuration-&gt;Item-&gt;Add Item-&gt;fillup the form-&gt;Save</t>
+  </si>
+  <si>
+    <t>Master Item Code: C121 
+Master Item Name: Coffee 
+Printed Item Name: Coffee 
+Item Type: Finished/Trading Goods 
+UOM: PCS 
+Net Weight UOM: PCS 
+Net Weight Unit: 1000</t>
+  </si>
+  <si>
+    <t>The new item is visible in the item listing page with all fields displayed correctly.</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-7443</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Purchase Order 
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify new item visibility on Item Profile page
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Configuration-&gt;Item Profile</t>
+  </si>
+  <si>
+    <t>The new item is displayed in the item list on the Item Profile page.</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-7443</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Purchase Order</t>
+    </r>
+  </si>
+  <si>
+    <t>foreign Purchase</t>
+  </si>
+  <si>
+    <t>TC_072</t>
+  </si>
+  <si>
+    <t>Verify Creation of Item Profile Within a Foreign Purchase Order</t>
+  </si>
+  <si>
+    <t>Purchase-&gt; Purchase Order-&gt;foreign PO-&gt;Create foreign Purchase-&gt;fillup form-&gt;save</t>
+  </si>
+  <si>
+    <t>Create Date: 12/09/2024
+Office: Select MGM Head Office
+Inventory Type: Inventory Item
+Supplier: PRT-M0054 - A rat (78899985)
+Urgency: Medium
+Expected Receive Date: 12/09/2024
+Item: t 342 - cap(PCS)
+Quantity: 7.000000
+Rate (BDT): 10</t>
+  </si>
+  <si>
+    <t>The Purchase Order is successfully created and saved in the system.</t>
+  </si>
+  <si>
+    <t>TC_073</t>
+  </si>
+  <si>
+    <t>Verify New Foreign Purchase Order (PO) Appears in Purchase Order Page</t>
+  </si>
+  <si>
+    <t>Purchase-&gt; Purchase Order-&gt;foreign PO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The newly created foreign Purchase Order appears in the Purchase Order list.
+</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-7443</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Approval</t>
+    </r>
+  </si>
+  <si>
+    <t>Purchase Approval</t>
+  </si>
+  <si>
+    <t>TC_074</t>
+  </si>
+  <si>
+    <t>Verify the approval process for a foreign Purchase Order.</t>
+  </si>
+  <si>
+    <t>Approval-&gt;Purchase Order Approval-&gt;foreign PO Approval-&gt;select-&gt;Approve</t>
+  </si>
+  <si>
+    <t>The approved PO appears in the Purchase Order list under the "Approved" status.</t>
+  </si>
+  <si>
+    <t>foreign PO</t>
+  </si>
+  <si>
+    <t>TC_075</t>
+  </si>
+  <si>
+    <t>Verify the creation of shipment for a foreign Purchase Order.</t>
+  </si>
+  <si>
+    <t>The shipment status is updated to Created or equivalent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shipment Approval 
+</t>
+  </si>
+  <si>
+    <t>TC_076</t>
+  </si>
+  <si>
+    <t>Verify the approval process for a shipment in a foreign Purchase Order.</t>
+  </si>
+  <si>
+    <t>Approval-&gt;Purchase Order Approval-&gt;Shipment Approval 
+-&gt;select-&gt;Approve</t>
+  </si>
+  <si>
+    <t>The Purchase Order status is updated to reflect the shipment approval</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-7443</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Purchase </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase Receive
+</t>
+  </si>
+  <si>
+    <t>TC_077</t>
+  </si>
+  <si>
+    <t>Verify the Purchase Receive process for a foreign Purchase Order.</t>
+  </si>
+  <si>
+    <t>Purchase-Purchase Receive-Actions-fillup form-Receive</t>
+  </si>
+  <si>
+    <t>Rcv. QTY: 2</t>
+  </si>
+  <si>
+    <t>he system updates the Purchase Order status to Received.</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-7443</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Purchase Report</t>
+    </r>
+  </si>
+  <si>
+    <t>Foreign Purchase</t>
+  </si>
+  <si>
+    <t>TC_078</t>
+  </si>
+  <si>
+    <t>Verify the Checkbox Field for Net Weight in the Foreign Purchase Details Report</t>
+  </si>
+  <si>
+    <t>Purchase-Purchase Report-foreign Purchase-Net Weight-view</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/M9NpFi1jpd9q</t>
+  </si>
+  <si>
+    <t>The system should display any relevant Net Weight data for products, such as weights in kilograms or pounds, for the appropriate Foreign Purchase Orders.</t>
+  </si>
+  <si>
+    <t>TC_079</t>
+  </si>
+  <si>
+    <t>Verify Removal of Net Weight Column When Checkbox is Unchecked in Foreign Purchase Details Report</t>
+  </si>
+  <si>
+    <t>Purchase-Purchase Report-foreign Purchase-view</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/rdquIeklg4xI</t>
+  </si>
+  <si>
+    <t>The report should be generated without any errors or performance issues when the checkbox is unchecked</t>
+  </si>
 </sst>
 </file>
 
@@ -1514,7 +1783,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1701,8 +1970,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1826,6 +2103,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1998,7 +2281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2212,34 +2495,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -2281,6 +2536,49 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2503,8 +2801,8 @@
   </sheetPr>
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M96" sqref="M96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
@@ -2519,26 +2817,26 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="70"/>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="88" t="s">
+      <c r="C1" s="100"/>
+      <c r="D1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="89" t="s">
+      <c r="E1" s="100"/>
+      <c r="F1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="91">
+      <c r="G1" s="100"/>
+      <c r="H1" s="108">
         <v>45615</v>
       </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="85" t="s">
+      <c r="I1" s="100"/>
+      <c r="J1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="86"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="71"/>
       <c r="M1" s="72" t="s">
         <v>4</v>
@@ -2551,26 +2849,26 @@
     </row>
     <row r="2" spans="1:18" ht="13.8">
       <c r="A2" s="70"/>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="88" t="s">
+      <c r="C2" s="100"/>
+      <c r="D2" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="89" t="s">
+      <c r="E2" s="100"/>
+      <c r="F2" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="86"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="100"/>
       <c r="J2" s="73" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="74">
         <f>COUNTIF(M8:M1821,"Pass")</f>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="L2" s="75" t="s">
         <v>9</v>
@@ -2584,16 +2882,16 @@
     </row>
     <row r="3" spans="1:18" ht="13.8">
       <c r="A3" s="70"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="89" t="s">
+      <c r="B3" s="101"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="86"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="86"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="100"/>
       <c r="J3" s="76" t="s">
         <v>11</v>
       </c>
@@ -2613,20 +2911,20 @@
     </row>
     <row r="4" spans="1:18" ht="171.6">
       <c r="A4" s="70"/>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="88" t="s">
+      <c r="C4" s="100"/>
+      <c r="D4" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="89" t="s">
+      <c r="E4" s="100"/>
+      <c r="F4" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="86"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="100"/>
       <c r="J4" s="73" t="s">
         <v>16</v>
       </c>
@@ -2646,28 +2944,28 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="70"/>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="88" t="s">
+      <c r="C5" s="100"/>
+      <c r="D5" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="86"/>
-      <c r="F5" s="89" t="s">
+      <c r="E5" s="100"/>
+      <c r="F5" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="86"/>
-      <c r="H5" s="90" t="s">
+      <c r="G5" s="100"/>
+      <c r="H5" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="86"/>
+      <c r="I5" s="100"/>
       <c r="J5" s="80" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="81">
         <f>SUM(K2+K3+K4)</f>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>23</v>
@@ -2682,14 +2980,14 @@
     <row r="6" spans="1:18">
       <c r="A6" s="82"/>
       <c r="B6" s="82"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
       <c r="K6" s="82"/>
       <c r="L6" s="75" t="s">
         <v>24</v>
@@ -5784,41 +6082,41 @@
       <c r="Z79" s="36"/>
     </row>
     <row r="80" spans="1:26" ht="106.2" thickBot="1">
-      <c r="A80" s="95">
+      <c r="A80" s="85">
         <v>45394</v>
       </c>
-      <c r="B80" s="96" t="s">
+      <c r="B80" s="86" t="s">
         <v>290</v>
       </c>
-      <c r="C80" s="96" t="s">
+      <c r="C80" s="86" t="s">
         <v>234</v>
       </c>
-      <c r="D80" s="97" t="s">
+      <c r="D80" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="E80" s="98" t="s">
+      <c r="E80" s="88" t="s">
         <v>418</v>
       </c>
-      <c r="F80" s="96" t="s">
+      <c r="F80" s="86" t="s">
         <v>419</v>
       </c>
-      <c r="G80" s="99" t="s">
+      <c r="G80" s="89" t="s">
         <v>291</v>
       </c>
-      <c r="H80" s="96" t="s">
+      <c r="H80" s="86" t="s">
         <v>420</v>
       </c>
-      <c r="I80" s="96" t="s">
+      <c r="I80" s="86" t="s">
         <v>421</v>
       </c>
-      <c r="J80" s="96"/>
-      <c r="K80" s="96" t="s">
+      <c r="J80" s="86"/>
+      <c r="K80" s="86" t="s">
         <v>422</v>
       </c>
-      <c r="L80" s="100" t="s">
+      <c r="L80" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="M80" s="101" t="s">
+      <c r="M80" s="91" t="s">
         <v>41</v>
       </c>
       <c r="N80" s="36"/>
@@ -5836,39 +6134,39 @@
       <c r="Z80" s="36"/>
     </row>
     <row r="81" spans="1:26" ht="79.8" thickBot="1">
-      <c r="A81" s="102"/>
-      <c r="B81" s="103" t="s">
+      <c r="A81" s="92"/>
+      <c r="B81" s="93" t="s">
         <v>290</v>
       </c>
-      <c r="C81" s="103" t="s">
+      <c r="C81" s="93" t="s">
         <v>234</v>
       </c>
-      <c r="D81" s="104" t="s">
+      <c r="D81" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="E81" s="105" t="s">
+      <c r="E81" s="95" t="s">
         <v>423</v>
       </c>
-      <c r="F81" s="103" t="s">
+      <c r="F81" s="93" t="s">
         <v>424</v>
       </c>
-      <c r="G81" s="106" t="s">
+      <c r="G81" s="96" t="s">
         <v>291</v>
       </c>
-      <c r="H81" s="103" t="s">
+      <c r="H81" s="93" t="s">
         <v>425</v>
       </c>
-      <c r="I81" s="103" t="s">
+      <c r="I81" s="93" t="s">
         <v>426</v>
       </c>
-      <c r="J81" s="103"/>
-      <c r="K81" s="103" t="s">
+      <c r="J81" s="93"/>
+      <c r="K81" s="93" t="s">
         <v>427</v>
       </c>
-      <c r="L81" s="107" t="s">
+      <c r="L81" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="M81" s="108" t="s">
+      <c r="M81" s="98" t="s">
         <v>41</v>
       </c>
       <c r="N81" s="36"/>
@@ -5885,205 +6183,497 @@
       <c r="Y81" s="36"/>
       <c r="Z81" s="36"/>
     </row>
-    <row r="82" spans="1:26">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-    </row>
-    <row r="83" spans="1:26">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
-    </row>
-    <row r="84" spans="1:26">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
-      <c r="R84" s="4"/>
-    </row>
-    <row r="85" spans="1:26">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="4"/>
-    </row>
-    <row r="86" spans="1:26">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
-    </row>
-    <row r="87" spans="1:26">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
-    </row>
-    <row r="88" spans="1:26">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
-    </row>
-    <row r="89" spans="1:26">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="4"/>
-    </row>
-    <row r="90" spans="1:26">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="4"/>
-    </row>
-    <row r="91" spans="1:26">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
-      <c r="Q91" s="4"/>
-      <c r="R91" s="4"/>
+    <row r="82" spans="1:26" ht="185.4" thickBot="1">
+      <c r="A82" s="85">
+        <v>45516</v>
+      </c>
+      <c r="B82" s="109" t="s">
+        <v>428</v>
+      </c>
+      <c r="C82" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="D82" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="E82" s="88" t="s">
+        <v>429</v>
+      </c>
+      <c r="F82" s="86" t="s">
+        <v>430</v>
+      </c>
+      <c r="G82" s="89" t="s">
+        <v>291</v>
+      </c>
+      <c r="H82" s="86" t="s">
+        <v>431</v>
+      </c>
+      <c r="I82" s="86" t="s">
+        <v>432</v>
+      </c>
+      <c r="J82" s="86"/>
+      <c r="K82" s="86" t="s">
+        <v>433</v>
+      </c>
+      <c r="L82" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="M82" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="N82" s="36"/>
+      <c r="O82" s="36"/>
+      <c r="P82" s="36"/>
+      <c r="Q82" s="36"/>
+      <c r="R82" s="36"/>
+      <c r="S82" s="36"/>
+      <c r="T82" s="36"/>
+      <c r="U82" s="36"/>
+      <c r="V82" s="36"/>
+      <c r="W82" s="36"/>
+      <c r="X82" s="36"/>
+      <c r="Y82" s="36"/>
+      <c r="Z82" s="36"/>
+    </row>
+    <row r="83" spans="1:26" ht="66.599999999999994" thickBot="1">
+      <c r="A83" s="110">
+        <v>45547</v>
+      </c>
+      <c r="B83" s="111" t="s">
+        <v>434</v>
+      </c>
+      <c r="C83" s="93" t="s">
+        <v>234</v>
+      </c>
+      <c r="D83" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="E83" s="95" t="s">
+        <v>435</v>
+      </c>
+      <c r="F83" s="93" t="s">
+        <v>436</v>
+      </c>
+      <c r="G83" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="H83" s="93" t="s">
+        <v>437</v>
+      </c>
+      <c r="I83" s="93"/>
+      <c r="J83" s="93"/>
+      <c r="K83" s="93" t="s">
+        <v>438</v>
+      </c>
+      <c r="L83" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="M83" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="N83" s="36"/>
+      <c r="O83" s="36"/>
+      <c r="P83" s="36"/>
+      <c r="Q83" s="36"/>
+      <c r="R83" s="36"/>
+      <c r="S83" s="36"/>
+      <c r="T83" s="36"/>
+      <c r="U83" s="36"/>
+      <c r="V83" s="36"/>
+      <c r="W83" s="36"/>
+      <c r="X83" s="36"/>
+      <c r="Y83" s="36"/>
+      <c r="Z83" s="36"/>
+    </row>
+    <row r="84" spans="1:26" ht="277.8" thickBot="1">
+      <c r="A84" s="92"/>
+      <c r="B84" s="111" t="s">
+        <v>439</v>
+      </c>
+      <c r="C84" s="93" t="s">
+        <v>440</v>
+      </c>
+      <c r="D84" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="E84" s="95" t="s">
+        <v>441</v>
+      </c>
+      <c r="F84" s="93" t="s">
+        <v>442</v>
+      </c>
+      <c r="G84" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="H84" s="93" t="s">
+        <v>443</v>
+      </c>
+      <c r="I84" s="93" t="s">
+        <v>444</v>
+      </c>
+      <c r="J84" s="93"/>
+      <c r="K84" s="93" t="s">
+        <v>445</v>
+      </c>
+      <c r="L84" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="M84" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="N84" s="36"/>
+      <c r="O84" s="36"/>
+      <c r="P84" s="36"/>
+      <c r="Q84" s="36"/>
+      <c r="R84" s="36"/>
+      <c r="S84" s="36"/>
+      <c r="T84" s="36"/>
+      <c r="U84" s="36"/>
+      <c r="V84" s="36"/>
+      <c r="W84" s="36"/>
+      <c r="X84" s="36"/>
+      <c r="Y84" s="36"/>
+      <c r="Z84" s="36"/>
+    </row>
+    <row r="85" spans="1:26" ht="119.4" thickBot="1">
+      <c r="A85" s="92"/>
+      <c r="B85" s="111" t="s">
+        <v>439</v>
+      </c>
+      <c r="C85" s="93" t="s">
+        <v>440</v>
+      </c>
+      <c r="D85" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="E85" s="95" t="s">
+        <v>446</v>
+      </c>
+      <c r="F85" s="93" t="s">
+        <v>447</v>
+      </c>
+      <c r="G85" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="H85" s="93" t="s">
+        <v>448</v>
+      </c>
+      <c r="I85" s="93"/>
+      <c r="J85" s="93"/>
+      <c r="K85" s="93" t="s">
+        <v>449</v>
+      </c>
+      <c r="L85" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="M85" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="N85" s="36"/>
+      <c r="O85" s="36"/>
+      <c r="P85" s="36"/>
+      <c r="Q85" s="36"/>
+      <c r="R85" s="36"/>
+      <c r="S85" s="36"/>
+      <c r="T85" s="36"/>
+      <c r="U85" s="36"/>
+      <c r="V85" s="36"/>
+      <c r="W85" s="36"/>
+      <c r="X85" s="36"/>
+      <c r="Y85" s="36"/>
+      <c r="Z85" s="36"/>
+    </row>
+    <row r="86" spans="1:26" ht="106.2" thickBot="1">
+      <c r="A86" s="92"/>
+      <c r="B86" s="111" t="s">
+        <v>450</v>
+      </c>
+      <c r="C86" s="93" t="s">
+        <v>451</v>
+      </c>
+      <c r="D86" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" s="95" t="s">
+        <v>452</v>
+      </c>
+      <c r="F86" s="93" t="s">
+        <v>453</v>
+      </c>
+      <c r="G86" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="H86" s="93" t="s">
+        <v>454</v>
+      </c>
+      <c r="I86" s="93"/>
+      <c r="J86" s="93"/>
+      <c r="K86" s="93" t="s">
+        <v>455</v>
+      </c>
+      <c r="L86" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="M86" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="N86" s="36"/>
+      <c r="O86" s="36"/>
+      <c r="P86" s="36"/>
+      <c r="Q86" s="36"/>
+      <c r="R86" s="36"/>
+      <c r="S86" s="36"/>
+      <c r="T86" s="36"/>
+      <c r="U86" s="36"/>
+      <c r="V86" s="36"/>
+      <c r="W86" s="36"/>
+      <c r="X86" s="36"/>
+      <c r="Y86" s="36"/>
+      <c r="Z86" s="36"/>
+    </row>
+    <row r="87" spans="1:26" ht="66.599999999999994" thickBot="1">
+      <c r="A87" s="92"/>
+      <c r="B87" s="111" t="s">
+        <v>439</v>
+      </c>
+      <c r="C87" s="93" t="s">
+        <v>456</v>
+      </c>
+      <c r="D87" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="E87" s="95" t="s">
+        <v>457</v>
+      </c>
+      <c r="F87" s="93" t="s">
+        <v>458</v>
+      </c>
+      <c r="G87" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="H87" s="93"/>
+      <c r="I87" s="93"/>
+      <c r="J87" s="93"/>
+      <c r="K87" s="93" t="s">
+        <v>459</v>
+      </c>
+      <c r="L87" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="M87" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="N87" s="36"/>
+      <c r="O87" s="36"/>
+      <c r="P87" s="36"/>
+      <c r="Q87" s="36"/>
+      <c r="R87" s="36"/>
+      <c r="S87" s="36"/>
+      <c r="T87" s="36"/>
+      <c r="U87" s="36"/>
+      <c r="V87" s="36"/>
+      <c r="W87" s="36"/>
+      <c r="X87" s="36"/>
+      <c r="Y87" s="36"/>
+      <c r="Z87" s="36"/>
+    </row>
+    <row r="88" spans="1:26" ht="79.8" thickBot="1">
+      <c r="A88" s="92"/>
+      <c r="B88" s="111" t="s">
+        <v>450</v>
+      </c>
+      <c r="C88" s="93" t="s">
+        <v>460</v>
+      </c>
+      <c r="D88" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="E88" s="95" t="s">
+        <v>461</v>
+      </c>
+      <c r="F88" s="93" t="s">
+        <v>462</v>
+      </c>
+      <c r="G88" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="H88" s="93" t="s">
+        <v>463</v>
+      </c>
+      <c r="I88" s="93"/>
+      <c r="J88" s="93"/>
+      <c r="K88" s="93" t="s">
+        <v>464</v>
+      </c>
+      <c r="L88" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="M88" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="N88" s="36"/>
+      <c r="O88" s="36"/>
+      <c r="P88" s="36"/>
+      <c r="Q88" s="36"/>
+      <c r="R88" s="36"/>
+      <c r="S88" s="36"/>
+      <c r="T88" s="36"/>
+      <c r="U88" s="36"/>
+      <c r="V88" s="36"/>
+      <c r="W88" s="36"/>
+      <c r="X88" s="36"/>
+      <c r="Y88" s="36"/>
+      <c r="Z88" s="36"/>
+    </row>
+    <row r="89" spans="1:26" ht="66.599999999999994" thickBot="1">
+      <c r="A89" s="92"/>
+      <c r="B89" s="111" t="s">
+        <v>465</v>
+      </c>
+      <c r="C89" s="93" t="s">
+        <v>466</v>
+      </c>
+      <c r="D89" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="E89" s="95" t="s">
+        <v>467</v>
+      </c>
+      <c r="F89" s="97" t="s">
+        <v>468</v>
+      </c>
+      <c r="G89" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="H89" s="93" t="s">
+        <v>469</v>
+      </c>
+      <c r="I89" s="93" t="s">
+        <v>470</v>
+      </c>
+      <c r="J89" s="93"/>
+      <c r="K89" s="93" t="s">
+        <v>471</v>
+      </c>
+      <c r="L89" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="M89" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="N89" s="36"/>
+      <c r="O89" s="36"/>
+      <c r="P89" s="36"/>
+      <c r="Q89" s="36"/>
+      <c r="R89" s="36"/>
+      <c r="S89" s="36"/>
+      <c r="T89" s="36"/>
+      <c r="U89" s="36"/>
+      <c r="V89" s="36"/>
+      <c r="W89" s="36"/>
+      <c r="X89" s="36"/>
+      <c r="Y89" s="36"/>
+      <c r="Z89" s="36"/>
+    </row>
+    <row r="90" spans="1:26" ht="198.6" thickBot="1">
+      <c r="A90" s="92"/>
+      <c r="B90" s="111" t="s">
+        <v>472</v>
+      </c>
+      <c r="C90" s="93" t="s">
+        <v>473</v>
+      </c>
+      <c r="D90" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="E90" s="95" t="s">
+        <v>474</v>
+      </c>
+      <c r="F90" s="93" t="s">
+        <v>475</v>
+      </c>
+      <c r="G90" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="H90" s="93" t="s">
+        <v>476</v>
+      </c>
+      <c r="I90" s="93"/>
+      <c r="J90" s="113" t="s">
+        <v>477</v>
+      </c>
+      <c r="K90" s="93" t="s">
+        <v>478</v>
+      </c>
+      <c r="L90" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="M90" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="N90" s="36"/>
+      <c r="O90" s="36"/>
+      <c r="P90" s="36"/>
+      <c r="Q90" s="36"/>
+      <c r="R90" s="36"/>
+      <c r="S90" s="36"/>
+      <c r="T90" s="36"/>
+      <c r="U90" s="36"/>
+      <c r="V90" s="36"/>
+      <c r="W90" s="36"/>
+      <c r="X90" s="36"/>
+      <c r="Y90" s="36"/>
+      <c r="Z90" s="36"/>
+    </row>
+    <row r="91" spans="1:26" ht="119.4" thickBot="1">
+      <c r="A91" s="92"/>
+      <c r="B91" s="111" t="s">
+        <v>472</v>
+      </c>
+      <c r="C91" s="93" t="s">
+        <v>473</v>
+      </c>
+      <c r="D91" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="E91" s="95" t="s">
+        <v>479</v>
+      </c>
+      <c r="F91" s="93" t="s">
+        <v>480</v>
+      </c>
+      <c r="G91" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="H91" s="93" t="s">
+        <v>481</v>
+      </c>
+      <c r="I91" s="93"/>
+      <c r="J91" s="113" t="s">
+        <v>482</v>
+      </c>
+      <c r="K91" s="93" t="s">
+        <v>483</v>
+      </c>
+      <c r="L91" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="M91" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="N91" s="36"/>
+      <c r="O91" s="36"/>
+      <c r="P91" s="36"/>
+      <c r="Q91" s="36"/>
+      <c r="R91" s="36"/>
+      <c r="S91" s="36"/>
+      <c r="T91" s="36"/>
+      <c r="U91" s="36"/>
+      <c r="V91" s="36"/>
+      <c r="W91" s="36"/>
+      <c r="X91" s="36"/>
+      <c r="Y91" s="36"/>
+      <c r="Z91" s="36"/>
     </row>
     <row r="92" spans="1:26">
       <c r="A92" s="4"/>
@@ -24327,14 +24917,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -24349,6 +24931,14 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="M8 M18">
@@ -24393,9 +24983,21 @@
     <hyperlink ref="J67" r:id="rId32"/>
     <hyperlink ref="J69" r:id="rId33"/>
     <hyperlink ref="J70" r:id="rId34"/>
+    <hyperlink ref="B82" r:id="rId35" display="https://jira.ibos.io/browse/MGM-7443"/>
+    <hyperlink ref="B83" r:id="rId36" display="https://jira.ibos.io/browse/MGM-7443"/>
+    <hyperlink ref="B84" r:id="rId37" display="https://jira.ibos.io/browse/MGM-7443"/>
+    <hyperlink ref="B85" r:id="rId38" display="https://jira.ibos.io/browse/MGM-7443"/>
+    <hyperlink ref="B86" r:id="rId39" display="https://jira.ibos.io/browse/MGM-7443"/>
+    <hyperlink ref="B87" r:id="rId40" display="https://jira.ibos.io/browse/MGM-7443"/>
+    <hyperlink ref="B88" r:id="rId41" display="https://jira.ibos.io/browse/MGM-7443"/>
+    <hyperlink ref="B89" r:id="rId42" display="https://jira.ibos.io/browse/MGM-7443"/>
+    <hyperlink ref="B90" r:id="rId43" display="https://jira.ibos.io/browse/MGM-7443"/>
+    <hyperlink ref="J90" r:id="rId44"/>
+    <hyperlink ref="B91" r:id="rId45" display="https://jira.ibos.io/browse/MGM-7443"/>
+    <hyperlink ref="J91" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
+  <pageSetup orientation="portrait" r:id="rId47"/>
 </worksheet>
 </file>
 

--- a/Test Case In Managerium.xlsx
+++ b/Test Case In Managerium.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="522">
   <si>
     <t>Product Name</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>19-11-2024</t>
-  </si>
-  <si>
     <t>LC Management</t>
   </si>
   <si>
@@ -166,16 +163,9 @@
     <t>Try to LC Create</t>
   </si>
   <si>
-    <t xml:space="preserve">Functional Testing </t>
-  </si>
-  <si>
     <t>Account-&gt;LC Management-&gt;LC Create-&gt;fill up the form-&gt; save</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Office Name: MGM Head Office          LC NO: 999901          LC Opening Date: 18-11-2024        PI NO:999901                                      PI Date:18-11-2024                              Purchase Order NO:PO-M240400042</t>
-  </si>
-  <si>
     <t>https://prnt.sc/xTOlYcWhE7z6</t>
   </si>
   <si>
@@ -185,13 +175,7 @@
     <t>As Expected.</t>
   </si>
   <si>
-    <t xml:space="preserve">LC details </t>
-  </si>
-  <si>
     <t>TC_002</t>
-  </si>
-  <si>
-    <t>Try to showing LC details list  in LC details page</t>
   </si>
   <si>
     <t>Account-&gt;LC Management-&gt;LC Details</t>
@@ -303,9 +287,6 @@
     <t>https://prnt.sc/8CTPMKtcpFDG</t>
   </si>
   <si>
-    <t xml:space="preserve">Account Journal Details showing should be LC margin amount Deeposit against </t>
-  </si>
-  <si>
     <t>TC_008</t>
   </si>
   <si>
@@ -317,15 +298,6 @@
   </si>
   <si>
     <t>https://prnt.sc/BmDE_xPqnxrB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account Journal Details showing should be LC margin amount Adjustment against </t>
-  </si>
-  <si>
-    <t>@1-11-2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account </t>
   </si>
   <si>
     <t>TC_009</t>
@@ -365,20 +337,6 @@
     <t>Production-&gt;Bill of Material-&gt;create Bill of Material-&gt;Multiple Output-&gt;save</t>
   </si>
   <si>
-    <t xml:space="preserve">BOM Name: Test demand One                    
-Department: QA
-Section:QA Section 2                   Production Item Information-Item Type:Finished/Trading Goods                       
-                                                     FG/SFG Item: ITM-00276 - Zigjag Biscuit (Packet)
-                                                     Lot Size: 1
-                                                     Cost Percentage: 100                                                                                                      Material Item Information- Item Type: Raw Material
-Material Item: Jipper
-Quantity : 7 PCS
-Material Item: Collar Bone
-Quantity : 3 PCS
-Material Item: Interlining Charcoal
-Quantity : 2 YDS                                                        </t>
-  </si>
-  <si>
     <t>https://prnt.sc/tylgGbD9to0y</t>
   </si>
   <si>
@@ -452,9 +410,6 @@
     <t>TC_015</t>
   </si>
   <si>
-    <t xml:space="preserve">Checking After edit specific Bill Of Material </t>
-  </si>
-  <si>
     <t>https://prnt.sc/Pis-r2USPuTN</t>
   </si>
   <si>
@@ -474,9 +429,6 @@
   </si>
   <si>
     <t>specific Department and Section wise Bill Of Material should be Showing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sales </t>
   </si>
   <si>
     <t>Sales Order</t>
@@ -565,9 +517,6 @@
     <t>TC_022</t>
   </si>
   <si>
-    <t xml:space="preserve"> Loans list showing Finance and Bankingin Loans page</t>
-  </si>
-  <si>
     <t>Account-&gt;Finance and Banking-&gt;Loans</t>
   </si>
   <si>
@@ -596,9 +545,6 @@
   </si>
   <si>
     <t>TC_024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Long Terms loan Add Adjustment loan in account</t>
   </si>
   <si>
     <t>Account-&gt;Finance and Banking-&gt;Loans&gt;Action Add Adjustment -&gt;fill up form-&gt;save</t>
@@ -615,23 +561,9 @@
     <t>TC_025</t>
   </si>
   <si>
-    <t xml:space="preserve"> Long Terms loan Add Adjustment Refund in account</t>
-  </si>
-  <si>
-    <t>Date:11/20/2024
-Office:MGM Head Office
-Type:Refund
-Accounts Head:EBL: 454545
-Amount:5
-Remarks:test 2</t>
-  </si>
-  <si>
     <t>TC_026</t>
   </si>
   <si>
-    <t xml:space="preserve"> checking Long Terms  loan Account Number Add Adjustment Journal Approval pending voucher</t>
-  </si>
-  <si>
     <t>Account-&gt;Accounting Journal-&gt;pending voucher</t>
   </si>
   <si>
@@ -644,9 +576,6 @@
     <t>TC_027</t>
   </si>
   <si>
-    <t xml:space="preserve"> checking Long Terms loan Account Number Add Adjustment Journal Approval pending voucher</t>
-  </si>
-  <si>
     <t>Approval</t>
   </si>
   <si>
@@ -656,33 +585,21 @@
     <t>TC_028</t>
   </si>
   <si>
-    <t xml:space="preserve"> Long Terms loan Add Adjustment Journal Approval</t>
-  </si>
-  <si>
     <t>Account-&gt;Account Approval-&gt;Journal Approval-&gt;Long Terms Loan-&gt;Action-&gt;Approve</t>
   </si>
   <si>
-    <t xml:space="preserve"> Long Terms Loan Add Adjustment Journal Approval should be approve</t>
-  </si>
-  <si>
     <t>Journal Approval</t>
   </si>
   <si>
     <t>TC_029</t>
   </si>
   <si>
-    <t xml:space="preserve"> Long Terms Refund Add Adjustment Journal Approval</t>
-  </si>
-  <si>
     <t>Account-&gt;Account Approval-&gt;Journal Approval-&gt;Long Terms Refund &gt;Action-&gt;Approve</t>
   </si>
   <si>
     <t>https://prnt.sc/PUYh_iX8085f</t>
   </si>
   <si>
-    <t xml:space="preserve"> Long Terms Refund Add Adjustment Journal Approval should be approve</t>
-  </si>
-  <si>
     <t>TC_030</t>
   </si>
   <si>
@@ -731,19 +648,12 @@
     <t>specific Account Loans Details in page narration should be showing</t>
   </si>
   <si>
-    <t>24-11-2024</t>
-  </si>
-  <si>
     <t>Subcategory DDL in inventory report is empty</t>
   </si>
   <si>
     <t>Inventory</t>
   </si>
   <si>
-    <t xml:space="preserve">Inventory Report
-</t>
-  </si>
-  <si>
     <t>TC_033</t>
   </si>
   <si>
@@ -753,21 +663,10 @@
     <t>Inventory-&gt;Inventory Report-&gt;View By-&gt;Select Item Category</t>
   </si>
   <si>
-    <t>View By: Inventory Report
-Office:All
-Warehouse (Location):All
-Item Type:ALL
-Item Cateory:HEALTH FOOD</t>
-  </si>
-  <si>
     <t>https://prnt.sc/y4aMJIc9Sa2Y</t>
   </si>
   <si>
     <t>Item Category type dropdown manu should be show list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inventory Report
-</t>
   </si>
   <si>
     <t>TC_034</t>
@@ -792,9 +691,6 @@
   </si>
   <si>
     <t>Item Category after filtering should be showing in Sub Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configuration </t>
   </si>
   <si>
     <t>Item profile</t>
@@ -1124,14 +1020,6 @@
   </si>
   <si>
     <t>Sales-&gt;Sales Return-&gt;Return-Partial-&gt;select iteem-&gt;save</t>
-  </si>
-  <si>
-    <t>Return Date:12/02/2024 
-Office:MGM Head Office 
-Warehouse:GM Warehouse bd 
-Return Reason:for test 
-Return QTY:2 
-select serital one</t>
   </si>
   <si>
     <t>it should be Sales Partial return</t>
@@ -1346,9 +1234,6 @@
     <t>Try to Purchase partial Return Supplier batch item profile</t>
   </si>
   <si>
-    <t>Batch Code:Batch bookshelf One Stock Quantity:10 Return Qty:2</t>
-  </si>
-  <si>
     <t>TC_060</t>
   </si>
   <si>
@@ -1362,20 +1247,6 @@
   </si>
   <si>
     <t>Sales-&gt;Sales Delivery-&gt;Create Direct Delivery fillup form-&gt;save</t>
-  </si>
-  <si>
-    <t>Create Date- 12/03/2024 
-Office- MGM Head Office 
-Warehouse- MGM Warehouse bd 
-Customer- abc (01558102053) 
-Ship To- abf edited [ mohammadpur ] 
-Contact To- Rafsana SEcond Contact 
-Sales Force- Etu Mahmuda Era(01928374) 
-Item- BT 212 - bookshelf (SET) 
-Quantity- 1 
-Unit Price- 5 
-Serial/Batch- Batch bookshelf One 
-Quantity- 1</t>
   </si>
   <si>
     <t>TC_063</t>
@@ -1455,9 +1326,6 @@
     <t>TC_067</t>
   </si>
   <si>
-    <t>Try to edit Sales Quotation Sales Requisition Quotation Type with VAT</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create Date:12/04/2024 
 Office:MGM Head Office 
 Customer:abc (01558102053) 
@@ -1470,9 +1338,6 @@
 Unit Price:100 
 Value Added Tax (%):10 
 </t>
-  </si>
-  <si>
-    <t>it should be successfully Create Sales Quotation</t>
   </si>
   <si>
     <t>TC_068</t>
@@ -1775,6 +1640,324 @@
   <si>
     <t>The report should be generated without any errors or performance issues when the checkbox is unchecked</t>
   </si>
+  <si>
+    <t xml:space="preserve">
+Office Name: MGM Head Office LC NO: 999901 LC Opening Date: 18-11-2024 PI NO:999901 PI Date:18-11-2024 Purchase Order NO:PO-M240400042</t>
+  </si>
+  <si>
+    <t>LC details</t>
+  </si>
+  <si>
+    <t>Try to showing LC details list in LC details page</t>
+  </si>
+  <si>
+    <t>Account Journal Details showing should be LC margin amount Deeposit against</t>
+  </si>
+  <si>
+    <t>Account Journal Details showing should be LC margin amount Adjustment against</t>
+  </si>
+  <si>
+    <t>BOM Name: Test demand One 
+Department: QA
+Section:QA Section 2 Production Item Information-Item Type:Finished/Trading Goods 
+FG/SFG Item: ITM-00276 - Zigjag Biscuit (Packet)
+Lot Size: 1
+Cost Percentage: 100 Material Item Information- Item Type: Raw Material
+Material Item: Jipper
+Quantity : 7 PCS
+Material Item: Collar Bone
+Quantity : 3 PCS
+Material Item: Interlining Charcoal
+Quantity : 2 YDS</t>
+  </si>
+  <si>
+    <t>Checking After edit specific Bill Of Material</t>
+  </si>
+  <si>
+    <t>Loans list showing Finance and Bankingin Loans page</t>
+  </si>
+  <si>
+    <t>Long Terms loan Add Adjustment loan in account</t>
+  </si>
+  <si>
+    <t>Long Terms loan Add Adjustment Refund in account</t>
+  </si>
+  <si>
+    <t>Date:11/20/2024 
+Office:MGM Head Office 
+Type:Refund 
+Accounts Head:EBL: 454545 
+Amount:5 
+Remarks:test 2</t>
+  </si>
+  <si>
+    <t>checking Long Terms loan Account Number Add Adjustment Journal Approval pending voucher</t>
+  </si>
+  <si>
+    <t>Long Terms loan Add Adjustment Journal Approval</t>
+  </si>
+  <si>
+    <t>Long Terms Loan Add Adjustment Journal Approval should be approve</t>
+  </si>
+  <si>
+    <t>Long Terms Refund Add Adjustment Journal Approval</t>
+  </si>
+  <si>
+    <t>Long Terms Refund Add Adjustment Journal Approval should be approve</t>
+  </si>
+  <si>
+    <t>View By: Inventory Report 
+Office:All 
+Warehouse (Location):All 
+Item Type:ALL 
+Item Cateory:HEALTH FOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inventory Report 
+</t>
+  </si>
+  <si>
+    <t>Batch/Lot No.: Batch bookshelf One 
+Warehouse:MGM Warehouse bd 
+Transaction Type:Transaction Type 
+Quantity:2</t>
+  </si>
+  <si>
+    <t>Create Date- 12/03/2024
+Office- MGM Head Office
+Warehouse- MGM Warehouse bd
+Customer- abc (01558102053)
+Ship To- abf edited [ mohammadpur ]
+Contact To- Rafsana SEcond Contact
+Sales Force- Etu Mahmuda Era(01928374)
+Item- BT 212 - bookshelf (SET)
+Quantity- 1
+Unit Price- 5
+Serial/Batch- Batch bookshelf One
+Quantity- 1</t>
+  </si>
+  <si>
+    <t>Try to Sales Quotation edit item and with VAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it should be edited successfully Sales Quotation
+</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-7523</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Purchase </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Purchase Requisition
+</t>
+  </si>
+  <si>
+    <t>TC_080</t>
+  </si>
+  <si>
+    <t>Try to Create Purchase Requisition for an Inventory Service Item</t>
+  </si>
+  <si>
+    <t>Purchase -Purchase Requisition- Create Purchase Requisition-fillup the form-save</t>
+  </si>
+  <si>
+    <t>Employee Tonmoy Datta (01716948) 
+Office MGM Head Office 
+Warehouse MGM Warehouse bd 
+Inventory Type Service Item
+Expected Date 12/10/2024 
+Item 55 - LP Gas (PCS) 
+Current Stock 8 
+Request Quantity 1 
+Rate 10</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/GTnus9jRUAAV</t>
+  </si>
+  <si>
+    <t>The Purchase Requisition should be successfully created .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase Requisition
+</t>
+  </si>
+  <si>
+    <t>TC_081</t>
+  </si>
+  <si>
+    <t>Verify Visibility of New Purchase Requisition in the Requisition List</t>
+  </si>
+  <si>
+    <t>Purchase -Purchase Requisition</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/hJ_nNWSJZu69</t>
+  </si>
+  <si>
+    <t>The requisition list page displays the newly created purchase requisition.</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-7523</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Approval</t>
+    </r>
+  </si>
+  <si>
+    <t>Purchase Requisition Approval</t>
+  </si>
+  <si>
+    <t>TC_082</t>
+  </si>
+  <si>
+    <t>Verify Purchase Requisition Approval Process Using PR Code</t>
+  </si>
+  <si>
+    <t>Approval-Purchase Approval-Purchase Requisition Approval-select-Approve-yes</t>
+  </si>
+  <si>
+    <t>It should be successfully Approve Purchase Requisition</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-7523</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Purchase Order</t>
+    </r>
+  </si>
+  <si>
+    <t>Create Purchase Order</t>
+  </si>
+  <si>
+    <t>TC_083</t>
+  </si>
+  <si>
+    <t>Try to Create Purchase Order with Purchase Requisition.</t>
+  </si>
+  <si>
+    <t>Purchase -Purchase Order- Local PO-Create Purchase Order-select Create From Requisition
+-select Purchase Requisition-fillup the form-save</t>
+  </si>
+  <si>
+    <t>select Create From Requisition
+Create Date 12/10/2024 
+Office MGM Head Office 
+Purchase Requisition PR-M241200032 
+Inventory Type Service Item 
+Supplier PRT-M0082 - ACI (456) 
+Urgency Medium
+Expected Receive Date 12/10/2024</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/g6F0x3esAduf</t>
+  </si>
+  <si>
+    <t>The Purchase Order should be successfully created .</t>
+  </si>
+  <si>
+    <t>Purchase Order Approval</t>
+  </si>
+  <si>
+    <t>TC_084</t>
+  </si>
+  <si>
+    <t>Verify Purchase Order Approval Process Using PO Code</t>
+  </si>
+  <si>
+    <t>Approval-Purchase Approval-Purchase Order Approval-select-Approve-yes</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/EB429KSf_sPk</t>
+  </si>
+  <si>
+    <t>It should be successfully Approve Purchase Order</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-7523</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Purchase Receive</t>
+    </r>
+  </si>
+  <si>
+    <t>Approve PO</t>
+  </si>
+  <si>
+    <t>TC_085</t>
+  </si>
+  <si>
+    <t>Verify Mandatory Expense Selection with PO Number in Receive Order Process</t>
+  </si>
+  <si>
+    <t>Purchase -Purchase Receive- Approve PO-select PO Number Actions-Expense field-save</t>
+  </si>
+  <si>
+    <t>Expense Expense of Card 
+Rcv. QTY 1</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/woR3Svrxuf-u</t>
+  </si>
+  <si>
+    <t>It should be Receive Expense Selection Mandatory with PO Number.</t>
+  </si>
+  <si>
+    <t>Receive PO</t>
+  </si>
+  <si>
+    <t>TC_086</t>
+  </si>
+  <si>
+    <t>Verify Purchase Received Details showing with PO Number.</t>
+  </si>
+  <si>
+    <t>Purchase -Purchase Receive- Receive PO-select PO Number Actions-Purchase Received Details</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/SXWRGWuad_U2</t>
+  </si>
+  <si>
+    <t>It should be successfully displays purchase received details when searched using a valid PO number.</t>
+  </si>
 </sst>
 </file>
 
@@ -1783,7 +1966,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1828,38 +2011,8 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1964,13 +2117,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
@@ -1978,8 +2124,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF11734B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFD4EDBC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2102,18 +2270,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2204,19 +2366,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -2276,12 +2425,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2295,78 +2489,69 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="21" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="16" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2375,26 +2560,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2404,48 +2574,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2495,90 +2623,132 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2801,8 +2971,8 @@
   </sheetPr>
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M96" sqref="M96"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
@@ -2815,3059 +2985,3583 @@
     <col min="9" max="9" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="70"/>
-      <c r="B1" s="107" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" s="46"/>
+      <c r="B1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="104" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="100"/>
-      <c r="F1" s="103" t="s">
+      <c r="E1" s="78"/>
+      <c r="F1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="100"/>
-      <c r="H1" s="108">
+      <c r="G1" s="78"/>
+      <c r="H1" s="83">
         <v>45615</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="106" t="s">
+      <c r="I1" s="78"/>
+      <c r="J1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="100"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="72" t="s">
+      <c r="K1" s="78"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="69"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="45"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="13.8">
-      <c r="A2" s="70"/>
-      <c r="B2" s="107" t="s">
+    <row r="2" spans="1:26" ht="13.8">
+      <c r="A2" s="46"/>
+      <c r="B2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="104" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="103" t="s">
+      <c r="E2" s="78"/>
+      <c r="F2" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="100"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="73" t="s">
+      <c r="G2" s="78"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="74">
+      <c r="K2" s="50">
         <f>COUNTIF(M8:M1821,"Pass")</f>
-        <v>84</v>
-      </c>
-      <c r="L2" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="13.8">
-      <c r="A3" s="70"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="103" t="s">
+    <row r="3" spans="1:26" ht="13.8">
+      <c r="A3" s="46"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="100"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="76" t="s">
+      <c r="G3" s="78"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="77">
+      <c r="K3" s="53">
         <f>COUNTIF(M8:M1821,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" ht="171.6">
-      <c r="A4" s="70"/>
-      <c r="B4" s="107" t="s">
+    <row r="4" spans="1:26" ht="171.6">
+      <c r="A4" s="46"/>
+      <c r="B4" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="104" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="100"/>
-      <c r="F4" s="103" t="s">
+      <c r="E4" s="78"/>
+      <c r="F4" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="73" t="s">
+      <c r="G4" s="78"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="78">
+      <c r="K4" s="54">
         <f>COUNTIF(M9:M1821,"Out of Scope")</f>
         <v>0</v>
       </c>
-      <c r="L4" s="79" t="s">
+      <c r="L4" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="70"/>
-      <c r="B5" s="107" t="s">
+    <row r="5" spans="1:26">
+      <c r="A5" s="46"/>
+      <c r="B5" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="104" t="s">
+      <c r="C5" s="78"/>
+      <c r="D5" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="103" t="s">
+      <c r="E5" s="78"/>
+      <c r="F5" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="100"/>
-      <c r="H5" s="102" t="s">
+      <c r="G5" s="78"/>
+      <c r="H5" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="100"/>
-      <c r="J5" s="80" t="s">
+      <c r="I5" s="78"/>
+      <c r="J5" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="81">
+      <c r="K5" s="57">
         <f>SUM(K2+K3+K4)</f>
-        <v>84</v>
-      </c>
-      <c r="L5" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="75" t="s">
+    <row r="6" spans="1:26">
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" ht="26.4">
-      <c r="A7" s="83" t="s">
+    <row r="7" spans="1:26" ht="26.4">
+      <c r="A7" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="F7" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="84" t="s">
+      <c r="G7" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="84" t="s">
+      <c r="H7" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="83" t="s">
+      <c r="I7" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="83" t="s">
+      <c r="J7" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="84" t="s">
+      <c r="K7" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="84" t="s">
+      <c r="L7" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="84" t="s">
+      <c r="M7" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="84" t="s">
+      <c r="N7" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="84" t="s">
+      <c r="O7" s="60" t="s">
         <v>39</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" ht="13.8">
-      <c r="A8" s="50"/>
-      <c r="B8" s="52" t="s">
+    <row r="8" spans="1:26" ht="14.4" thickBot="1">
+      <c r="A8" s="42"/>
+      <c r="B8" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="51" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" ht="85.2" customHeight="1">
-      <c r="A9" s="38" t="s">
+    <row r="9" spans="1:26" ht="159" thickBot="1">
+      <c r="A9" s="87">
+        <v>45615</v>
+      </c>
+      <c r="B9" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="C9" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="D9" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="E9" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="F9" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="G9" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="H9" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="I9" s="61" t="s">
+        <v>452</v>
+      </c>
+      <c r="J9" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="K9" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="L9" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="M9" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+    </row>
+    <row r="10" spans="1:26" ht="40.200000000000003" thickBot="1">
+      <c r="A10" s="66"/>
+      <c r="B10" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="92" t="s">
+        <v>453</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="44" t="s">
+      <c r="F10" s="67" t="s">
+        <v>454</v>
+      </c>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="42" t="s">
+      <c r="I10" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="M9" s="45" t="s">
+      <c r="J10" s="67"/>
+      <c r="K10" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" ht="39.6">
-      <c r="A10" s="46"/>
-      <c r="B10" s="39" t="s">
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+    </row>
+    <row r="11" spans="1:26" ht="132.6" thickBot="1">
+      <c r="A11" s="66"/>
+      <c r="B11" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="41" t="s">
+      <c r="D11" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F11" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42" t="s">
+      <c r="G11" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H11" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="I11" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="44" t="s">
+      <c r="J11" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="42" t="s">
+      <c r="K11" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+    </row>
+    <row r="12" spans="1:26" ht="40.200000000000003" thickBot="1">
+      <c r="A12" s="66"/>
+      <c r="B12" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="45" t="s">
+      <c r="J12" s="67"/>
+      <c r="K12" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" ht="132">
-      <c r="A11" s="46"/>
-      <c r="B11" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="39" t="s">
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+    </row>
+    <row r="13" spans="1:26" ht="119.4" thickBot="1">
+      <c r="A13" s="66"/>
+      <c r="B13" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="42" t="s">
+      <c r="E13" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H13" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+    </row>
+    <row r="14" spans="1:26" ht="132.6" thickBot="1">
+      <c r="A14" s="66"/>
+      <c r="B14" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="47" t="s">
+      <c r="D14" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H14" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+    </row>
+    <row r="15" spans="1:26" ht="119.4" thickBot="1">
+      <c r="A15" s="66"/>
+      <c r="B15" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H15" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="93" t="s">
+        <v>455</v>
+      </c>
+      <c r="L15" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+    </row>
+    <row r="16" spans="1:26" ht="119.4" thickBot="1">
+      <c r="A16" s="66"/>
+      <c r="B16" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H16" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="67" t="s">
+        <v>456</v>
+      </c>
+      <c r="L16" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+    </row>
+    <row r="17" spans="1:26" ht="106.2" thickBot="1">
+      <c r="A17" s="73">
+        <v>45617</v>
+      </c>
+      <c r="B17" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H17" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="L17" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+    </row>
+    <row r="18" spans="1:26" ht="14.4" thickBot="1">
+      <c r="A18" s="66"/>
+      <c r="B18" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+    </row>
+    <row r="19" spans="1:26" ht="409.6" thickBot="1">
+      <c r="A19" s="66"/>
+      <c r="B19" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H19" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="67" t="s">
+        <v>457</v>
+      </c>
+      <c r="J19" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+    </row>
+    <row r="20" spans="1:26" ht="53.4" thickBot="1">
+      <c r="A20" s="66"/>
+      <c r="B20" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="42" t="s">
+      <c r="H20" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="M11" s="45" t="s">
+      <c r="J20" s="67"/>
+      <c r="K20" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="1:18" ht="39.6">
-      <c r="A12" s="46"/>
-      <c r="B12" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="42"/>
-      <c r="K12" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="42" t="s">
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+    </row>
+    <row r="21" spans="1:26" ht="53.4" thickBot="1">
+      <c r="A21" s="66"/>
+      <c r="B21" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="J21" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="L21" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+    </row>
+    <row r="22" spans="1:26" ht="66.599999999999994" thickBot="1">
+      <c r="A22" s="66"/>
+      <c r="B22" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H22" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+    </row>
+    <row r="23" spans="1:26" ht="93" thickBot="1">
+      <c r="A23" s="66"/>
+      <c r="B23" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H23" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="J23" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="L23" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+    </row>
+    <row r="24" spans="1:26" ht="53.4" thickBot="1">
+      <c r="A24" s="66"/>
+      <c r="B24" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="67" t="s">
+        <v>458</v>
+      </c>
+      <c r="G24" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="M12" s="45" t="s">
+      <c r="J24" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="L24" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:18" ht="118.8">
-      <c r="A13" s="46"/>
-      <c r="B13" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="L13" s="42" t="s">
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+    </row>
+    <row r="25" spans="1:26" ht="93" thickBot="1">
+      <c r="A25" s="66"/>
+      <c r="B25" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H25" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="I25" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="J25" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="L25" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
+    </row>
+    <row r="26" spans="1:26" ht="170.4" customHeight="1" thickBot="1">
+      <c r="A26" s="66"/>
+      <c r="B26" s="92" t="s">
+        <v>295</v>
+      </c>
+      <c r="C26" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H26" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="I26" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="J26" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="K26" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="L26" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M26" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+    </row>
+    <row r="27" spans="1:26" ht="14.4" thickBot="1">
+      <c r="A27" s="66"/>
+      <c r="B27" s="92" t="s">
+        <v>295</v>
+      </c>
+      <c r="C27" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="67"/>
+      <c r="G27" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+    </row>
+    <row r="28" spans="1:26" ht="14.4" thickBot="1">
+      <c r="A28" s="66"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="67"/>
+      <c r="E28" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+    </row>
+    <row r="29" spans="1:26" ht="79.8" thickBot="1">
+      <c r="A29" s="66"/>
+      <c r="B29" s="92" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="67"/>
+      <c r="D29" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N29" s="94"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
+    </row>
+    <row r="30" spans="1:26" ht="238.8" thickBot="1">
+      <c r="A30" s="95"/>
+      <c r="B30" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="H30" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="I30" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J30" s="99" t="s">
+        <v>149</v>
+      </c>
+      <c r="K30" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="L30" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M30" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="101"/>
+      <c r="R30" s="101"/>
+      <c r="S30" s="101"/>
+      <c r="T30" s="101"/>
+      <c r="U30" s="101"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="101"/>
+      <c r="X30" s="101"/>
+      <c r="Y30" s="101"/>
+      <c r="Z30" s="101"/>
+    </row>
+    <row r="31" spans="1:26" ht="53.4" thickBot="1">
+      <c r="A31" s="102"/>
+      <c r="B31" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="67" t="s">
+        <v>459</v>
+      </c>
+      <c r="G31" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="I31" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="45" t="s">
+      <c r="J31" s="99" t="s">
+        <v>153</v>
+      </c>
+      <c r="K31" s="102" t="s">
+        <v>154</v>
+      </c>
+      <c r="L31" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M31" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" ht="132">
-      <c r="A14" s="46"/>
-      <c r="B14" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="41" t="s">
+      <c r="N31" s="101"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="101"/>
+      <c r="R31" s="101"/>
+      <c r="S31" s="101"/>
+      <c r="T31" s="101"/>
+      <c r="U31" s="101"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="101"/>
+      <c r="X31" s="101"/>
+      <c r="Y31" s="101"/>
+      <c r="Z31" s="101"/>
+    </row>
+    <row r="32" spans="1:26" ht="67.2" thickBot="1">
+      <c r="A32" s="102"/>
+      <c r="B32" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="H32" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="I32" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="J32" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="K32" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="L32" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M32" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="N32" s="101"/>
+      <c r="O32" s="101"/>
+      <c r="P32" s="101"/>
+      <c r="Q32" s="101"/>
+      <c r="R32" s="101"/>
+      <c r="S32" s="101"/>
+      <c r="T32" s="101"/>
+      <c r="U32" s="101"/>
+      <c r="V32" s="101"/>
+      <c r="W32" s="101"/>
+      <c r="X32" s="101"/>
+      <c r="Y32" s="101"/>
+      <c r="Z32" s="101"/>
+    </row>
+    <row r="33" spans="1:26" ht="133.19999999999999" thickBot="1">
+      <c r="A33" s="102"/>
+      <c r="B33" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="F33" s="71" t="s">
+        <v>460</v>
+      </c>
+      <c r="G33" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="H33" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="I33" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M33" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="N33" s="101"/>
+      <c r="O33" s="101"/>
+      <c r="P33" s="101"/>
+      <c r="Q33" s="101"/>
+      <c r="R33" s="101"/>
+      <c r="S33" s="101"/>
+      <c r="T33" s="101"/>
+      <c r="U33" s="101"/>
+      <c r="V33" s="101"/>
+      <c r="W33" s="101"/>
+      <c r="X33" s="101"/>
+      <c r="Y33" s="101"/>
+      <c r="Z33" s="101"/>
+    </row>
+    <row r="34" spans="1:26" ht="133.19999999999999" thickBot="1">
+      <c r="A34" s="102"/>
+      <c r="B34" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" s="71" t="s">
+        <v>461</v>
+      </c>
+      <c r="G34" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="H34" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="I34" s="71" t="s">
+        <v>462</v>
+      </c>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M34" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="N34" s="101"/>
+      <c r="O34" s="101"/>
+      <c r="P34" s="101"/>
+      <c r="Q34" s="101"/>
+      <c r="R34" s="101"/>
+      <c r="S34" s="101"/>
+      <c r="T34" s="101"/>
+      <c r="U34" s="101"/>
+      <c r="V34" s="101"/>
+      <c r="W34" s="101"/>
+      <c r="X34" s="101"/>
+      <c r="Y34" s="101"/>
+      <c r="Z34" s="101"/>
+    </row>
+    <row r="35" spans="1:26" ht="80.400000000000006" thickBot="1">
+      <c r="A35" s="102"/>
+      <c r="B35" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="42" t="s">
+      <c r="D35" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="F35" s="71" t="s">
+        <v>463</v>
+      </c>
+      <c r="G35" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="I35" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M14" s="45" t="s">
+      <c r="J35" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="K35" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="L35" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M35" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" ht="73.2" customHeight="1">
-      <c r="A15" s="46"/>
-      <c r="B15" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="K15" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="L15" s="42" t="s">
+      <c r="N35" s="101"/>
+      <c r="O35" s="101"/>
+      <c r="P35" s="101"/>
+      <c r="Q35" s="101"/>
+      <c r="R35" s="101"/>
+      <c r="S35" s="101"/>
+      <c r="T35" s="101"/>
+      <c r="U35" s="101"/>
+      <c r="V35" s="101"/>
+      <c r="W35" s="101"/>
+      <c r="X35" s="101"/>
+      <c r="Y35" s="101"/>
+      <c r="Z35" s="101"/>
+    </row>
+    <row r="36" spans="1:26" ht="80.400000000000006" thickBot="1">
+      <c r="A36" s="102"/>
+      <c r="B36" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="96" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" s="71" t="s">
+        <v>463</v>
+      </c>
+      <c r="G36" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="I36" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M15" s="45" t="s">
+      <c r="J36" s="71"/>
+      <c r="K36" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="L36" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M36" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" ht="118.8">
-      <c r="A16" s="46"/>
-      <c r="B16" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="I16" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="J16" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="K16" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="L16" s="42" t="s">
+      <c r="N36" s="101"/>
+      <c r="O36" s="101"/>
+      <c r="P36" s="101"/>
+      <c r="Q36" s="101"/>
+      <c r="R36" s="101"/>
+      <c r="S36" s="101"/>
+      <c r="T36" s="101"/>
+      <c r="U36" s="101"/>
+      <c r="V36" s="101"/>
+      <c r="W36" s="101"/>
+      <c r="X36" s="101"/>
+      <c r="Y36" s="101"/>
+      <c r="Z36" s="101"/>
+    </row>
+    <row r="37" spans="1:26" ht="93.6" thickBot="1">
+      <c r="A37" s="102"/>
+      <c r="B37" s="96" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="96" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="F37" s="71" t="s">
+        <v>464</v>
+      </c>
+      <c r="G37" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="H37" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="I37" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M16" s="45" t="s">
+      <c r="J37" s="71"/>
+      <c r="K37" s="71" t="s">
+        <v>465</v>
+      </c>
+      <c r="L37" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M37" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="1:18" ht="52.8">
-      <c r="A17" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="I17" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="J17" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="K17" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="42" t="s">
+      <c r="N37" s="101"/>
+      <c r="O37" s="101"/>
+      <c r="P37" s="101"/>
+      <c r="Q37" s="101"/>
+      <c r="R37" s="101"/>
+      <c r="S37" s="101"/>
+      <c r="T37" s="101"/>
+      <c r="U37" s="101"/>
+      <c r="V37" s="101"/>
+      <c r="W37" s="101"/>
+      <c r="X37" s="101"/>
+      <c r="Y37" s="101"/>
+      <c r="Z37" s="101"/>
+    </row>
+    <row r="38" spans="1:26" ht="93.6" thickBot="1">
+      <c r="A38" s="102"/>
+      <c r="B38" s="96" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="96" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" s="71" t="s">
+        <v>466</v>
+      </c>
+      <c r="G38" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="H38" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="I38" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="M17" s="45" t="s">
+      <c r="J38" s="99" t="s">
+        <v>177</v>
+      </c>
+      <c r="K38" s="71" t="s">
+        <v>467</v>
+      </c>
+      <c r="L38" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="1:18" ht="13.8">
-      <c r="A18" s="46"/>
-      <c r="B18" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="51" t="s">
+      <c r="N38" s="101"/>
+      <c r="O38" s="101"/>
+      <c r="P38" s="101"/>
+      <c r="Q38" s="101"/>
+      <c r="R38" s="101"/>
+      <c r="S38" s="101"/>
+      <c r="T38" s="101"/>
+      <c r="U38" s="101"/>
+      <c r="V38" s="101"/>
+      <c r="W38" s="101"/>
+      <c r="X38" s="101"/>
+      <c r="Y38" s="101"/>
+      <c r="Z38" s="101"/>
+    </row>
+    <row r="39" spans="1:26" ht="120" thickBot="1">
+      <c r="A39" s="102"/>
+      <c r="B39" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="96" t="s">
+        <v>174</v>
+      </c>
+      <c r="D39" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="G39" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="H39" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="I39" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="J39" s="99" t="s">
+        <v>181</v>
+      </c>
+      <c r="K39" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="L39" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M39" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="1:18" ht="66">
-      <c r="A19" s="46"/>
-      <c r="B19" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="I19" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="J19" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="M19" s="45" t="s">
+      <c r="N39" s="101"/>
+      <c r="O39" s="101"/>
+      <c r="P39" s="101"/>
+      <c r="Q39" s="101"/>
+      <c r="R39" s="101"/>
+      <c r="S39" s="101"/>
+      <c r="T39" s="101"/>
+      <c r="U39" s="101"/>
+      <c r="V39" s="101"/>
+      <c r="W39" s="101"/>
+      <c r="X39" s="101"/>
+      <c r="Y39" s="101"/>
+      <c r="Z39" s="101"/>
+    </row>
+    <row r="40" spans="1:26" ht="67.2" thickBot="1">
+      <c r="A40" s="102"/>
+      <c r="B40" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="F40" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="G40" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="I40" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="J40" s="99" t="s">
+        <v>187</v>
+      </c>
+      <c r="K40" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="L40" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M40" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="1:18" ht="52.8">
-      <c r="A20" s="46"/>
-      <c r="B20" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="42"/>
-      <c r="K20" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="45" t="s">
+      <c r="N40" s="101"/>
+      <c r="O40" s="101"/>
+      <c r="P40" s="101"/>
+      <c r="Q40" s="101"/>
+      <c r="R40" s="101"/>
+      <c r="S40" s="101"/>
+      <c r="T40" s="101"/>
+      <c r="U40" s="101"/>
+      <c r="V40" s="101"/>
+      <c r="W40" s="101"/>
+      <c r="X40" s="101"/>
+      <c r="Y40" s="101"/>
+      <c r="Z40" s="101"/>
+    </row>
+    <row r="41" spans="1:26" ht="93.6" thickBot="1">
+      <c r="A41" s="71"/>
+      <c r="B41" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="F41" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="G41" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="H41" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="I41" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="J41" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="K41" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="L41" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M41" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-    </row>
-    <row r="21" spans="1:18" ht="52.8">
-      <c r="A21" s="46"/>
-      <c r="B21" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="I21" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="J21" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="K21" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="L21" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="M21" s="45" t="s">
+      <c r="N41" s="101"/>
+      <c r="O41" s="101"/>
+      <c r="P41" s="101"/>
+      <c r="Q41" s="101"/>
+      <c r="R41" s="101"/>
+      <c r="S41" s="101"/>
+      <c r="T41" s="101"/>
+      <c r="U41" s="101"/>
+      <c r="V41" s="101"/>
+      <c r="W41" s="101"/>
+      <c r="X41" s="101"/>
+      <c r="Y41" s="101"/>
+      <c r="Z41" s="101"/>
+    </row>
+    <row r="42" spans="1:26" ht="66.599999999999994" thickBot="1">
+      <c r="A42" s="73">
+        <v>45620</v>
+      </c>
+      <c r="B42" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-    </row>
-    <row r="22" spans="1:18" ht="66">
-      <c r="A22" s="46"/>
-      <c r="B22" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="I22" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="J22" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="K22" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="L22" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="M22" s="45" t="s">
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="36"/>
+      <c r="Z42" s="36"/>
+    </row>
+    <row r="43" spans="1:26" ht="132.6" thickBot="1">
+      <c r="A43" s="66"/>
+      <c r="B43" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="C43" s="92" t="s">
+        <v>337</v>
+      </c>
+      <c r="D43" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="F43" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="G43" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H43" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="I43" s="67" t="s">
+        <v>468</v>
+      </c>
+      <c r="J43" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="K43" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="L43" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-    </row>
-    <row r="23" spans="1:18" ht="92.4">
-      <c r="A23" s="46"/>
-      <c r="B23" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="I23" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="J23" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="K23" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="L23" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="M23" s="45" t="s">
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="36"/>
+      <c r="Y43" s="36"/>
+      <c r="Z43" s="36"/>
+    </row>
+    <row r="44" spans="1:26" ht="198.6" thickBot="1">
+      <c r="A44" s="66"/>
+      <c r="B44" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" s="92" t="s">
+        <v>469</v>
+      </c>
+      <c r="D44" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="69" t="s">
+        <v>201</v>
+      </c>
+      <c r="F44" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="G44" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H44" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="I44" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="J44" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="K44" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="L44" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M44" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-    </row>
-    <row r="24" spans="1:18" ht="52.8">
-      <c r="A24" s="46"/>
-      <c r="B24" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="H24" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="I24" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="K24" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="L24" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="M24" s="45" t="s">
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="36"/>
+      <c r="Y44" s="36"/>
+      <c r="Z44" s="36"/>
+    </row>
+    <row r="45" spans="1:26" ht="119.4" thickBot="1">
+      <c r="A45" s="66"/>
+      <c r="B45" s="92" t="s">
+        <v>263</v>
+      </c>
+      <c r="C45" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="F45" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="G45" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H45" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="I45" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="J45" s="76" t="s">
+        <v>212</v>
+      </c>
+      <c r="K45" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="L45" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M45" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-    </row>
-    <row r="25" spans="1:18" ht="92.4">
-      <c r="A25" s="46"/>
-      <c r="B25" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="I25" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="J25" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="K25" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="L25" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="M25" s="45" t="s">
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="36"/>
+      <c r="U45" s="36"/>
+      <c r="V45" s="36"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="36"/>
+      <c r="Y45" s="36"/>
+      <c r="Z45" s="36"/>
+    </row>
+    <row r="46" spans="1:26" ht="119.4" thickBot="1">
+      <c r="A46" s="66"/>
+      <c r="B46" s="92" t="s">
+        <v>263</v>
+      </c>
+      <c r="C46" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="69" t="s">
+        <v>214</v>
+      </c>
+      <c r="F46" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="G46" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H46" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="I46" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="J46" s="76" t="s">
+        <v>217</v>
+      </c>
+      <c r="K46" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="L46" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M46" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-    </row>
-    <row r="26" spans="1:18" ht="52.8">
-      <c r="A26" s="46"/>
-      <c r="B26" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="G26" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="I26" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="J26" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="K26" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="L26" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="M26" s="45" t="s">
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="36"/>
+      <c r="U46" s="36"/>
+      <c r="V46" s="36"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="36"/>
+      <c r="Y46" s="36"/>
+      <c r="Z46" s="36"/>
+    </row>
+    <row r="47" spans="1:26" ht="106.2" thickBot="1">
+      <c r="A47" s="73">
+        <v>45628</v>
+      </c>
+      <c r="B47" s="92" t="s">
+        <v>263</v>
+      </c>
+      <c r="C47" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="D47" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="F47" s="67" t="s">
+        <v>265</v>
+      </c>
+      <c r="G47" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H47" s="67" t="s">
+        <v>266</v>
+      </c>
+      <c r="I47" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67" t="s">
+        <v>268</v>
+      </c>
+      <c r="L47" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M47" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-    </row>
-    <row r="27" spans="1:18" ht="13.8">
-      <c r="A27" s="46"/>
-      <c r="B27" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-    </row>
-    <row r="28" spans="1:18" ht="13.8">
-      <c r="A28" s="46"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-    </row>
-    <row r="29" spans="1:18" ht="13.8">
-      <c r="A29" s="46"/>
-      <c r="B29" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-    </row>
-    <row r="30" spans="1:18" ht="66">
-      <c r="A30" s="53"/>
-      <c r="B30" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="C30" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="F30" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="G30" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="I30" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="J30" s="56" t="s">
-        <v>161</v>
-      </c>
-      <c r="K30" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="L30" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="M30" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-    </row>
-    <row r="31" spans="1:18" ht="52.8">
-      <c r="A31" s="53"/>
-      <c r="B31" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="C31" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="F31" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="G31" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="H31" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="I31" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="J31" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="K31" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="L31" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="M31" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-    </row>
-    <row r="32" spans="1:18" ht="66">
-      <c r="A32" s="53"/>
-      <c r="B32" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="F32" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="G32" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="I32" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="J32" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="K32" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="L32" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="M32" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-    </row>
-    <row r="33" spans="1:18" ht="132">
-      <c r="A33" s="53"/>
-      <c r="B33" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="F33" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="G33" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="I33" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="M33" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-    </row>
-    <row r="34" spans="1:18" ht="72.599999999999994" customHeight="1">
-      <c r="A34" s="53"/>
-      <c r="B34" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="F34" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="G34" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="H34" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="I34" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="M34" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-    </row>
-    <row r="35" spans="1:18" ht="79.2">
-      <c r="A35" s="53"/>
-      <c r="B35" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="F35" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="G35" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="H35" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="I35" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="J35" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="K35" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="L35" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="M35" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-    </row>
-    <row r="36" spans="1:18" ht="79.2">
-      <c r="A36" s="53"/>
-      <c r="B36" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="F36" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="G36" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="H36" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="I36" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="J36" s="53"/>
-      <c r="K36" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="L36" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="M36" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-    </row>
-    <row r="37" spans="1:18" ht="92.4">
-      <c r="A37" s="53"/>
-      <c r="B37" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="C37" s="54" t="s">
-        <v>189</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="F37" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="G37" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="I37" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="J37" s="53"/>
-      <c r="K37" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="L37" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="M37" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-    </row>
-    <row r="38" spans="1:18" ht="92.4">
-      <c r="A38" s="53"/>
-      <c r="B38" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="C38" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="D38" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="F38" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="G38" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="H38" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="I38" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="J38" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="K38" s="55" t="s">
-        <v>199</v>
-      </c>
-      <c r="L38" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="M38" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-    </row>
-    <row r="39" spans="1:18" ht="118.8">
-      <c r="A39" s="53"/>
-      <c r="B39" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="C39" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="F39" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="G39" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="H39" s="55" t="s">
-        <v>202</v>
-      </c>
-      <c r="I39" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="J39" s="60" t="s">
-        <v>203</v>
-      </c>
-      <c r="K39" s="55" t="s">
-        <v>204</v>
-      </c>
-      <c r="L39" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="M39" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-    </row>
-    <row r="40" spans="1:18" ht="66">
-      <c r="A40" s="53"/>
-      <c r="B40" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="F40" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="G40" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="H40" s="55" t="s">
-        <v>207</v>
-      </c>
-      <c r="I40" s="55" t="s">
-        <v>208</v>
-      </c>
-      <c r="J40" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="K40" s="55" t="s">
-        <v>210</v>
-      </c>
-      <c r="L40" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="M40" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-    </row>
-    <row r="41" spans="1:18" ht="92.4">
-      <c r="A41" s="53"/>
-      <c r="B41" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="C41" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="F41" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="G41" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="H41" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="I41" s="55" t="s">
-        <v>208</v>
-      </c>
-      <c r="J41" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="K41" s="55" t="s">
-        <v>215</v>
-      </c>
-      <c r="L41" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="M41" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-    </row>
-    <row r="42" spans="1:18" ht="13.8">
-      <c r="A42" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="B42" s="52" t="s">
-        <v>217</v>
-      </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="41"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-    </row>
-    <row r="43" spans="1:18" ht="132">
-      <c r="A43" s="46"/>
-      <c r="B43" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="C43" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="D43" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="F43" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="G43" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="H43" s="42" t="s">
-        <v>222</v>
-      </c>
-      <c r="I43" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="J43" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="K43" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="L43" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="M43" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="N43" s="50"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-    </row>
-    <row r="44" spans="1:18" ht="142.80000000000001" customHeight="1">
-      <c r="A44" s="46"/>
-      <c r="B44" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="D44" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="F44" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="G44" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="H44" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="I44" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="J44" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="K44" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="L44" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="M44" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="N44" s="50"/>
-      <c r="O44" s="50"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-    </row>
-    <row r="45" spans="1:18" ht="118.8">
-      <c r="A45" s="46"/>
-      <c r="B45" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="C45" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="D45" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E45" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="F45" s="42" t="s">
-        <v>236</v>
-      </c>
-      <c r="G45" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="H45" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="I45" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="J45" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="K45" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="L45" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="M45" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="N45" s="50"/>
-      <c r="O45" s="50"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-    </row>
-    <row r="46" spans="1:18" ht="119.4" thickBot="1">
-      <c r="A46" s="46"/>
-      <c r="B46" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="C46" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="D46" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="F46" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="G46" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="H46" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="I46" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="J46" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="K46" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="L46" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="M46" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="N46" s="50"/>
-      <c r="O46" s="50"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-    </row>
-    <row r="47" spans="1:18" ht="119.4" thickBot="1">
-      <c r="A47" s="61"/>
-      <c r="B47" s="62" t="s">
-        <v>290</v>
-      </c>
-      <c r="C47" s="62" t="s">
-        <v>234</v>
-      </c>
-      <c r="D47" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E47" s="63" t="s">
-        <v>235</v>
-      </c>
-      <c r="F47" s="61" t="s">
-        <v>236</v>
-      </c>
-      <c r="G47" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="H47" s="61" t="s">
-        <v>237</v>
-      </c>
-      <c r="I47" s="61" t="s">
-        <v>238</v>
-      </c>
-      <c r="J47" s="65" t="s">
-        <v>239</v>
-      </c>
-      <c r="K47" s="61" t="s">
-        <v>240</v>
-      </c>
-      <c r="L47" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="M47" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="N47" s="61"/>
-      <c r="O47" s="61"/>
-      <c r="P47" s="37"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="36"/>
       <c r="Q47" s="36"/>
       <c r="R47" s="36"/>
-    </row>
-    <row r="48" spans="1:18" ht="119.4" thickBot="1">
-      <c r="A48" s="61"/>
-      <c r="B48" s="62" t="s">
-        <v>290</v>
-      </c>
-      <c r="C48" s="62" t="s">
-        <v>234</v>
-      </c>
-      <c r="D48" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" s="63" t="s">
-        <v>241</v>
-      </c>
-      <c r="F48" s="61" t="s">
-        <v>242</v>
-      </c>
-      <c r="G48" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="H48" s="61" t="s">
-        <v>243</v>
-      </c>
-      <c r="I48" s="61" t="s">
-        <v>238</v>
-      </c>
-      <c r="J48" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="K48" s="61" t="s">
-        <v>245</v>
-      </c>
-      <c r="L48" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="M48" s="45" t="s">
+      <c r="S47" s="36"/>
+      <c r="T47" s="36"/>
+      <c r="U47" s="36"/>
+      <c r="V47" s="36"/>
+      <c r="W47" s="36"/>
+      <c r="X47" s="36"/>
+      <c r="Y47" s="36"/>
+      <c r="Z47" s="36"/>
+    </row>
+    <row r="48" spans="1:26" ht="40.200000000000003" thickBot="1">
+      <c r="A48" s="66"/>
+      <c r="B48" s="92" t="s">
+        <v>263</v>
+      </c>
+      <c r="C48" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="D48" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="F48" s="67" t="s">
+        <v>269</v>
+      </c>
+      <c r="G48" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="H48" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="I48" s="67"/>
+      <c r="J48" s="76" t="s">
+        <v>271</v>
+      </c>
+      <c r="K48" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="L48" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M48" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N48" s="61"/>
-      <c r="O48" s="61"/>
-      <c r="P48" s="37"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
       <c r="Q48" s="36"/>
       <c r="R48" s="36"/>
-    </row>
-    <row r="49" spans="1:18" ht="106.2" thickBot="1">
-      <c r="A49" s="67">
-        <v>45334</v>
-      </c>
-      <c r="B49" s="62" t="s">
-        <v>290</v>
-      </c>
-      <c r="C49" s="62" t="s">
-        <v>234</v>
-      </c>
-      <c r="D49" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E49" s="63" t="s">
-        <v>246</v>
-      </c>
-      <c r="F49" s="61" t="s">
-        <v>292</v>
-      </c>
-      <c r="G49" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="H49" s="61" t="s">
-        <v>293</v>
-      </c>
-      <c r="I49" s="61" t="s">
-        <v>294</v>
-      </c>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61" t="s">
-        <v>295</v>
-      </c>
-      <c r="L49" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="M49" s="45" t="s">
+      <c r="S48" s="36"/>
+      <c r="T48" s="36"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="36"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="36"/>
+      <c r="Y48" s="36"/>
+      <c r="Z48" s="36"/>
+    </row>
+    <row r="49" spans="1:26" ht="251.4" thickBot="1">
+      <c r="A49" s="66"/>
+      <c r="B49" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="C49" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="D49" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="F49" s="67" t="s">
+        <v>275</v>
+      </c>
+      <c r="G49" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H49" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="I49" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="J49" s="67"/>
+      <c r="K49" s="67" t="s">
+        <v>278</v>
+      </c>
+      <c r="L49" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M49" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N49" s="61"/>
-      <c r="O49" s="61"/>
-      <c r="P49" s="37"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
       <c r="Q49" s="36"/>
       <c r="R49" s="36"/>
-    </row>
-    <row r="50" spans="1:18" ht="40.200000000000003" thickBot="1">
-      <c r="A50" s="61"/>
-      <c r="B50" s="62" t="s">
-        <v>290</v>
-      </c>
-      <c r="C50" s="62" t="s">
-        <v>234</v>
-      </c>
-      <c r="D50" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" s="63" t="s">
-        <v>247</v>
-      </c>
-      <c r="F50" s="61" t="s">
-        <v>296</v>
-      </c>
-      <c r="G50" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="H50" s="61" t="s">
-        <v>297</v>
-      </c>
-      <c r="I50" s="61"/>
-      <c r="J50" s="65" t="s">
-        <v>298</v>
-      </c>
-      <c r="K50" s="61" t="s">
-        <v>299</v>
-      </c>
-      <c r="L50" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="M50" s="45" t="s">
+      <c r="S49" s="36"/>
+      <c r="T49" s="36"/>
+      <c r="U49" s="36"/>
+      <c r="V49" s="36"/>
+      <c r="W49" s="36"/>
+      <c r="X49" s="36"/>
+      <c r="Y49" s="36"/>
+      <c r="Z49" s="36"/>
+    </row>
+    <row r="50" spans="1:26" ht="79.8" thickBot="1">
+      <c r="A50" s="66"/>
+      <c r="B50" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="C50" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="D50" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="F50" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="G50" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="H50" s="67" t="s">
+        <v>280</v>
+      </c>
+      <c r="I50" s="67"/>
+      <c r="J50" s="76" t="s">
+        <v>281</v>
+      </c>
+      <c r="K50" s="67" t="s">
+        <v>282</v>
+      </c>
+      <c r="L50" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M50" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N50" s="61"/>
-      <c r="O50" s="61"/>
-      <c r="P50" s="37"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="36"/>
       <c r="Q50" s="36"/>
       <c r="R50" s="36"/>
-    </row>
-    <row r="51" spans="1:18" ht="113.4" customHeight="1" thickBot="1">
-      <c r="A51" s="61"/>
-      <c r="B51" s="62" t="s">
-        <v>300</v>
-      </c>
-      <c r="C51" s="62" t="s">
-        <v>301</v>
-      </c>
-      <c r="D51" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="63" t="s">
-        <v>248</v>
-      </c>
-      <c r="F51" s="61" t="s">
-        <v>302</v>
-      </c>
-      <c r="G51" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="H51" s="61" t="s">
-        <v>303</v>
-      </c>
-      <c r="I51" s="61" t="s">
-        <v>304</v>
-      </c>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61" t="s">
-        <v>305</v>
-      </c>
-      <c r="L51" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="M51" s="45" t="s">
+      <c r="S50" s="36"/>
+      <c r="T50" s="36"/>
+      <c r="U50" s="36"/>
+      <c r="V50" s="36"/>
+      <c r="W50" s="36"/>
+      <c r="X50" s="36"/>
+      <c r="Y50" s="36"/>
+      <c r="Z50" s="36"/>
+    </row>
+    <row r="51" spans="1:26" ht="79.8" thickBot="1">
+      <c r="A51" s="66"/>
+      <c r="B51" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="C51" s="92" t="s">
+        <v>283</v>
+      </c>
+      <c r="D51" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="69" t="s">
+        <v>223</v>
+      </c>
+      <c r="F51" s="67" t="s">
+        <v>284</v>
+      </c>
+      <c r="G51" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H51" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="I51" s="67" t="s">
+        <v>286</v>
+      </c>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67" t="s">
+        <v>287</v>
+      </c>
+      <c r="L51" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M51" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N51" s="61"/>
-      <c r="O51" s="61"/>
-      <c r="P51" s="37"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
       <c r="Q51" s="36"/>
       <c r="R51" s="36"/>
-    </row>
-    <row r="52" spans="1:18" ht="79.8" thickBot="1">
-      <c r="A52" s="61"/>
-      <c r="B52" s="62" t="s">
-        <v>300</v>
-      </c>
-      <c r="C52" s="62" t="s">
-        <v>301</v>
-      </c>
-      <c r="D52" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E52" s="63" t="s">
-        <v>249</v>
-      </c>
-      <c r="F52" s="61" t="s">
-        <v>306</v>
-      </c>
-      <c r="G52" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="H52" s="61" t="s">
-        <v>307</v>
-      </c>
-      <c r="I52" s="61"/>
-      <c r="J52" s="65" t="s">
-        <v>308</v>
-      </c>
-      <c r="K52" s="61" t="s">
-        <v>309</v>
-      </c>
-      <c r="L52" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="M52" s="45" t="s">
+      <c r="S51" s="36"/>
+      <c r="T51" s="36"/>
+      <c r="U51" s="36"/>
+      <c r="V51" s="36"/>
+      <c r="W51" s="36"/>
+      <c r="X51" s="36"/>
+      <c r="Y51" s="36"/>
+      <c r="Z51" s="36"/>
+    </row>
+    <row r="52" spans="1:26" ht="66.599999999999994" thickBot="1">
+      <c r="A52" s="66"/>
+      <c r="B52" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="C52" s="92" t="s">
+        <v>283</v>
+      </c>
+      <c r="D52" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="F52" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="G52" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="H52" s="67" t="s">
+        <v>289</v>
+      </c>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="L52" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M52" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N52" s="61"/>
-      <c r="O52" s="61"/>
-      <c r="P52" s="37"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
       <c r="Q52" s="36"/>
       <c r="R52" s="36"/>
-    </row>
-    <row r="53" spans="1:18" ht="79.8" thickBot="1">
-      <c r="A53" s="61"/>
-      <c r="B53" s="62" t="s">
-        <v>300</v>
-      </c>
-      <c r="C53" s="62" t="s">
-        <v>310</v>
-      </c>
-      <c r="D53" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" s="63" t="s">
-        <v>250</v>
-      </c>
-      <c r="F53" s="61" t="s">
-        <v>311</v>
-      </c>
-      <c r="G53" s="64" t="s">
+      <c r="S52" s="36"/>
+      <c r="T52" s="36"/>
+      <c r="U52" s="36"/>
+      <c r="V52" s="36"/>
+      <c r="W52" s="36"/>
+      <c r="X52" s="36"/>
+      <c r="Y52" s="36"/>
+      <c r="Z52" s="36"/>
+    </row>
+    <row r="53" spans="1:26" ht="79.8" thickBot="1">
+      <c r="A53" s="66"/>
+      <c r="B53" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" s="92" t="s">
         <v>291</v>
       </c>
-      <c r="H53" s="61" t="s">
-        <v>312</v>
-      </c>
-      <c r="I53" s="61" t="s">
-        <v>313</v>
-      </c>
-      <c r="J53" s="61"/>
-      <c r="K53" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="L53" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="M53" s="45" t="s">
+      <c r="D53" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="F53" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="G53" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H53" s="67" t="s">
+        <v>293</v>
+      </c>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67" t="s">
+        <v>294</v>
+      </c>
+      <c r="L53" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M53" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N53" s="61"/>
-      <c r="O53" s="61"/>
-      <c r="P53" s="37"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="36"/>
       <c r="Q53" s="36"/>
       <c r="R53" s="36"/>
-    </row>
-    <row r="54" spans="1:18" ht="66.599999999999994" thickBot="1">
-      <c r="A54" s="61"/>
-      <c r="B54" s="62" t="s">
+      <c r="S53" s="36"/>
+      <c r="T53" s="36"/>
+      <c r="U53" s="36"/>
+      <c r="V53" s="36"/>
+      <c r="W53" s="36"/>
+      <c r="X53" s="36"/>
+      <c r="Y53" s="36"/>
+      <c r="Z53" s="36"/>
+    </row>
+    <row r="54" spans="1:26" ht="343.8" thickBot="1">
+      <c r="A54" s="66"/>
+      <c r="B54" s="92" t="s">
+        <v>295</v>
+      </c>
+      <c r="C54" s="92" t="s">
+        <v>296</v>
+      </c>
+      <c r="D54" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="69" t="s">
+        <v>226</v>
+      </c>
+      <c r="F54" s="67" t="s">
+        <v>297</v>
+      </c>
+      <c r="G54" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H54" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="I54" s="67" t="s">
+        <v>299</v>
+      </c>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="C54" s="62" t="s">
-        <v>310</v>
-      </c>
-      <c r="D54" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E54" s="63" t="s">
-        <v>251</v>
-      </c>
-      <c r="F54" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="G54" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="H54" s="61" t="s">
-        <v>316</v>
-      </c>
-      <c r="I54" s="61"/>
-      <c r="J54" s="61"/>
-      <c r="K54" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="L54" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="M54" s="45" t="s">
+      <c r="L54" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M54" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N54" s="61"/>
-      <c r="O54" s="61"/>
-      <c r="P54" s="37"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="36"/>
       <c r="Q54" s="36"/>
       <c r="R54" s="36"/>
-    </row>
-    <row r="55" spans="1:18" ht="79.8" thickBot="1">
-      <c r="A55" s="61"/>
-      <c r="B55" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="C55" s="62" t="s">
-        <v>318</v>
-      </c>
-      <c r="D55" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E55" s="63" t="s">
-        <v>252</v>
-      </c>
-      <c r="F55" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="G55" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="H55" s="61" t="s">
-        <v>320</v>
-      </c>
-      <c r="I55" s="61"/>
-      <c r="J55" s="61"/>
-      <c r="K55" s="61" t="s">
-        <v>321</v>
-      </c>
-      <c r="L55" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="M55" s="45" t="s">
+      <c r="S54" s="36"/>
+      <c r="T54" s="36"/>
+      <c r="U54" s="36"/>
+      <c r="V54" s="36"/>
+      <c r="W54" s="36"/>
+      <c r="X54" s="36"/>
+      <c r="Y54" s="36"/>
+      <c r="Z54" s="36"/>
+    </row>
+    <row r="55" spans="1:26" ht="53.4" thickBot="1">
+      <c r="A55" s="66"/>
+      <c r="B55" s="92" t="s">
+        <v>295</v>
+      </c>
+      <c r="C55" s="92" t="s">
+        <v>296</v>
+      </c>
+      <c r="D55" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="F55" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="G55" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H55" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="I55" s="67" t="s">
+        <v>303</v>
+      </c>
+      <c r="J55" s="67"/>
+      <c r="K55" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="L55" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M55" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N55" s="61"/>
-      <c r="O55" s="61"/>
-      <c r="P55" s="37"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
       <c r="Q55" s="36"/>
       <c r="R55" s="36"/>
-    </row>
-    <row r="56" spans="1:18" ht="113.4" customHeight="1" thickBot="1">
-      <c r="A56" s="61"/>
-      <c r="B56" s="62" t="s">
-        <v>322</v>
-      </c>
-      <c r="C56" s="62" t="s">
-        <v>323</v>
-      </c>
-      <c r="D56" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E56" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="F56" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="G56" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="H56" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="I56" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="J56" s="61"/>
-      <c r="K56" s="61" t="s">
-        <v>327</v>
-      </c>
-      <c r="L56" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="M56" s="45" t="s">
+      <c r="S55" s="36"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="36"/>
+      <c r="V55" s="36"/>
+      <c r="W55" s="36"/>
+      <c r="X55" s="36"/>
+      <c r="Y55" s="36"/>
+      <c r="Z55" s="36"/>
+    </row>
+    <row r="56" spans="1:26" ht="172.2" thickBot="1">
+      <c r="A56" s="66"/>
+      <c r="B56" s="92" t="s">
+        <v>295</v>
+      </c>
+      <c r="C56" s="92" t="s">
+        <v>305</v>
+      </c>
+      <c r="D56" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="F56" s="67" t="s">
+        <v>306</v>
+      </c>
+      <c r="G56" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H56" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="I56" s="67" t="s">
+        <v>372</v>
+      </c>
+      <c r="J56" s="67"/>
+      <c r="K56" s="67" t="s">
+        <v>308</v>
+      </c>
+      <c r="L56" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M56" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N56" s="61"/>
-      <c r="O56" s="61"/>
-      <c r="P56" s="37"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
       <c r="Q56" s="36"/>
       <c r="R56" s="36"/>
-    </row>
-    <row r="57" spans="1:18" ht="53.4" thickBot="1">
-      <c r="A57" s="61"/>
-      <c r="B57" s="62" t="s">
-        <v>322</v>
-      </c>
-      <c r="C57" s="62" t="s">
-        <v>323</v>
-      </c>
-      <c r="D57" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E57" s="63" t="s">
-        <v>254</v>
-      </c>
-      <c r="F57" s="61" t="s">
-        <v>328</v>
-      </c>
-      <c r="G57" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="H57" s="61" t="s">
-        <v>329</v>
-      </c>
-      <c r="I57" s="61" t="s">
-        <v>330</v>
-      </c>
-      <c r="J57" s="61"/>
-      <c r="K57" s="61" t="s">
-        <v>331</v>
-      </c>
-      <c r="L57" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="M57" s="45" t="s">
+      <c r="S56" s="36"/>
+      <c r="T56" s="36"/>
+      <c r="U56" s="36"/>
+      <c r="V56" s="36"/>
+      <c r="W56" s="36"/>
+      <c r="X56" s="36"/>
+      <c r="Y56" s="36"/>
+      <c r="Z56" s="36"/>
+    </row>
+    <row r="57" spans="1:26" ht="53.4" thickBot="1">
+      <c r="A57" s="66"/>
+      <c r="B57" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="92" t="s">
+        <v>309</v>
+      </c>
+      <c r="D57" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" s="69" t="s">
+        <v>229</v>
+      </c>
+      <c r="F57" s="67" t="s">
+        <v>310</v>
+      </c>
+      <c r="G57" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H57" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67" t="s">
+        <v>312</v>
+      </c>
+      <c r="L57" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M57" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N57" s="61"/>
-      <c r="O57" s="61"/>
-      <c r="P57" s="37"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
       <c r="Q57" s="36"/>
       <c r="R57" s="36"/>
-    </row>
-    <row r="58" spans="1:18" ht="110.4" customHeight="1" thickBot="1">
-      <c r="A58" s="61"/>
-      <c r="B58" s="62" t="s">
-        <v>322</v>
-      </c>
-      <c r="C58" s="62" t="s">
-        <v>332</v>
-      </c>
-      <c r="D58" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E58" s="63" t="s">
-        <v>255</v>
-      </c>
-      <c r="F58" s="61" t="s">
-        <v>333</v>
-      </c>
-      <c r="G58" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="H58" s="61" t="s">
-        <v>334</v>
-      </c>
-      <c r="I58" s="61" t="s">
-        <v>335</v>
-      </c>
-      <c r="J58" s="61"/>
-      <c r="K58" s="61" t="s">
-        <v>336</v>
-      </c>
-      <c r="L58" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="M58" s="45" t="s">
+      <c r="S57" s="36"/>
+      <c r="T57" s="36"/>
+      <c r="U57" s="36"/>
+      <c r="V57" s="36"/>
+      <c r="W57" s="36"/>
+      <c r="X57" s="36"/>
+      <c r="Y57" s="36"/>
+      <c r="Z57" s="36"/>
+    </row>
+    <row r="58" spans="1:26" ht="211.8" thickBot="1">
+      <c r="A58" s="66"/>
+      <c r="B58" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="C58" s="92" t="s">
+        <v>313</v>
+      </c>
+      <c r="D58" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="F58" s="67" t="s">
+        <v>314</v>
+      </c>
+      <c r="G58" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H58" s="67" t="s">
+        <v>315</v>
+      </c>
+      <c r="I58" s="67" t="s">
+        <v>316</v>
+      </c>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="L58" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M58" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N58" s="61"/>
-      <c r="O58" s="61"/>
-      <c r="P58" s="37"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="36"/>
       <c r="Q58" s="36"/>
       <c r="R58" s="36"/>
-    </row>
-    <row r="59" spans="1:18" ht="53.4" thickBot="1">
-      <c r="A59" s="61"/>
-      <c r="B59" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="C59" s="62" t="s">
-        <v>337</v>
-      </c>
-      <c r="D59" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E59" s="63" t="s">
-        <v>256</v>
-      </c>
-      <c r="F59" s="61" t="s">
-        <v>338</v>
-      </c>
-      <c r="G59" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="H59" s="61" t="s">
-        <v>339</v>
-      </c>
-      <c r="I59" s="61"/>
-      <c r="J59" s="61"/>
-      <c r="K59" s="61" t="s">
-        <v>340</v>
-      </c>
-      <c r="L59" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="M59" s="45" t="s">
+      <c r="S58" s="36"/>
+      <c r="T58" s="36"/>
+      <c r="U58" s="36"/>
+      <c r="V58" s="36"/>
+      <c r="W58" s="36"/>
+      <c r="X58" s="36"/>
+      <c r="Y58" s="36"/>
+      <c r="Z58" s="36"/>
+    </row>
+    <row r="59" spans="1:26" ht="106.2" thickBot="1">
+      <c r="A59" s="66"/>
+      <c r="B59" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="92" t="s">
+        <v>318</v>
+      </c>
+      <c r="D59" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="F59" s="67" t="s">
+        <v>319</v>
+      </c>
+      <c r="G59" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H59" s="67" t="s">
+        <v>320</v>
+      </c>
+      <c r="I59" s="67" t="s">
+        <v>321</v>
+      </c>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67" t="s">
+        <v>322</v>
+      </c>
+      <c r="L59" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M59" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N59" s="61"/>
-      <c r="O59" s="61"/>
-      <c r="P59" s="37"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
       <c r="Q59" s="36"/>
       <c r="R59" s="36"/>
-    </row>
-    <row r="60" spans="1:18" ht="115.2" customHeight="1" thickBot="1">
-      <c r="A60" s="61"/>
-      <c r="B60" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="C60" s="62" t="s">
-        <v>341</v>
-      </c>
-      <c r="D60" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E60" s="63" t="s">
-        <v>257</v>
-      </c>
-      <c r="F60" s="61" t="s">
-        <v>342</v>
-      </c>
-      <c r="G60" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="H60" s="61" t="s">
-        <v>343</v>
-      </c>
-      <c r="I60" s="61" t="s">
-        <v>344</v>
-      </c>
-      <c r="J60" s="61"/>
-      <c r="K60" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="L60" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="M60" s="45" t="s">
+      <c r="S59" s="36"/>
+      <c r="T59" s="36"/>
+      <c r="U59" s="36"/>
+      <c r="V59" s="36"/>
+      <c r="W59" s="36"/>
+      <c r="X59" s="36"/>
+      <c r="Y59" s="36"/>
+      <c r="Z59" s="36"/>
+    </row>
+    <row r="60" spans="1:26" ht="291" thickBot="1">
+      <c r="A60" s="66"/>
+      <c r="B60" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="C60" s="92" t="s">
+        <v>323</v>
+      </c>
+      <c r="D60" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="F60" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="G60" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H60" s="67" t="s">
+        <v>325</v>
+      </c>
+      <c r="I60" s="67" t="s">
+        <v>326</v>
+      </c>
+      <c r="J60" s="67"/>
+      <c r="K60" s="67" t="s">
+        <v>327</v>
+      </c>
+      <c r="L60" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M60" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N60" s="61"/>
-      <c r="O60" s="61"/>
-      <c r="P60" s="37"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
       <c r="Q60" s="36"/>
       <c r="R60" s="36"/>
-    </row>
-    <row r="61" spans="1:18" ht="106.2" thickBot="1">
-      <c r="A61" s="61"/>
-      <c r="B61" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="C61" s="62" t="s">
-        <v>346</v>
-      </c>
-      <c r="D61" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E61" s="63" t="s">
-        <v>258</v>
-      </c>
-      <c r="F61" s="61" t="s">
-        <v>347</v>
-      </c>
-      <c r="G61" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="H61" s="61" t="s">
-        <v>348</v>
-      </c>
-      <c r="I61" s="61" t="s">
-        <v>349</v>
-      </c>
-      <c r="J61" s="61"/>
-      <c r="K61" s="61" t="s">
-        <v>350</v>
-      </c>
-      <c r="L61" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="M61" s="45" t="s">
+      <c r="S60" s="36"/>
+      <c r="T60" s="36"/>
+      <c r="U60" s="36"/>
+      <c r="V60" s="36"/>
+      <c r="W60" s="36"/>
+      <c r="X60" s="36"/>
+      <c r="Y60" s="36"/>
+      <c r="Z60" s="36"/>
+    </row>
+    <row r="61" spans="1:26" ht="251.4" thickBot="1">
+      <c r="A61" s="66"/>
+      <c r="B61" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" s="92" t="s">
+        <v>328</v>
+      </c>
+      <c r="D61" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="F61" s="67" t="s">
+        <v>329</v>
+      </c>
+      <c r="G61" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H61" s="67" t="s">
+        <v>330</v>
+      </c>
+      <c r="I61" s="67" t="s">
+        <v>331</v>
+      </c>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67" t="s">
+        <v>332</v>
+      </c>
+      <c r="L61" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M61" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N61" s="61"/>
-      <c r="O61" s="61"/>
-      <c r="P61" s="37"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
       <c r="Q61" s="36"/>
       <c r="R61" s="36"/>
-    </row>
-    <row r="62" spans="1:18" ht="128.4" customHeight="1" thickBot="1">
-      <c r="A62" s="61"/>
-      <c r="B62" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="C62" s="62" t="s">
-        <v>351</v>
-      </c>
-      <c r="D62" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E62" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="F62" s="61" t="s">
-        <v>352</v>
-      </c>
-      <c r="G62" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="H62" s="61" t="s">
-        <v>353</v>
-      </c>
-      <c r="I62" s="61" t="s">
-        <v>354</v>
-      </c>
-      <c r="J62" s="61"/>
-      <c r="K62" s="61" t="s">
-        <v>355</v>
-      </c>
-      <c r="L62" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="M62" s="45" t="s">
+      <c r="S61" s="36"/>
+      <c r="T61" s="36"/>
+      <c r="U61" s="36"/>
+      <c r="V61" s="36"/>
+      <c r="W61" s="36"/>
+      <c r="X61" s="36"/>
+      <c r="Y61" s="36"/>
+      <c r="Z61" s="36"/>
+    </row>
+    <row r="62" spans="1:26" ht="79.8" thickBot="1">
+      <c r="A62" s="66"/>
+      <c r="B62" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" s="92" t="s">
+        <v>333</v>
+      </c>
+      <c r="D62" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="F62" s="67" t="s">
+        <v>334</v>
+      </c>
+      <c r="G62" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H62" s="67" t="s">
+        <v>335</v>
+      </c>
+      <c r="I62" s="67"/>
+      <c r="J62" s="67"/>
+      <c r="K62" s="67" t="s">
+        <v>336</v>
+      </c>
+      <c r="L62" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M62" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N62" s="61"/>
-      <c r="O62" s="61"/>
-      <c r="P62" s="37"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
       <c r="Q62" s="36"/>
       <c r="R62" s="36"/>
-    </row>
-    <row r="63" spans="1:18" ht="251.4" thickBot="1">
-      <c r="A63" s="61"/>
-      <c r="B63" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="C63" s="62" t="s">
-        <v>356</v>
-      </c>
-      <c r="D63" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E63" s="63" t="s">
-        <v>260</v>
-      </c>
-      <c r="F63" s="61" t="s">
-        <v>357</v>
-      </c>
-      <c r="G63" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="H63" s="61" t="s">
-        <v>358</v>
-      </c>
-      <c r="I63" s="61" t="s">
-        <v>359</v>
-      </c>
-      <c r="J63" s="61"/>
-      <c r="K63" s="61" t="s">
-        <v>360</v>
-      </c>
-      <c r="L63" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="M63" s="45" t="s">
+      <c r="S62" s="36"/>
+      <c r="T62" s="36"/>
+      <c r="U62" s="36"/>
+      <c r="V62" s="36"/>
+      <c r="W62" s="36"/>
+      <c r="X62" s="36"/>
+      <c r="Y62" s="36"/>
+      <c r="Z62" s="36"/>
+    </row>
+    <row r="63" spans="1:26" ht="106.2" thickBot="1">
+      <c r="A63" s="66"/>
+      <c r="B63" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" s="92" t="s">
+        <v>337</v>
+      </c>
+      <c r="D63" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="F63" s="67" t="s">
+        <v>338</v>
+      </c>
+      <c r="G63" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H63" s="67" t="s">
+        <v>339</v>
+      </c>
+      <c r="I63" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="J63" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="K63" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="L63" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M63" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N63" s="61"/>
-      <c r="O63" s="61"/>
-      <c r="P63" s="37"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="36"/>
       <c r="Q63" s="36"/>
       <c r="R63" s="36"/>
-    </row>
-    <row r="64" spans="1:18" ht="79.8" thickBot="1">
-      <c r="A64" s="61"/>
-      <c r="B64" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="C64" s="62" t="s">
-        <v>361</v>
-      </c>
-      <c r="D64" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E64" s="63" t="s">
-        <v>261</v>
-      </c>
-      <c r="F64" s="61" t="s">
-        <v>362</v>
-      </c>
-      <c r="G64" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="H64" s="61" t="s">
-        <v>363</v>
-      </c>
-      <c r="I64" s="61"/>
-      <c r="J64" s="61"/>
-      <c r="K64" s="61" t="s">
-        <v>364</v>
-      </c>
-      <c r="L64" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="M64" s="45" t="s">
+      <c r="S63" s="36"/>
+      <c r="T63" s="36"/>
+      <c r="U63" s="36"/>
+      <c r="V63" s="36"/>
+      <c r="W63" s="36"/>
+      <c r="X63" s="36"/>
+      <c r="Y63" s="36"/>
+      <c r="Z63" s="36"/>
+    </row>
+    <row r="64" spans="1:26" ht="66.599999999999994" thickBot="1">
+      <c r="A64" s="66"/>
+      <c r="B64" s="92" t="s">
+        <v>343</v>
+      </c>
+      <c r="C64" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="F64" s="67" t="s">
+        <v>344</v>
+      </c>
+      <c r="G64" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="H64" s="67" t="s">
+        <v>345</v>
+      </c>
+      <c r="I64" s="67"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="67" t="s">
+        <v>346</v>
+      </c>
+      <c r="L64" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M64" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N64" s="61"/>
-      <c r="O64" s="61"/>
-      <c r="P64" s="37"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
       <c r="Q64" s="36"/>
       <c r="R64" s="36"/>
+      <c r="S64" s="36"/>
+      <c r="T64" s="36"/>
+      <c r="U64" s="36"/>
+      <c r="V64" s="36"/>
+      <c r="W64" s="36"/>
+      <c r="X64" s="36"/>
+      <c r="Y64" s="36"/>
+      <c r="Z64" s="36"/>
     </row>
     <row r="65" spans="1:26" ht="106.2" thickBot="1">
-      <c r="A65" s="61"/>
-      <c r="B65" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="C65" s="62" t="s">
-        <v>365</v>
-      </c>
-      <c r="D65" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E65" s="63" t="s">
-        <v>262</v>
-      </c>
-      <c r="F65" s="61" t="s">
-        <v>366</v>
-      </c>
-      <c r="G65" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="H65" s="61" t="s">
-        <v>367</v>
-      </c>
-      <c r="I65" s="61" t="s">
-        <v>368</v>
-      </c>
-      <c r="J65" s="65" t="s">
-        <v>369</v>
-      </c>
-      <c r="K65" s="61" t="s">
-        <v>370</v>
-      </c>
-      <c r="L65" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="M65" s="45" t="s">
+      <c r="A65" s="66"/>
+      <c r="B65" s="92" t="s">
+        <v>263</v>
+      </c>
+      <c r="C65" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="D65" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="F65" s="67" t="s">
+        <v>347</v>
+      </c>
+      <c r="G65" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H65" s="67" t="s">
+        <v>348</v>
+      </c>
+      <c r="I65" s="67" t="s">
+        <v>349</v>
+      </c>
+      <c r="J65" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="K65" s="67" t="s">
+        <v>268</v>
+      </c>
+      <c r="L65" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M65" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N65" s="61"/>
-      <c r="O65" s="61"/>
-      <c r="P65" s="37"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="36"/>
       <c r="Q65" s="36"/>
       <c r="R65" s="36"/>
-    </row>
-    <row r="66" spans="1:26" ht="66.599999999999994" thickBot="1">
-      <c r="A66" s="61"/>
-      <c r="B66" s="62" t="s">
-        <v>371</v>
-      </c>
-      <c r="C66" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="D66" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E66" s="63" t="s">
+      <c r="S65" s="36"/>
+      <c r="T65" s="36"/>
+      <c r="U65" s="36"/>
+      <c r="V65" s="36"/>
+      <c r="W65" s="36"/>
+      <c r="X65" s="36"/>
+      <c r="Y65" s="36"/>
+      <c r="Z65" s="36"/>
+    </row>
+    <row r="66" spans="1:26" ht="53.4" thickBot="1">
+      <c r="A66" s="66"/>
+      <c r="B66" s="92" t="s">
         <v>263</v>
       </c>
-      <c r="F66" s="61" t="s">
-        <v>372</v>
-      </c>
-      <c r="G66" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="H66" s="61" t="s">
-        <v>373</v>
-      </c>
-      <c r="I66" s="61"/>
-      <c r="J66" s="61"/>
-      <c r="K66" s="61" t="s">
-        <v>374</v>
-      </c>
-      <c r="L66" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="M66" s="45" t="s">
+      <c r="C66" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E66" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="F66" s="67" t="s">
+        <v>351</v>
+      </c>
+      <c r="G66" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="H66" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="I66" s="67"/>
+      <c r="J66" s="67"/>
+      <c r="K66" s="67" t="s">
+        <v>352</v>
+      </c>
+      <c r="L66" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M66" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N66" s="61"/>
-      <c r="O66" s="61"/>
-      <c r="P66" s="37"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
       <c r="Q66" s="36"/>
       <c r="R66" s="36"/>
-    </row>
-    <row r="67" spans="1:26" ht="106.2" thickBot="1">
-      <c r="A67" s="61"/>
-      <c r="B67" s="62" t="s">
-        <v>290</v>
-      </c>
-      <c r="C67" s="62" t="s">
-        <v>234</v>
-      </c>
-      <c r="D67" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E67" s="63" t="s">
+      <c r="S66" s="36"/>
+      <c r="T66" s="36"/>
+      <c r="U66" s="36"/>
+      <c r="V66" s="36"/>
+      <c r="W66" s="36"/>
+      <c r="X66" s="36"/>
+      <c r="Y66" s="36"/>
+      <c r="Z66" s="36"/>
+    </row>
+    <row r="67" spans="1:26" ht="396.6" thickBot="1">
+      <c r="A67" s="66"/>
+      <c r="B67" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="C67" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="D67" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="F67" s="67" t="s">
+        <v>354</v>
+      </c>
+      <c r="G67" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="F67" s="61" t="s">
-        <v>375</v>
-      </c>
-      <c r="G67" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="H67" s="61" t="s">
-        <v>376</v>
-      </c>
-      <c r="I67" s="61" t="s">
-        <v>377</v>
-      </c>
-      <c r="J67" s="65" t="s">
-        <v>378</v>
-      </c>
-      <c r="K67" s="61" t="s">
-        <v>295</v>
-      </c>
-      <c r="L67" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="M67" s="45" t="s">
+      <c r="H67" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="I67" s="67" t="s">
+        <v>355</v>
+      </c>
+      <c r="J67" s="76" t="s">
+        <v>356</v>
+      </c>
+      <c r="K67" s="67" t="s">
+        <v>357</v>
+      </c>
+      <c r="L67" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M67" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N67" s="61"/>
-      <c r="O67" s="61"/>
-      <c r="P67" s="37"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="36"/>
+      <c r="P67" s="36"/>
       <c r="Q67" s="36"/>
       <c r="R67" s="36"/>
-    </row>
-    <row r="68" spans="1:26" ht="53.4" thickBot="1">
-      <c r="A68" s="61"/>
-      <c r="B68" s="62" t="s">
-        <v>290</v>
-      </c>
-      <c r="C68" s="62" t="s">
-        <v>234</v>
-      </c>
-      <c r="D68" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E68" s="63" t="s">
-        <v>265</v>
-      </c>
-      <c r="F68" s="61" t="s">
-        <v>379</v>
-      </c>
-      <c r="G68" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="H68" s="61" t="s">
-        <v>297</v>
-      </c>
-      <c r="I68" s="61"/>
-      <c r="J68" s="61"/>
-      <c r="K68" s="61" t="s">
-        <v>380</v>
-      </c>
-      <c r="L68" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="M68" s="45" t="s">
+      <c r="S67" s="36"/>
+      <c r="T67" s="36"/>
+      <c r="U67" s="36"/>
+      <c r="V67" s="36"/>
+      <c r="W67" s="36"/>
+      <c r="X67" s="36"/>
+      <c r="Y67" s="36"/>
+      <c r="Z67" s="36"/>
+    </row>
+    <row r="68" spans="1:26" ht="79.8" thickBot="1">
+      <c r="A68" s="66"/>
+      <c r="B68" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="C68" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="D68" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" s="69" t="s">
+        <v>358</v>
+      </c>
+      <c r="F68" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="G68" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="H68" s="67" t="s">
+        <v>280</v>
+      </c>
+      <c r="I68" s="67"/>
+      <c r="J68" s="76" t="s">
+        <v>360</v>
+      </c>
+      <c r="K68" s="67" t="s">
+        <v>361</v>
+      </c>
+      <c r="L68" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M68" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N68" s="61"/>
-      <c r="O68" s="61"/>
-      <c r="P68" s="37"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
       <c r="Q68" s="36"/>
       <c r="R68" s="36"/>
-    </row>
-    <row r="69" spans="1:26" ht="79.8" customHeight="1" thickBot="1">
-      <c r="A69" s="61"/>
-      <c r="B69" s="62" t="s">
-        <v>300</v>
-      </c>
-      <c r="C69" s="62" t="s">
-        <v>301</v>
-      </c>
-      <c r="D69" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E69" s="63" t="s">
-        <v>381</v>
-      </c>
-      <c r="F69" s="61" t="s">
-        <v>382</v>
-      </c>
-      <c r="G69" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="H69" s="61" t="s">
-        <v>303</v>
-      </c>
-      <c r="I69" s="61" t="s">
-        <v>383</v>
-      </c>
-      <c r="J69" s="65" t="s">
-        <v>384</v>
-      </c>
-      <c r="K69" s="61" t="s">
-        <v>385</v>
-      </c>
-      <c r="L69" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="M69" s="45" t="s">
+      <c r="S68" s="36"/>
+      <c r="T68" s="36"/>
+      <c r="U68" s="36"/>
+      <c r="V68" s="36"/>
+      <c r="W68" s="36"/>
+      <c r="X68" s="36"/>
+      <c r="Y68" s="36"/>
+      <c r="Z68" s="36"/>
+    </row>
+    <row r="69" spans="1:26" ht="132.6" thickBot="1">
+      <c r="A69" s="66"/>
+      <c r="B69" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="C69" s="67" t="s">
+        <v>283</v>
+      </c>
+      <c r="D69" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69" s="69" t="s">
+        <v>362</v>
+      </c>
+      <c r="F69" s="67" t="s">
+        <v>363</v>
+      </c>
+      <c r="G69" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H69" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="I69" s="67" t="s">
+        <v>470</v>
+      </c>
+      <c r="J69" s="67"/>
+      <c r="K69" s="67" t="s">
+        <v>287</v>
+      </c>
+      <c r="L69" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M69" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N69" s="61"/>
-      <c r="O69" s="61"/>
-      <c r="P69" s="37"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="36"/>
       <c r="Q69" s="36"/>
       <c r="R69" s="36"/>
-    </row>
-    <row r="70" spans="1:26" ht="79.8" thickBot="1">
-      <c r="A70" s="61"/>
-      <c r="B70" s="62" t="s">
-        <v>300</v>
-      </c>
-      <c r="C70" s="62" t="s">
-        <v>301</v>
-      </c>
-      <c r="D70" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E70" s="63" t="s">
-        <v>386</v>
-      </c>
-      <c r="F70" s="61" t="s">
-        <v>387</v>
-      </c>
-      <c r="G70" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="H70" s="61" t="s">
-        <v>307</v>
-      </c>
-      <c r="I70" s="61"/>
-      <c r="J70" s="65" t="s">
-        <v>388</v>
-      </c>
-      <c r="K70" s="61" t="s">
-        <v>389</v>
-      </c>
-      <c r="L70" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="M70" s="45" t="s">
+      <c r="S69" s="36"/>
+      <c r="T69" s="36"/>
+      <c r="U69" s="36"/>
+      <c r="V69" s="36"/>
+      <c r="W69" s="36"/>
+      <c r="X69" s="36"/>
+      <c r="Y69" s="36"/>
+      <c r="Z69" s="36"/>
+    </row>
+    <row r="70" spans="1:26" ht="66.599999999999994" thickBot="1">
+      <c r="A70" s="66"/>
+      <c r="B70" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="C70" s="67" t="s">
+        <v>283</v>
+      </c>
+      <c r="D70" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E70" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="F70" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="G70" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="H70" s="67" t="s">
+        <v>289</v>
+      </c>
+      <c r="I70" s="67"/>
+      <c r="J70" s="67"/>
+      <c r="K70" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="L70" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M70" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N70" s="61"/>
-      <c r="O70" s="61"/>
-      <c r="P70" s="37"/>
+      <c r="N70" s="36"/>
+      <c r="O70" s="36"/>
+      <c r="P70" s="36"/>
       <c r="Q70" s="36"/>
       <c r="R70" s="36"/>
-    </row>
-    <row r="71" spans="1:26" ht="79.8" thickBot="1">
-      <c r="A71" s="61"/>
-      <c r="B71" s="62" t="s">
-        <v>300</v>
-      </c>
-      <c r="C71" s="61" t="s">
-        <v>310</v>
-      </c>
-      <c r="D71" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E71" s="63" t="s">
-        <v>390</v>
-      </c>
-      <c r="F71" s="61" t="s">
-        <v>391</v>
-      </c>
-      <c r="G71" s="64" t="s">
+      <c r="S70" s="36"/>
+      <c r="T70" s="36"/>
+      <c r="U70" s="36"/>
+      <c r="V70" s="36"/>
+      <c r="W70" s="36"/>
+      <c r="X70" s="36"/>
+      <c r="Y70" s="36"/>
+      <c r="Z70" s="36"/>
+    </row>
+    <row r="71" spans="1:26" ht="159" thickBot="1">
+      <c r="A71" s="66"/>
+      <c r="B71" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="H71" s="61" t="s">
-        <v>312</v>
-      </c>
-      <c r="I71" s="61" t="s">
-        <v>392</v>
-      </c>
-      <c r="J71" s="61"/>
-      <c r="K71" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="L71" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="M71" s="45" t="s">
+      <c r="D71" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E71" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="F71" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="G71" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H71" s="67" t="s">
+        <v>366</v>
+      </c>
+      <c r="I71" s="67"/>
+      <c r="J71" s="67"/>
+      <c r="K71" s="67" t="s">
+        <v>294</v>
+      </c>
+      <c r="L71" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M71" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N71" s="61"/>
-      <c r="O71" s="61"/>
-      <c r="P71" s="37"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="36"/>
+      <c r="P71" s="36"/>
       <c r="Q71" s="36"/>
       <c r="R71" s="36"/>
-    </row>
-    <row r="72" spans="1:26" ht="66.599999999999994" thickBot="1">
-      <c r="A72" s="61"/>
-      <c r="B72" s="62" t="s">
+      <c r="S71" s="36"/>
+      <c r="T71" s="36"/>
+      <c r="U71" s="36"/>
+      <c r="V71" s="36"/>
+      <c r="W71" s="36"/>
+      <c r="X71" s="36"/>
+      <c r="Y71" s="36"/>
+      <c r="Z71" s="36"/>
+    </row>
+    <row r="72" spans="1:26" ht="383.4" thickBot="1">
+      <c r="A72" s="73">
+        <v>45629</v>
+      </c>
+      <c r="B72" s="67" t="s">
+        <v>295</v>
+      </c>
+      <c r="C72" s="67" t="s">
+        <v>296</v>
+      </c>
+      <c r="D72" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" s="69" t="s">
+        <v>367</v>
+      </c>
+      <c r="F72" s="67" t="s">
+        <v>297</v>
+      </c>
+      <c r="G72" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H72" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="I72" s="67" t="s">
+        <v>471</v>
+      </c>
+      <c r="J72" s="67"/>
+      <c r="K72" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="C72" s="61" t="s">
-        <v>310</v>
-      </c>
-      <c r="D72" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E72" s="63" t="s">
-        <v>393</v>
-      </c>
-      <c r="F72" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="G72" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="H72" s="61" t="s">
-        <v>316</v>
-      </c>
-      <c r="I72" s="61"/>
-      <c r="J72" s="61"/>
-      <c r="K72" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="L72" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="M72" s="45" t="s">
+      <c r="L72" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M72" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N72" s="61"/>
-      <c r="O72" s="61"/>
-      <c r="P72" s="37"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="36"/>
+      <c r="P72" s="36"/>
       <c r="Q72" s="36"/>
       <c r="R72" s="36"/>
-    </row>
-    <row r="73" spans="1:26" ht="94.8" customHeight="1" thickBot="1">
-      <c r="A73" s="61"/>
-      <c r="B73" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="C73" s="61" t="s">
-        <v>318</v>
-      </c>
-      <c r="D73" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E73" s="63" t="s">
-        <v>394</v>
-      </c>
-      <c r="F73" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="G73" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="H73" s="61" t="s">
-        <v>395</v>
-      </c>
-      <c r="I73" s="61"/>
-      <c r="J73" s="61"/>
-      <c r="K73" s="61" t="s">
-        <v>321</v>
-      </c>
-      <c r="L73" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="M73" s="45" t="s">
+      <c r="S72" s="36"/>
+      <c r="T72" s="36"/>
+      <c r="U72" s="36"/>
+      <c r="V72" s="36"/>
+      <c r="W72" s="36"/>
+      <c r="X72" s="36"/>
+      <c r="Y72" s="36"/>
+      <c r="Z72" s="36"/>
+    </row>
+    <row r="73" spans="1:26" ht="53.4" thickBot="1">
+      <c r="A73" s="73">
+        <v>45630</v>
+      </c>
+      <c r="B73" s="67" t="s">
+        <v>295</v>
+      </c>
+      <c r="C73" s="67" t="s">
+        <v>296</v>
+      </c>
+      <c r="D73" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" s="69" t="s">
+        <v>369</v>
+      </c>
+      <c r="F73" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="G73" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H73" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="I73" s="67" t="s">
+        <v>370</v>
+      </c>
+      <c r="J73" s="67"/>
+      <c r="K73" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="L73" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M73" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N73" s="61"/>
-      <c r="O73" s="61"/>
-      <c r="P73" s="37"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="36"/>
+      <c r="P73" s="36"/>
       <c r="Q73" s="36"/>
       <c r="R73" s="36"/>
-    </row>
-    <row r="74" spans="1:26" ht="91.2" customHeight="1" thickBot="1">
-      <c r="A74" s="67">
-        <v>45363</v>
-      </c>
-      <c r="B74" s="61" t="s">
-        <v>322</v>
-      </c>
-      <c r="C74" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="D74" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E74" s="63" t="s">
-        <v>396</v>
-      </c>
-      <c r="F74" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="G74" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="H74" s="61" t="s">
-        <v>397</v>
-      </c>
-      <c r="I74" s="61" t="s">
-        <v>398</v>
-      </c>
-      <c r="J74" s="61"/>
-      <c r="K74" s="61" t="s">
-        <v>327</v>
-      </c>
-      <c r="L74" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="M74" s="45" t="s">
+      <c r="S73" s="36"/>
+      <c r="T73" s="36"/>
+      <c r="U73" s="36"/>
+      <c r="V73" s="36"/>
+      <c r="W73" s="36"/>
+      <c r="X73" s="36"/>
+      <c r="Y73" s="36"/>
+      <c r="Z73" s="36"/>
+    </row>
+    <row r="74" spans="1:26" ht="172.2" thickBot="1">
+      <c r="A74" s="66"/>
+      <c r="B74" s="67" t="s">
+        <v>295</v>
+      </c>
+      <c r="C74" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="D74" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" s="69" t="s">
+        <v>371</v>
+      </c>
+      <c r="F74" s="67" t="s">
+        <v>306</v>
+      </c>
+      <c r="G74" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H74" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="I74" s="67" t="s">
+        <v>372</v>
+      </c>
+      <c r="J74" s="67"/>
+      <c r="K74" s="67" t="s">
+        <v>308</v>
+      </c>
+      <c r="L74" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M74" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N74" s="61"/>
-      <c r="O74" s="61"/>
-      <c r="P74" s="37"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="36"/>
+      <c r="P74" s="36"/>
       <c r="Q74" s="36"/>
       <c r="R74" s="36"/>
-    </row>
-    <row r="75" spans="1:26" ht="53.4" thickBot="1">
-      <c r="A75" s="67">
-        <v>45394</v>
-      </c>
-      <c r="B75" s="61" t="s">
-        <v>322</v>
-      </c>
-      <c r="C75" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="D75" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E75" s="63" t="s">
-        <v>399</v>
-      </c>
-      <c r="F75" s="61" t="s">
-        <v>328</v>
-      </c>
-      <c r="G75" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="H75" s="61" t="s">
-        <v>329</v>
-      </c>
-      <c r="I75" s="61" t="s">
-        <v>400</v>
-      </c>
-      <c r="J75" s="61"/>
-      <c r="K75" s="61" t="s">
-        <v>331</v>
-      </c>
-      <c r="L75" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="M75" s="45" t="s">
+      <c r="S74" s="36"/>
+      <c r="T74" s="36"/>
+      <c r="U74" s="36"/>
+      <c r="V74" s="36"/>
+      <c r="W74" s="36"/>
+      <c r="X74" s="36"/>
+      <c r="Y74" s="36"/>
+      <c r="Z74" s="36"/>
+    </row>
+    <row r="75" spans="1:26" ht="396.6" thickBot="1">
+      <c r="A75" s="73">
+        <v>45630</v>
+      </c>
+      <c r="B75" s="67" t="s">
+        <v>295</v>
+      </c>
+      <c r="C75" s="67" t="s">
+        <v>373</v>
+      </c>
+      <c r="D75" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" s="69" t="s">
+        <v>374</v>
+      </c>
+      <c r="F75" s="67" t="s">
+        <v>375</v>
+      </c>
+      <c r="G75" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H75" s="67" t="s">
+        <v>376</v>
+      </c>
+      <c r="I75" s="67" t="s">
+        <v>377</v>
+      </c>
+      <c r="J75" s="67"/>
+      <c r="K75" s="67" t="s">
+        <v>378</v>
+      </c>
+      <c r="L75" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M75" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N75" s="61"/>
-      <c r="O75" s="61"/>
-      <c r="P75" s="37"/>
+      <c r="N75" s="36"/>
+      <c r="O75" s="36"/>
+      <c r="P75" s="36"/>
       <c r="Q75" s="36"/>
       <c r="R75" s="36"/>
       <c r="S75" s="36"/>
@@ -5879,45 +6573,45 @@
       <c r="Y75" s="36"/>
       <c r="Z75" s="36"/>
     </row>
-    <row r="76" spans="1:26" ht="79.8" customHeight="1" thickBot="1">
-      <c r="A76" s="61"/>
-      <c r="B76" s="61" t="s">
-        <v>322</v>
-      </c>
-      <c r="C76" s="61" t="s">
-        <v>332</v>
-      </c>
-      <c r="D76" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E76" s="63" t="s">
-        <v>401</v>
-      </c>
-      <c r="F76" s="61" t="s">
-        <v>333</v>
-      </c>
-      <c r="G76" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="H76" s="61" t="s">
-        <v>334</v>
-      </c>
-      <c r="I76" s="61" t="s">
-        <v>402</v>
-      </c>
-      <c r="J76" s="61"/>
-      <c r="K76" s="61" t="s">
-        <v>336</v>
-      </c>
-      <c r="L76" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="M76" s="45" t="s">
+    <row r="76" spans="1:26" ht="370.2" thickBot="1">
+      <c r="A76" s="66"/>
+      <c r="B76" s="67" t="s">
+        <v>295</v>
+      </c>
+      <c r="C76" s="67" t="s">
+        <v>373</v>
+      </c>
+      <c r="D76" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" s="69" t="s">
+        <v>379</v>
+      </c>
+      <c r="F76" s="67" t="s">
+        <v>380</v>
+      </c>
+      <c r="G76" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H76" s="67" t="s">
+        <v>381</v>
+      </c>
+      <c r="I76" s="67" t="s">
+        <v>382</v>
+      </c>
+      <c r="J76" s="67"/>
+      <c r="K76" s="67" t="s">
+        <v>383</v>
+      </c>
+      <c r="L76" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M76" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N76" s="61"/>
-      <c r="O76" s="61"/>
-      <c r="P76" s="37"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="36"/>
+      <c r="P76" s="36"/>
       <c r="Q76" s="36"/>
       <c r="R76" s="36"/>
       <c r="S76" s="36"/>
@@ -5929,47 +6623,45 @@
       <c r="Y76" s="36"/>
       <c r="Z76" s="36"/>
     </row>
-    <row r="77" spans="1:26" ht="98.4" customHeight="1" thickBot="1">
-      <c r="A77" s="67">
-        <v>45394</v>
-      </c>
-      <c r="B77" s="61" t="s">
-        <v>322</v>
-      </c>
-      <c r="C77" s="61" t="s">
-        <v>403</v>
-      </c>
-      <c r="D77" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E77" s="63" t="s">
-        <v>404</v>
-      </c>
-      <c r="F77" s="61" t="s">
-        <v>405</v>
-      </c>
-      <c r="G77" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="H77" s="61" t="s">
-        <v>406</v>
-      </c>
-      <c r="I77" s="61" t="s">
-        <v>407</v>
-      </c>
-      <c r="J77" s="61"/>
-      <c r="K77" s="61" t="s">
-        <v>408</v>
-      </c>
-      <c r="L77" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="M77" s="45" t="s">
+    <row r="77" spans="1:26" ht="396.6" thickBot="1">
+      <c r="A77" s="66"/>
+      <c r="B77" s="67" t="s">
+        <v>295</v>
+      </c>
+      <c r="C77" s="67" t="s">
+        <v>373</v>
+      </c>
+      <c r="D77" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E77" s="69" t="s">
+        <v>384</v>
+      </c>
+      <c r="F77" s="67" t="s">
+        <v>472</v>
+      </c>
+      <c r="G77" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H77" s="67" t="s">
+        <v>381</v>
+      </c>
+      <c r="I77" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="J77" s="67"/>
+      <c r="K77" s="67" t="s">
+        <v>473</v>
+      </c>
+      <c r="L77" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M77" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N77" s="61"/>
-      <c r="O77" s="61"/>
-      <c r="P77" s="37"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="36"/>
+      <c r="P77" s="36"/>
       <c r="Q77" s="36"/>
       <c r="R77" s="36"/>
       <c r="S77" s="36"/>
@@ -5981,45 +6673,47 @@
       <c r="Y77" s="36"/>
       <c r="Z77" s="36"/>
     </row>
-    <row r="78" spans="1:26" ht="133.19999999999999" customHeight="1" thickBot="1">
-      <c r="A78" s="61"/>
-      <c r="B78" s="61" t="s">
-        <v>322</v>
-      </c>
-      <c r="C78" s="61" t="s">
-        <v>403</v>
-      </c>
-      <c r="D78" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E78" s="63" t="s">
-        <v>409</v>
-      </c>
-      <c r="F78" s="61" t="s">
-        <v>410</v>
-      </c>
-      <c r="G78" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="H78" s="61" t="s">
-        <v>411</v>
-      </c>
-      <c r="I78" s="61" t="s">
-        <v>412</v>
-      </c>
-      <c r="J78" s="61"/>
-      <c r="K78" s="61" t="s">
-        <v>413</v>
-      </c>
-      <c r="L78" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="M78" s="45" t="s">
+    <row r="78" spans="1:26" ht="106.2" thickBot="1">
+      <c r="A78" s="73">
+        <v>45630</v>
+      </c>
+      <c r="B78" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="C78" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D78" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E78" s="69" t="s">
+        <v>386</v>
+      </c>
+      <c r="F78" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="G78" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H78" s="67" t="s">
+        <v>388</v>
+      </c>
+      <c r="I78" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="J78" s="67"/>
+      <c r="K78" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="L78" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M78" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N78" s="61"/>
-      <c r="O78" s="61"/>
-      <c r="P78" s="37"/>
+      <c r="N78" s="36"/>
+      <c r="O78" s="36"/>
+      <c r="P78" s="36"/>
       <c r="Q78" s="36"/>
       <c r="R78" s="36"/>
       <c r="S78" s="36"/>
@@ -6031,45 +6725,45 @@
       <c r="Y78" s="36"/>
       <c r="Z78" s="36"/>
     </row>
-    <row r="79" spans="1:26" ht="123" customHeight="1" thickBot="1">
-      <c r="A79" s="61"/>
-      <c r="B79" s="61" t="s">
-        <v>322</v>
-      </c>
-      <c r="C79" s="61" t="s">
-        <v>403</v>
-      </c>
-      <c r="D79" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E79" s="63" t="s">
-        <v>414</v>
-      </c>
-      <c r="F79" s="61" t="s">
-        <v>415</v>
-      </c>
-      <c r="G79" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="H79" s="61" t="s">
-        <v>411</v>
-      </c>
-      <c r="I79" s="61" t="s">
-        <v>416</v>
-      </c>
-      <c r="J79" s="61"/>
-      <c r="K79" s="61" t="s">
-        <v>417</v>
-      </c>
-      <c r="L79" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="M79" s="45" t="s">
+    <row r="79" spans="1:26" ht="79.8" thickBot="1">
+      <c r="A79" s="66"/>
+      <c r="B79" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="C79" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D79" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" s="69" t="s">
+        <v>391</v>
+      </c>
+      <c r="F79" s="67" t="s">
+        <v>392</v>
+      </c>
+      <c r="G79" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H79" s="67" t="s">
+        <v>393</v>
+      </c>
+      <c r="I79" s="67" t="s">
+        <v>394</v>
+      </c>
+      <c r="J79" s="67"/>
+      <c r="K79" s="67" t="s">
+        <v>395</v>
+      </c>
+      <c r="L79" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M79" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N79" s="61"/>
-      <c r="O79" s="61"/>
-      <c r="P79" s="37"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="36"/>
+      <c r="P79" s="36"/>
       <c r="Q79" s="36"/>
       <c r="R79" s="36"/>
       <c r="S79" s="36"/>
@@ -6081,42 +6775,42 @@
       <c r="Y79" s="36"/>
       <c r="Z79" s="36"/>
     </row>
-    <row r="80" spans="1:26" ht="106.2" thickBot="1">
-      <c r="A80" s="85">
-        <v>45394</v>
-      </c>
-      <c r="B80" s="86" t="s">
-        <v>290</v>
-      </c>
-      <c r="C80" s="86" t="s">
-        <v>234</v>
-      </c>
-      <c r="D80" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="E80" s="88" t="s">
-        <v>418</v>
-      </c>
-      <c r="F80" s="86" t="s">
-        <v>419</v>
-      </c>
-      <c r="G80" s="89" t="s">
-        <v>291</v>
-      </c>
-      <c r="H80" s="86" t="s">
-        <v>420</v>
-      </c>
-      <c r="I80" s="86" t="s">
-        <v>421</v>
-      </c>
-      <c r="J80" s="86"/>
-      <c r="K80" s="86" t="s">
-        <v>422</v>
-      </c>
-      <c r="L80" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="M80" s="91" t="s">
+    <row r="80" spans="1:26" ht="185.4" thickBot="1">
+      <c r="A80" s="73">
+        <v>45634</v>
+      </c>
+      <c r="B80" s="74" t="s">
+        <v>396</v>
+      </c>
+      <c r="C80" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E80" s="69" t="s">
+        <v>397</v>
+      </c>
+      <c r="F80" s="67" t="s">
+        <v>398</v>
+      </c>
+      <c r="G80" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H80" s="67" t="s">
+        <v>399</v>
+      </c>
+      <c r="I80" s="67" t="s">
+        <v>400</v>
+      </c>
+      <c r="J80" s="67"/>
+      <c r="K80" s="67" t="s">
+        <v>401</v>
+      </c>
+      <c r="L80" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M80" s="72" t="s">
         <v>41</v>
       </c>
       <c r="N80" s="36"/>
@@ -6133,40 +6827,40 @@
       <c r="Y80" s="36"/>
       <c r="Z80" s="36"/>
     </row>
-    <row r="81" spans="1:26" ht="79.8" thickBot="1">
-      <c r="A81" s="92"/>
-      <c r="B81" s="93" t="s">
-        <v>290</v>
-      </c>
-      <c r="C81" s="93" t="s">
-        <v>234</v>
-      </c>
-      <c r="D81" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="E81" s="95" t="s">
-        <v>423</v>
-      </c>
-      <c r="F81" s="93" t="s">
-        <v>424</v>
-      </c>
-      <c r="G81" s="96" t="s">
-        <v>291</v>
-      </c>
-      <c r="H81" s="93" t="s">
-        <v>425</v>
-      </c>
-      <c r="I81" s="93" t="s">
-        <v>426</v>
-      </c>
-      <c r="J81" s="93"/>
-      <c r="K81" s="93" t="s">
-        <v>427</v>
-      </c>
-      <c r="L81" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="M81" s="98" t="s">
+    <row r="81" spans="1:26" ht="66.599999999999994" thickBot="1">
+      <c r="A81" s="73">
+        <v>45635</v>
+      </c>
+      <c r="B81" s="74" t="s">
+        <v>402</v>
+      </c>
+      <c r="C81" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D81" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E81" s="69" t="s">
+        <v>403</v>
+      </c>
+      <c r="F81" s="67" t="s">
+        <v>404</v>
+      </c>
+      <c r="G81" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="H81" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="I81" s="67"/>
+      <c r="J81" s="67"/>
+      <c r="K81" s="67" t="s">
+        <v>406</v>
+      </c>
+      <c r="L81" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M81" s="72" t="s">
         <v>41</v>
       </c>
       <c r="N81" s="36"/>
@@ -6183,42 +6877,40 @@
       <c r="Y81" s="36"/>
       <c r="Z81" s="36"/>
     </row>
-    <row r="82" spans="1:26" ht="185.4" thickBot="1">
-      <c r="A82" s="85">
-        <v>45516</v>
-      </c>
-      <c r="B82" s="109" t="s">
-        <v>428</v>
-      </c>
-      <c r="C82" s="86" t="s">
-        <v>234</v>
-      </c>
-      <c r="D82" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="E82" s="88" t="s">
-        <v>429</v>
-      </c>
-      <c r="F82" s="86" t="s">
-        <v>430</v>
-      </c>
-      <c r="G82" s="89" t="s">
-        <v>291</v>
-      </c>
-      <c r="H82" s="86" t="s">
-        <v>431</v>
-      </c>
-      <c r="I82" s="86" t="s">
-        <v>432</v>
-      </c>
-      <c r="J82" s="86"/>
-      <c r="K82" s="86" t="s">
-        <v>433</v>
-      </c>
-      <c r="L82" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="M82" s="91" t="s">
+    <row r="82" spans="1:26" ht="277.8" thickBot="1">
+      <c r="A82" s="66"/>
+      <c r="B82" s="74" t="s">
+        <v>407</v>
+      </c>
+      <c r="C82" s="67" t="s">
+        <v>408</v>
+      </c>
+      <c r="D82" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E82" s="69" t="s">
+        <v>409</v>
+      </c>
+      <c r="F82" s="67" t="s">
+        <v>410</v>
+      </c>
+      <c r="G82" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H82" s="67" t="s">
+        <v>411</v>
+      </c>
+      <c r="I82" s="67" t="s">
+        <v>412</v>
+      </c>
+      <c r="J82" s="67"/>
+      <c r="K82" s="67" t="s">
+        <v>413</v>
+      </c>
+      <c r="L82" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M82" s="72" t="s">
         <v>41</v>
       </c>
       <c r="N82" s="36"/>
@@ -6235,40 +6927,38 @@
       <c r="Y82" s="36"/>
       <c r="Z82" s="36"/>
     </row>
-    <row r="83" spans="1:26" ht="66.599999999999994" thickBot="1">
-      <c r="A83" s="110">
-        <v>45547</v>
-      </c>
-      <c r="B83" s="111" t="s">
-        <v>434</v>
-      </c>
-      <c r="C83" s="93" t="s">
-        <v>234</v>
-      </c>
-      <c r="D83" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="E83" s="95" t="s">
-        <v>435</v>
-      </c>
-      <c r="F83" s="93" t="s">
-        <v>436</v>
-      </c>
-      <c r="G83" s="112" t="s">
-        <v>69</v>
-      </c>
-      <c r="H83" s="93" t="s">
-        <v>437</v>
-      </c>
-      <c r="I83" s="93"/>
-      <c r="J83" s="93"/>
-      <c r="K83" s="93" t="s">
-        <v>438</v>
-      </c>
-      <c r="L83" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="M83" s="98" t="s">
+    <row r="83" spans="1:26" ht="119.4" thickBot="1">
+      <c r="A83" s="66"/>
+      <c r="B83" s="74" t="s">
+        <v>407</v>
+      </c>
+      <c r="C83" s="67" t="s">
+        <v>408</v>
+      </c>
+      <c r="D83" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" s="69" t="s">
+        <v>414</v>
+      </c>
+      <c r="F83" s="67" t="s">
+        <v>415</v>
+      </c>
+      <c r="G83" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="H83" s="67" t="s">
+        <v>416</v>
+      </c>
+      <c r="I83" s="67"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="67" t="s">
+        <v>417</v>
+      </c>
+      <c r="L83" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M83" s="72" t="s">
         <v>41</v>
       </c>
       <c r="N83" s="36"/>
@@ -6285,40 +6975,38 @@
       <c r="Y83" s="36"/>
       <c r="Z83" s="36"/>
     </row>
-    <row r="84" spans="1:26" ht="277.8" thickBot="1">
-      <c r="A84" s="92"/>
-      <c r="B84" s="111" t="s">
-        <v>439</v>
-      </c>
-      <c r="C84" s="93" t="s">
-        <v>440</v>
-      </c>
-      <c r="D84" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="E84" s="95" t="s">
-        <v>441</v>
-      </c>
-      <c r="F84" s="93" t="s">
-        <v>442</v>
-      </c>
-      <c r="G84" s="96" t="s">
-        <v>291</v>
-      </c>
-      <c r="H84" s="93" t="s">
-        <v>443</v>
-      </c>
-      <c r="I84" s="93" t="s">
-        <v>444</v>
-      </c>
-      <c r="J84" s="93"/>
-      <c r="K84" s="93" t="s">
-        <v>445</v>
-      </c>
-      <c r="L84" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="M84" s="98" t="s">
+    <row r="84" spans="1:26" ht="106.2" thickBot="1">
+      <c r="A84" s="66"/>
+      <c r="B84" s="74" t="s">
+        <v>418</v>
+      </c>
+      <c r="C84" s="67" t="s">
+        <v>419</v>
+      </c>
+      <c r="D84" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" s="69" t="s">
+        <v>420</v>
+      </c>
+      <c r="F84" s="67" t="s">
+        <v>421</v>
+      </c>
+      <c r="G84" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H84" s="67" t="s">
+        <v>422</v>
+      </c>
+      <c r="I84" s="67"/>
+      <c r="J84" s="67"/>
+      <c r="K84" s="67" t="s">
+        <v>423</v>
+      </c>
+      <c r="L84" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M84" s="72" t="s">
         <v>41</v>
       </c>
       <c r="N84" s="36"/>
@@ -6335,38 +7023,36 @@
       <c r="Y84" s="36"/>
       <c r="Z84" s="36"/>
     </row>
-    <row r="85" spans="1:26" ht="119.4" thickBot="1">
-      <c r="A85" s="92"/>
-      <c r="B85" s="111" t="s">
-        <v>439</v>
-      </c>
-      <c r="C85" s="93" t="s">
-        <v>440</v>
-      </c>
-      <c r="D85" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="E85" s="95" t="s">
-        <v>446</v>
-      </c>
-      <c r="F85" s="93" t="s">
-        <v>447</v>
-      </c>
-      <c r="G85" s="112" t="s">
-        <v>69</v>
-      </c>
-      <c r="H85" s="93" t="s">
-        <v>448</v>
-      </c>
-      <c r="I85" s="93"/>
-      <c r="J85" s="93"/>
-      <c r="K85" s="93" t="s">
-        <v>449</v>
-      </c>
-      <c r="L85" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="M85" s="98" t="s">
+    <row r="85" spans="1:26" ht="66.599999999999994" thickBot="1">
+      <c r="A85" s="66"/>
+      <c r="B85" s="74" t="s">
+        <v>407</v>
+      </c>
+      <c r="C85" s="67" t="s">
+        <v>424</v>
+      </c>
+      <c r="D85" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E85" s="69" t="s">
+        <v>425</v>
+      </c>
+      <c r="F85" s="67" t="s">
+        <v>426</v>
+      </c>
+      <c r="G85" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H85" s="67"/>
+      <c r="I85" s="67"/>
+      <c r="J85" s="67"/>
+      <c r="K85" s="67" t="s">
+        <v>427</v>
+      </c>
+      <c r="L85" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M85" s="72" t="s">
         <v>41</v>
       </c>
       <c r="N85" s="36"/>
@@ -6383,38 +7069,38 @@
       <c r="Y85" s="36"/>
       <c r="Z85" s="36"/>
     </row>
-    <row r="86" spans="1:26" ht="106.2" thickBot="1">
-      <c r="A86" s="92"/>
-      <c r="B86" s="111" t="s">
-        <v>450</v>
-      </c>
-      <c r="C86" s="93" t="s">
-        <v>451</v>
-      </c>
-      <c r="D86" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="E86" s="95" t="s">
-        <v>452</v>
-      </c>
-      <c r="F86" s="93" t="s">
-        <v>453</v>
-      </c>
-      <c r="G86" s="96" t="s">
-        <v>291</v>
-      </c>
-      <c r="H86" s="93" t="s">
-        <v>454</v>
-      </c>
-      <c r="I86" s="93"/>
-      <c r="J86" s="93"/>
-      <c r="K86" s="93" t="s">
-        <v>455</v>
-      </c>
-      <c r="L86" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="M86" s="98" t="s">
+    <row r="86" spans="1:26" ht="79.8" thickBot="1">
+      <c r="A86" s="66"/>
+      <c r="B86" s="74" t="s">
+        <v>418</v>
+      </c>
+      <c r="C86" s="67" t="s">
+        <v>428</v>
+      </c>
+      <c r="D86" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" s="69" t="s">
+        <v>429</v>
+      </c>
+      <c r="F86" s="67" t="s">
+        <v>430</v>
+      </c>
+      <c r="G86" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H86" s="67" t="s">
+        <v>431</v>
+      </c>
+      <c r="I86" s="67"/>
+      <c r="J86" s="67"/>
+      <c r="K86" s="67" t="s">
+        <v>432</v>
+      </c>
+      <c r="L86" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M86" s="72" t="s">
         <v>41</v>
       </c>
       <c r="N86" s="36"/>
@@ -6432,35 +7118,39 @@
       <c r="Z86" s="36"/>
     </row>
     <row r="87" spans="1:26" ht="66.599999999999994" thickBot="1">
-      <c r="A87" s="92"/>
-      <c r="B87" s="111" t="s">
+      <c r="A87" s="66"/>
+      <c r="B87" s="74" t="s">
+        <v>433</v>
+      </c>
+      <c r="C87" s="67" t="s">
+        <v>434</v>
+      </c>
+      <c r="D87" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E87" s="69" t="s">
+        <v>435</v>
+      </c>
+      <c r="F87" s="71" t="s">
+        <v>436</v>
+      </c>
+      <c r="G87" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H87" s="67" t="s">
+        <v>437</v>
+      </c>
+      <c r="I87" s="67" t="s">
+        <v>438</v>
+      </c>
+      <c r="J87" s="67"/>
+      <c r="K87" s="67" t="s">
         <v>439</v>
       </c>
-      <c r="C87" s="93" t="s">
-        <v>456</v>
-      </c>
-      <c r="D87" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="E87" s="95" t="s">
-        <v>457</v>
-      </c>
-      <c r="F87" s="93" t="s">
-        <v>458</v>
-      </c>
-      <c r="G87" s="96" t="s">
-        <v>291</v>
-      </c>
-      <c r="H87" s="93"/>
-      <c r="I87" s="93"/>
-      <c r="J87" s="93"/>
-      <c r="K87" s="93" t="s">
-        <v>459</v>
-      </c>
-      <c r="L87" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="M87" s="98" t="s">
+      <c r="L87" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M87" s="72" t="s">
         <v>41</v>
       </c>
       <c r="N87" s="36"/>
@@ -6477,38 +7167,40 @@
       <c r="Y87" s="36"/>
       <c r="Z87" s="36"/>
     </row>
-    <row r="88" spans="1:26" ht="79.8" thickBot="1">
-      <c r="A88" s="92"/>
-      <c r="B88" s="111" t="s">
-        <v>450</v>
-      </c>
-      <c r="C88" s="93" t="s">
-        <v>460</v>
-      </c>
-      <c r="D88" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="E88" s="95" t="s">
-        <v>461</v>
-      </c>
-      <c r="F88" s="93" t="s">
-        <v>462</v>
-      </c>
-      <c r="G88" s="96" t="s">
-        <v>291</v>
-      </c>
-      <c r="H88" s="93" t="s">
-        <v>463</v>
-      </c>
-      <c r="I88" s="93"/>
-      <c r="J88" s="93"/>
-      <c r="K88" s="93" t="s">
-        <v>464</v>
-      </c>
-      <c r="L88" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="M88" s="98" t="s">
+    <row r="88" spans="1:26" ht="198.6" thickBot="1">
+      <c r="A88" s="66"/>
+      <c r="B88" s="74" t="s">
+        <v>440</v>
+      </c>
+      <c r="C88" s="67" t="s">
+        <v>441</v>
+      </c>
+      <c r="D88" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E88" s="69" t="s">
+        <v>442</v>
+      </c>
+      <c r="F88" s="67" t="s">
+        <v>443</v>
+      </c>
+      <c r="G88" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H88" s="67" t="s">
+        <v>444</v>
+      </c>
+      <c r="I88" s="67"/>
+      <c r="J88" s="76" t="s">
+        <v>445</v>
+      </c>
+      <c r="K88" s="67" t="s">
+        <v>446</v>
+      </c>
+      <c r="L88" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M88" s="72" t="s">
         <v>41</v>
       </c>
       <c r="N88" s="36"/>
@@ -6525,40 +7217,40 @@
       <c r="Y88" s="36"/>
       <c r="Z88" s="36"/>
     </row>
-    <row r="89" spans="1:26" ht="66.599999999999994" thickBot="1">
-      <c r="A89" s="92"/>
-      <c r="B89" s="111" t="s">
-        <v>465</v>
-      </c>
-      <c r="C89" s="93" t="s">
-        <v>466</v>
-      </c>
-      <c r="D89" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="E89" s="95" t="s">
-        <v>467</v>
-      </c>
-      <c r="F89" s="97" t="s">
-        <v>468</v>
-      </c>
-      <c r="G89" s="96" t="s">
-        <v>291</v>
-      </c>
-      <c r="H89" s="93" t="s">
-        <v>469</v>
-      </c>
-      <c r="I89" s="93" t="s">
-        <v>470</v>
-      </c>
-      <c r="J89" s="93"/>
-      <c r="K89" s="93" t="s">
-        <v>471</v>
-      </c>
-      <c r="L89" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="M89" s="98" t="s">
+    <row r="89" spans="1:26" ht="119.4" thickBot="1">
+      <c r="A89" s="66"/>
+      <c r="B89" s="74" t="s">
+        <v>440</v>
+      </c>
+      <c r="C89" s="67" t="s">
+        <v>441</v>
+      </c>
+      <c r="D89" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E89" s="69" t="s">
+        <v>447</v>
+      </c>
+      <c r="F89" s="67" t="s">
+        <v>448</v>
+      </c>
+      <c r="G89" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H89" s="67" t="s">
+        <v>449</v>
+      </c>
+      <c r="I89" s="67"/>
+      <c r="J89" s="76" t="s">
+        <v>450</v>
+      </c>
+      <c r="K89" s="67" t="s">
+        <v>451</v>
+      </c>
+      <c r="L89" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M89" s="72" t="s">
         <v>41</v>
       </c>
       <c r="N89" s="36"/>
@@ -6575,40 +7267,44 @@
       <c r="Y89" s="36"/>
       <c r="Z89" s="36"/>
     </row>
-    <row r="90" spans="1:26" ht="198.6" thickBot="1">
-      <c r="A90" s="92"/>
-      <c r="B90" s="111" t="s">
-        <v>472</v>
-      </c>
-      <c r="C90" s="93" t="s">
-        <v>473</v>
-      </c>
-      <c r="D90" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="E90" s="95" t="s">
+    <row r="90" spans="1:26" ht="251.4" thickBot="1">
+      <c r="A90" s="73">
+        <v>45636</v>
+      </c>
+      <c r="B90" s="74" t="s">
         <v>474</v>
       </c>
-      <c r="F90" s="93" t="s">
+      <c r="C90" s="67" t="s">
         <v>475</v>
       </c>
-      <c r="G90" s="96" t="s">
-        <v>291</v>
-      </c>
-      <c r="H90" s="93" t="s">
+      <c r="D90" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E90" s="69" t="s">
         <v>476</v>
       </c>
-      <c r="I90" s="93"/>
-      <c r="J90" s="113" t="s">
+      <c r="F90" s="67" t="s">
         <v>477</v>
       </c>
-      <c r="K90" s="93" t="s">
+      <c r="G90" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H90" s="67" t="s">
         <v>478</v>
       </c>
-      <c r="L90" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="M90" s="98" t="s">
+      <c r="I90" s="67" t="s">
+        <v>479</v>
+      </c>
+      <c r="J90" s="76" t="s">
+        <v>480</v>
+      </c>
+      <c r="K90" s="67" t="s">
+        <v>481</v>
+      </c>
+      <c r="L90" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M90" s="72" t="s">
         <v>41</v>
       </c>
       <c r="N90" s="36"/>
@@ -6625,40 +7321,40 @@
       <c r="Y90" s="36"/>
       <c r="Z90" s="36"/>
     </row>
-    <row r="91" spans="1:26" ht="119.4" thickBot="1">
-      <c r="A91" s="92"/>
-      <c r="B91" s="111" t="s">
-        <v>472</v>
-      </c>
-      <c r="C91" s="93" t="s">
-        <v>473</v>
-      </c>
-      <c r="D91" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="E91" s="95" t="s">
-        <v>479</v>
-      </c>
-      <c r="F91" s="93" t="s">
-        <v>480</v>
-      </c>
-      <c r="G91" s="96" t="s">
-        <v>291</v>
-      </c>
-      <c r="H91" s="93" t="s">
-        <v>481</v>
-      </c>
-      <c r="I91" s="93"/>
-      <c r="J91" s="113" t="s">
+    <row r="91" spans="1:26" ht="93" thickBot="1">
+      <c r="A91" s="66"/>
+      <c r="B91" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="C91" s="67" t="s">
         <v>482</v>
       </c>
-      <c r="K91" s="93" t="s">
+      <c r="D91" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E91" s="69" t="s">
         <v>483</v>
       </c>
-      <c r="L91" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="M91" s="98" t="s">
+      <c r="F91" s="67" t="s">
+        <v>484</v>
+      </c>
+      <c r="G91" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="H91" s="67" t="s">
+        <v>485</v>
+      </c>
+      <c r="I91" s="67"/>
+      <c r="J91" s="76" t="s">
+        <v>486</v>
+      </c>
+      <c r="K91" s="67" t="s">
+        <v>487</v>
+      </c>
+      <c r="L91" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M91" s="72" t="s">
         <v>41</v>
       </c>
       <c r="N91" s="36"/>
@@ -6675,105 +7371,257 @@
       <c r="Y91" s="36"/>
       <c r="Z91" s="36"/>
     </row>
-    <row r="92" spans="1:26">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
-    </row>
-    <row r="93" spans="1:26">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
-    </row>
-    <row r="94" spans="1:26">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="4"/>
-    </row>
-    <row r="95" spans="1:26">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
-      <c r="P95" s="4"/>
-      <c r="Q95" s="4"/>
-      <c r="R95" s="4"/>
-    </row>
-    <row r="96" spans="1:26">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
-      <c r="P96" s="4"/>
-      <c r="Q96" s="4"/>
-      <c r="R96" s="4"/>
+    <row r="92" spans="1:26" ht="66.599999999999994" thickBot="1">
+      <c r="A92" s="66"/>
+      <c r="B92" s="74" t="s">
+        <v>488</v>
+      </c>
+      <c r="C92" s="67" t="s">
+        <v>489</v>
+      </c>
+      <c r="D92" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E92" s="69" t="s">
+        <v>490</v>
+      </c>
+      <c r="F92" s="67" t="s">
+        <v>491</v>
+      </c>
+      <c r="G92" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H92" s="67" t="s">
+        <v>492</v>
+      </c>
+      <c r="I92" s="67"/>
+      <c r="J92" s="67"/>
+      <c r="K92" s="67" t="s">
+        <v>493</v>
+      </c>
+      <c r="L92" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M92" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N92" s="36"/>
+      <c r="O92" s="36"/>
+      <c r="P92" s="36"/>
+      <c r="Q92" s="36"/>
+      <c r="R92" s="36"/>
+      <c r="S92" s="36"/>
+      <c r="T92" s="36"/>
+      <c r="U92" s="36"/>
+      <c r="V92" s="36"/>
+      <c r="W92" s="36"/>
+      <c r="X92" s="36"/>
+      <c r="Y92" s="36"/>
+      <c r="Z92" s="36"/>
+    </row>
+    <row r="93" spans="1:26" ht="264.60000000000002" thickBot="1">
+      <c r="A93" s="66"/>
+      <c r="B93" s="74" t="s">
+        <v>494</v>
+      </c>
+      <c r="C93" s="67" t="s">
+        <v>495</v>
+      </c>
+      <c r="D93" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E93" s="69" t="s">
+        <v>496</v>
+      </c>
+      <c r="F93" s="67" t="s">
+        <v>497</v>
+      </c>
+      <c r="G93" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H93" s="67" t="s">
+        <v>498</v>
+      </c>
+      <c r="I93" s="67" t="s">
+        <v>499</v>
+      </c>
+      <c r="J93" s="76" t="s">
+        <v>500</v>
+      </c>
+      <c r="K93" s="67" t="s">
+        <v>501</v>
+      </c>
+      <c r="L93" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M93" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N93" s="36"/>
+      <c r="O93" s="36"/>
+      <c r="P93" s="36"/>
+      <c r="Q93" s="36"/>
+      <c r="R93" s="36"/>
+      <c r="S93" s="36"/>
+      <c r="T93" s="36"/>
+      <c r="U93" s="36"/>
+      <c r="V93" s="36"/>
+      <c r="W93" s="36"/>
+      <c r="X93" s="36"/>
+      <c r="Y93" s="36"/>
+      <c r="Z93" s="36"/>
+    </row>
+    <row r="94" spans="1:26" ht="66.599999999999994" thickBot="1">
+      <c r="A94" s="66"/>
+      <c r="B94" s="74" t="s">
+        <v>488</v>
+      </c>
+      <c r="C94" s="67" t="s">
+        <v>502</v>
+      </c>
+      <c r="D94" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E94" s="69" t="s">
+        <v>503</v>
+      </c>
+      <c r="F94" s="67" t="s">
+        <v>504</v>
+      </c>
+      <c r="G94" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H94" s="67" t="s">
+        <v>505</v>
+      </c>
+      <c r="I94" s="67"/>
+      <c r="J94" s="76" t="s">
+        <v>506</v>
+      </c>
+      <c r="K94" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="L94" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M94" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N94" s="36"/>
+      <c r="O94" s="36"/>
+      <c r="P94" s="36"/>
+      <c r="Q94" s="36"/>
+      <c r="R94" s="36"/>
+      <c r="S94" s="36"/>
+      <c r="T94" s="36"/>
+      <c r="U94" s="36"/>
+      <c r="V94" s="36"/>
+      <c r="W94" s="36"/>
+      <c r="X94" s="36"/>
+      <c r="Y94" s="36"/>
+      <c r="Z94" s="36"/>
+    </row>
+    <row r="95" spans="1:26" ht="93" thickBot="1">
+      <c r="A95" s="66"/>
+      <c r="B95" s="74" t="s">
+        <v>508</v>
+      </c>
+      <c r="C95" s="67" t="s">
+        <v>509</v>
+      </c>
+      <c r="D95" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E95" s="69" t="s">
+        <v>510</v>
+      </c>
+      <c r="F95" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="G95" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H95" s="67" t="s">
+        <v>512</v>
+      </c>
+      <c r="I95" s="67" t="s">
+        <v>513</v>
+      </c>
+      <c r="J95" s="76" t="s">
+        <v>514</v>
+      </c>
+      <c r="K95" s="67" t="s">
+        <v>515</v>
+      </c>
+      <c r="L95" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M95" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N95" s="36"/>
+      <c r="O95" s="36"/>
+      <c r="P95" s="36"/>
+      <c r="Q95" s="36"/>
+      <c r="R95" s="36"/>
+      <c r="S95" s="36"/>
+      <c r="T95" s="36"/>
+      <c r="U95" s="36"/>
+      <c r="V95" s="36"/>
+      <c r="W95" s="36"/>
+      <c r="X95" s="36"/>
+      <c r="Y95" s="36"/>
+      <c r="Z95" s="36"/>
+    </row>
+    <row r="96" spans="1:26" ht="119.4" thickBot="1">
+      <c r="A96" s="66"/>
+      <c r="B96" s="74" t="s">
+        <v>508</v>
+      </c>
+      <c r="C96" s="67" t="s">
+        <v>516</v>
+      </c>
+      <c r="D96" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E96" s="69" t="s">
+        <v>517</v>
+      </c>
+      <c r="F96" s="67" t="s">
+        <v>518</v>
+      </c>
+      <c r="G96" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H96" s="67" t="s">
+        <v>519</v>
+      </c>
+      <c r="I96" s="67"/>
+      <c r="J96" s="76" t="s">
+        <v>520</v>
+      </c>
+      <c r="K96" s="67" t="s">
+        <v>521</v>
+      </c>
+      <c r="L96" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M96" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N96" s="36"/>
+      <c r="O96" s="36"/>
+      <c r="P96" s="36"/>
+      <c r="Q96" s="36"/>
+      <c r="R96" s="36"/>
+      <c r="S96" s="36"/>
+      <c r="T96" s="36"/>
+      <c r="U96" s="36"/>
+      <c r="V96" s="36"/>
+      <c r="W96" s="36"/>
+      <c r="X96" s="36"/>
+      <c r="Y96" s="36"/>
+      <c r="Z96" s="36"/>
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="4"/>
@@ -24917,6 +25765,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -24931,17 +25787,9 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="M8 M18">
+    <dataValidation type="list" allowBlank="1" sqref="M8">
       <formula1>"Pass,Fail,Out of Scope"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="D8">
@@ -24963,41 +25811,44 @@
     <hyperlink ref="J24" r:id="rId12"/>
     <hyperlink ref="J25" r:id="rId13"/>
     <hyperlink ref="J26" r:id="rId14"/>
-    <hyperlink ref="J30" r:id="rId15"/>
-    <hyperlink ref="J31" r:id="rId16"/>
-    <hyperlink ref="J32" r:id="rId17"/>
-    <hyperlink ref="J35" r:id="rId18"/>
-    <hyperlink ref="J38" r:id="rId19"/>
-    <hyperlink ref="J39" r:id="rId20"/>
-    <hyperlink ref="J40" r:id="rId21"/>
-    <hyperlink ref="J41" r:id="rId22"/>
-    <hyperlink ref="J43" r:id="rId23"/>
-    <hyperlink ref="J44" r:id="rId24"/>
-    <hyperlink ref="J45" r:id="rId25"/>
-    <hyperlink ref="J46" r:id="rId26"/>
-    <hyperlink ref="J47" r:id="rId27"/>
-    <hyperlink ref="J48" r:id="rId28"/>
-    <hyperlink ref="J50" r:id="rId29"/>
-    <hyperlink ref="J52" r:id="rId30"/>
-    <hyperlink ref="J65" r:id="rId31"/>
-    <hyperlink ref="J67" r:id="rId32"/>
-    <hyperlink ref="J69" r:id="rId33"/>
-    <hyperlink ref="J70" r:id="rId34"/>
-    <hyperlink ref="B82" r:id="rId35" display="https://jira.ibos.io/browse/MGM-7443"/>
-    <hyperlink ref="B83" r:id="rId36" display="https://jira.ibos.io/browse/MGM-7443"/>
-    <hyperlink ref="B84" r:id="rId37" display="https://jira.ibos.io/browse/MGM-7443"/>
-    <hyperlink ref="B85" r:id="rId38" display="https://jira.ibos.io/browse/MGM-7443"/>
-    <hyperlink ref="B86" r:id="rId39" display="https://jira.ibos.io/browse/MGM-7443"/>
-    <hyperlink ref="B87" r:id="rId40" display="https://jira.ibos.io/browse/MGM-7443"/>
-    <hyperlink ref="B88" r:id="rId41" display="https://jira.ibos.io/browse/MGM-7443"/>
-    <hyperlink ref="B89" r:id="rId42" display="https://jira.ibos.io/browse/MGM-7443"/>
-    <hyperlink ref="B90" r:id="rId43" display="https://jira.ibos.io/browse/MGM-7443"/>
-    <hyperlink ref="J90" r:id="rId44"/>
-    <hyperlink ref="B91" r:id="rId45" display="https://jira.ibos.io/browse/MGM-7443"/>
-    <hyperlink ref="J91" r:id="rId46"/>
+    <hyperlink ref="J43" r:id="rId15"/>
+    <hyperlink ref="J44" r:id="rId16"/>
+    <hyperlink ref="J45" r:id="rId17"/>
+    <hyperlink ref="J46" r:id="rId18"/>
+    <hyperlink ref="J48" r:id="rId19"/>
+    <hyperlink ref="J50" r:id="rId20"/>
+    <hyperlink ref="J63" r:id="rId21"/>
+    <hyperlink ref="J65" r:id="rId22"/>
+    <hyperlink ref="J67" r:id="rId23"/>
+    <hyperlink ref="J68" r:id="rId24"/>
+    <hyperlink ref="B80" r:id="rId25" display="https://jira.ibos.io/browse/MGM-7443"/>
+    <hyperlink ref="B81" r:id="rId26" display="https://jira.ibos.io/browse/MGM-7443"/>
+    <hyperlink ref="B82" r:id="rId27" display="https://jira.ibos.io/browse/MGM-7443"/>
+    <hyperlink ref="B83" r:id="rId28" display="https://jira.ibos.io/browse/MGM-7443"/>
+    <hyperlink ref="B84" r:id="rId29" display="https://jira.ibos.io/browse/MGM-7443"/>
+    <hyperlink ref="B85" r:id="rId30" display="https://jira.ibos.io/browse/MGM-7443"/>
+    <hyperlink ref="B86" r:id="rId31" display="https://jira.ibos.io/browse/MGM-7443"/>
+    <hyperlink ref="B87" r:id="rId32" display="https://jira.ibos.io/browse/MGM-7443"/>
+    <hyperlink ref="B88" r:id="rId33" display="https://jira.ibos.io/browse/MGM-7443"/>
+    <hyperlink ref="J88" r:id="rId34"/>
+    <hyperlink ref="B89" r:id="rId35" display="https://jira.ibos.io/browse/MGM-7443"/>
+    <hyperlink ref="J89" r:id="rId36"/>
+    <hyperlink ref="B90" r:id="rId37" display="https://jira.ibos.io/browse/MGM-7523"/>
+    <hyperlink ref="J90" r:id="rId38"/>
+    <hyperlink ref="B91" r:id="rId39" display="https://jira.ibos.io/browse/MGM-7523"/>
+    <hyperlink ref="J91" r:id="rId40"/>
+    <hyperlink ref="B92" r:id="rId41" display="https://jira.ibos.io/browse/MGM-7523"/>
+    <hyperlink ref="B93" r:id="rId42" display="https://jira.ibos.io/browse/MGM-7523"/>
+    <hyperlink ref="J93" r:id="rId43"/>
+    <hyperlink ref="B94" r:id="rId44" display="https://jira.ibos.io/browse/MGM-7523"/>
+    <hyperlink ref="J94" r:id="rId45"/>
+    <hyperlink ref="B95" r:id="rId46" display="https://jira.ibos.io/browse/MGM-7523"/>
+    <hyperlink ref="J95" r:id="rId47"/>
+    <hyperlink ref="B96" r:id="rId48" display="https://jira.ibos.io/browse/MGM-7523"/>
+    <hyperlink ref="J96" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId47"/>
+  <pageSetup orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>
 
@@ -25014,37 +25865,37 @@
   <sheetData>
     <row r="1" spans="1:26" ht="30">
       <c r="A1" s="7" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="B1" s="7">
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -25064,17 +25915,17 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="B2" s="13">
         <v>45411</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="15" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -25082,7 +25933,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="16" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="L2" s="17">
         <v>45412</v>
@@ -25114,7 +25965,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="20" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="L3" s="21">
         <f>COUNTIF(G:G,"issue")</f>
@@ -25137,33 +25988,33 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="B4" s="13">
         <v>45622</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="22" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="12" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="L4" s="21">
         <f>COUNTIF(G:G,"bug")</f>
@@ -25196,7 +26047,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="25" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="L5" s="26"/>
       <c r="M5" s="6"/>
@@ -25226,7 +26077,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="27" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="L6" s="28">
         <f>COUNTIF(F:F,"Done")</f>
@@ -25259,7 +26110,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="29" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="L7" s="30">
         <f>COUNTIF(F:F,"Pending")</f>
@@ -25292,7 +26143,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="31" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="L8" s="32">
         <f>COUNTIF(F:F,"in progress")</f>
@@ -25325,7 +26176,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="33" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="L9" s="21">
         <f>COUNTIF(F:F,"reject")</f>
@@ -25379,7 +26230,7 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="35" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -25409,7 +26260,7 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="35" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>

--- a/Test Case In Managerium.xlsx
+++ b/Test Case In Managerium.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="549">
   <si>
     <t>Product Name</t>
   </si>
@@ -1957,6 +1957,158 @@
   </si>
   <si>
     <t>It should be successfully displays purchase received details when searched using a valid PO number.</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-7563</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sales Order</t>
+    </r>
+  </si>
+  <si>
+    <t>Create Sales Order</t>
+  </si>
+  <si>
+    <t>TC_087</t>
+  </si>
+  <si>
+    <t>Sale-Sales Order-Create Sales Order-fillup form-save</t>
+  </si>
+  <si>
+    <t>Create Date: Enter 12/11/2024. 
+Office: MGM Head Office. 
+Customer: ABDUL MONEM LIMITED (32 125761939) from the dropdown. 
+Ship To: the address Monem Business District 111, Bir Uttam C.R. Dutta Road, Level – 13. 
+Contact To: Enter Akbar 63. 
+Sales Force: Asaduzzaman. 
+Type: Sales. 
+Exp. Delivery Date: Enter 12/11/2024 
+Item- Customer 
+rwetrytytyrtwre - xiamio --0071324456 (PCS) 
+Quantity (PCS) - 3 
+Rate- 8</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-7563</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Approval</t>
+    </r>
+  </si>
+  <si>
+    <t>Sales Approval</t>
+  </si>
+  <si>
+    <t>TC_088</t>
+  </si>
+  <si>
+    <t>Verify Sales Order Approval Process</t>
+  </si>
+  <si>
+    <t>Approval-Sales Approval-Sales Order Approval-select-Approve-yes</t>
+  </si>
+  <si>
+    <t>It should be successfully Approve Sales Order</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-7563</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Purchase Receive</t>
+    </r>
+  </si>
+  <si>
+    <t>Direct Receive / Direct Purchase</t>
+  </si>
+  <si>
+    <t>TC_089</t>
+  </si>
+  <si>
+    <t>Try to Direct Receive / Direct Purchase tagging with SO</t>
+  </si>
+  <si>
+    <t>Purchase -Purchase Receive-Direct Receive / Direct Purchase -select Create From Sales Order-fillup form-save</t>
+  </si>
+  <si>
+    <t>Select Create From Sales Order 
+Sales Order- SO-M241200174 
+Customer-ABDUL MONEM LIMITED 
+Office- MGM Head Office 
+Warehouse-MGM Warehouse bd 
+Item Type- Inventory Item 
+Select Supplier - 1234 (2131211) 
+Receive Qty- 8 
+Rate (WST)- 9</t>
+  </si>
+  <si>
+    <t>It should be successfully Direct Receive / Direct Purchase</t>
+  </si>
+  <si>
+    <t>TC_090</t>
+  </si>
+  <si>
+    <t>Verify Purchase Received Details showing with PO Number/GRN</t>
+  </si>
+  <si>
+    <t>It should be successfully displays purchase received details when searched using a valid PO number./ GRN</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-7563</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sales </t>
+    </r>
+  </si>
+  <si>
+    <t>Sales Report</t>
+  </si>
+  <si>
+    <t>TC_091</t>
+  </si>
+  <si>
+    <t>Verify Sales Report Details like:(Sales Qty,Sales Order Amount,Purchase Qty,COGS/Purchase Amount) showing with SO.</t>
+  </si>
+  <si>
+    <t>Sale-Sales Report-View By View By Order Wise Profit/Margin-fillup form-view</t>
+  </si>
+  <si>
+    <t>It should be showing Sales Report Details like:(Sales Qty,Sales Order Amount,Purchase Qty,COGS/Purchase Amount)</t>
   </si>
 </sst>
 </file>
@@ -2275,7 +2427,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2470,12 +2622,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2671,34 +2838,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2748,6 +2887,52 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2971,8 +3156,8 @@
   </sheetPr>
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N103" sqref="N103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
@@ -2987,26 +3172,26 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="46"/>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="80" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="78"/>
-      <c r="F1" s="81" t="s">
+      <c r="E1" s="95"/>
+      <c r="F1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="78"/>
-      <c r="H1" s="83">
+      <c r="G1" s="95"/>
+      <c r="H1" s="103">
         <v>45615</v>
       </c>
-      <c r="I1" s="78"/>
-      <c r="J1" s="77" t="s">
+      <c r="I1" s="95"/>
+      <c r="J1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="78"/>
+      <c r="K1" s="95"/>
       <c r="L1" s="47"/>
       <c r="M1" s="48" t="s">
         <v>4</v>
@@ -3019,26 +3204,26 @@
     </row>
     <row r="2" spans="1:26" ht="13.8">
       <c r="A2" s="46"/>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="80" t="s">
+      <c r="C2" s="95"/>
+      <c r="D2" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="95"/>
+      <c r="F2" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="78"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="95"/>
       <c r="J2" s="49" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="50">
         <f>COUNTIF(M8:M1821,"Pass")</f>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L2" s="51" t="s">
         <v>9</v>
@@ -3052,16 +3237,16 @@
     </row>
     <row r="3" spans="1:26" ht="13.8">
       <c r="A3" s="46"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="81" t="s">
+      <c r="B3" s="96"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="78"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="95"/>
       <c r="J3" s="52" t="s">
         <v>11</v>
       </c>
@@ -3081,20 +3266,20 @@
     </row>
     <row r="4" spans="1:26" ht="171.6">
       <c r="A4" s="46"/>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="80" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="81" t="s">
+      <c r="E4" s="95"/>
+      <c r="F4" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="78"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="95"/>
       <c r="J4" s="49" t="s">
         <v>16</v>
       </c>
@@ -3114,28 +3299,28 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="46"/>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="80" t="s">
+      <c r="C5" s="95"/>
+      <c r="D5" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="81" t="s">
+      <c r="E5" s="95"/>
+      <c r="F5" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="78"/>
-      <c r="H5" s="82" t="s">
+      <c r="G5" s="95"/>
+      <c r="H5" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="78"/>
+      <c r="I5" s="95"/>
       <c r="J5" s="56" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="57">
         <f>SUM(K2+K3+K4)</f>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L5" s="51" t="s">
         <v>23</v>
@@ -3150,14 +3335,14 @@
     <row r="6" spans="1:26">
       <c r="A6" s="58"/>
       <c r="B6" s="58"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
       <c r="K6" s="58"/>
       <c r="L6" s="51" t="s">
         <v>24</v>
@@ -3244,13 +3429,13 @@
       <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="159" thickBot="1">
-      <c r="A9" s="87">
+      <c r="A9" s="77">
         <v>45615</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="78" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="62" t="s">
@@ -3271,10 +3456,10 @@
       <c r="I9" s="61" t="s">
         <v>452</v>
       </c>
-      <c r="J9" s="89" t="s">
+      <c r="J9" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="90" t="s">
+      <c r="K9" s="80" t="s">
         <v>49</v>
       </c>
       <c r="L9" s="61" t="s">
@@ -3283,8 +3468,8 @@
       <c r="M9" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
       <c r="P9" s="36"/>
       <c r="Q9" s="36"/>
       <c r="R9" s="36"/>
@@ -3299,10 +3484,10 @@
     </row>
     <row r="10" spans="1:26" ht="40.200000000000003" thickBot="1">
       <c r="A10" s="66"/>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="82" t="s">
         <v>453</v>
       </c>
       <c r="D10" s="68" t="s">
@@ -3322,7 +3507,7 @@
         <v>53</v>
       </c>
       <c r="J10" s="67"/>
-      <c r="K10" s="93" t="s">
+      <c r="K10" s="83" t="s">
         <v>54</v>
       </c>
       <c r="L10" s="67" t="s">
@@ -3347,10 +3532,10 @@
     </row>
     <row r="11" spans="1:26" ht="132.6" thickBot="1">
       <c r="A11" s="66"/>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="82" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="68" t="s">
@@ -3374,7 +3559,7 @@
       <c r="J11" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="93" t="s">
+      <c r="K11" s="83" t="s">
         <v>60</v>
       </c>
       <c r="L11" s="67" t="s">
@@ -3399,10 +3584,10 @@
     </row>
     <row r="12" spans="1:26" ht="40.200000000000003" thickBot="1">
       <c r="A12" s="66"/>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="82" t="s">
         <v>61</v>
       </c>
       <c r="D12" s="68" t="s">
@@ -3424,7 +3609,7 @@
         <v>53</v>
       </c>
       <c r="J12" s="67"/>
-      <c r="K12" s="93" t="s">
+      <c r="K12" s="83" t="s">
         <v>66</v>
       </c>
       <c r="L12" s="67" t="s">
@@ -3449,10 +3634,10 @@
     </row>
     <row r="13" spans="1:26" ht="119.4" thickBot="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="82" t="s">
         <v>61</v>
       </c>
       <c r="D13" s="68" t="s">
@@ -3476,7 +3661,7 @@
       <c r="J13" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="93" t="s">
+      <c r="K13" s="83" t="s">
         <v>72</v>
       </c>
       <c r="L13" s="67" t="s">
@@ -3501,10 +3686,10 @@
     </row>
     <row r="14" spans="1:26" ht="132.6" thickBot="1">
       <c r="A14" s="66"/>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="82" t="s">
         <v>61</v>
       </c>
       <c r="D14" s="68" t="s">
@@ -3528,7 +3713,7 @@
       <c r="J14" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="K14" s="93" t="s">
+      <c r="K14" s="83" t="s">
         <v>77</v>
       </c>
       <c r="L14" s="67" t="s">
@@ -3553,10 +3738,10 @@
     </row>
     <row r="15" spans="1:26" ht="119.4" thickBot="1">
       <c r="A15" s="66"/>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="82" t="s">
         <v>78</v>
       </c>
       <c r="D15" s="68" t="s">
@@ -3580,7 +3765,7 @@
       <c r="J15" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="K15" s="93" t="s">
+      <c r="K15" s="83" t="s">
         <v>455</v>
       </c>
       <c r="L15" s="67" t="s">
@@ -3605,10 +3790,10 @@
     </row>
     <row r="16" spans="1:26" ht="119.4" thickBot="1">
       <c r="A16" s="66"/>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="82" t="s">
         <v>78</v>
       </c>
       <c r="D16" s="68" t="s">
@@ -3659,10 +3844,10 @@
       <c r="A17" s="73">
         <v>45617</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="82" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="68" t="s">
@@ -3711,7 +3896,7 @@
     </row>
     <row r="18" spans="1:26" ht="14.4" thickBot="1">
       <c r="A18" s="66"/>
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="82" t="s">
         <v>94</v>
       </c>
       <c r="C18" s="67"/>
@@ -3747,10 +3932,10 @@
     </row>
     <row r="19" spans="1:26" ht="409.6" thickBot="1">
       <c r="A19" s="66"/>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="82" t="s">
         <v>96</v>
       </c>
       <c r="D19" s="68" t="s">
@@ -3799,10 +3984,10 @@
     </row>
     <row r="20" spans="1:26" ht="53.4" thickBot="1">
       <c r="A20" s="66"/>
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="82" t="s">
         <v>96</v>
       </c>
       <c r="D20" s="68" t="s">
@@ -3849,10 +4034,10 @@
     </row>
     <row r="21" spans="1:26" ht="53.4" thickBot="1">
       <c r="A21" s="66"/>
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="92" t="s">
+      <c r="C21" s="82" t="s">
         <v>96</v>
       </c>
       <c r="D21" s="68" t="s">
@@ -3901,10 +4086,10 @@
     </row>
     <row r="22" spans="1:26" ht="66.599999999999994" thickBot="1">
       <c r="A22" s="66"/>
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="92" t="s">
+      <c r="C22" s="82" t="s">
         <v>96</v>
       </c>
       <c r="D22" s="68" t="s">
@@ -3953,10 +4138,10 @@
     </row>
     <row r="23" spans="1:26" ht="93" thickBot="1">
       <c r="A23" s="66"/>
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="82" t="s">
         <v>96</v>
       </c>
       <c r="D23" s="68" t="s">
@@ -4005,10 +4190,10 @@
     </row>
     <row r="24" spans="1:26" ht="53.4" thickBot="1">
       <c r="A24" s="66"/>
-      <c r="B24" s="92" t="s">
+      <c r="B24" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="92" t="s">
+      <c r="C24" s="82" t="s">
         <v>96</v>
       </c>
       <c r="D24" s="68" t="s">
@@ -4057,10 +4242,10 @@
     </row>
     <row r="25" spans="1:26" ht="93" thickBot="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="92" t="s">
+      <c r="C25" s="82" t="s">
         <v>96</v>
       </c>
       <c r="D25" s="68" t="s">
@@ -4109,10 +4294,10 @@
     </row>
     <row r="26" spans="1:26" ht="170.4" customHeight="1" thickBot="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="82" t="s">
         <v>295</v>
       </c>
-      <c r="C26" s="92" t="s">
+      <c r="C26" s="82" t="s">
         <v>130</v>
       </c>
       <c r="D26" s="68" t="s">
@@ -4161,10 +4346,10 @@
     </row>
     <row r="27" spans="1:26" ht="14.4" thickBot="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="82" t="s">
         <v>295</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="82" t="s">
         <v>130</v>
       </c>
       <c r="D27" s="68" t="s">
@@ -4204,7 +4389,7 @@
     <row r="28" spans="1:26" ht="14.4" thickBot="1">
       <c r="A28" s="66"/>
       <c r="B28" s="67"/>
-      <c r="C28" s="92" t="s">
+      <c r="C28" s="82" t="s">
         <v>139</v>
       </c>
       <c r="D28" s="67"/>
@@ -4237,7 +4422,7 @@
     </row>
     <row r="29" spans="1:26" ht="79.8" thickBot="1">
       <c r="A29" s="66"/>
-      <c r="B29" s="92" t="s">
+      <c r="B29" s="82" t="s">
         <v>141</v>
       </c>
       <c r="C29" s="67"/>
@@ -4257,8 +4442,8 @@
       <c r="M29" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
       <c r="P29" s="36"/>
       <c r="Q29" s="36"/>
       <c r="R29" s="36"/>
@@ -4272,14 +4457,14 @@
       <c r="Z29" s="36"/>
     </row>
     <row r="30" spans="1:26" ht="238.8" thickBot="1">
-      <c r="A30" s="95"/>
-      <c r="B30" s="96" t="s">
+      <c r="A30" s="85"/>
+      <c r="B30" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="96" t="s">
+      <c r="C30" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="97" t="s">
+      <c r="D30" s="87" t="s">
         <v>44</v>
       </c>
       <c r="E30" s="69" t="s">
@@ -4288,7 +4473,7 @@
       <c r="F30" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="G30" s="98" t="s">
+      <c r="G30" s="88" t="s">
         <v>264</v>
       </c>
       <c r="H30" s="71" t="s">
@@ -4297,7 +4482,7 @@
       <c r="I30" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="J30" s="99" t="s">
+      <c r="J30" s="89" t="s">
         <v>149</v>
       </c>
       <c r="K30" s="71" t="s">
@@ -4306,32 +4491,32 @@
       <c r="L30" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="M30" s="100" t="s">
+      <c r="M30" s="90" t="s">
         <v>41</v>
       </c>
       <c r="N30" s="71"/>
       <c r="O30" s="71"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="101"/>
-      <c r="S30" s="101"/>
-      <c r="T30" s="101"/>
-      <c r="U30" s="101"/>
-      <c r="V30" s="101"/>
-      <c r="W30" s="101"/>
-      <c r="X30" s="101"/>
-      <c r="Y30" s="101"/>
-      <c r="Z30" s="101"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="91"/>
+      <c r="S30" s="91"/>
+      <c r="T30" s="91"/>
+      <c r="U30" s="91"/>
+      <c r="V30" s="91"/>
+      <c r="W30" s="91"/>
+      <c r="X30" s="91"/>
+      <c r="Y30" s="91"/>
+      <c r="Z30" s="91"/>
     </row>
     <row r="31" spans="1:26" ht="53.4" thickBot="1">
-      <c r="A31" s="102"/>
-      <c r="B31" s="96" t="s">
+      <c r="A31" s="92"/>
+      <c r="B31" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="96" t="s">
+      <c r="C31" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="97" t="s">
+      <c r="D31" s="87" t="s">
         <v>44</v>
       </c>
       <c r="E31" s="69" t="s">
@@ -4340,7 +4525,7 @@
       <c r="F31" s="67" t="s">
         <v>459</v>
       </c>
-      <c r="G31" s="103" t="s">
+      <c r="G31" s="93" t="s">
         <v>64</v>
       </c>
       <c r="H31" s="71" t="s">
@@ -4349,41 +4534,41 @@
       <c r="I31" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="J31" s="99" t="s">
+      <c r="J31" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="K31" s="102" t="s">
+      <c r="K31" s="92" t="s">
         <v>154</v>
       </c>
       <c r="L31" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="M31" s="100" t="s">
+      <c r="M31" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="101"/>
-      <c r="S31" s="101"/>
-      <c r="T31" s="101"/>
-      <c r="U31" s="101"/>
-      <c r="V31" s="101"/>
-      <c r="W31" s="101"/>
-      <c r="X31" s="101"/>
-      <c r="Y31" s="101"/>
-      <c r="Z31" s="101"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="91"/>
+      <c r="P31" s="91"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="91"/>
+      <c r="S31" s="91"/>
+      <c r="T31" s="91"/>
+      <c r="U31" s="91"/>
+      <c r="V31" s="91"/>
+      <c r="W31" s="91"/>
+      <c r="X31" s="91"/>
+      <c r="Y31" s="91"/>
+      <c r="Z31" s="91"/>
     </row>
     <row r="32" spans="1:26" ht="67.2" thickBot="1">
-      <c r="A32" s="102"/>
-      <c r="B32" s="96" t="s">
+      <c r="A32" s="92"/>
+      <c r="B32" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="C32" s="96" t="s">
+      <c r="C32" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="97" t="s">
+      <c r="D32" s="87" t="s">
         <v>44</v>
       </c>
       <c r="E32" s="69" t="s">
@@ -4392,7 +4577,7 @@
       <c r="F32" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="G32" s="98" t="s">
+      <c r="G32" s="88" t="s">
         <v>264</v>
       </c>
       <c r="H32" s="71" t="s">
@@ -4401,7 +4586,7 @@
       <c r="I32" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="J32" s="99" t="s">
+      <c r="J32" s="89" t="s">
         <v>159</v>
       </c>
       <c r="K32" s="71" t="s">
@@ -4410,32 +4595,32 @@
       <c r="L32" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="M32" s="100" t="s">
+      <c r="M32" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="N32" s="101"/>
-      <c r="O32" s="101"/>
-      <c r="P32" s="101"/>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="101"/>
-      <c r="S32" s="101"/>
-      <c r="T32" s="101"/>
-      <c r="U32" s="101"/>
-      <c r="V32" s="101"/>
-      <c r="W32" s="101"/>
-      <c r="X32" s="101"/>
-      <c r="Y32" s="101"/>
-      <c r="Z32" s="101"/>
+      <c r="N32" s="91"/>
+      <c r="O32" s="91"/>
+      <c r="P32" s="91"/>
+      <c r="Q32" s="91"/>
+      <c r="R32" s="91"/>
+      <c r="S32" s="91"/>
+      <c r="T32" s="91"/>
+      <c r="U32" s="91"/>
+      <c r="V32" s="91"/>
+      <c r="W32" s="91"/>
+      <c r="X32" s="91"/>
+      <c r="Y32" s="91"/>
+      <c r="Z32" s="91"/>
     </row>
     <row r="33" spans="1:26" ht="133.19999999999999" thickBot="1">
-      <c r="A33" s="102"/>
-      <c r="B33" s="96" t="s">
+      <c r="A33" s="92"/>
+      <c r="B33" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="96" t="s">
+      <c r="C33" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="97" t="s">
+      <c r="D33" s="87" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="69" t="s">
@@ -4444,7 +4629,7 @@
       <c r="F33" s="71" t="s">
         <v>460</v>
       </c>
-      <c r="G33" s="98" t="s">
+      <c r="G33" s="88" t="s">
         <v>264</v>
       </c>
       <c r="H33" s="71" t="s">
@@ -4458,32 +4643,32 @@
       <c r="L33" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="M33" s="100" t="s">
+      <c r="M33" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="N33" s="101"/>
-      <c r="O33" s="101"/>
-      <c r="P33" s="101"/>
-      <c r="Q33" s="101"/>
-      <c r="R33" s="101"/>
-      <c r="S33" s="101"/>
-      <c r="T33" s="101"/>
-      <c r="U33" s="101"/>
-      <c r="V33" s="101"/>
-      <c r="W33" s="101"/>
-      <c r="X33" s="101"/>
-      <c r="Y33" s="101"/>
-      <c r="Z33" s="101"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="91"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="91"/>
+      <c r="R33" s="91"/>
+      <c r="S33" s="91"/>
+      <c r="T33" s="91"/>
+      <c r="U33" s="91"/>
+      <c r="V33" s="91"/>
+      <c r="W33" s="91"/>
+      <c r="X33" s="91"/>
+      <c r="Y33" s="91"/>
+      <c r="Z33" s="91"/>
     </row>
     <row r="34" spans="1:26" ht="133.19999999999999" thickBot="1">
-      <c r="A34" s="102"/>
-      <c r="B34" s="96" t="s">
+      <c r="A34" s="92"/>
+      <c r="B34" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="C34" s="96" t="s">
+      <c r="C34" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="D34" s="97" t="s">
+      <c r="D34" s="87" t="s">
         <v>44</v>
       </c>
       <c r="E34" s="69" t="s">
@@ -4492,7 +4677,7 @@
       <c r="F34" s="71" t="s">
         <v>461</v>
       </c>
-      <c r="G34" s="98" t="s">
+      <c r="G34" s="88" t="s">
         <v>264</v>
       </c>
       <c r="H34" s="71" t="s">
@@ -4506,32 +4691,32 @@
       <c r="L34" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="M34" s="100" t="s">
+      <c r="M34" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="N34" s="101"/>
-      <c r="O34" s="101"/>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="101"/>
-      <c r="S34" s="101"/>
-      <c r="T34" s="101"/>
-      <c r="U34" s="101"/>
-      <c r="V34" s="101"/>
-      <c r="W34" s="101"/>
-      <c r="X34" s="101"/>
-      <c r="Y34" s="101"/>
-      <c r="Z34" s="101"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="91"/>
+      <c r="S34" s="91"/>
+      <c r="T34" s="91"/>
+      <c r="U34" s="91"/>
+      <c r="V34" s="91"/>
+      <c r="W34" s="91"/>
+      <c r="X34" s="91"/>
+      <c r="Y34" s="91"/>
+      <c r="Z34" s="91"/>
     </row>
     <row r="35" spans="1:26" ht="80.400000000000006" thickBot="1">
-      <c r="A35" s="102"/>
-      <c r="B35" s="96" t="s">
+      <c r="A35" s="92"/>
+      <c r="B35" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="96" t="s">
+      <c r="C35" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="97" t="s">
+      <c r="D35" s="87" t="s">
         <v>44</v>
       </c>
       <c r="E35" s="69" t="s">
@@ -4540,7 +4725,7 @@
       <c r="F35" s="71" t="s">
         <v>463</v>
       </c>
-      <c r="G35" s="103" t="s">
+      <c r="G35" s="93" t="s">
         <v>64</v>
       </c>
       <c r="H35" s="71" t="s">
@@ -4549,7 +4734,7 @@
       <c r="I35" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="J35" s="99" t="s">
+      <c r="J35" s="89" t="s">
         <v>167</v>
       </c>
       <c r="K35" s="71" t="s">
@@ -4558,32 +4743,32 @@
       <c r="L35" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="M35" s="100" t="s">
+      <c r="M35" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="N35" s="101"/>
-      <c r="O35" s="101"/>
-      <c r="P35" s="101"/>
-      <c r="Q35" s="101"/>
-      <c r="R35" s="101"/>
-      <c r="S35" s="101"/>
-      <c r="T35" s="101"/>
-      <c r="U35" s="101"/>
-      <c r="V35" s="101"/>
-      <c r="W35" s="101"/>
-      <c r="X35" s="101"/>
-      <c r="Y35" s="101"/>
-      <c r="Z35" s="101"/>
+      <c r="N35" s="91"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="91"/>
+      <c r="Q35" s="91"/>
+      <c r="R35" s="91"/>
+      <c r="S35" s="91"/>
+      <c r="T35" s="91"/>
+      <c r="U35" s="91"/>
+      <c r="V35" s="91"/>
+      <c r="W35" s="91"/>
+      <c r="X35" s="91"/>
+      <c r="Y35" s="91"/>
+      <c r="Z35" s="91"/>
     </row>
     <row r="36" spans="1:26" ht="80.400000000000006" thickBot="1">
-      <c r="A36" s="102"/>
-      <c r="B36" s="96" t="s">
+      <c r="A36" s="92"/>
+      <c r="B36" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="96" t="s">
+      <c r="C36" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="97" t="s">
+      <c r="D36" s="87" t="s">
         <v>44</v>
       </c>
       <c r="E36" s="69" t="s">
@@ -4592,7 +4777,7 @@
       <c r="F36" s="71" t="s">
         <v>463</v>
       </c>
-      <c r="G36" s="103" t="s">
+      <c r="G36" s="93" t="s">
         <v>64</v>
       </c>
       <c r="H36" s="71" t="s">
@@ -4608,32 +4793,32 @@
       <c r="L36" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="M36" s="100" t="s">
+      <c r="M36" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="N36" s="101"/>
-      <c r="O36" s="101"/>
-      <c r="P36" s="101"/>
-      <c r="Q36" s="101"/>
-      <c r="R36" s="101"/>
-      <c r="S36" s="101"/>
-      <c r="T36" s="101"/>
-      <c r="U36" s="101"/>
-      <c r="V36" s="101"/>
-      <c r="W36" s="101"/>
-      <c r="X36" s="101"/>
-      <c r="Y36" s="101"/>
-      <c r="Z36" s="101"/>
+      <c r="N36" s="91"/>
+      <c r="O36" s="91"/>
+      <c r="P36" s="91"/>
+      <c r="Q36" s="91"/>
+      <c r="R36" s="91"/>
+      <c r="S36" s="91"/>
+      <c r="T36" s="91"/>
+      <c r="U36" s="91"/>
+      <c r="V36" s="91"/>
+      <c r="W36" s="91"/>
+      <c r="X36" s="91"/>
+      <c r="Y36" s="91"/>
+      <c r="Z36" s="91"/>
     </row>
     <row r="37" spans="1:26" ht="93.6" thickBot="1">
-      <c r="A37" s="102"/>
-      <c r="B37" s="96" t="s">
+      <c r="A37" s="92"/>
+      <c r="B37" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="96" t="s">
+      <c r="C37" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="D37" s="97" t="s">
+      <c r="D37" s="87" t="s">
         <v>44</v>
       </c>
       <c r="E37" s="69" t="s">
@@ -4642,7 +4827,7 @@
       <c r="F37" s="71" t="s">
         <v>464</v>
       </c>
-      <c r="G37" s="98" t="s">
+      <c r="G37" s="88" t="s">
         <v>264</v>
       </c>
       <c r="H37" s="71" t="s">
@@ -4658,32 +4843,32 @@
       <c r="L37" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="M37" s="100" t="s">
+      <c r="M37" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="N37" s="101"/>
-      <c r="O37" s="101"/>
-      <c r="P37" s="101"/>
-      <c r="Q37" s="101"/>
-      <c r="R37" s="101"/>
-      <c r="S37" s="101"/>
-      <c r="T37" s="101"/>
-      <c r="U37" s="101"/>
-      <c r="V37" s="101"/>
-      <c r="W37" s="101"/>
-      <c r="X37" s="101"/>
-      <c r="Y37" s="101"/>
-      <c r="Z37" s="101"/>
+      <c r="N37" s="91"/>
+      <c r="O37" s="91"/>
+      <c r="P37" s="91"/>
+      <c r="Q37" s="91"/>
+      <c r="R37" s="91"/>
+      <c r="S37" s="91"/>
+      <c r="T37" s="91"/>
+      <c r="U37" s="91"/>
+      <c r="V37" s="91"/>
+      <c r="W37" s="91"/>
+      <c r="X37" s="91"/>
+      <c r="Y37" s="91"/>
+      <c r="Z37" s="91"/>
     </row>
     <row r="38" spans="1:26" ht="93.6" thickBot="1">
-      <c r="A38" s="102"/>
-      <c r="B38" s="96" t="s">
+      <c r="A38" s="92"/>
+      <c r="B38" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="C38" s="96" t="s">
+      <c r="C38" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="97" t="s">
+      <c r="D38" s="87" t="s">
         <v>44</v>
       </c>
       <c r="E38" s="69" t="s">
@@ -4692,7 +4877,7 @@
       <c r="F38" s="71" t="s">
         <v>466</v>
       </c>
-      <c r="G38" s="98" t="s">
+      <c r="G38" s="88" t="s">
         <v>264</v>
       </c>
       <c r="H38" s="71" t="s">
@@ -4701,7 +4886,7 @@
       <c r="I38" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="J38" s="99" t="s">
+      <c r="J38" s="89" t="s">
         <v>177</v>
       </c>
       <c r="K38" s="71" t="s">
@@ -4710,32 +4895,32 @@
       <c r="L38" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="M38" s="100" t="s">
+      <c r="M38" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="N38" s="101"/>
-      <c r="O38" s="101"/>
-      <c r="P38" s="101"/>
-      <c r="Q38" s="101"/>
-      <c r="R38" s="101"/>
-      <c r="S38" s="101"/>
-      <c r="T38" s="101"/>
-      <c r="U38" s="101"/>
-      <c r="V38" s="101"/>
-      <c r="W38" s="101"/>
-      <c r="X38" s="101"/>
-      <c r="Y38" s="101"/>
-      <c r="Z38" s="101"/>
+      <c r="N38" s="91"/>
+      <c r="O38" s="91"/>
+      <c r="P38" s="91"/>
+      <c r="Q38" s="91"/>
+      <c r="R38" s="91"/>
+      <c r="S38" s="91"/>
+      <c r="T38" s="91"/>
+      <c r="U38" s="91"/>
+      <c r="V38" s="91"/>
+      <c r="W38" s="91"/>
+      <c r="X38" s="91"/>
+      <c r="Y38" s="91"/>
+      <c r="Z38" s="91"/>
     </row>
     <row r="39" spans="1:26" ht="120" thickBot="1">
-      <c r="A39" s="102"/>
-      <c r="B39" s="96" t="s">
+      <c r="A39" s="92"/>
+      <c r="B39" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="96" t="s">
+      <c r="C39" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="D39" s="97" t="s">
+      <c r="D39" s="87" t="s">
         <v>44</v>
       </c>
       <c r="E39" s="69" t="s">
@@ -4744,7 +4929,7 @@
       <c r="F39" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="G39" s="98" t="s">
+      <c r="G39" s="88" t="s">
         <v>264</v>
       </c>
       <c r="H39" s="71" t="s">
@@ -4753,7 +4938,7 @@
       <c r="I39" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="J39" s="99" t="s">
+      <c r="J39" s="89" t="s">
         <v>181</v>
       </c>
       <c r="K39" s="71" t="s">
@@ -4762,32 +4947,32 @@
       <c r="L39" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="M39" s="100" t="s">
+      <c r="M39" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="N39" s="101"/>
-      <c r="O39" s="101"/>
-      <c r="P39" s="101"/>
-      <c r="Q39" s="101"/>
-      <c r="R39" s="101"/>
-      <c r="S39" s="101"/>
-      <c r="T39" s="101"/>
-      <c r="U39" s="101"/>
-      <c r="V39" s="101"/>
-      <c r="W39" s="101"/>
-      <c r="X39" s="101"/>
-      <c r="Y39" s="101"/>
-      <c r="Z39" s="101"/>
+      <c r="N39" s="91"/>
+      <c r="O39" s="91"/>
+      <c r="P39" s="91"/>
+      <c r="Q39" s="91"/>
+      <c r="R39" s="91"/>
+      <c r="S39" s="91"/>
+      <c r="T39" s="91"/>
+      <c r="U39" s="91"/>
+      <c r="V39" s="91"/>
+      <c r="W39" s="91"/>
+      <c r="X39" s="91"/>
+      <c r="Y39" s="91"/>
+      <c r="Z39" s="91"/>
     </row>
     <row r="40" spans="1:26" ht="67.2" thickBot="1">
-      <c r="A40" s="102"/>
-      <c r="B40" s="96" t="s">
+      <c r="A40" s="92"/>
+      <c r="B40" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="C40" s="96" t="s">
+      <c r="C40" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="D40" s="97" t="s">
+      <c r="D40" s="87" t="s">
         <v>44</v>
       </c>
       <c r="E40" s="69" t="s">
@@ -4796,7 +4981,7 @@
       <c r="F40" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="G40" s="103" t="s">
+      <c r="G40" s="93" t="s">
         <v>64</v>
       </c>
       <c r="H40" s="71" t="s">
@@ -4805,7 +4990,7 @@
       <c r="I40" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="J40" s="99" t="s">
+      <c r="J40" s="89" t="s">
         <v>187</v>
       </c>
       <c r="K40" s="71" t="s">
@@ -4814,32 +4999,32 @@
       <c r="L40" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="M40" s="100" t="s">
+      <c r="M40" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="N40" s="101"/>
-      <c r="O40" s="101"/>
-      <c r="P40" s="101"/>
-      <c r="Q40" s="101"/>
-      <c r="R40" s="101"/>
-      <c r="S40" s="101"/>
-      <c r="T40" s="101"/>
-      <c r="U40" s="101"/>
-      <c r="V40" s="101"/>
-      <c r="W40" s="101"/>
-      <c r="X40" s="101"/>
-      <c r="Y40" s="101"/>
-      <c r="Z40" s="101"/>
+      <c r="N40" s="91"/>
+      <c r="O40" s="91"/>
+      <c r="P40" s="91"/>
+      <c r="Q40" s="91"/>
+      <c r="R40" s="91"/>
+      <c r="S40" s="91"/>
+      <c r="T40" s="91"/>
+      <c r="U40" s="91"/>
+      <c r="V40" s="91"/>
+      <c r="W40" s="91"/>
+      <c r="X40" s="91"/>
+      <c r="Y40" s="91"/>
+      <c r="Z40" s="91"/>
     </row>
     <row r="41" spans="1:26" ht="93.6" thickBot="1">
       <c r="A41" s="71"/>
-      <c r="B41" s="96" t="s">
+      <c r="B41" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="96" t="s">
+      <c r="C41" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="D41" s="97" t="s">
+      <c r="D41" s="87" t="s">
         <v>44</v>
       </c>
       <c r="E41" s="69" t="s">
@@ -4848,7 +5033,7 @@
       <c r="F41" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="G41" s="103" t="s">
+      <c r="G41" s="93" t="s">
         <v>64</v>
       </c>
       <c r="H41" s="71" t="s">
@@ -4857,7 +5042,7 @@
       <c r="I41" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="J41" s="99" t="s">
+      <c r="J41" s="89" t="s">
         <v>192</v>
       </c>
       <c r="K41" s="71" t="s">
@@ -4866,28 +5051,28 @@
       <c r="L41" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="M41" s="100" t="s">
+      <c r="M41" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="N41" s="101"/>
-      <c r="O41" s="101"/>
-      <c r="P41" s="101"/>
-      <c r="Q41" s="101"/>
-      <c r="R41" s="101"/>
-      <c r="S41" s="101"/>
-      <c r="T41" s="101"/>
-      <c r="U41" s="101"/>
-      <c r="V41" s="101"/>
-      <c r="W41" s="101"/>
-      <c r="X41" s="101"/>
-      <c r="Y41" s="101"/>
-      <c r="Z41" s="101"/>
+      <c r="N41" s="91"/>
+      <c r="O41" s="91"/>
+      <c r="P41" s="91"/>
+      <c r="Q41" s="91"/>
+      <c r="R41" s="91"/>
+      <c r="S41" s="91"/>
+      <c r="T41" s="91"/>
+      <c r="U41" s="91"/>
+      <c r="V41" s="91"/>
+      <c r="W41" s="91"/>
+      <c r="X41" s="91"/>
+      <c r="Y41" s="91"/>
+      <c r="Z41" s="91"/>
     </row>
     <row r="42" spans="1:26" ht="66.599999999999994" thickBot="1">
       <c r="A42" s="73">
         <v>45620</v>
       </c>
-      <c r="B42" s="92" t="s">
+      <c r="B42" s="82" t="s">
         <v>194</v>
       </c>
       <c r="C42" s="67"/>
@@ -4919,10 +5104,10 @@
     </row>
     <row r="43" spans="1:26" ht="132.6" thickBot="1">
       <c r="A43" s="66"/>
-      <c r="B43" s="92" t="s">
+      <c r="B43" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="92" t="s">
+      <c r="C43" s="82" t="s">
         <v>337</v>
       </c>
       <c r="D43" s="68" t="s">
@@ -4971,10 +5156,10 @@
     </row>
     <row r="44" spans="1:26" ht="198.6" thickBot="1">
       <c r="A44" s="66"/>
-      <c r="B44" s="92" t="s">
+      <c r="B44" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="C44" s="92" t="s">
+      <c r="C44" s="82" t="s">
         <v>469</v>
       </c>
       <c r="D44" s="68" t="s">
@@ -5023,10 +5208,10 @@
     </row>
     <row r="45" spans="1:26" ht="119.4" thickBot="1">
       <c r="A45" s="66"/>
-      <c r="B45" s="92" t="s">
+      <c r="B45" s="82" t="s">
         <v>263</v>
       </c>
-      <c r="C45" s="92" t="s">
+      <c r="C45" s="82" t="s">
         <v>207</v>
       </c>
       <c r="D45" s="68" t="s">
@@ -5075,10 +5260,10 @@
     </row>
     <row r="46" spans="1:26" ht="119.4" thickBot="1">
       <c r="A46" s="66"/>
-      <c r="B46" s="92" t="s">
+      <c r="B46" s="82" t="s">
         <v>263</v>
       </c>
-      <c r="C46" s="92" t="s">
+      <c r="C46" s="82" t="s">
         <v>207</v>
       </c>
       <c r="D46" s="68" t="s">
@@ -5129,10 +5314,10 @@
       <c r="A47" s="73">
         <v>45628</v>
       </c>
-      <c r="B47" s="92" t="s">
+      <c r="B47" s="82" t="s">
         <v>263</v>
       </c>
-      <c r="C47" s="92" t="s">
+      <c r="C47" s="82" t="s">
         <v>207</v>
       </c>
       <c r="D47" s="68" t="s">
@@ -5179,10 +5364,10 @@
     </row>
     <row r="48" spans="1:26" ht="40.200000000000003" thickBot="1">
       <c r="A48" s="66"/>
-      <c r="B48" s="92" t="s">
+      <c r="B48" s="82" t="s">
         <v>263</v>
       </c>
-      <c r="C48" s="92" t="s">
+      <c r="C48" s="82" t="s">
         <v>207</v>
       </c>
       <c r="D48" s="68" t="s">
@@ -5229,10 +5414,10 @@
     </row>
     <row r="49" spans="1:26" ht="251.4" thickBot="1">
       <c r="A49" s="66"/>
-      <c r="B49" s="92" t="s">
+      <c r="B49" s="82" t="s">
         <v>273</v>
       </c>
-      <c r="C49" s="92" t="s">
+      <c r="C49" s="82" t="s">
         <v>274</v>
       </c>
       <c r="D49" s="68" t="s">
@@ -5279,10 +5464,10 @@
     </row>
     <row r="50" spans="1:26" ht="79.8" thickBot="1">
       <c r="A50" s="66"/>
-      <c r="B50" s="92" t="s">
+      <c r="B50" s="82" t="s">
         <v>273</v>
       </c>
-      <c r="C50" s="92" t="s">
+      <c r="C50" s="82" t="s">
         <v>274</v>
       </c>
       <c r="D50" s="68" t="s">
@@ -5329,10 +5514,10 @@
     </row>
     <row r="51" spans="1:26" ht="79.8" thickBot="1">
       <c r="A51" s="66"/>
-      <c r="B51" s="92" t="s">
+      <c r="B51" s="82" t="s">
         <v>273</v>
       </c>
-      <c r="C51" s="92" t="s">
+      <c r="C51" s="82" t="s">
         <v>283</v>
       </c>
       <c r="D51" s="68" t="s">
@@ -5379,10 +5564,10 @@
     </row>
     <row r="52" spans="1:26" ht="66.599999999999994" thickBot="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="92" t="s">
+      <c r="B52" s="82" t="s">
         <v>273</v>
       </c>
-      <c r="C52" s="92" t="s">
+      <c r="C52" s="82" t="s">
         <v>283</v>
       </c>
       <c r="D52" s="68" t="s">
@@ -5427,10 +5612,10 @@
     </row>
     <row r="53" spans="1:26" ht="79.8" thickBot="1">
       <c r="A53" s="66"/>
-      <c r="B53" s="92" t="s">
+      <c r="B53" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="C53" s="92" t="s">
+      <c r="C53" s="82" t="s">
         <v>291</v>
       </c>
       <c r="D53" s="68" t="s">
@@ -5475,10 +5660,10 @@
     </row>
     <row r="54" spans="1:26" ht="343.8" thickBot="1">
       <c r="A54" s="66"/>
-      <c r="B54" s="92" t="s">
+      <c r="B54" s="82" t="s">
         <v>295</v>
       </c>
-      <c r="C54" s="92" t="s">
+      <c r="C54" s="82" t="s">
         <v>296</v>
       </c>
       <c r="D54" s="68" t="s">
@@ -5525,10 +5710,10 @@
     </row>
     <row r="55" spans="1:26" ht="53.4" thickBot="1">
       <c r="A55" s="66"/>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="82" t="s">
         <v>295</v>
       </c>
-      <c r="C55" s="92" t="s">
+      <c r="C55" s="82" t="s">
         <v>296</v>
       </c>
       <c r="D55" s="68" t="s">
@@ -5575,10 +5760,10 @@
     </row>
     <row r="56" spans="1:26" ht="172.2" thickBot="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="92" t="s">
+      <c r="B56" s="82" t="s">
         <v>295</v>
       </c>
-      <c r="C56" s="92" t="s">
+      <c r="C56" s="82" t="s">
         <v>305</v>
       </c>
       <c r="D56" s="68" t="s">
@@ -5625,10 +5810,10 @@
     </row>
     <row r="57" spans="1:26" ht="53.4" thickBot="1">
       <c r="A57" s="66"/>
-      <c r="B57" s="92" t="s">
+      <c r="B57" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="C57" s="92" t="s">
+      <c r="C57" s="82" t="s">
         <v>309</v>
       </c>
       <c r="D57" s="68" t="s">
@@ -5673,10 +5858,10 @@
     </row>
     <row r="58" spans="1:26" ht="211.8" thickBot="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="92" t="s">
+      <c r="B58" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="C58" s="92" t="s">
+      <c r="C58" s="82" t="s">
         <v>313</v>
       </c>
       <c r="D58" s="68" t="s">
@@ -5723,10 +5908,10 @@
     </row>
     <row r="59" spans="1:26" ht="106.2" thickBot="1">
       <c r="A59" s="66"/>
-      <c r="B59" s="92" t="s">
+      <c r="B59" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="C59" s="92" t="s">
+      <c r="C59" s="82" t="s">
         <v>318</v>
       </c>
       <c r="D59" s="68" t="s">
@@ -5773,10 +5958,10 @@
     </row>
     <row r="60" spans="1:26" ht="291" thickBot="1">
       <c r="A60" s="66"/>
-      <c r="B60" s="92" t="s">
+      <c r="B60" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="C60" s="92" t="s">
+      <c r="C60" s="82" t="s">
         <v>323</v>
       </c>
       <c r="D60" s="68" t="s">
@@ -5823,10 +6008,10 @@
     </row>
     <row r="61" spans="1:26" ht="251.4" thickBot="1">
       <c r="A61" s="66"/>
-      <c r="B61" s="92" t="s">
+      <c r="B61" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="C61" s="92" t="s">
+      <c r="C61" s="82" t="s">
         <v>328</v>
       </c>
       <c r="D61" s="68" t="s">
@@ -5873,10 +6058,10 @@
     </row>
     <row r="62" spans="1:26" ht="79.8" thickBot="1">
       <c r="A62" s="66"/>
-      <c r="B62" s="92" t="s">
+      <c r="B62" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="C62" s="92" t="s">
+      <c r="C62" s="82" t="s">
         <v>333</v>
       </c>
       <c r="D62" s="68" t="s">
@@ -5921,10 +6106,10 @@
     </row>
     <row r="63" spans="1:26" ht="106.2" thickBot="1">
       <c r="A63" s="66"/>
-      <c r="B63" s="92" t="s">
+      <c r="B63" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="C63" s="92" t="s">
+      <c r="C63" s="82" t="s">
         <v>337</v>
       </c>
       <c r="D63" s="68" t="s">
@@ -5973,10 +6158,10 @@
     </row>
     <row r="64" spans="1:26" ht="66.599999999999994" thickBot="1">
       <c r="A64" s="66"/>
-      <c r="B64" s="92" t="s">
+      <c r="B64" s="82" t="s">
         <v>343</v>
       </c>
-      <c r="C64" s="92" t="s">
+      <c r="C64" s="82" t="s">
         <v>78</v>
       </c>
       <c r="D64" s="68" t="s">
@@ -6021,10 +6206,10 @@
     </row>
     <row r="65" spans="1:26" ht="106.2" thickBot="1">
       <c r="A65" s="66"/>
-      <c r="B65" s="92" t="s">
+      <c r="B65" s="82" t="s">
         <v>263</v>
       </c>
-      <c r="C65" s="92" t="s">
+      <c r="C65" s="82" t="s">
         <v>207</v>
       </c>
       <c r="D65" s="68" t="s">
@@ -6073,10 +6258,10 @@
     </row>
     <row r="66" spans="1:26" ht="53.4" thickBot="1">
       <c r="A66" s="66"/>
-      <c r="B66" s="92" t="s">
+      <c r="B66" s="82" t="s">
         <v>263</v>
       </c>
-      <c r="C66" s="92" t="s">
+      <c r="C66" s="82" t="s">
         <v>207</v>
       </c>
       <c r="D66" s="68" t="s">
@@ -6121,10 +6306,10 @@
     </row>
     <row r="67" spans="1:26" ht="396.6" thickBot="1">
       <c r="A67" s="66"/>
-      <c r="B67" s="92" t="s">
+      <c r="B67" s="82" t="s">
         <v>273</v>
       </c>
-      <c r="C67" s="92" t="s">
+      <c r="C67" s="82" t="s">
         <v>274</v>
       </c>
       <c r="D67" s="68" t="s">
@@ -6173,10 +6358,10 @@
     </row>
     <row r="68" spans="1:26" ht="79.8" thickBot="1">
       <c r="A68" s="66"/>
-      <c r="B68" s="92" t="s">
+      <c r="B68" s="82" t="s">
         <v>273</v>
       </c>
-      <c r="C68" s="92" t="s">
+      <c r="C68" s="82" t="s">
         <v>274</v>
       </c>
       <c r="D68" s="68" t="s">
@@ -6223,7 +6408,7 @@
     </row>
     <row r="69" spans="1:26" ht="132.6" thickBot="1">
       <c r="A69" s="66"/>
-      <c r="B69" s="92" t="s">
+      <c r="B69" s="82" t="s">
         <v>273</v>
       </c>
       <c r="C69" s="67" t="s">
@@ -6273,7 +6458,7 @@
     </row>
     <row r="70" spans="1:26" ht="66.599999999999994" thickBot="1">
       <c r="A70" s="66"/>
-      <c r="B70" s="92" t="s">
+      <c r="B70" s="82" t="s">
         <v>273</v>
       </c>
       <c r="C70" s="67" t="s">
@@ -6321,7 +6506,7 @@
     </row>
     <row r="71" spans="1:26" ht="159" thickBot="1">
       <c r="A71" s="66"/>
-      <c r="B71" s="92" t="s">
+      <c r="B71" s="82" t="s">
         <v>170</v>
       </c>
       <c r="C71" s="67" t="s">
@@ -7623,107 +7808,253 @@
       <c r="Y96" s="36"/>
       <c r="Z96" s="36"/>
     </row>
-    <row r="97" spans="1:18">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
-      <c r="O97" s="4"/>
-      <c r="P97" s="4"/>
-      <c r="Q97" s="4"/>
-      <c r="R97" s="4"/>
-    </row>
-    <row r="98" spans="1:18">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
-      <c r="N98" s="4"/>
-      <c r="O98" s="4"/>
-      <c r="P98" s="4"/>
-      <c r="Q98" s="4"/>
-      <c r="R98" s="4"/>
-    </row>
-    <row r="99" spans="1:18">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
-      <c r="P99" s="4"/>
-      <c r="Q99" s="4"/>
-      <c r="R99" s="4"/>
-    </row>
-    <row r="100" spans="1:18">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
-      <c r="O100" s="4"/>
-      <c r="P100" s="4"/>
-      <c r="Q100" s="4"/>
-      <c r="R100" s="4"/>
-    </row>
-    <row r="101" spans="1:18">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
-      <c r="O101" s="4"/>
-      <c r="P101" s="4"/>
-      <c r="Q101" s="4"/>
-      <c r="R101" s="4"/>
-    </row>
-    <row r="102" spans="1:18">
+    <row r="97" spans="1:26" ht="143.4" customHeight="1" thickBot="1">
+      <c r="A97" s="104">
+        <v>45637</v>
+      </c>
+      <c r="B97" s="105" t="s">
+        <v>522</v>
+      </c>
+      <c r="C97" s="61" t="s">
+        <v>523</v>
+      </c>
+      <c r="D97" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E97" s="63" t="s">
+        <v>524</v>
+      </c>
+      <c r="F97" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="G97" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="H97" s="61" t="s">
+        <v>525</v>
+      </c>
+      <c r="I97" s="61" t="s">
+        <v>526</v>
+      </c>
+      <c r="J97" s="61"/>
+      <c r="K97" s="79" t="s">
+        <v>527</v>
+      </c>
+      <c r="L97" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="M97" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="N97" s="36"/>
+      <c r="O97" s="36"/>
+      <c r="P97" s="36"/>
+      <c r="Q97" s="36"/>
+      <c r="R97" s="36"/>
+      <c r="S97" s="36"/>
+      <c r="T97" s="36"/>
+      <c r="U97" s="36"/>
+      <c r="V97" s="36"/>
+      <c r="W97" s="36"/>
+      <c r="X97" s="36"/>
+      <c r="Y97" s="36"/>
+      <c r="Z97" s="36"/>
+    </row>
+    <row r="98" spans="1:26" ht="53.4" thickBot="1">
+      <c r="A98" s="66"/>
+      <c r="B98" s="107" t="s">
+        <v>527</v>
+      </c>
+      <c r="C98" s="67" t="s">
+        <v>528</v>
+      </c>
+      <c r="D98" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E98" s="69" t="s">
+        <v>529</v>
+      </c>
+      <c r="F98" s="67" t="s">
+        <v>530</v>
+      </c>
+      <c r="G98" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H98" s="67" t="s">
+        <v>531</v>
+      </c>
+      <c r="I98" s="67"/>
+      <c r="J98" s="67"/>
+      <c r="K98" s="67" t="s">
+        <v>532</v>
+      </c>
+      <c r="L98" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M98" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N98" s="36"/>
+      <c r="O98" s="36"/>
+      <c r="P98" s="36"/>
+      <c r="Q98" s="36"/>
+      <c r="R98" s="36"/>
+      <c r="S98" s="36"/>
+      <c r="T98" s="36"/>
+      <c r="U98" s="36"/>
+      <c r="V98" s="36"/>
+      <c r="W98" s="36"/>
+      <c r="X98" s="36"/>
+      <c r="Y98" s="36"/>
+      <c r="Z98" s="36"/>
+    </row>
+    <row r="99" spans="1:26" ht="146.4" customHeight="1" thickBot="1">
+      <c r="A99" s="66"/>
+      <c r="B99" s="107" t="s">
+        <v>533</v>
+      </c>
+      <c r="C99" s="67" t="s">
+        <v>534</v>
+      </c>
+      <c r="D99" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E99" s="69" t="s">
+        <v>535</v>
+      </c>
+      <c r="F99" s="67" t="s">
+        <v>536</v>
+      </c>
+      <c r="G99" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H99" s="67" t="s">
+        <v>537</v>
+      </c>
+      <c r="I99" s="67" t="s">
+        <v>538</v>
+      </c>
+      <c r="J99" s="67"/>
+      <c r="K99" s="67" t="s">
+        <v>539</v>
+      </c>
+      <c r="L99" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M99" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N99" s="36"/>
+      <c r="O99" s="36"/>
+      <c r="P99" s="36"/>
+      <c r="Q99" s="36"/>
+      <c r="R99" s="36"/>
+      <c r="S99" s="36"/>
+      <c r="T99" s="36"/>
+      <c r="U99" s="36"/>
+      <c r="V99" s="36"/>
+      <c r="W99" s="36"/>
+      <c r="X99" s="36"/>
+      <c r="Y99" s="36"/>
+      <c r="Z99" s="36"/>
+    </row>
+    <row r="100" spans="1:26" ht="132.6" thickBot="1">
+      <c r="A100" s="66"/>
+      <c r="B100" s="108" t="s">
+        <v>533</v>
+      </c>
+      <c r="C100" s="109" t="s">
+        <v>516</v>
+      </c>
+      <c r="D100" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" s="69" t="s">
+        <v>540</v>
+      </c>
+      <c r="F100" s="67" t="s">
+        <v>541</v>
+      </c>
+      <c r="G100" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H100" s="67" t="s">
+        <v>519</v>
+      </c>
+      <c r="I100" s="67"/>
+      <c r="J100" s="67"/>
+      <c r="K100" s="67" t="s">
+        <v>542</v>
+      </c>
+      <c r="L100" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M100" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N100" s="36"/>
+      <c r="O100" s="36"/>
+      <c r="P100" s="36"/>
+      <c r="Q100" s="36"/>
+      <c r="R100" s="36"/>
+      <c r="S100" s="36"/>
+      <c r="T100" s="36"/>
+      <c r="U100" s="36"/>
+      <c r="V100" s="36"/>
+      <c r="W100" s="36"/>
+      <c r="X100" s="36"/>
+      <c r="Y100" s="36"/>
+      <c r="Z100" s="36"/>
+    </row>
+    <row r="101" spans="1:26" ht="145.80000000000001" thickBot="1">
+      <c r="A101" s="66"/>
+      <c r="B101" s="74" t="s">
+        <v>543</v>
+      </c>
+      <c r="C101" s="67" t="s">
+        <v>544</v>
+      </c>
+      <c r="D101" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E101" s="69" t="s">
+        <v>545</v>
+      </c>
+      <c r="F101" s="67" t="s">
+        <v>546</v>
+      </c>
+      <c r="G101" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H101" s="67" t="s">
+        <v>547</v>
+      </c>
+      <c r="I101" s="67"/>
+      <c r="J101" s="67"/>
+      <c r="K101" s="67" t="s">
+        <v>548</v>
+      </c>
+      <c r="L101" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M101" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N101" s="36"/>
+      <c r="O101" s="36"/>
+      <c r="P101" s="36"/>
+      <c r="Q101" s="36"/>
+      <c r="R101" s="36"/>
+      <c r="S101" s="36"/>
+      <c r="T101" s="36"/>
+      <c r="U101" s="36"/>
+      <c r="V101" s="36"/>
+      <c r="W101" s="36"/>
+      <c r="X101" s="36"/>
+      <c r="Y101" s="36"/>
+      <c r="Z101" s="36"/>
+    </row>
+    <row r="102" spans="1:26">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -7743,7 +8074,7 @@
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:26">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -7763,7 +8094,7 @@
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:26">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -7783,7 +8114,7 @@
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:26">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -7803,7 +8134,7 @@
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:26">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -7823,7 +8154,7 @@
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:26">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -7843,7 +8174,7 @@
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:26">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -7863,7 +8194,7 @@
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:26">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -7883,7 +8214,7 @@
       <c r="Q109" s="4"/>
       <c r="R109" s="4"/>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:26">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -7903,7 +8234,7 @@
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:26">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -7923,7 +8254,7 @@
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:26">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -25765,14 +26096,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -25787,6 +26110,14 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="M8">
@@ -25846,9 +26177,15 @@
     <hyperlink ref="J95" r:id="rId47"/>
     <hyperlink ref="B96" r:id="rId48" display="https://jira.ibos.io/browse/MGM-7523"/>
     <hyperlink ref="J96" r:id="rId49"/>
+    <hyperlink ref="B97" r:id="rId50" display="https://jira.ibos.io/browse/MGM-7563"/>
+    <hyperlink ref="K97" r:id="rId51" display="https://jira.ibos.io/browse/MGM-7563"/>
+    <hyperlink ref="B98" r:id="rId52" display="https://jira.ibos.io/browse/MGM-7563"/>
+    <hyperlink ref="B99" r:id="rId53" display="https://jira.ibos.io/browse/MGM-7563"/>
+    <hyperlink ref="B100" r:id="rId54" display="https://jira.ibos.io/browse/MGM-7563"/>
+    <hyperlink ref="B101" r:id="rId55" display="https://jira.ibos.io/browse/MGM-7563"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId50"/>
+  <pageSetup orientation="portrait" r:id="rId56"/>
 </worksheet>
 </file>
 

--- a/Test Case In Managerium.xlsx
+++ b/Test Case In Managerium.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="583">
   <si>
     <t>Product Name</t>
   </si>
@@ -2109,6 +2109,172 @@
   </si>
   <si>
     <t>It should be showing Sales Report Details like:(Sales Qty,Sales Order Amount,Purchase Qty,COGS/Purchase Amount)</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-7527</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Purchase Order</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_092</t>
+  </si>
+  <si>
+    <t>Try to Create Purchase Order</t>
+  </si>
+  <si>
+    <t>Purchase -Purchase Order- Local PO-Create Purchase 
+-fillup the form-save</t>
+  </si>
+  <si>
+    <t>Create Date 12/10/2024 
+Office MGM Head Office 
+Inventory Type Service Item 
+Supplier PRT-M0082 - ACI (456) 
+Urgency Medium
+Expected Receive Date 12/10/2024</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-7527</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Approval</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_093</t>
+  </si>
+  <si>
+    <t>Try to Purchase Order Approval</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-7527</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Purchase Receive</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_094</t>
+  </si>
+  <si>
+    <t>TC_095</t>
+  </si>
+  <si>
+    <t>Purchase Bill Approval</t>
+  </si>
+  <si>
+    <t>TC_096</t>
+  </si>
+  <si>
+    <t>Try to pending bill Approval with PO</t>
+  </si>
+  <si>
+    <t>Approval-Purchase Approval-Purchase Bill Approval-select-Approve-yes</t>
+  </si>
+  <si>
+    <t>It should be successfully Approval with PO</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-7527</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Purchase Payment</t>
+    </r>
+  </si>
+  <si>
+    <t>Due list</t>
+  </si>
+  <si>
+    <t>TC_097</t>
+  </si>
+  <si>
+    <t>Try to Bill Payment customer wise include attachtment file</t>
+  </si>
+  <si>
+    <t>Purchase Payment-Due List-action-Bill Payment-include attachtment-fillup form-save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office--MGM Head Office
+Select -Cash
+attachtment file: pic.jpg
+</t>
+  </si>
+  <si>
+    <t>It should be successfully include attachtment file in customer wise</t>
+  </si>
+  <si>
+    <t>Pending Bill</t>
+  </si>
+  <si>
+    <t>TC_098</t>
+  </si>
+  <si>
+    <t>Try to Pending Supplier Bill details wise include attachtment file</t>
+  </si>
+  <si>
+    <t>Purchase Payment-Pending Bill--action--include attachtment-fillup form-save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office--MGM Head Office
+Select -Cash
+attachtment file: pic1.jpg 
+</t>
+  </si>
+  <si>
+    <t>It should be successfully include attachtment file in Supplier wise</t>
+  </si>
+  <si>
+    <t>Paid GRN/Bill</t>
+  </si>
+  <si>
+    <t>TC_099</t>
+  </si>
+  <si>
+    <t>Verify include attachtment file view in paid GRN / bill</t>
+  </si>
+  <si>
+    <t>Purchase Payment-Paid GRN/ Bill-action-view-save</t>
+  </si>
+  <si>
+    <t>It should be successfully showing include attachtment file.</t>
   </si>
 </sst>
 </file>
@@ -2889,34 +3055,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -2934,6 +3072,34 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3156,8 +3322,8 @@
   </sheetPr>
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N103" sqref="N103"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O122" sqref="O122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
@@ -3175,23 +3341,23 @@
       <c r="B1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="99" t="s">
+      <c r="C1" s="101"/>
+      <c r="D1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="95"/>
-      <c r="F1" s="98" t="s">
+      <c r="E1" s="101"/>
+      <c r="F1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="95"/>
-      <c r="H1" s="103">
+      <c r="G1" s="101"/>
+      <c r="H1" s="106">
         <v>45615</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="101" t="s">
+      <c r="I1" s="101"/>
+      <c r="J1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="95"/>
+      <c r="K1" s="101"/>
       <c r="L1" s="47"/>
       <c r="M1" s="48" t="s">
         <v>4</v>
@@ -3207,23 +3373,23 @@
       <c r="B2" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="99" t="s">
+      <c r="C2" s="101"/>
+      <c r="D2" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="95"/>
-      <c r="F2" s="98" t="s">
+      <c r="E2" s="101"/>
+      <c r="F2" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="95"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="95"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="101"/>
       <c r="J2" s="49" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="50">
         <f>COUNTIF(M8:M1821,"Pass")</f>
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L2" s="51" t="s">
         <v>9</v>
@@ -3237,16 +3403,16 @@
     </row>
     <row r="3" spans="1:26" ht="13.8">
       <c r="A3" s="46"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="98" t="s">
+      <c r="B3" s="108"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="95"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="95"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="101"/>
       <c r="J3" s="52" t="s">
         <v>11</v>
       </c>
@@ -3269,17 +3435,17 @@
       <c r="B4" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="99" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="95"/>
-      <c r="F4" s="98" t="s">
+      <c r="E4" s="101"/>
+      <c r="F4" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="95"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="101"/>
       <c r="J4" s="49" t="s">
         <v>16</v>
       </c>
@@ -3302,25 +3468,25 @@
       <c r="B5" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="99" t="s">
+      <c r="C5" s="101"/>
+      <c r="D5" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="98" t="s">
+      <c r="E5" s="101"/>
+      <c r="F5" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="95"/>
-      <c r="H5" s="97" t="s">
+      <c r="G5" s="101"/>
+      <c r="H5" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="95"/>
+      <c r="I5" s="101"/>
       <c r="J5" s="56" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="57">
         <f>SUM(K2+K3+K4)</f>
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L5" s="51" t="s">
         <v>23</v>
@@ -3335,14 +3501,14 @@
     <row r="6" spans="1:26">
       <c r="A6" s="58"/>
       <c r="B6" s="58"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
       <c r="K6" s="58"/>
       <c r="L6" s="51" t="s">
         <v>24</v>
@@ -4964,7 +5130,7 @@
       <c r="Y39" s="91"/>
       <c r="Z39" s="91"/>
     </row>
-    <row r="40" spans="1:26" ht="67.2" thickBot="1">
+    <row r="40" spans="1:26" ht="80.400000000000006" thickBot="1">
       <c r="A40" s="92"/>
       <c r="B40" s="86" t="s">
         <v>143</v>
@@ -6204,7 +6370,7 @@
       <c r="Y64" s="36"/>
       <c r="Z64" s="36"/>
     </row>
-    <row r="65" spans="1:26" ht="106.2" thickBot="1">
+    <row r="65" spans="1:26" ht="119.4" thickBot="1">
       <c r="A65" s="66"/>
       <c r="B65" s="82" t="s">
         <v>263</v>
@@ -7809,10 +7975,10 @@
       <c r="Z96" s="36"/>
     </row>
     <row r="97" spans="1:26" ht="143.4" customHeight="1" thickBot="1">
-      <c r="A97" s="104">
+      <c r="A97" s="94">
         <v>45637</v>
       </c>
-      <c r="B97" s="105" t="s">
+      <c r="B97" s="95" t="s">
         <v>522</v>
       </c>
       <c r="C97" s="61" t="s">
@@ -7840,7 +8006,7 @@
       <c r="K97" s="79" t="s">
         <v>527</v>
       </c>
-      <c r="L97" s="106" t="s">
+      <c r="L97" s="96" t="s">
         <v>50</v>
       </c>
       <c r="M97" s="65" t="s">
@@ -7862,7 +8028,7 @@
     </row>
     <row r="98" spans="1:26" ht="53.4" thickBot="1">
       <c r="A98" s="66"/>
-      <c r="B98" s="107" t="s">
+      <c r="B98" s="97" t="s">
         <v>527</v>
       </c>
       <c r="C98" s="67" t="s">
@@ -7910,7 +8076,7 @@
     </row>
     <row r="99" spans="1:26" ht="146.4" customHeight="1" thickBot="1">
       <c r="A99" s="66"/>
-      <c r="B99" s="107" t="s">
+      <c r="B99" s="97" t="s">
         <v>533</v>
       </c>
       <c r="C99" s="67" t="s">
@@ -7960,10 +8126,10 @@
     </row>
     <row r="100" spans="1:26" ht="132.6" thickBot="1">
       <c r="A100" s="66"/>
-      <c r="B100" s="108" t="s">
+      <c r="B100" s="98" t="s">
         <v>533</v>
       </c>
-      <c r="C100" s="109" t="s">
+      <c r="C100" s="99" t="s">
         <v>516</v>
       </c>
       <c r="D100" s="68" t="s">
@@ -8006,7 +8172,7 @@
       <c r="Y100" s="36"/>
       <c r="Z100" s="36"/>
     </row>
-    <row r="101" spans="1:26" ht="145.80000000000001" thickBot="1">
+    <row r="101" spans="1:26" ht="159" thickBot="1">
       <c r="A101" s="66"/>
       <c r="B101" s="74" t="s">
         <v>543</v>
@@ -8054,165 +8220,397 @@
       <c r="Y101" s="36"/>
       <c r="Z101" s="36"/>
     </row>
-    <row r="102" spans="1:26">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4"/>
-      <c r="O102" s="4"/>
-      <c r="P102" s="4"/>
-      <c r="Q102" s="4"/>
-      <c r="R102" s="4"/>
-    </row>
-    <row r="103" spans="1:26">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
-      <c r="M103" s="4"/>
-      <c r="N103" s="4"/>
-      <c r="O103" s="4"/>
-      <c r="P103" s="4"/>
-      <c r="Q103" s="4"/>
-      <c r="R103" s="4"/>
-    </row>
-    <row r="104" spans="1:26">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-      <c r="M104" s="4"/>
-      <c r="N104" s="4"/>
-      <c r="O104" s="4"/>
-      <c r="P104" s="4"/>
-      <c r="Q104" s="4"/>
-      <c r="R104" s="4"/>
-    </row>
-    <row r="105" spans="1:26">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
-      <c r="N105" s="4"/>
-      <c r="O105" s="4"/>
-      <c r="P105" s="4"/>
-      <c r="Q105" s="4"/>
-      <c r="R105" s="4"/>
-    </row>
-    <row r="106" spans="1:26">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
-      <c r="M106" s="4"/>
-      <c r="N106" s="4"/>
-      <c r="O106" s="4"/>
-      <c r="P106" s="4"/>
-      <c r="Q106" s="4"/>
-      <c r="R106" s="4"/>
-    </row>
-    <row r="107" spans="1:26">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
-      <c r="J107" s="4"/>
-      <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
-      <c r="M107" s="4"/>
-      <c r="N107" s="4"/>
-      <c r="O107" s="4"/>
-      <c r="P107" s="4"/>
-      <c r="Q107" s="4"/>
-      <c r="R107" s="4"/>
-    </row>
-    <row r="108" spans="1:26">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
-      <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
-      <c r="M108" s="4"/>
-      <c r="N108" s="4"/>
-      <c r="O108" s="4"/>
-      <c r="P108" s="4"/>
-      <c r="Q108" s="4"/>
-      <c r="R108" s="4"/>
-    </row>
-    <row r="109" spans="1:26">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
-      <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
-      <c r="M109" s="4"/>
-      <c r="N109" s="4"/>
-      <c r="O109" s="4"/>
-      <c r="P109" s="4"/>
-      <c r="Q109" s="4"/>
-      <c r="R109" s="4"/>
+    <row r="102" spans="1:26" ht="185.4" thickBot="1">
+      <c r="A102" s="94">
+        <v>45637</v>
+      </c>
+      <c r="B102" s="95" t="s">
+        <v>549</v>
+      </c>
+      <c r="C102" s="61" t="s">
+        <v>495</v>
+      </c>
+      <c r="D102" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" s="63" t="s">
+        <v>550</v>
+      </c>
+      <c r="F102" s="61" t="s">
+        <v>551</v>
+      </c>
+      <c r="G102" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="H102" s="61" t="s">
+        <v>552</v>
+      </c>
+      <c r="I102" s="61" t="s">
+        <v>553</v>
+      </c>
+      <c r="J102" s="61"/>
+      <c r="K102" s="61" t="s">
+        <v>501</v>
+      </c>
+      <c r="L102" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="M102" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="N102" s="36"/>
+      <c r="O102" s="36"/>
+      <c r="P102" s="36"/>
+      <c r="Q102" s="36"/>
+      <c r="R102" s="36"/>
+      <c r="S102" s="36"/>
+      <c r="T102" s="36"/>
+      <c r="U102" s="36"/>
+      <c r="V102" s="36"/>
+      <c r="W102" s="36"/>
+      <c r="X102" s="36"/>
+      <c r="Y102" s="36"/>
+      <c r="Z102" s="36"/>
+    </row>
+    <row r="103" spans="1:26" ht="66.599999999999994" thickBot="1">
+      <c r="A103" s="66"/>
+      <c r="B103" s="97" t="s">
+        <v>554</v>
+      </c>
+      <c r="C103" s="67" t="s">
+        <v>502</v>
+      </c>
+      <c r="D103" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E103" s="69" t="s">
+        <v>555</v>
+      </c>
+      <c r="F103" s="67" t="s">
+        <v>556</v>
+      </c>
+      <c r="G103" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H103" s="67" t="s">
+        <v>505</v>
+      </c>
+      <c r="I103" s="67"/>
+      <c r="J103" s="67"/>
+      <c r="K103" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="L103" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M103" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N103" s="36"/>
+      <c r="O103" s="36"/>
+      <c r="P103" s="36"/>
+      <c r="Q103" s="36"/>
+      <c r="R103" s="36"/>
+      <c r="S103" s="36"/>
+      <c r="T103" s="36"/>
+      <c r="U103" s="36"/>
+      <c r="V103" s="36"/>
+      <c r="W103" s="36"/>
+      <c r="X103" s="36"/>
+      <c r="Y103" s="36"/>
+      <c r="Z103" s="36"/>
+    </row>
+    <row r="104" spans="1:26" ht="93" thickBot="1">
+      <c r="A104" s="66"/>
+      <c r="B104" s="74" t="s">
+        <v>557</v>
+      </c>
+      <c r="C104" s="67" t="s">
+        <v>509</v>
+      </c>
+      <c r="D104" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E104" s="69" t="s">
+        <v>558</v>
+      </c>
+      <c r="F104" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="G104" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H104" s="67" t="s">
+        <v>512</v>
+      </c>
+      <c r="I104" s="67"/>
+      <c r="J104" s="67"/>
+      <c r="K104" s="67" t="s">
+        <v>515</v>
+      </c>
+      <c r="L104" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M104" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N104" s="36"/>
+      <c r="O104" s="36"/>
+      <c r="P104" s="36"/>
+      <c r="Q104" s="36"/>
+      <c r="R104" s="36"/>
+      <c r="S104" s="36"/>
+      <c r="T104" s="36"/>
+      <c r="U104" s="36"/>
+      <c r="V104" s="36"/>
+      <c r="W104" s="36"/>
+      <c r="X104" s="36"/>
+      <c r="Y104" s="36"/>
+      <c r="Z104" s="36"/>
+    </row>
+    <row r="105" spans="1:26" ht="119.4" thickBot="1">
+      <c r="A105" s="66"/>
+      <c r="B105" s="74" t="s">
+        <v>557</v>
+      </c>
+      <c r="C105" s="67" t="s">
+        <v>516</v>
+      </c>
+      <c r="D105" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E105" s="69" t="s">
+        <v>559</v>
+      </c>
+      <c r="F105" s="67" t="s">
+        <v>518</v>
+      </c>
+      <c r="G105" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H105" s="67" t="s">
+        <v>519</v>
+      </c>
+      <c r="I105" s="67"/>
+      <c r="J105" s="67"/>
+      <c r="K105" s="67" t="s">
+        <v>521</v>
+      </c>
+      <c r="L105" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M105" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N105" s="36"/>
+      <c r="O105" s="36"/>
+      <c r="P105" s="36"/>
+      <c r="Q105" s="36"/>
+      <c r="R105" s="36"/>
+      <c r="S105" s="36"/>
+      <c r="T105" s="36"/>
+      <c r="U105" s="36"/>
+      <c r="V105" s="36"/>
+      <c r="W105" s="36"/>
+      <c r="X105" s="36"/>
+      <c r="Y105" s="36"/>
+      <c r="Z105" s="36"/>
+    </row>
+    <row r="106" spans="1:26" ht="53.4" thickBot="1">
+      <c r="A106" s="66"/>
+      <c r="B106" s="74" t="s">
+        <v>554</v>
+      </c>
+      <c r="C106" s="67" t="s">
+        <v>560</v>
+      </c>
+      <c r="D106" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E106" s="69" t="s">
+        <v>561</v>
+      </c>
+      <c r="F106" s="67" t="s">
+        <v>562</v>
+      </c>
+      <c r="G106" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H106" s="67" t="s">
+        <v>563</v>
+      </c>
+      <c r="I106" s="67"/>
+      <c r="J106" s="67"/>
+      <c r="K106" s="67" t="s">
+        <v>564</v>
+      </c>
+      <c r="L106" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M106" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N106" s="36"/>
+      <c r="O106" s="36"/>
+      <c r="P106" s="36"/>
+      <c r="Q106" s="36"/>
+      <c r="R106" s="36"/>
+      <c r="S106" s="36"/>
+      <c r="T106" s="36"/>
+      <c r="U106" s="36"/>
+      <c r="V106" s="36"/>
+      <c r="W106" s="36"/>
+      <c r="X106" s="36"/>
+      <c r="Y106" s="36"/>
+      <c r="Z106" s="36"/>
+    </row>
+    <row r="107" spans="1:26" ht="93" thickBot="1">
+      <c r="A107" s="66"/>
+      <c r="B107" s="74" t="s">
+        <v>565</v>
+      </c>
+      <c r="C107" s="67" t="s">
+        <v>566</v>
+      </c>
+      <c r="D107" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E107" s="69" t="s">
+        <v>567</v>
+      </c>
+      <c r="F107" s="67" t="s">
+        <v>568</v>
+      </c>
+      <c r="G107" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H107" s="67" t="s">
+        <v>569</v>
+      </c>
+      <c r="I107" s="67"/>
+      <c r="J107" s="67" t="s">
+        <v>570</v>
+      </c>
+      <c r="K107" s="67" t="s">
+        <v>571</v>
+      </c>
+      <c r="L107" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M107" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N107" s="36"/>
+      <c r="O107" s="36"/>
+      <c r="P107" s="36"/>
+      <c r="Q107" s="36"/>
+      <c r="R107" s="36"/>
+      <c r="S107" s="36"/>
+      <c r="T107" s="36"/>
+      <c r="U107" s="36"/>
+      <c r="V107" s="36"/>
+      <c r="W107" s="36"/>
+      <c r="X107" s="36"/>
+      <c r="Y107" s="36"/>
+      <c r="Z107" s="36"/>
+    </row>
+    <row r="108" spans="1:26" ht="79.8" thickBot="1">
+      <c r="A108" s="66"/>
+      <c r="B108" s="74" t="s">
+        <v>565</v>
+      </c>
+      <c r="C108" s="67" t="s">
+        <v>572</v>
+      </c>
+      <c r="D108" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E108" s="69" t="s">
+        <v>573</v>
+      </c>
+      <c r="F108" s="67" t="s">
+        <v>574</v>
+      </c>
+      <c r="G108" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H108" s="67" t="s">
+        <v>575</v>
+      </c>
+      <c r="I108" s="67"/>
+      <c r="J108" s="67" t="s">
+        <v>576</v>
+      </c>
+      <c r="K108" s="67" t="s">
+        <v>577</v>
+      </c>
+      <c r="L108" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M108" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N108" s="36"/>
+      <c r="O108" s="36"/>
+      <c r="P108" s="36"/>
+      <c r="Q108" s="36"/>
+      <c r="R108" s="36"/>
+      <c r="S108" s="36"/>
+      <c r="T108" s="36"/>
+      <c r="U108" s="36"/>
+      <c r="V108" s="36"/>
+      <c r="W108" s="36"/>
+      <c r="X108" s="36"/>
+      <c r="Y108" s="36"/>
+      <c r="Z108" s="36"/>
+    </row>
+    <row r="109" spans="1:26" ht="79.8" thickBot="1">
+      <c r="A109" s="66"/>
+      <c r="B109" s="74" t="s">
+        <v>565</v>
+      </c>
+      <c r="C109" s="67" t="s">
+        <v>578</v>
+      </c>
+      <c r="D109" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E109" s="69" t="s">
+        <v>579</v>
+      </c>
+      <c r="F109" s="67" t="s">
+        <v>580</v>
+      </c>
+      <c r="G109" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H109" s="67" t="s">
+        <v>581</v>
+      </c>
+      <c r="I109" s="67"/>
+      <c r="J109" s="67"/>
+      <c r="K109" s="67" t="s">
+        <v>582</v>
+      </c>
+      <c r="L109" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M109" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N109" s="36"/>
+      <c r="O109" s="36"/>
+      <c r="P109" s="36"/>
+      <c r="Q109" s="36"/>
+      <c r="R109" s="36"/>
+      <c r="S109" s="36"/>
+      <c r="T109" s="36"/>
+      <c r="U109" s="36"/>
+      <c r="V109" s="36"/>
+      <c r="W109" s="36"/>
+      <c r="X109" s="36"/>
+      <c r="Y109" s="36"/>
+      <c r="Z109" s="36"/>
     </row>
     <row r="110" spans="1:26">
       <c r="A110" s="4"/>
@@ -26096,6 +26494,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -26110,14 +26516,6 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="M8">
@@ -26183,9 +26581,17 @@
     <hyperlink ref="B99" r:id="rId53" display="https://jira.ibos.io/browse/MGM-7563"/>
     <hyperlink ref="B100" r:id="rId54" display="https://jira.ibos.io/browse/MGM-7563"/>
     <hyperlink ref="B101" r:id="rId55" display="https://jira.ibos.io/browse/MGM-7563"/>
+    <hyperlink ref="B102" r:id="rId56" display="https://jira.ibos.io/browse/MGM-7527"/>
+    <hyperlink ref="B103" r:id="rId57" display="https://jira.ibos.io/browse/MGM-7527"/>
+    <hyperlink ref="B104" r:id="rId58" display="https://jira.ibos.io/browse/MGM-7527"/>
+    <hyperlink ref="B105" r:id="rId59" display="https://jira.ibos.io/browse/MGM-7527"/>
+    <hyperlink ref="B106" r:id="rId60" display="https://jira.ibos.io/browse/MGM-7527"/>
+    <hyperlink ref="B107" r:id="rId61" display="https://jira.ibos.io/browse/MGM-7527"/>
+    <hyperlink ref="B108" r:id="rId62" display="https://jira.ibos.io/browse/MGM-7527"/>
+    <hyperlink ref="B109" r:id="rId63" display="https://jira.ibos.io/browse/MGM-7527"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId56"/>
+  <pageSetup orientation="portrait" r:id="rId64"/>
 </worksheet>
 </file>
 

--- a/Test Case In Managerium.xlsx
+++ b/Test Case In Managerium.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="659">
   <si>
     <t>Product Name</t>
   </si>
@@ -2275,6 +2275,366 @@
   </si>
   <si>
     <t>It should be successfully showing include attachtment file.</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-7527</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Purchase Payment</t>
+    </r>
+  </si>
+  <si>
+    <t>MGM-7609</t>
+  </si>
+  <si>
+    <t>Production Details Report</t>
+  </si>
+  <si>
+    <t>TC_100</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-7609</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Production </t>
+    </r>
+  </si>
+  <si>
+    <t>Create BOM</t>
+  </si>
+  <si>
+    <t>TC_101</t>
+  </si>
+  <si>
+    <t>Try to create multiple Bom &amp; single Bom</t>
+  </si>
+  <si>
+    <t>production-Bill Of Material-Create Bill Of Material-fillup the form-save</t>
+  </si>
+  <si>
+    <t>It should be created successfully multiple Bom &amp; single Bom</t>
+  </si>
+  <si>
+    <t>Production Order</t>
+  </si>
+  <si>
+    <t>TC_102</t>
+  </si>
+  <si>
+    <t>Try to create Production Order</t>
+  </si>
+  <si>
+    <t>production-Production Order-Create Production Order-fillup the form-save</t>
+  </si>
+  <si>
+    <t>It should be created successfully Production Order</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-7609</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Approval </t>
+    </r>
+  </si>
+  <si>
+    <t>Approval Production Order</t>
+  </si>
+  <si>
+    <t>TC_103</t>
+  </si>
+  <si>
+    <t>Try to Approval Production Order</t>
+  </si>
+  <si>
+    <t>Approval-Production Order Approval-Order Approval-select-Approve-yes</t>
+  </si>
+  <si>
+    <t>It should be successfully Approve Production Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approval Item Requisition
+</t>
+  </si>
+  <si>
+    <t>TC_104</t>
+  </si>
+  <si>
+    <t>Try to Item Requisition
+Approval with Production Order</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MGM-7651
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>configuration</t>
+    </r>
+  </si>
+  <si>
+    <t>Item create</t>
+  </si>
+  <si>
+    <t>TC_105</t>
+  </si>
+  <si>
+    <t>Try to Create Item profile with Plastics Division</t>
+  </si>
+  <si>
+    <t>configuration-add Item-AutoBarCode-select Division-select Category-fillup form-save</t>
+  </si>
+  <si>
+    <t>Master Item name-mouse onee
+Department - Plastics 
+Category- test one
+Sub Category-test two
+Minor Category-test three 
+Tag Customer-PRT-M0211 - akasaash (0179453555)</t>
+  </si>
+  <si>
+    <t>It should be successfully Create Item profile with Division</t>
+  </si>
+  <si>
+    <t>TC_106</t>
+  </si>
+  <si>
+    <t>Try to Create Item profile with metral Division</t>
+  </si>
+  <si>
+    <t>Master Item name-cablee
+Department - metral
+Category-metral one
+Sub Category-metral two
+Minor Category-metral three 
+Tag Customer-PRT-M0211 - akasaash (0179453555)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MGM-7651
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Sales Delivery 
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Direct Delivery
+</t>
+  </si>
+  <si>
+    <t>TC_107</t>
+  </si>
+  <si>
+    <t>Try to Create Direct Delivery with Plastics Division Item</t>
+  </si>
+  <si>
+    <t>Sales -Sales Delivery-Create Direct Delivery-select depetment Item- fillup form-save</t>
+  </si>
+  <si>
+    <t>Office-MGM Head Office 
+Warehouse-MGM Warehouse bd 
+Customer -555555 - Akash Dhaka (01705280423) 
+Item -mouse onee 
+Quantity -4 
+Unit Price-10</t>
+  </si>
+  <si>
+    <t>It should be successfully Create Direct Delivery</t>
+  </si>
+  <si>
+    <t>Direct Delivery</t>
+  </si>
+  <si>
+    <t>TC_108</t>
+  </si>
+  <si>
+    <t>Try to Direct Delivery confirm</t>
+  </si>
+  <si>
+    <t>Sales -Sales Delivery-Delivery list-action -confirm</t>
+  </si>
+  <si>
+    <t>Sales -Sales Collection -due list-view-Actions-Cash Type-select Invoice-Collection amount-save</t>
+  </si>
+  <si>
+    <t>It should be successfully Direct Delivery confirm</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MGM-7651
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Sales Collection
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_109</t>
+  </si>
+  <si>
+    <t>Try to Sales Collection in due list</t>
+  </si>
+  <si>
+    <t>Office-MGM Head Office
+Cash Type -Cash in hand
+Invoice-SD-M241200140
+Collection-50</t>
+  </si>
+  <si>
+    <t>It should be successfully due list in Sales Collection</t>
+  </si>
+  <si>
+    <t>Bill Create</t>
+  </si>
+  <si>
+    <t>TC_110</t>
+  </si>
+  <si>
+    <t>Try to Sales Collection in Bill Create</t>
+  </si>
+  <si>
+    <t>Sales -Sales Collection -Bill Create-fillup form-select Invoice -Create Bill</t>
+  </si>
+  <si>
+    <t>Office -MGM Head Office 
+Customer -AAA (32556789899) 
+Invoice No- SD-M241200022</t>
+  </si>
+  <si>
+    <t>Collection by Invoice</t>
+  </si>
+  <si>
+    <t>TC_111</t>
+  </si>
+  <si>
+    <t>Try to Sales Collection in Collection by Invoice</t>
+  </si>
+  <si>
+    <t>Sales -Sales Collection -Collection by Invoice-fillup form-select Customer/Invoice -save</t>
+  </si>
+  <si>
+    <t>Office-MGM Head Office 
+Cash Type-Cash in hand 
+Customer-Akashh 
+Invoice -SD-M240200037 
+Collection Amount- 22</t>
+  </si>
+  <si>
+    <t>Collected Invoice</t>
+  </si>
+  <si>
+    <t>TC_112</t>
+  </si>
+  <si>
+    <t>Try to Sales Collection in Collected Invoice</t>
+  </si>
+  <si>
+    <t>Sales -Sales Collection -Collected Invoice -Collection Amount</t>
+  </si>
+  <si>
+    <t>Due Invoice</t>
+  </si>
+  <si>
+    <t>TC_113</t>
+  </si>
+  <si>
+    <t>Try to Sales Collection in Due Amount with Invoice No</t>
+  </si>
+  <si>
+    <t>Sales -Sales Collection -Due Invoice-select Invoice -Due Amount</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MGM-7651
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Sales Report 
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales Report
+</t>
+  </si>
+  <si>
+    <t>TC_114</t>
+  </si>
+  <si>
+    <t>Try to showing Month Wise Sales vs Collection Report in Sales Report
+summary and check box Sales Report details</t>
+  </si>
+  <si>
+    <t>Sales -Sales Report -select View By-View</t>
+  </si>
+  <si>
+    <t>View By-Month Wise Sales VS Collection
+Year-2024
+From Month-December
+To Month-December
+Item Category-test one
+Customer Group-All
+Customer-Akash</t>
   </si>
 </sst>
 </file>
@@ -2808,7 +3168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3073,33 +3433,36 @@
     <xf numFmtId="0" fontId="20" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3322,8 +3685,8 @@
   </sheetPr>
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O122" sqref="O122"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J122" sqref="J122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
@@ -3338,11 +3701,11 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="46"/>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="108" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="101"/>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="105" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="101"/>
@@ -3350,11 +3713,11 @@
         <v>2</v>
       </c>
       <c r="G1" s="101"/>
-      <c r="H1" s="106">
+      <c r="H1" s="109">
         <v>45615</v>
       </c>
       <c r="I1" s="101"/>
-      <c r="J1" s="100" t="s">
+      <c r="J1" s="107" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="101"/>
@@ -3370,11 +3733,11 @@
     </row>
     <row r="2" spans="1:26" ht="13.8">
       <c r="A2" s="46"/>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="108" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="101"/>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="105" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="101"/>
@@ -3382,14 +3745,14 @@
         <v>7</v>
       </c>
       <c r="G2" s="101"/>
-      <c r="H2" s="105"/>
+      <c r="H2" s="103"/>
       <c r="I2" s="101"/>
       <c r="J2" s="49" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="50">
         <f>COUNTIF(M8:M1821,"Pass")</f>
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="L2" s="51" t="s">
         <v>9</v>
@@ -3403,15 +3766,15 @@
     </row>
     <row r="3" spans="1:26" ht="13.8">
       <c r="A3" s="46"/>
-      <c r="B3" s="108"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="101"/>
-      <c r="D3" s="105"/>
+      <c r="D3" s="103"/>
       <c r="E3" s="101"/>
       <c r="F3" s="104" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="101"/>
-      <c r="H3" s="105"/>
+      <c r="H3" s="103"/>
       <c r="I3" s="101"/>
       <c r="J3" s="52" t="s">
         <v>11</v>
@@ -3432,11 +3795,11 @@
     </row>
     <row r="4" spans="1:26" ht="171.6">
       <c r="A4" s="46"/>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="108" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="101"/>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="105" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="101"/>
@@ -3444,7 +3807,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="101"/>
-      <c r="H4" s="109"/>
+      <c r="H4" s="106"/>
       <c r="I4" s="101"/>
       <c r="J4" s="49" t="s">
         <v>16</v>
@@ -3465,11 +3828,11 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="46"/>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="108" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="101"/>
-      <c r="D5" s="103" t="s">
+      <c r="D5" s="105" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="101"/>
@@ -3477,7 +3840,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="101"/>
-      <c r="H5" s="105" t="s">
+      <c r="H5" s="103" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="101"/>
@@ -3486,7 +3849,7 @@
       </c>
       <c r="K5" s="57">
         <f>SUM(K2+K3+K4)</f>
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="L5" s="51" t="s">
         <v>23</v>
@@ -3501,7 +3864,7 @@
     <row r="6" spans="1:26">
       <c r="A6" s="58"/>
       <c r="B6" s="58"/>
-      <c r="C6" s="107"/>
+      <c r="C6" s="100"/>
       <c r="D6" s="101"/>
       <c r="E6" s="101"/>
       <c r="F6" s="101"/>
@@ -8567,7 +8930,7 @@
     <row r="109" spans="1:26" ht="79.8" thickBot="1">
       <c r="A109" s="66"/>
       <c r="B109" s="74" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="C109" s="67" t="s">
         <v>578</v>
@@ -8612,307 +8975,723 @@
       <c r="Y109" s="36"/>
       <c r="Z109" s="36"/>
     </row>
-    <row r="110" spans="1:26">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
-      <c r="M110" s="4"/>
-      <c r="N110" s="4"/>
-      <c r="O110" s="4"/>
-      <c r="P110" s="4"/>
-      <c r="Q110" s="4"/>
-      <c r="R110" s="4"/>
-    </row>
-    <row r="111" spans="1:26">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-      <c r="M111" s="4"/>
-      <c r="N111" s="4"/>
-      <c r="O111" s="4"/>
-      <c r="P111" s="4"/>
-      <c r="Q111" s="4"/>
-      <c r="R111" s="4"/>
-    </row>
-    <row r="112" spans="1:26">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
-      <c r="M112" s="4"/>
-      <c r="N112" s="4"/>
-      <c r="O112" s="4"/>
-      <c r="P112" s="4"/>
-      <c r="Q112" s="4"/>
-      <c r="R112" s="4"/>
-    </row>
-    <row r="113" spans="1:18">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
-      <c r="M113" s="4"/>
-      <c r="N113" s="4"/>
-      <c r="O113" s="4"/>
-      <c r="P113" s="4"/>
-      <c r="Q113" s="4"/>
-      <c r="R113" s="4"/>
-    </row>
-    <row r="114" spans="1:18">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
-      <c r="M114" s="4"/>
-      <c r="N114" s="4"/>
-      <c r="O114" s="4"/>
-      <c r="P114" s="4"/>
-      <c r="Q114" s="4"/>
-      <c r="R114" s="4"/>
-    </row>
-    <row r="115" spans="1:18">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
-      <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
-      <c r="M115" s="4"/>
-      <c r="N115" s="4"/>
-      <c r="O115" s="4"/>
-      <c r="P115" s="4"/>
-      <c r="Q115" s="4"/>
-      <c r="R115" s="4"/>
-    </row>
-    <row r="116" spans="1:18">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
-      <c r="M116" s="4"/>
-      <c r="N116" s="4"/>
-      <c r="O116" s="4"/>
-      <c r="P116" s="4"/>
-      <c r="Q116" s="4"/>
-      <c r="R116" s="4"/>
-    </row>
-    <row r="117" spans="1:18">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
-      <c r="M117" s="4"/>
-      <c r="N117" s="4"/>
-      <c r="O117" s="4"/>
-      <c r="P117" s="4"/>
-      <c r="Q117" s="4"/>
-      <c r="R117" s="4"/>
-    </row>
-    <row r="118" spans="1:18">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
-      <c r="M118" s="4"/>
-      <c r="N118" s="4"/>
-      <c r="O118" s="4"/>
-      <c r="P118" s="4"/>
-      <c r="Q118" s="4"/>
-      <c r="R118" s="4"/>
-    </row>
-    <row r="119" spans="1:18">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
-      <c r="M119" s="4"/>
-      <c r="N119" s="4"/>
-      <c r="O119" s="4"/>
-      <c r="P119" s="4"/>
-      <c r="Q119" s="4"/>
-      <c r="R119" s="4"/>
-    </row>
-    <row r="120" spans="1:18">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
-      <c r="M120" s="4"/>
-      <c r="N120" s="4"/>
-      <c r="O120" s="4"/>
-      <c r="P120" s="4"/>
-      <c r="Q120" s="4"/>
-      <c r="R120" s="4"/>
-    </row>
-    <row r="121" spans="1:18">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
-      <c r="M121" s="4"/>
-      <c r="N121" s="4"/>
-      <c r="O121" s="4"/>
-      <c r="P121" s="4"/>
-      <c r="Q121" s="4"/>
-      <c r="R121" s="4"/>
-    </row>
-    <row r="122" spans="1:18">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-      <c r="M122" s="4"/>
-      <c r="N122" s="4"/>
-      <c r="O122" s="4"/>
-      <c r="P122" s="4"/>
-      <c r="Q122" s="4"/>
-      <c r="R122" s="4"/>
-    </row>
-    <row r="123" spans="1:18">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-      <c r="M123" s="4"/>
-      <c r="N123" s="4"/>
-      <c r="O123" s="4"/>
-      <c r="P123" s="4"/>
-      <c r="Q123" s="4"/>
-      <c r="R123" s="4"/>
-    </row>
-    <row r="124" spans="1:18">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
-      <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
-      <c r="M124" s="4"/>
-      <c r="N124" s="4"/>
-      <c r="O124" s="4"/>
-      <c r="P124" s="4"/>
-      <c r="Q124" s="4"/>
-      <c r="R124" s="4"/>
-    </row>
-    <row r="125" spans="1:18">
+    <row r="110" spans="1:26" ht="27" thickBot="1">
+      <c r="A110" s="94">
+        <v>45638</v>
+      </c>
+      <c r="B110" s="110" t="s">
+        <v>584</v>
+      </c>
+      <c r="C110" s="61" t="s">
+        <v>585</v>
+      </c>
+      <c r="D110" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E110" s="63" t="s">
+        <v>586</v>
+      </c>
+      <c r="F110" s="61"/>
+      <c r="G110" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="H110" s="61"/>
+      <c r="I110" s="61"/>
+      <c r="J110" s="61"/>
+      <c r="K110" s="61"/>
+      <c r="L110" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="M110" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="N110" s="36"/>
+      <c r="O110" s="36"/>
+      <c r="P110" s="36"/>
+      <c r="Q110" s="36"/>
+      <c r="R110" s="36"/>
+      <c r="S110" s="36"/>
+      <c r="T110" s="36"/>
+      <c r="U110" s="36"/>
+      <c r="V110" s="36"/>
+      <c r="W110" s="36"/>
+      <c r="X110" s="36"/>
+      <c r="Y110" s="36"/>
+      <c r="Z110" s="36"/>
+    </row>
+    <row r="111" spans="1:26" ht="66.599999999999994" thickBot="1">
+      <c r="A111" s="66"/>
+      <c r="B111" s="74" t="s">
+        <v>587</v>
+      </c>
+      <c r="C111" s="67" t="s">
+        <v>588</v>
+      </c>
+      <c r="D111" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E111" s="69" t="s">
+        <v>589</v>
+      </c>
+      <c r="F111" s="67" t="s">
+        <v>590</v>
+      </c>
+      <c r="G111" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H111" s="67" t="s">
+        <v>591</v>
+      </c>
+      <c r="I111" s="67"/>
+      <c r="J111" s="67"/>
+      <c r="K111" s="67" t="s">
+        <v>592</v>
+      </c>
+      <c r="L111" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M111" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N111" s="36"/>
+      <c r="O111" s="36"/>
+      <c r="P111" s="36"/>
+      <c r="Q111" s="36"/>
+      <c r="R111" s="36"/>
+      <c r="S111" s="36"/>
+      <c r="T111" s="36"/>
+      <c r="U111" s="36"/>
+      <c r="V111" s="36"/>
+      <c r="W111" s="36"/>
+      <c r="X111" s="36"/>
+      <c r="Y111" s="36"/>
+      <c r="Z111" s="36"/>
+    </row>
+    <row r="112" spans="1:26" ht="66.599999999999994" thickBot="1">
+      <c r="A112" s="66"/>
+      <c r="B112" s="74" t="s">
+        <v>587</v>
+      </c>
+      <c r="C112" s="67" t="s">
+        <v>593</v>
+      </c>
+      <c r="D112" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E112" s="69" t="s">
+        <v>594</v>
+      </c>
+      <c r="F112" s="67" t="s">
+        <v>595</v>
+      </c>
+      <c r="G112" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H112" s="67" t="s">
+        <v>596</v>
+      </c>
+      <c r="I112" s="67"/>
+      <c r="J112" s="67"/>
+      <c r="K112" s="67" t="s">
+        <v>597</v>
+      </c>
+      <c r="L112" s="71"/>
+      <c r="M112" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N112" s="36"/>
+      <c r="O112" s="36"/>
+      <c r="P112" s="36"/>
+      <c r="Q112" s="36"/>
+      <c r="R112" s="36"/>
+      <c r="S112" s="36"/>
+      <c r="T112" s="36"/>
+      <c r="U112" s="36"/>
+      <c r="V112" s="36"/>
+      <c r="W112" s="36"/>
+      <c r="X112" s="36"/>
+      <c r="Y112" s="36"/>
+      <c r="Z112" s="36"/>
+    </row>
+    <row r="113" spans="1:26" ht="66.599999999999994" thickBot="1">
+      <c r="A113" s="66"/>
+      <c r="B113" s="74" t="s">
+        <v>598</v>
+      </c>
+      <c r="C113" s="67" t="s">
+        <v>599</v>
+      </c>
+      <c r="D113" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E113" s="69" t="s">
+        <v>600</v>
+      </c>
+      <c r="F113" s="67" t="s">
+        <v>601</v>
+      </c>
+      <c r="G113" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H113" s="67" t="s">
+        <v>602</v>
+      </c>
+      <c r="I113" s="67"/>
+      <c r="J113" s="67"/>
+      <c r="K113" s="67" t="s">
+        <v>603</v>
+      </c>
+      <c r="L113" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M113" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N113" s="36"/>
+      <c r="O113" s="36"/>
+      <c r="P113" s="36"/>
+      <c r="Q113" s="36"/>
+      <c r="R113" s="36"/>
+      <c r="S113" s="36"/>
+      <c r="T113" s="36"/>
+      <c r="U113" s="36"/>
+      <c r="V113" s="36"/>
+      <c r="W113" s="36"/>
+      <c r="X113" s="36"/>
+      <c r="Y113" s="36"/>
+      <c r="Z113" s="36"/>
+    </row>
+    <row r="114" spans="1:26" ht="53.4" thickBot="1">
+      <c r="A114" s="66"/>
+      <c r="B114" s="74" t="s">
+        <v>598</v>
+      </c>
+      <c r="C114" s="67" t="s">
+        <v>604</v>
+      </c>
+      <c r="D114" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E114" s="69" t="s">
+        <v>605</v>
+      </c>
+      <c r="F114" s="67" t="s">
+        <v>606</v>
+      </c>
+      <c r="G114" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H114" s="67"/>
+      <c r="I114" s="67"/>
+      <c r="J114" s="67"/>
+      <c r="K114" s="67"/>
+      <c r="L114" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M114" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N114" s="36"/>
+      <c r="O114" s="36"/>
+      <c r="P114" s="36"/>
+      <c r="Q114" s="36"/>
+      <c r="R114" s="36"/>
+      <c r="S114" s="36"/>
+      <c r="T114" s="36"/>
+      <c r="U114" s="36"/>
+      <c r="V114" s="36"/>
+      <c r="W114" s="36"/>
+      <c r="X114" s="36"/>
+      <c r="Y114" s="36"/>
+      <c r="Z114" s="36"/>
+    </row>
+    <row r="115" spans="1:26" ht="211.8" thickBot="1">
+      <c r="A115" s="73">
+        <v>45643</v>
+      </c>
+      <c r="B115" s="74" t="s">
+        <v>607</v>
+      </c>
+      <c r="C115" s="67" t="s">
+        <v>608</v>
+      </c>
+      <c r="D115" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E115" s="69" t="s">
+        <v>609</v>
+      </c>
+      <c r="F115" s="67" t="s">
+        <v>610</v>
+      </c>
+      <c r="G115" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H115" s="67" t="s">
+        <v>611</v>
+      </c>
+      <c r="I115" s="71"/>
+      <c r="J115" s="67" t="s">
+        <v>612</v>
+      </c>
+      <c r="K115" s="67" t="s">
+        <v>613</v>
+      </c>
+      <c r="L115" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M115" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N115" s="36"/>
+      <c r="O115" s="36"/>
+      <c r="P115" s="36"/>
+      <c r="Q115" s="36"/>
+      <c r="R115" s="36"/>
+      <c r="S115" s="36"/>
+      <c r="T115" s="36"/>
+      <c r="U115" s="36"/>
+      <c r="V115" s="36"/>
+      <c r="W115" s="36"/>
+      <c r="X115" s="36"/>
+      <c r="Y115" s="36"/>
+      <c r="Z115" s="36"/>
+    </row>
+    <row r="116" spans="1:26" ht="198.6" thickBot="1">
+      <c r="A116" s="66"/>
+      <c r="B116" s="74" t="s">
+        <v>607</v>
+      </c>
+      <c r="C116" s="67" t="s">
+        <v>608</v>
+      </c>
+      <c r="D116" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E116" s="69" t="s">
+        <v>614</v>
+      </c>
+      <c r="F116" s="67" t="s">
+        <v>615</v>
+      </c>
+      <c r="G116" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H116" s="67" t="s">
+        <v>611</v>
+      </c>
+      <c r="I116" s="67"/>
+      <c r="J116" s="67" t="s">
+        <v>616</v>
+      </c>
+      <c r="K116" s="67" t="s">
+        <v>613</v>
+      </c>
+      <c r="L116" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M116" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N116" s="36"/>
+      <c r="O116" s="36"/>
+      <c r="P116" s="36"/>
+      <c r="Q116" s="36"/>
+      <c r="R116" s="36"/>
+      <c r="S116" s="36"/>
+      <c r="T116" s="36"/>
+      <c r="U116" s="36"/>
+      <c r="V116" s="36"/>
+      <c r="W116" s="36"/>
+      <c r="X116" s="36"/>
+      <c r="Y116" s="36"/>
+      <c r="Z116" s="36"/>
+    </row>
+    <row r="117" spans="1:26" ht="198.6" thickBot="1">
+      <c r="A117" s="66"/>
+      <c r="B117" s="74" t="s">
+        <v>617</v>
+      </c>
+      <c r="C117" s="67" t="s">
+        <v>618</v>
+      </c>
+      <c r="D117" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E117" s="69" t="s">
+        <v>619</v>
+      </c>
+      <c r="F117" s="67" t="s">
+        <v>620</v>
+      </c>
+      <c r="G117" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H117" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="I117" s="67"/>
+      <c r="J117" s="67" t="s">
+        <v>622</v>
+      </c>
+      <c r="K117" s="67" t="s">
+        <v>623</v>
+      </c>
+      <c r="L117" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M117" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N117" s="36"/>
+      <c r="O117" s="36"/>
+      <c r="P117" s="36"/>
+      <c r="Q117" s="36"/>
+      <c r="R117" s="36"/>
+      <c r="S117" s="36"/>
+      <c r="T117" s="36"/>
+      <c r="U117" s="36"/>
+      <c r="V117" s="36"/>
+      <c r="W117" s="36"/>
+      <c r="X117" s="36"/>
+      <c r="Y117" s="36"/>
+      <c r="Z117" s="36"/>
+    </row>
+    <row r="118" spans="1:26" ht="106.2" thickBot="1">
+      <c r="A118" s="66"/>
+      <c r="B118" s="74" t="s">
+        <v>617</v>
+      </c>
+      <c r="C118" s="67" t="s">
+        <v>624</v>
+      </c>
+      <c r="D118" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E118" s="69" t="s">
+        <v>625</v>
+      </c>
+      <c r="F118" s="67" t="s">
+        <v>626</v>
+      </c>
+      <c r="G118" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H118" s="67" t="s">
+        <v>627</v>
+      </c>
+      <c r="I118" s="67"/>
+      <c r="J118" s="67" t="s">
+        <v>628</v>
+      </c>
+      <c r="K118" s="67" t="s">
+        <v>629</v>
+      </c>
+      <c r="L118" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M118" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N118" s="36"/>
+      <c r="O118" s="36"/>
+      <c r="P118" s="36"/>
+      <c r="Q118" s="36"/>
+      <c r="R118" s="36"/>
+      <c r="S118" s="36"/>
+      <c r="T118" s="36"/>
+      <c r="U118" s="36"/>
+      <c r="V118" s="36"/>
+      <c r="W118" s="36"/>
+      <c r="X118" s="36"/>
+      <c r="Y118" s="36"/>
+      <c r="Z118" s="36"/>
+    </row>
+    <row r="119" spans="1:26" ht="93" thickBot="1">
+      <c r="A119" s="66"/>
+      <c r="B119" s="74" t="s">
+        <v>630</v>
+      </c>
+      <c r="C119" s="67" t="s">
+        <v>566</v>
+      </c>
+      <c r="D119" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E119" s="69" t="s">
+        <v>631</v>
+      </c>
+      <c r="F119" s="67" t="s">
+        <v>632</v>
+      </c>
+      <c r="G119" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H119" s="67" t="s">
+        <v>628</v>
+      </c>
+      <c r="I119" s="67"/>
+      <c r="J119" s="67" t="s">
+        <v>633</v>
+      </c>
+      <c r="K119" s="67" t="s">
+        <v>634</v>
+      </c>
+      <c r="L119" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M119" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N119" s="36"/>
+      <c r="O119" s="36"/>
+      <c r="P119" s="36"/>
+      <c r="Q119" s="36"/>
+      <c r="R119" s="36"/>
+      <c r="S119" s="36"/>
+      <c r="T119" s="36"/>
+      <c r="U119" s="36"/>
+      <c r="V119" s="36"/>
+      <c r="W119" s="36"/>
+      <c r="X119" s="36"/>
+      <c r="Y119" s="36"/>
+      <c r="Z119" s="36"/>
+    </row>
+    <row r="120" spans="1:26" ht="119.4" thickBot="1">
+      <c r="A120" s="66"/>
+      <c r="B120" s="74" t="s">
+        <v>630</v>
+      </c>
+      <c r="C120" s="67" t="s">
+        <v>635</v>
+      </c>
+      <c r="D120" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E120" s="69" t="s">
+        <v>636</v>
+      </c>
+      <c r="F120" s="67" t="s">
+        <v>637</v>
+      </c>
+      <c r="G120" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H120" s="67" t="s">
+        <v>638</v>
+      </c>
+      <c r="I120" s="67"/>
+      <c r="J120" s="67" t="s">
+        <v>639</v>
+      </c>
+      <c r="K120" s="67"/>
+      <c r="L120" s="71"/>
+      <c r="M120" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N120" s="36"/>
+      <c r="O120" s="36"/>
+      <c r="P120" s="36"/>
+      <c r="Q120" s="36"/>
+      <c r="R120" s="36"/>
+      <c r="S120" s="36"/>
+      <c r="T120" s="36"/>
+      <c r="U120" s="36"/>
+      <c r="V120" s="36"/>
+      <c r="W120" s="36"/>
+      <c r="X120" s="36"/>
+      <c r="Y120" s="36"/>
+      <c r="Z120" s="36"/>
+    </row>
+    <row r="121" spans="1:26" ht="132.6" thickBot="1">
+      <c r="A121" s="66"/>
+      <c r="B121" s="74" t="s">
+        <v>630</v>
+      </c>
+      <c r="C121" s="67" t="s">
+        <v>640</v>
+      </c>
+      <c r="D121" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E121" s="69" t="s">
+        <v>641</v>
+      </c>
+      <c r="F121" s="67" t="s">
+        <v>642</v>
+      </c>
+      <c r="G121" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H121" s="67" t="s">
+        <v>643</v>
+      </c>
+      <c r="I121" s="67"/>
+      <c r="J121" s="67" t="s">
+        <v>644</v>
+      </c>
+      <c r="K121" s="67"/>
+      <c r="L121" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M121" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N121" s="36"/>
+      <c r="O121" s="36"/>
+      <c r="P121" s="36"/>
+      <c r="Q121" s="36"/>
+      <c r="R121" s="36"/>
+      <c r="S121" s="36"/>
+      <c r="T121" s="36"/>
+      <c r="U121" s="36"/>
+      <c r="V121" s="36"/>
+      <c r="W121" s="36"/>
+      <c r="X121" s="36"/>
+      <c r="Y121" s="36"/>
+      <c r="Z121" s="36"/>
+    </row>
+    <row r="122" spans="1:26" ht="66.599999999999994" thickBot="1">
+      <c r="A122" s="66"/>
+      <c r="B122" s="74" t="s">
+        <v>630</v>
+      </c>
+      <c r="C122" s="67" t="s">
+        <v>645</v>
+      </c>
+      <c r="D122" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E122" s="69" t="s">
+        <v>646</v>
+      </c>
+      <c r="F122" s="67" t="s">
+        <v>647</v>
+      </c>
+      <c r="G122" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H122" s="67" t="s">
+        <v>648</v>
+      </c>
+      <c r="I122" s="67"/>
+      <c r="J122" s="67"/>
+      <c r="K122" s="67"/>
+      <c r="L122" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M122" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N122" s="36"/>
+      <c r="O122" s="36"/>
+      <c r="P122" s="36"/>
+      <c r="Q122" s="36"/>
+      <c r="R122" s="36"/>
+      <c r="S122" s="36"/>
+      <c r="T122" s="36"/>
+      <c r="U122" s="36"/>
+      <c r="V122" s="36"/>
+      <c r="W122" s="36"/>
+      <c r="X122" s="36"/>
+      <c r="Y122" s="36"/>
+      <c r="Z122" s="36"/>
+    </row>
+    <row r="123" spans="1:26" ht="66.599999999999994" thickBot="1">
+      <c r="A123" s="66"/>
+      <c r="B123" s="74" t="s">
+        <v>630</v>
+      </c>
+      <c r="C123" s="67" t="s">
+        <v>649</v>
+      </c>
+      <c r="D123" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E123" s="69" t="s">
+        <v>650</v>
+      </c>
+      <c r="F123" s="67" t="s">
+        <v>651</v>
+      </c>
+      <c r="G123" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H123" s="67" t="s">
+        <v>652</v>
+      </c>
+      <c r="I123" s="67"/>
+      <c r="J123" s="67"/>
+      <c r="K123" s="67"/>
+      <c r="L123" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M123" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N123" s="36"/>
+      <c r="O123" s="36"/>
+      <c r="P123" s="36"/>
+      <c r="Q123" s="36"/>
+      <c r="R123" s="36"/>
+      <c r="S123" s="36"/>
+      <c r="T123" s="36"/>
+      <c r="U123" s="36"/>
+      <c r="V123" s="36"/>
+      <c r="W123" s="36"/>
+      <c r="X123" s="36"/>
+      <c r="Y123" s="36"/>
+      <c r="Z123" s="36"/>
+    </row>
+    <row r="124" spans="1:26" ht="198.6" thickBot="1">
+      <c r="A124" s="66"/>
+      <c r="B124" s="74" t="s">
+        <v>653</v>
+      </c>
+      <c r="C124" s="67" t="s">
+        <v>654</v>
+      </c>
+      <c r="D124" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E124" s="69" t="s">
+        <v>655</v>
+      </c>
+      <c r="F124" s="67" t="s">
+        <v>656</v>
+      </c>
+      <c r="G124" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H124" s="67" t="s">
+        <v>657</v>
+      </c>
+      <c r="I124" s="67"/>
+      <c r="J124" s="67" t="s">
+        <v>658</v>
+      </c>
+      <c r="K124" s="67"/>
+      <c r="L124" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M124" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N124" s="36"/>
+      <c r="O124" s="36"/>
+      <c r="P124" s="36"/>
+      <c r="Q124" s="36"/>
+      <c r="R124" s="36"/>
+      <c r="S124" s="36"/>
+      <c r="T124" s="36"/>
+      <c r="U124" s="36"/>
+      <c r="V124" s="36"/>
+      <c r="W124" s="36"/>
+      <c r="X124" s="36"/>
+      <c r="Y124" s="36"/>
+      <c r="Z124" s="36"/>
+    </row>
+    <row r="125" spans="1:26">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -8932,7 +9711,7 @@
       <c r="Q125" s="4"/>
       <c r="R125" s="4"/>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:26">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -8952,7 +9731,7 @@
       <c r="Q126" s="4"/>
       <c r="R126" s="4"/>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:26">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -8972,7 +9751,7 @@
       <c r="Q127" s="4"/>
       <c r="R127" s="4"/>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:26">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -26494,14 +27273,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -26516,6 +27287,14 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="M8">
@@ -26589,9 +27368,24 @@
     <hyperlink ref="B107" r:id="rId61" display="https://jira.ibos.io/browse/MGM-7527"/>
     <hyperlink ref="B108" r:id="rId62" display="https://jira.ibos.io/browse/MGM-7527"/>
     <hyperlink ref="B109" r:id="rId63" display="https://jira.ibos.io/browse/MGM-7527"/>
+    <hyperlink ref="B110" r:id="rId64" display="https://jira.ibos.io/browse/MGM-7609"/>
+    <hyperlink ref="B111" r:id="rId65" display="https://jira.ibos.io/browse/MGM-7609"/>
+    <hyperlink ref="B112" r:id="rId66" display="https://jira.ibos.io/browse/MGM-7609"/>
+    <hyperlink ref="B113" r:id="rId67" display="https://jira.ibos.io/browse/MGM-7609"/>
+    <hyperlink ref="B114" r:id="rId68" display="https://jira.ibos.io/browse/MGM-7609"/>
+    <hyperlink ref="B115" r:id="rId69" display="https://jira.ibos.io/browse/MGM-7651"/>
+    <hyperlink ref="B116" r:id="rId70" display="https://jira.ibos.io/browse/MGM-7651"/>
+    <hyperlink ref="B117" r:id="rId71" display="https://jira.ibos.io/browse/MGM-7651"/>
+    <hyperlink ref="B118" r:id="rId72" display="https://jira.ibos.io/browse/MGM-7651"/>
+    <hyperlink ref="B119" r:id="rId73" display="https://jira.ibos.io/browse/MGM-7651"/>
+    <hyperlink ref="B120" r:id="rId74" display="https://jira.ibos.io/browse/MGM-7651"/>
+    <hyperlink ref="B121" r:id="rId75" display="https://jira.ibos.io/browse/MGM-7651"/>
+    <hyperlink ref="B122" r:id="rId76" display="https://jira.ibos.io/browse/MGM-7651"/>
+    <hyperlink ref="B123" r:id="rId77" display="https://jira.ibos.io/browse/MGM-7651"/>
+    <hyperlink ref="B124" r:id="rId78" display="https://jira.ibos.io/browse/MGM-7651"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId64"/>
+  <pageSetup orientation="portrait" r:id="rId79"/>
 </worksheet>
 </file>
 

--- a/Test Case In Managerium.xlsx
+++ b/Test Case In Managerium.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="667">
   <si>
     <t>Product Name</t>
   </si>
@@ -2635,6 +2635,38 @@
 Item Category-test one
 Customer Group-All
 Customer-Akash</t>
+  </si>
+  <si>
+    <t>TC_115</t>
+  </si>
+  <si>
+    <t>Try to Month Wise Sales vs Collection Report in Sales Report
+summary without (Item Category, Customer Group Customer)Sales Report details</t>
+  </si>
+  <si>
+    <t>Sales -Sales Report -select View By- without check box-View</t>
+  </si>
+  <si>
+    <t>View By-Month Wise Sales VS Collection
+Year-2024
+From Month-December
+To Month-December
+Item Category-
+Customer Group-
+Customer-</t>
+  </si>
+  <si>
+    <t>it should showing with Unassigned issue and division together month wise sales report</t>
+  </si>
+  <si>
+    <t>TC_116</t>
+  </si>
+  <si>
+    <t>Try to Month Wise Sales vs Collection Report in
+summary Unassigned issue showing non-division item</t>
+  </si>
+  <si>
+    <t>it should be showing non-division item Unassigned issue with month wise sales report</t>
   </si>
 </sst>
 </file>
@@ -3168,7 +3200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3433,36 +3465,39 @@
     <xf numFmtId="0" fontId="20" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3685,8 +3720,8 @@
   </sheetPr>
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J122" sqref="J122"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O123" sqref="O123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
@@ -3701,26 +3736,26 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="46"/>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="105" t="s">
+      <c r="C1" s="102"/>
+      <c r="D1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="101"/>
-      <c r="F1" s="104" t="s">
+      <c r="E1" s="102"/>
+      <c r="F1" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="101"/>
-      <c r="H1" s="109">
+      <c r="G1" s="102"/>
+      <c r="H1" s="107">
         <v>45615</v>
       </c>
-      <c r="I1" s="101"/>
-      <c r="J1" s="107" t="s">
+      <c r="I1" s="102"/>
+      <c r="J1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="101"/>
+      <c r="K1" s="102"/>
       <c r="L1" s="47"/>
       <c r="M1" s="48" t="s">
         <v>4</v>
@@ -3733,26 +3768,26 @@
     </row>
     <row r="2" spans="1:26" ht="13.8">
       <c r="A2" s="46"/>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="105" t="s">
+      <c r="C2" s="102"/>
+      <c r="D2" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="104" t="s">
+      <c r="E2" s="102"/>
+      <c r="F2" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="101"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="101"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="102"/>
       <c r="J2" s="49" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="50">
         <f>COUNTIF(M8:M1821,"Pass")</f>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L2" s="51" t="s">
         <v>9</v>
@@ -3766,16 +3801,16 @@
     </row>
     <row r="3" spans="1:26" ht="13.8">
       <c r="A3" s="46"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="104" t="s">
+      <c r="B3" s="109"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="101"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="101"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="102"/>
       <c r="J3" s="52" t="s">
         <v>11</v>
       </c>
@@ -3795,20 +3830,20 @@
     </row>
     <row r="4" spans="1:26" ht="171.6">
       <c r="A4" s="46"/>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="105" t="s">
+      <c r="C4" s="102"/>
+      <c r="D4" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="101"/>
-      <c r="F4" s="104" t="s">
+      <c r="E4" s="102"/>
+      <c r="F4" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="101"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="101"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="102"/>
       <c r="J4" s="49" t="s">
         <v>16</v>
       </c>
@@ -3828,28 +3863,28 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="46"/>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="105" t="s">
+      <c r="C5" s="102"/>
+      <c r="D5" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="104" t="s">
+      <c r="E5" s="102"/>
+      <c r="F5" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="101"/>
-      <c r="H5" s="103" t="s">
+      <c r="G5" s="102"/>
+      <c r="H5" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="101"/>
+      <c r="I5" s="102"/>
       <c r="J5" s="56" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="57">
         <f>SUM(K2+K3+K4)</f>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L5" s="51" t="s">
         <v>23</v>
@@ -3864,14 +3899,14 @@
     <row r="6" spans="1:26">
       <c r="A6" s="58"/>
       <c r="B6" s="58"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
       <c r="K6" s="58"/>
       <c r="L6" s="51" t="s">
         <v>24</v>
@@ -8979,7 +9014,7 @@
       <c r="A110" s="94">
         <v>45638</v>
       </c>
-      <c r="B110" s="110" t="s">
+      <c r="B110" s="100" t="s">
         <v>584</v>
       </c>
       <c r="C110" s="61" t="s">
@@ -9691,45 +9726,105 @@
       <c r="Y124" s="36"/>
       <c r="Z124" s="36"/>
     </row>
-    <row r="125" spans="1:26">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="4"/>
-      <c r="P125" s="4"/>
-      <c r="Q125" s="4"/>
-      <c r="R125" s="4"/>
-    </row>
-    <row r="126" spans="1:26">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
-      <c r="M126" s="4"/>
-      <c r="N126" s="4"/>
-      <c r="O126" s="4"/>
-      <c r="P126" s="4"/>
-      <c r="Q126" s="4"/>
-      <c r="R126" s="4"/>
+    <row r="125" spans="1:26" ht="172.2" thickBot="1">
+      <c r="A125" s="111"/>
+      <c r="B125" s="100" t="s">
+        <v>653</v>
+      </c>
+      <c r="C125" s="61" t="s">
+        <v>654</v>
+      </c>
+      <c r="D125" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E125" s="63" t="s">
+        <v>659</v>
+      </c>
+      <c r="F125" s="61" t="s">
+        <v>660</v>
+      </c>
+      <c r="G125" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="H125" s="61" t="s">
+        <v>661</v>
+      </c>
+      <c r="I125" s="61"/>
+      <c r="J125" s="61" t="s">
+        <v>662</v>
+      </c>
+      <c r="K125" s="61" t="s">
+        <v>663</v>
+      </c>
+      <c r="L125" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="M125" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="N125" s="36"/>
+      <c r="O125" s="36"/>
+      <c r="P125" s="36"/>
+      <c r="Q125" s="36"/>
+      <c r="R125" s="36"/>
+      <c r="S125" s="36"/>
+      <c r="T125" s="36"/>
+      <c r="U125" s="36"/>
+      <c r="V125" s="36"/>
+      <c r="W125" s="36"/>
+      <c r="X125" s="36"/>
+      <c r="Y125" s="36"/>
+      <c r="Z125" s="36"/>
+    </row>
+    <row r="126" spans="1:26" ht="172.2" thickBot="1">
+      <c r="A126" s="66"/>
+      <c r="B126" s="74" t="s">
+        <v>653</v>
+      </c>
+      <c r="C126" s="67" t="s">
+        <v>654</v>
+      </c>
+      <c r="D126" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E126" s="69" t="s">
+        <v>664</v>
+      </c>
+      <c r="F126" s="67" t="s">
+        <v>665</v>
+      </c>
+      <c r="G126" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H126" s="67" t="s">
+        <v>661</v>
+      </c>
+      <c r="I126" s="67"/>
+      <c r="J126" s="67" t="s">
+        <v>662</v>
+      </c>
+      <c r="K126" s="67" t="s">
+        <v>666</v>
+      </c>
+      <c r="L126" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M126" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N126" s="36"/>
+      <c r="O126" s="36"/>
+      <c r="P126" s="36"/>
+      <c r="Q126" s="36"/>
+      <c r="R126" s="36"/>
+      <c r="S126" s="36"/>
+      <c r="T126" s="36"/>
+      <c r="U126" s="36"/>
+      <c r="V126" s="36"/>
+      <c r="W126" s="36"/>
+      <c r="X126" s="36"/>
+      <c r="Y126" s="36"/>
+      <c r="Z126" s="36"/>
     </row>
     <row r="127" spans="1:26">
       <c r="A127" s="4"/>
@@ -27273,6 +27368,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -27287,14 +27390,6 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="M8">
@@ -27383,9 +27478,11 @@
     <hyperlink ref="B122" r:id="rId76" display="https://jira.ibos.io/browse/MGM-7651"/>
     <hyperlink ref="B123" r:id="rId77" display="https://jira.ibos.io/browse/MGM-7651"/>
     <hyperlink ref="B124" r:id="rId78" display="https://jira.ibos.io/browse/MGM-7651"/>
+    <hyperlink ref="B125" r:id="rId79" display="https://jira.ibos.io/browse/MGM-7651"/>
+    <hyperlink ref="B126" r:id="rId80" display="https://jira.ibos.io/browse/MGM-7651"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId79"/>
+  <pageSetup orientation="portrait" r:id="rId81"/>
 </worksheet>
 </file>
 

--- a/Test Case In Managerium.xlsx
+++ b/Test Case In Managerium.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="729">
   <si>
     <t>Product Name</t>
   </si>
@@ -2667,6 +2667,288 @@
   </si>
   <si>
     <t>it should be showing non-division item Unassigned issue with month wise sales report</t>
+  </si>
+  <si>
+    <t>29-12-2024</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-7162</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Employee Work Experience</t>
+    </r>
+  </si>
+  <si>
+    <t>Employee Profile</t>
+  </si>
+  <si>
+    <t>TC_117</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-7873</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Add Total Quantity in Product Request PDF</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_118</t>
+  </si>
+  <si>
+    <t>31-12-2024</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-7861</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Accounting</t>
+    </r>
+  </si>
+  <si>
+    <t>Project Accounting</t>
+  </si>
+  <si>
+    <t>TC_119</t>
+  </si>
+  <si>
+    <t>Try to create an Project Accounting</t>
+  </si>
+  <si>
+    <t>Account-Projects Accounting-Projects-Create Project-fill up all field-speacific all section save</t>
+  </si>
+  <si>
+    <t>Project Description
+Type- Project
+Office-MGM Head Office
+Project Name -ABCA
+Start Date-12/30/2024
+End Date-12/30/2024
+Sales Order -SO-M2210005
+Expected Value- 48
+Project Team
+Team Member Role 
+Kent Worker 
+Emtiaj Accountant 
+Project Costing
+Cost Element Responsible Budget Amount 
+Personal Expense Emtiaj 60.00 
+Expense of Card Kent 50.00
+Inventory
+Item Name- 10" PVC Pipe 10 MTR UOM Quanity-1 Price-10.00</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/crSEN0PQv2bo</t>
+  </si>
+  <si>
+    <t>it should be suucessfully created an Project Accounting.</t>
+  </si>
+  <si>
+    <t>TC_120</t>
+  </si>
+  <si>
+    <t>Try to verify showing an Project Accounting details</t>
+  </si>
+  <si>
+    <t>Account-Projects Accounting-Projects-Actions-view Project</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/RWbP8IZDi5or</t>
+  </si>
+  <si>
+    <t>it should be showing an Project Accounting details</t>
+  </si>
+  <si>
+    <t>TC_121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to create an Journal Voucher Project with
+speacific Employee and speacific Accounts Head 
+</t>
+  </si>
+  <si>
+    <t>Account-Accounting Journal-Create Journal-Journal Voucher Create-select project-Employee select-select Accounts Head - fill up all field-save</t>
+  </si>
+  <si>
+    <t>select Project
+Employee-Emtiaj
+Project-ABCA
+Office-MGM Head Office
+Narration -Test
+Accounts Head -Personal Expense
+Debit/Credit -Debit
+Amount-4
+And other
+Accounts Head -Cash in hand
+Debit/Credit -Credit
+Amount-4</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/-7lBOyc0vmen</t>
+  </si>
+  <si>
+    <t>it should be Project Accounting details Actual Amount input speacific Employee and speacific Accounts Head</t>
+  </si>
+  <si>
+    <t>TC_122</t>
+  </si>
+  <si>
+    <t>Try to checking Projects Details Actual Amount input speacific Employee and speacific Accounts Head</t>
+  </si>
+  <si>
+    <t>Account-Projects Accounting-Projects-Projects Details</t>
+  </si>
+  <si>
+    <t>Cost Element Responsible Actual Amount 
+Personal Expense Emtiaj 15</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/J_iXlx1EMxOm</t>
+  </si>
+  <si>
+    <t>it should be proper Actual Amount input speacific Employee and Accounts Head</t>
+  </si>
+  <si>
+    <t>Purchase Order and Purchase receiveee</t>
+  </si>
+  <si>
+    <t>TC_123</t>
+  </si>
+  <si>
+    <t>Try to create Purchase Order and Purchase receive with Create From Project</t>
+  </si>
+  <si>
+    <t>Purchase -Purchase Order-Create Purchase Order-Create From Project-fill up all field-save</t>
+  </si>
+  <si>
+    <t>Office MGM Head Office 
+Project ABCA 
+Inventory Type Inventory Item 
+Select Supplier PRT-M0022 - a1 group (012136547896) 
+Item PVC100 - 10" PVC Pipe 10 MTR(PCS) 
+Quantity 10 
+Rate (BDT) 10</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/4J_8gkWvqNux</t>
+  </si>
+  <si>
+    <t>it should be successful Purchase Order and Purchase receive with Create From Project</t>
+  </si>
+  <si>
+    <t>TC_124</t>
+  </si>
+  <si>
+    <t>Try to checking Projects Details Budget/Purchase Inventory input speacific and Employee and Inventory Details 
+Budget Qty sum showing</t>
+  </si>
+  <si>
+    <t>Budget/Purchase Inventory
+Item Name 10" PVC Pipe 10 MTR
+Qty- total- 10
+Inventory Details
+Item Name 10" PVC Pipe 10 MTR
+Budget Qty- total- 11 (Purchase Order Quantity 10 and project create time Budget Quantity 1)</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/iVz4LzlRpGuP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Requisition
+</t>
+  </si>
+  <si>
+    <t>TC_125</t>
+  </si>
+  <si>
+    <t>Try to create an Item Requisition under proect</t>
+  </si>
+  <si>
+    <t>Inventory-Item Requisition-Create Requisition form Project-fill up all field-save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Project 
+Project ABCA 
+Office MGM Head Office 
+Warehouse MGM Warehouse bd 
+Expected Date 12/31/2024 
+Select Item PVC100 - 10" PVC Pipe 10 MTR (PCS) 
+Request Quantity 11 
+</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/bpYXK8527OQg</t>
+  </si>
+  <si>
+    <t>it should be successful created Item Requisition under proect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Issue
+</t>
+  </si>
+  <si>
+    <t>TC_126</t>
+  </si>
+  <si>
+    <t>Try to create an Item Issue uder proect</t>
+  </si>
+  <si>
+    <t>Inventory-Item Issue-Action-create Issue- Requisition form Project-fill up all field-save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Item Name (Materials) Request QTY Remaining QTY Issue QTY 
+PVC Pipe 10 MTR 11 0.0000 2</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/mBoamF6Mgubv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it will should be Item Issue uder proect is to effect Projects Details Inventory Details Actual Qty
+</t>
+  </si>
+  <si>
+    <t>Projects Details</t>
+  </si>
+  <si>
+    <t>TC_127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to checking an Item Issue add uder Projects Details Inventory Details Actual Qty effect
+</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/eDOVuBu7F7Ry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it will should be after Item Issue Projects Details Inventory Details Actual Qty vaild effect 
+</t>
   </si>
 </sst>
 </file>
@@ -3200,7 +3482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3468,35 +3750,50 @@
     <xf numFmtId="0" fontId="19" fillId="21" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3720,8 +4017,8 @@
   </sheetPr>
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O123" sqref="O123"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P137" sqref="P137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
@@ -3736,26 +4033,26 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="46"/>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="104" t="s">
+      <c r="C1" s="103"/>
+      <c r="D1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="102"/>
-      <c r="F1" s="105" t="s">
+      <c r="E1" s="103"/>
+      <c r="F1" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="102"/>
-      <c r="H1" s="107">
+      <c r="G1" s="103"/>
+      <c r="H1" s="111">
         <v>45615</v>
       </c>
-      <c r="I1" s="102"/>
-      <c r="J1" s="101" t="s">
+      <c r="I1" s="103"/>
+      <c r="J1" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="102"/>
+      <c r="K1" s="103"/>
       <c r="L1" s="47"/>
       <c r="M1" s="48" t="s">
         <v>4</v>
@@ -3768,26 +4065,26 @@
     </row>
     <row r="2" spans="1:26" ht="13.8">
       <c r="A2" s="46"/>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="104" t="s">
+      <c r="C2" s="103"/>
+      <c r="D2" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="102"/>
-      <c r="F2" s="105" t="s">
+      <c r="E2" s="103"/>
+      <c r="F2" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="102"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="102"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="103"/>
       <c r="J2" s="49" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="50">
         <f>COUNTIF(M8:M1821,"Pass")</f>
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="L2" s="51" t="s">
         <v>9</v>
@@ -3801,16 +4098,16 @@
     </row>
     <row r="3" spans="1:26" ht="13.8">
       <c r="A3" s="46"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="105" t="s">
+      <c r="B3" s="104"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="102"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="102"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="103"/>
       <c r="J3" s="52" t="s">
         <v>11</v>
       </c>
@@ -3830,20 +4127,20 @@
     </row>
     <row r="4" spans="1:26" ht="171.6">
       <c r="A4" s="46"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="104" t="s">
+      <c r="C4" s="103"/>
+      <c r="D4" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="102"/>
-      <c r="F4" s="105" t="s">
+      <c r="E4" s="103"/>
+      <c r="F4" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="102"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="102"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="103"/>
       <c r="J4" s="49" t="s">
         <v>16</v>
       </c>
@@ -3863,28 +4160,28 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="46"/>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="104" t="s">
+      <c r="C5" s="103"/>
+      <c r="D5" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="102"/>
-      <c r="F5" s="105" t="s">
+      <c r="E5" s="103"/>
+      <c r="F5" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="102"/>
-      <c r="H5" s="106" t="s">
+      <c r="G5" s="103"/>
+      <c r="H5" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="102"/>
+      <c r="I5" s="103"/>
       <c r="J5" s="56" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="57">
         <f>SUM(K2+K3+K4)</f>
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="L5" s="51" t="s">
         <v>23</v>
@@ -3899,14 +4196,14 @@
     <row r="6" spans="1:26">
       <c r="A6" s="58"/>
       <c r="B6" s="58"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
       <c r="K6" s="58"/>
       <c r="L6" s="51" t="s">
         <v>24</v>
@@ -9727,7 +10024,7 @@
       <c r="Z124" s="36"/>
     </row>
     <row r="125" spans="1:26" ht="172.2" thickBot="1">
-      <c r="A125" s="111"/>
+      <c r="A125" s="101"/>
       <c r="B125" s="100" t="s">
         <v>653</v>
       </c>
@@ -9826,227 +10123,557 @@
       <c r="Y126" s="36"/>
       <c r="Z126" s="36"/>
     </row>
-    <row r="127" spans="1:26">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-      <c r="M127" s="4"/>
-      <c r="N127" s="4"/>
-      <c r="O127" s="4"/>
-      <c r="P127" s="4"/>
-      <c r="Q127" s="4"/>
-      <c r="R127" s="4"/>
-    </row>
-    <row r="128" spans="1:26">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
-      <c r="M128" s="4"/>
-      <c r="N128" s="4"/>
-      <c r="O128" s="4"/>
-      <c r="P128" s="4"/>
-      <c r="Q128" s="4"/>
-      <c r="R128" s="4"/>
-    </row>
-    <row r="129" spans="1:18">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
-      <c r="M129" s="4"/>
-      <c r="N129" s="4"/>
-      <c r="O129" s="4"/>
-      <c r="P129" s="4"/>
-      <c r="Q129" s="4"/>
-      <c r="R129" s="4"/>
-    </row>
-    <row r="130" spans="1:18">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
-      <c r="M130" s="4"/>
-      <c r="N130" s="4"/>
-      <c r="O130" s="4"/>
-      <c r="P130" s="4"/>
-      <c r="Q130" s="4"/>
-      <c r="R130" s="4"/>
-    </row>
-    <row r="131" spans="1:18">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
-      <c r="M131" s="4"/>
-      <c r="N131" s="4"/>
-      <c r="O131" s="4"/>
-      <c r="P131" s="4"/>
-      <c r="Q131" s="4"/>
-      <c r="R131" s="4"/>
-    </row>
-    <row r="132" spans="1:18">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
-      <c r="M132" s="4"/>
-      <c r="N132" s="4"/>
-      <c r="O132" s="4"/>
-      <c r="P132" s="4"/>
-      <c r="Q132" s="4"/>
-      <c r="R132" s="4"/>
-    </row>
-    <row r="133" spans="1:18">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
-      <c r="M133" s="4"/>
-      <c r="N133" s="4"/>
-      <c r="O133" s="4"/>
-      <c r="P133" s="4"/>
-      <c r="Q133" s="4"/>
-      <c r="R133" s="4"/>
-    </row>
-    <row r="134" spans="1:18">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
-      <c r="M134" s="4"/>
-      <c r="N134" s="4"/>
-      <c r="O134" s="4"/>
-      <c r="P134" s="4"/>
-      <c r="Q134" s="4"/>
-      <c r="R134" s="4"/>
-    </row>
-    <row r="135" spans="1:18">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
-      <c r="O135" s="4"/>
-      <c r="P135" s="4"/>
-      <c r="Q135" s="4"/>
-      <c r="R135" s="4"/>
-    </row>
-    <row r="136" spans="1:18">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
-      <c r="M136" s="4"/>
-      <c r="N136" s="4"/>
-      <c r="O136" s="4"/>
-      <c r="P136" s="4"/>
-      <c r="Q136" s="4"/>
-      <c r="R136" s="4"/>
-    </row>
-    <row r="137" spans="1:18">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
-      <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
-      <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
-      <c r="M137" s="4"/>
-      <c r="N137" s="4"/>
-      <c r="O137" s="4"/>
-      <c r="P137" s="4"/>
-      <c r="Q137" s="4"/>
-      <c r="R137" s="4"/>
-    </row>
-    <row r="138" spans="1:18">
+    <row r="127" spans="1:26" ht="53.4" thickBot="1">
+      <c r="A127" s="101" t="s">
+        <v>667</v>
+      </c>
+      <c r="B127" s="112" t="s">
+        <v>668</v>
+      </c>
+      <c r="C127" s="61" t="s">
+        <v>669</v>
+      </c>
+      <c r="D127" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E127" s="63" t="s">
+        <v>670</v>
+      </c>
+      <c r="F127" s="61"/>
+      <c r="G127" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="H127" s="61"/>
+      <c r="I127" s="61"/>
+      <c r="J127" s="61"/>
+      <c r="K127" s="61"/>
+      <c r="L127" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="M127" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="N127" s="36"/>
+      <c r="O127" s="36"/>
+      <c r="P127" s="36"/>
+      <c r="Q127" s="36"/>
+      <c r="R127" s="36"/>
+      <c r="S127" s="36"/>
+      <c r="T127" s="36"/>
+      <c r="U127" s="36"/>
+      <c r="V127" s="36"/>
+      <c r="W127" s="36"/>
+      <c r="X127" s="36"/>
+      <c r="Y127" s="36"/>
+      <c r="Z127" s="36"/>
+    </row>
+    <row r="128" spans="1:26" ht="66.599999999999994" thickBot="1">
+      <c r="A128" s="66" t="s">
+        <v>667</v>
+      </c>
+      <c r="B128" s="113" t="s">
+        <v>671</v>
+      </c>
+      <c r="C128" s="67"/>
+      <c r="D128" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E128" s="69" t="s">
+        <v>672</v>
+      </c>
+      <c r="F128" s="67"/>
+      <c r="G128" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H128" s="67"/>
+      <c r="I128" s="67"/>
+      <c r="J128" s="67"/>
+      <c r="K128" s="67"/>
+      <c r="L128" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M128" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N128" s="36"/>
+      <c r="O128" s="36"/>
+      <c r="P128" s="36"/>
+      <c r="Q128" s="36"/>
+      <c r="R128" s="36"/>
+      <c r="S128" s="36"/>
+      <c r="T128" s="36"/>
+      <c r="U128" s="36"/>
+      <c r="V128" s="36"/>
+      <c r="W128" s="36"/>
+      <c r="X128" s="36"/>
+      <c r="Y128" s="36"/>
+      <c r="Z128" s="36"/>
+    </row>
+    <row r="129" spans="1:26" ht="409.6" thickBot="1">
+      <c r="A129" s="66" t="s">
+        <v>673</v>
+      </c>
+      <c r="B129" s="114" t="s">
+        <v>674</v>
+      </c>
+      <c r="C129" s="67" t="s">
+        <v>675</v>
+      </c>
+      <c r="D129" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E129" s="69" t="s">
+        <v>676</v>
+      </c>
+      <c r="F129" s="115" t="s">
+        <v>677</v>
+      </c>
+      <c r="G129" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H129" s="67" t="s">
+        <v>678</v>
+      </c>
+      <c r="I129" s="67" t="s">
+        <v>679</v>
+      </c>
+      <c r="J129" s="76" t="s">
+        <v>680</v>
+      </c>
+      <c r="K129" s="67" t="s">
+        <v>681</v>
+      </c>
+      <c r="L129" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M129" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N129" s="36"/>
+      <c r="O129" s="36"/>
+      <c r="P129" s="36"/>
+      <c r="Q129" s="36"/>
+      <c r="R129" s="36"/>
+      <c r="S129" s="36"/>
+      <c r="T129" s="36"/>
+      <c r="U129" s="36"/>
+      <c r="V129" s="36"/>
+      <c r="W129" s="36"/>
+      <c r="X129" s="36"/>
+      <c r="Y129" s="36"/>
+      <c r="Z129" s="36"/>
+    </row>
+    <row r="130" spans="1:26" ht="66.599999999999994" thickBot="1">
+      <c r="A130" s="66"/>
+      <c r="B130" s="114" t="s">
+        <v>674</v>
+      </c>
+      <c r="C130" s="67" t="s">
+        <v>675</v>
+      </c>
+      <c r="D130" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E130" s="69" t="s">
+        <v>682</v>
+      </c>
+      <c r="F130" s="115" t="s">
+        <v>683</v>
+      </c>
+      <c r="G130" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H130" s="67" t="s">
+        <v>684</v>
+      </c>
+      <c r="I130" s="67"/>
+      <c r="J130" s="76" t="s">
+        <v>685</v>
+      </c>
+      <c r="K130" s="67" t="s">
+        <v>686</v>
+      </c>
+      <c r="L130" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M130" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N130" s="36"/>
+      <c r="O130" s="36"/>
+      <c r="P130" s="36"/>
+      <c r="Q130" s="36"/>
+      <c r="R130" s="36"/>
+      <c r="S130" s="36"/>
+      <c r="T130" s="36"/>
+      <c r="U130" s="36"/>
+      <c r="V130" s="36"/>
+      <c r="W130" s="36"/>
+      <c r="X130" s="36"/>
+      <c r="Y130" s="36"/>
+      <c r="Z130" s="36"/>
+    </row>
+    <row r="131" spans="1:26" ht="264.60000000000002" thickBot="1">
+      <c r="A131" s="66"/>
+      <c r="B131" s="114" t="s">
+        <v>674</v>
+      </c>
+      <c r="C131" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D131" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E131" s="69" t="s">
+        <v>687</v>
+      </c>
+      <c r="F131" s="67" t="s">
+        <v>688</v>
+      </c>
+      <c r="G131" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H131" s="67" t="s">
+        <v>689</v>
+      </c>
+      <c r="I131" s="67" t="s">
+        <v>690</v>
+      </c>
+      <c r="J131" s="76" t="s">
+        <v>691</v>
+      </c>
+      <c r="K131" s="67" t="s">
+        <v>692</v>
+      </c>
+      <c r="L131" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M131" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N131" s="36"/>
+      <c r="O131" s="36"/>
+      <c r="P131" s="36"/>
+      <c r="Q131" s="36"/>
+      <c r="R131" s="36"/>
+      <c r="S131" s="36"/>
+      <c r="T131" s="36"/>
+      <c r="U131" s="36"/>
+      <c r="V131" s="36"/>
+      <c r="W131" s="36"/>
+      <c r="X131" s="36"/>
+      <c r="Y131" s="36"/>
+      <c r="Z131" s="36"/>
+    </row>
+    <row r="132" spans="1:26" ht="93" thickBot="1">
+      <c r="A132" s="66"/>
+      <c r="B132" s="114" t="s">
+        <v>674</v>
+      </c>
+      <c r="C132" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D132" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E132" s="69" t="s">
+        <v>693</v>
+      </c>
+      <c r="F132" s="67" t="s">
+        <v>694</v>
+      </c>
+      <c r="G132" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H132" s="67" t="s">
+        <v>695</v>
+      </c>
+      <c r="I132" s="67" t="s">
+        <v>696</v>
+      </c>
+      <c r="J132" s="76" t="s">
+        <v>697</v>
+      </c>
+      <c r="K132" s="67" t="s">
+        <v>698</v>
+      </c>
+      <c r="L132" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M132" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N132" s="36"/>
+      <c r="O132" s="36"/>
+      <c r="P132" s="36"/>
+      <c r="Q132" s="36"/>
+      <c r="R132" s="36"/>
+      <c r="S132" s="36"/>
+      <c r="T132" s="36"/>
+      <c r="U132" s="36"/>
+      <c r="V132" s="36"/>
+      <c r="W132" s="36"/>
+      <c r="X132" s="36"/>
+      <c r="Y132" s="36"/>
+      <c r="Z132" s="36"/>
+    </row>
+    <row r="133" spans="1:26" ht="211.8" thickBot="1">
+      <c r="A133" s="66"/>
+      <c r="B133" s="114" t="s">
+        <v>674</v>
+      </c>
+      <c r="C133" s="67" t="s">
+        <v>699</v>
+      </c>
+      <c r="D133" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E133" s="69" t="s">
+        <v>700</v>
+      </c>
+      <c r="F133" s="67" t="s">
+        <v>701</v>
+      </c>
+      <c r="G133" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H133" s="67" t="s">
+        <v>702</v>
+      </c>
+      <c r="I133" s="67" t="s">
+        <v>703</v>
+      </c>
+      <c r="J133" s="76" t="s">
+        <v>704</v>
+      </c>
+      <c r="K133" s="67" t="s">
+        <v>705</v>
+      </c>
+      <c r="L133" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M133" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N133" s="36"/>
+      <c r="O133" s="36"/>
+      <c r="P133" s="36"/>
+      <c r="Q133" s="36"/>
+      <c r="R133" s="36"/>
+      <c r="S133" s="36"/>
+      <c r="T133" s="36"/>
+      <c r="U133" s="36"/>
+      <c r="V133" s="36"/>
+      <c r="W133" s="36"/>
+      <c r="X133" s="36"/>
+      <c r="Y133" s="36"/>
+      <c r="Z133" s="36"/>
+    </row>
+    <row r="134" spans="1:26" ht="251.4" thickBot="1">
+      <c r="A134" s="66"/>
+      <c r="B134" s="114" t="s">
+        <v>674</v>
+      </c>
+      <c r="C134" s="67" t="s">
+        <v>675</v>
+      </c>
+      <c r="D134" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E134" s="69" t="s">
+        <v>706</v>
+      </c>
+      <c r="F134" s="67" t="s">
+        <v>707</v>
+      </c>
+      <c r="G134" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H134" s="67" t="s">
+        <v>684</v>
+      </c>
+      <c r="I134" s="67" t="s">
+        <v>708</v>
+      </c>
+      <c r="J134" s="76" t="s">
+        <v>709</v>
+      </c>
+      <c r="K134" s="67"/>
+      <c r="L134" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M134" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N134" s="36"/>
+      <c r="O134" s="36"/>
+      <c r="P134" s="36"/>
+      <c r="Q134" s="36"/>
+      <c r="R134" s="36"/>
+      <c r="S134" s="36"/>
+      <c r="T134" s="36"/>
+      <c r="U134" s="36"/>
+      <c r="V134" s="36"/>
+      <c r="W134" s="36"/>
+      <c r="X134" s="36"/>
+      <c r="Y134" s="36"/>
+      <c r="Z134" s="36"/>
+    </row>
+    <row r="135" spans="1:26" ht="225" thickBot="1">
+      <c r="A135" s="66"/>
+      <c r="B135" s="114" t="s">
+        <v>674</v>
+      </c>
+      <c r="C135" s="67" t="s">
+        <v>710</v>
+      </c>
+      <c r="D135" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E135" s="69" t="s">
+        <v>711</v>
+      </c>
+      <c r="F135" s="67" t="s">
+        <v>712</v>
+      </c>
+      <c r="G135" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H135" s="67" t="s">
+        <v>713</v>
+      </c>
+      <c r="I135" s="67" t="s">
+        <v>714</v>
+      </c>
+      <c r="J135" s="76" t="s">
+        <v>715</v>
+      </c>
+      <c r="K135" s="67" t="s">
+        <v>716</v>
+      </c>
+      <c r="L135" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M135" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N135" s="36"/>
+      <c r="O135" s="36"/>
+      <c r="P135" s="36"/>
+      <c r="Q135" s="36"/>
+      <c r="R135" s="36"/>
+      <c r="S135" s="36"/>
+      <c r="T135" s="36"/>
+      <c r="U135" s="36"/>
+      <c r="V135" s="36"/>
+      <c r="W135" s="36"/>
+      <c r="X135" s="36"/>
+      <c r="Y135" s="36"/>
+      <c r="Z135" s="36"/>
+    </row>
+    <row r="136" spans="1:26" ht="145.80000000000001" thickBot="1">
+      <c r="A136" s="66"/>
+      <c r="B136" s="114" t="s">
+        <v>674</v>
+      </c>
+      <c r="C136" s="67" t="s">
+        <v>717</v>
+      </c>
+      <c r="D136" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E136" s="69" t="s">
+        <v>718</v>
+      </c>
+      <c r="F136" s="67" t="s">
+        <v>719</v>
+      </c>
+      <c r="G136" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H136" s="67" t="s">
+        <v>720</v>
+      </c>
+      <c r="I136" s="67" t="s">
+        <v>721</v>
+      </c>
+      <c r="J136" s="76" t="s">
+        <v>722</v>
+      </c>
+      <c r="K136" s="67" t="s">
+        <v>723</v>
+      </c>
+      <c r="L136" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M136" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N136" s="36"/>
+      <c r="O136" s="36"/>
+      <c r="P136" s="36"/>
+      <c r="Q136" s="36"/>
+      <c r="R136" s="36"/>
+      <c r="S136" s="36"/>
+      <c r="T136" s="36"/>
+      <c r="U136" s="36"/>
+      <c r="V136" s="36"/>
+      <c r="W136" s="36"/>
+      <c r="X136" s="36"/>
+      <c r="Y136" s="36"/>
+      <c r="Z136" s="36"/>
+    </row>
+    <row r="137" spans="1:26" ht="119.4" thickBot="1">
+      <c r="A137" s="66"/>
+      <c r="B137" s="116" t="s">
+        <v>674</v>
+      </c>
+      <c r="C137" s="67" t="s">
+        <v>724</v>
+      </c>
+      <c r="D137" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E137" s="69" t="s">
+        <v>725</v>
+      </c>
+      <c r="F137" s="67" t="s">
+        <v>726</v>
+      </c>
+      <c r="G137" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="H137" s="67" t="s">
+        <v>684</v>
+      </c>
+      <c r="I137" s="67"/>
+      <c r="J137" s="76" t="s">
+        <v>727</v>
+      </c>
+      <c r="K137" s="67" t="s">
+        <v>728</v>
+      </c>
+      <c r="L137" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M137" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N137" s="36"/>
+      <c r="O137" s="36"/>
+      <c r="P137" s="36"/>
+      <c r="Q137" s="36"/>
+      <c r="R137" s="36"/>
+      <c r="S137" s="36"/>
+      <c r="T137" s="36"/>
+      <c r="U137" s="36"/>
+      <c r="V137" s="36"/>
+      <c r="W137" s="36"/>
+      <c r="X137" s="36"/>
+      <c r="Y137" s="36"/>
+      <c r="Z137" s="36"/>
+    </row>
+    <row r="138" spans="1:26">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -10066,7 +10693,7 @@
       <c r="Q138" s="4"/>
       <c r="R138" s="4"/>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139" spans="1:26">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -10086,7 +10713,7 @@
       <c r="Q139" s="4"/>
       <c r="R139" s="4"/>
     </row>
-    <row r="140" spans="1:18">
+    <row r="140" spans="1:26">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -10106,7 +10733,7 @@
       <c r="Q140" s="4"/>
       <c r="R140" s="4"/>
     </row>
-    <row r="141" spans="1:18">
+    <row r="141" spans="1:26">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -10126,7 +10753,7 @@
       <c r="Q141" s="4"/>
       <c r="R141" s="4"/>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" spans="1:26">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -10146,7 +10773,7 @@
       <c r="Q142" s="4"/>
       <c r="R142" s="4"/>
     </row>
-    <row r="143" spans="1:18">
+    <row r="143" spans="1:26">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -10166,7 +10793,7 @@
       <c r="Q143" s="4"/>
       <c r="R143" s="4"/>
     </row>
-    <row r="144" spans="1:18">
+    <row r="144" spans="1:26">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -27368,14 +27995,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -27390,6 +28009,14 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="M8">
@@ -27480,9 +28107,29 @@
     <hyperlink ref="B124" r:id="rId78" display="https://jira.ibos.io/browse/MGM-7651"/>
     <hyperlink ref="B125" r:id="rId79" display="https://jira.ibos.io/browse/MGM-7651"/>
     <hyperlink ref="B126" r:id="rId80" display="https://jira.ibos.io/browse/MGM-7651"/>
+    <hyperlink ref="B127" r:id="rId81" display="https://jira.ibos.io/browse/MGM-7162"/>
+    <hyperlink ref="B128" r:id="rId82" display="https://jira.ibos.io/browse/MGM-7873"/>
+    <hyperlink ref="B129" r:id="rId83" display="https://jira.ibos.io/browse/MGM-7861"/>
+    <hyperlink ref="J129" r:id="rId84"/>
+    <hyperlink ref="B130" r:id="rId85" display="https://jira.ibos.io/browse/MGM-7861"/>
+    <hyperlink ref="J130" r:id="rId86"/>
+    <hyperlink ref="B131" r:id="rId87" display="https://jira.ibos.io/browse/MGM-7861"/>
+    <hyperlink ref="J131" r:id="rId88"/>
+    <hyperlink ref="B132" r:id="rId89" display="https://jira.ibos.io/browse/MGM-7861"/>
+    <hyperlink ref="J132" r:id="rId90"/>
+    <hyperlink ref="B133" r:id="rId91" display="https://jira.ibos.io/browse/MGM-7861"/>
+    <hyperlink ref="J133" r:id="rId92"/>
+    <hyperlink ref="B134" r:id="rId93" display="https://jira.ibos.io/browse/MGM-7861"/>
+    <hyperlink ref="J134" r:id="rId94"/>
+    <hyperlink ref="B135" r:id="rId95" display="https://jira.ibos.io/browse/MGM-7861"/>
+    <hyperlink ref="J135" r:id="rId96"/>
+    <hyperlink ref="B136" r:id="rId97" display="https://jira.ibos.io/browse/MGM-7861"/>
+    <hyperlink ref="J136" r:id="rId98"/>
+    <hyperlink ref="B137" r:id="rId99" display="https://jira.ibos.io/browse/MGM-7861"/>
+    <hyperlink ref="J137" r:id="rId100"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId81"/>
+  <pageSetup orientation="portrait" r:id="rId101"/>
 </worksheet>
 </file>
 

--- a/Test Case In Managerium.xlsx
+++ b/Test Case In Managerium.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="745">
   <si>
     <t>Product Name</t>
   </si>
@@ -2949,6 +2949,69 @@
   <si>
     <t xml:space="preserve">it will should be after Item Issue Projects Details Inventory Details Actual Qty vaild effect 
 </t>
+  </si>
+  <si>
+    <t>Create Transfer Request</t>
+  </si>
+  <si>
+    <t>Try to Create Transfer Request</t>
+  </si>
+  <si>
+    <t>Inventory -Transfer Request-Create Transfer Request-fillup form-save</t>
+  </si>
+  <si>
+    <t>Item Name Quantity 
+Wrapper 2 
+WE01 1</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/TN2Y6SXJvs60</t>
+  </si>
+  <si>
+    <t>It will should be successfully Create Transfer Request</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-7873</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Transfer Request Approval</t>
+    </r>
+  </si>
+  <si>
+    <t>Inventory Approval</t>
+  </si>
+  <si>
+    <t>Try to Transfer Request Approval</t>
+  </si>
+  <si>
+    <t>Approval-Inventory Approval-Transfer Request Approval-Approve Request-Approve-yes</t>
+  </si>
+  <si>
+    <t>It will should be successfully Transfer Request Approval-</t>
+  </si>
+  <si>
+    <t>Transfer Request</t>
+  </si>
+  <si>
+    <t>Try to checking Add Total Quantity in Product Request PDF</t>
+  </si>
+  <si>
+    <t>Inventory -Transfer Request-Action- view Pdf</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/usOLjaSbZ-RI</t>
+  </si>
+  <si>
+    <t>It will should be showing Add Total Quantity in Product Request PDF</t>
   </si>
 </sst>
 </file>
@@ -3753,34 +3816,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3795,6 +3830,34 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4015,10 +4078,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1003"/>
+  <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P137" sqref="P137"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K159" sqref="K159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
@@ -4033,26 +4096,26 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="46"/>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="107" t="s">
+      <c r="C1" s="108"/>
+      <c r="D1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="106" t="s">
+      <c r="E1" s="108"/>
+      <c r="F1" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="103"/>
-      <c r="H1" s="111">
+      <c r="G1" s="108"/>
+      <c r="H1" s="113">
         <v>45615</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="109" t="s">
+      <c r="I1" s="108"/>
+      <c r="J1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="103"/>
+      <c r="K1" s="108"/>
       <c r="L1" s="47"/>
       <c r="M1" s="48" t="s">
         <v>4</v>
@@ -4065,26 +4128,26 @@
     </row>
     <row r="2" spans="1:26" ht="13.8">
       <c r="A2" s="46"/>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="107" t="s">
+      <c r="C2" s="108"/>
+      <c r="D2" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="106" t="s">
+      <c r="E2" s="108"/>
+      <c r="F2" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="103"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="103"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="108"/>
       <c r="J2" s="49" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="50">
-        <f>COUNTIF(M8:M1821,"Pass")</f>
-        <v>130</v>
+        <f>COUNTIF(M8:M1823,"Pass")</f>
+        <v>132</v>
       </c>
       <c r="L2" s="51" t="s">
         <v>9</v>
@@ -4098,21 +4161,21 @@
     </row>
     <row r="3" spans="1:26" ht="13.8">
       <c r="A3" s="46"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="106" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="103"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="103"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="108"/>
       <c r="J3" s="52" t="s">
         <v>11</v>
       </c>
       <c r="K3" s="53">
-        <f>COUNTIF(M8:M1821,"Fail")</f>
+        <f>COUNTIF(M8:M1823,"Fail")</f>
         <v>0</v>
       </c>
       <c r="L3" s="51" t="s">
@@ -4127,25 +4190,25 @@
     </row>
     <row r="4" spans="1:26" ht="171.6">
       <c r="A4" s="46"/>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="107" t="s">
+      <c r="C4" s="108"/>
+      <c r="D4" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="103"/>
-      <c r="F4" s="106" t="s">
+      <c r="E4" s="108"/>
+      <c r="F4" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="103"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="103"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="108"/>
       <c r="J4" s="49" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="54">
-        <f>COUNTIF(M9:M1821,"Out of Scope")</f>
+        <f>COUNTIF(M9:M1823,"Out of Scope")</f>
         <v>0</v>
       </c>
       <c r="L4" s="55" t="s">
@@ -4160,28 +4223,28 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="46"/>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="107" t="s">
+      <c r="C5" s="108"/>
+      <c r="D5" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="106" t="s">
+      <c r="E5" s="108"/>
+      <c r="F5" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="103"/>
-      <c r="H5" s="105" t="s">
+      <c r="G5" s="108"/>
+      <c r="H5" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="103"/>
+      <c r="I5" s="108"/>
       <c r="J5" s="56" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="57">
         <f>SUM(K2+K3+K4)</f>
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L5" s="51" t="s">
         <v>23</v>
@@ -4196,14 +4259,14 @@
     <row r="6" spans="1:26">
       <c r="A6" s="58"/>
       <c r="B6" s="58"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
       <c r="K6" s="58"/>
       <c r="L6" s="51" t="s">
         <v>24</v>
@@ -10127,7 +10190,7 @@
       <c r="A127" s="101" t="s">
         <v>667</v>
       </c>
-      <c r="B127" s="112" t="s">
+      <c r="B127" s="102" t="s">
         <v>668</v>
       </c>
       <c r="C127" s="61" t="s">
@@ -10167,32 +10230,44 @@
       <c r="Y127" s="36"/>
       <c r="Z127" s="36"/>
     </row>
-    <row r="128" spans="1:26" ht="66.599999999999994" thickBot="1">
-      <c r="A128" s="66" t="s">
+    <row r="128" spans="1:26" ht="79.8" thickBot="1">
+      <c r="A128" s="101" t="s">
         <v>667</v>
       </c>
-      <c r="B128" s="113" t="s">
+      <c r="B128" s="103" t="s">
         <v>671</v>
       </c>
-      <c r="C128" s="67"/>
-      <c r="D128" s="68" t="s">
+      <c r="C128" s="61" t="s">
+        <v>729</v>
+      </c>
+      <c r="D128" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="E128" s="69" t="s">
+      <c r="E128" s="63" t="s">
         <v>672</v>
       </c>
-      <c r="F128" s="67"/>
-      <c r="G128" s="70" t="s">
+      <c r="F128" s="61" t="s">
+        <v>730</v>
+      </c>
+      <c r="G128" s="64" t="s">
         <v>264</v>
       </c>
-      <c r="H128" s="67"/>
-      <c r="I128" s="67"/>
-      <c r="J128" s="67"/>
-      <c r="K128" s="67"/>
-      <c r="L128" s="71" t="s">
+      <c r="H128" s="61" t="s">
+        <v>731</v>
+      </c>
+      <c r="I128" s="61" t="s">
+        <v>732</v>
+      </c>
+      <c r="J128" s="79" t="s">
+        <v>733</v>
+      </c>
+      <c r="K128" s="61" t="s">
+        <v>734</v>
+      </c>
+      <c r="L128" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="M128" s="72" t="s">
+      <c r="M128" s="65" t="s">
         <v>41</v>
       </c>
       <c r="N128" s="36"/>
@@ -10209,15 +10284,15 @@
       <c r="Y128" s="36"/>
       <c r="Z128" s="36"/>
     </row>
-    <row r="129" spans="1:26" ht="409.6" thickBot="1">
-      <c r="A129" s="66" t="s">
-        <v>673</v>
-      </c>
-      <c r="B129" s="114" t="s">
-        <v>674</v>
+    <row r="129" spans="1:26" ht="79.8" thickBot="1">
+      <c r="A129" s="73">
+        <v>45659</v>
+      </c>
+      <c r="B129" s="103" t="s">
+        <v>735</v>
       </c>
       <c r="C129" s="67" t="s">
-        <v>675</v>
+        <v>736</v>
       </c>
       <c r="D129" s="68" t="s">
         <v>44</v>
@@ -10225,23 +10300,19 @@
       <c r="E129" s="69" t="s">
         <v>676</v>
       </c>
-      <c r="F129" s="115" t="s">
-        <v>677</v>
+      <c r="F129" s="67" t="s">
+        <v>737</v>
       </c>
       <c r="G129" s="70" t="s">
         <v>264</v>
       </c>
       <c r="H129" s="67" t="s">
-        <v>678</v>
-      </c>
-      <c r="I129" s="67" t="s">
-        <v>679</v>
-      </c>
-      <c r="J129" s="76" t="s">
-        <v>680</v>
-      </c>
+        <v>738</v>
+      </c>
+      <c r="I129" s="67"/>
+      <c r="J129" s="67"/>
       <c r="K129" s="67" t="s">
-        <v>681</v>
+        <v>739</v>
       </c>
       <c r="L129" s="71" t="s">
         <v>50</v>
@@ -10263,13 +10334,15 @@
       <c r="Y129" s="36"/>
       <c r="Z129" s="36"/>
     </row>
-    <row r="130" spans="1:26" ht="66.599999999999994" thickBot="1">
-      <c r="A130" s="66"/>
-      <c r="B130" s="114" t="s">
-        <v>674</v>
+    <row r="130" spans="1:26" ht="79.8" thickBot="1">
+      <c r="A130" s="73">
+        <v>45660</v>
+      </c>
+      <c r="B130" s="103" t="s">
+        <v>735</v>
       </c>
       <c r="C130" s="67" t="s">
-        <v>675</v>
+        <v>740</v>
       </c>
       <c r="D130" s="68" t="s">
         <v>44</v>
@@ -10277,21 +10350,21 @@
       <c r="E130" s="69" t="s">
         <v>682</v>
       </c>
-      <c r="F130" s="115" t="s">
-        <v>683</v>
-      </c>
-      <c r="G130" s="70" t="s">
-        <v>264</v>
+      <c r="F130" s="67" t="s">
+        <v>741</v>
+      </c>
+      <c r="G130" s="75" t="s">
+        <v>64</v>
       </c>
       <c r="H130" s="67" t="s">
-        <v>684</v>
+        <v>742</v>
       </c>
       <c r="I130" s="67"/>
       <c r="J130" s="76" t="s">
-        <v>685</v>
+        <v>743</v>
       </c>
       <c r="K130" s="67" t="s">
-        <v>686</v>
+        <v>744</v>
       </c>
       <c r="L130" s="71" t="s">
         <v>50</v>
@@ -10313,37 +10386,39 @@
       <c r="Y130" s="36"/>
       <c r="Z130" s="36"/>
     </row>
-    <row r="131" spans="1:26" ht="264.60000000000002" thickBot="1">
-      <c r="A131" s="66"/>
-      <c r="B131" s="114" t="s">
+    <row r="131" spans="1:26" ht="409.6" thickBot="1">
+      <c r="A131" s="66" t="s">
+        <v>673</v>
+      </c>
+      <c r="B131" s="104" t="s">
         <v>674</v>
       </c>
       <c r="C131" s="67" t="s">
-        <v>78</v>
+        <v>675</v>
       </c>
       <c r="D131" s="68" t="s">
         <v>44</v>
       </c>
       <c r="E131" s="69" t="s">
-        <v>687</v>
-      </c>
-      <c r="F131" s="67" t="s">
-        <v>688</v>
+        <v>676</v>
+      </c>
+      <c r="F131" s="105" t="s">
+        <v>677</v>
       </c>
       <c r="G131" s="70" t="s">
         <v>264</v>
       </c>
       <c r="H131" s="67" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="I131" s="67" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="J131" s="76" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="K131" s="67" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="L131" s="71" t="s">
         <v>50</v>
@@ -10365,37 +10440,35 @@
       <c r="Y131" s="36"/>
       <c r="Z131" s="36"/>
     </row>
-    <row r="132" spans="1:26" ht="93" thickBot="1">
+    <row r="132" spans="1:26" ht="66.599999999999994" thickBot="1">
       <c r="A132" s="66"/>
-      <c r="B132" s="114" t="s">
+      <c r="B132" s="104" t="s">
         <v>674</v>
       </c>
       <c r="C132" s="67" t="s">
-        <v>78</v>
+        <v>675</v>
       </c>
       <c r="D132" s="68" t="s">
         <v>44</v>
       </c>
       <c r="E132" s="69" t="s">
-        <v>693</v>
-      </c>
-      <c r="F132" s="67" t="s">
-        <v>694</v>
+        <v>682</v>
+      </c>
+      <c r="F132" s="105" t="s">
+        <v>683</v>
       </c>
       <c r="G132" s="70" t="s">
         <v>264</v>
       </c>
       <c r="H132" s="67" t="s">
-        <v>695</v>
-      </c>
-      <c r="I132" s="67" t="s">
-        <v>696</v>
-      </c>
+        <v>684</v>
+      </c>
+      <c r="I132" s="67"/>
       <c r="J132" s="76" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="K132" s="67" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="L132" s="71" t="s">
         <v>50</v>
@@ -10417,37 +10490,37 @@
       <c r="Y132" s="36"/>
       <c r="Z132" s="36"/>
     </row>
-    <row r="133" spans="1:26" ht="211.8" thickBot="1">
+    <row r="133" spans="1:26" ht="264.60000000000002" thickBot="1">
       <c r="A133" s="66"/>
-      <c r="B133" s="114" t="s">
+      <c r="B133" s="104" t="s">
         <v>674</v>
       </c>
       <c r="C133" s="67" t="s">
-        <v>699</v>
+        <v>78</v>
       </c>
       <c r="D133" s="68" t="s">
         <v>44</v>
       </c>
       <c r="E133" s="69" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="F133" s="67" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="G133" s="70" t="s">
         <v>264</v>
       </c>
       <c r="H133" s="67" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="I133" s="67" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="J133" s="76" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="K133" s="67" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="L133" s="71" t="s">
         <v>50</v>
@@ -10469,36 +10542,38 @@
       <c r="Y133" s="36"/>
       <c r="Z133" s="36"/>
     </row>
-    <row r="134" spans="1:26" ht="251.4" thickBot="1">
+    <row r="134" spans="1:26" ht="93" thickBot="1">
       <c r="A134" s="66"/>
-      <c r="B134" s="114" t="s">
+      <c r="B134" s="104" t="s">
         <v>674</v>
       </c>
       <c r="C134" s="67" t="s">
-        <v>675</v>
+        <v>78</v>
       </c>
       <c r="D134" s="68" t="s">
         <v>44</v>
       </c>
       <c r="E134" s="69" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="F134" s="67" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="G134" s="70" t="s">
         <v>264</v>
       </c>
       <c r="H134" s="67" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="I134" s="67" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="J134" s="76" t="s">
-        <v>709</v>
-      </c>
-      <c r="K134" s="67"/>
+        <v>697</v>
+      </c>
+      <c r="K134" s="67" t="s">
+        <v>698</v>
+      </c>
       <c r="L134" s="71" t="s">
         <v>50</v>
       </c>
@@ -10519,37 +10594,37 @@
       <c r="Y134" s="36"/>
       <c r="Z134" s="36"/>
     </row>
-    <row r="135" spans="1:26" ht="225" thickBot="1">
+    <row r="135" spans="1:26" ht="211.8" thickBot="1">
       <c r="A135" s="66"/>
-      <c r="B135" s="114" t="s">
+      <c r="B135" s="104" t="s">
         <v>674</v>
       </c>
       <c r="C135" s="67" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="D135" s="68" t="s">
         <v>44</v>
       </c>
       <c r="E135" s="69" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="F135" s="67" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="G135" s="70" t="s">
         <v>264</v>
       </c>
       <c r="H135" s="67" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="I135" s="67" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="J135" s="76" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="K135" s="67" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="L135" s="71" t="s">
         <v>50</v>
@@ -10571,38 +10646,36 @@
       <c r="Y135" s="36"/>
       <c r="Z135" s="36"/>
     </row>
-    <row r="136" spans="1:26" ht="145.80000000000001" thickBot="1">
+    <row r="136" spans="1:26" ht="251.4" thickBot="1">
       <c r="A136" s="66"/>
-      <c r="B136" s="114" t="s">
+      <c r="B136" s="104" t="s">
         <v>674</v>
       </c>
       <c r="C136" s="67" t="s">
-        <v>717</v>
+        <v>675</v>
       </c>
       <c r="D136" s="68" t="s">
         <v>44</v>
       </c>
       <c r="E136" s="69" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="F136" s="67" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="G136" s="70" t="s">
         <v>264</v>
       </c>
       <c r="H136" s="67" t="s">
-        <v>720</v>
+        <v>684</v>
       </c>
       <c r="I136" s="67" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="J136" s="76" t="s">
-        <v>722</v>
-      </c>
-      <c r="K136" s="67" t="s">
-        <v>723</v>
-      </c>
+        <v>709</v>
+      </c>
+      <c r="K136" s="67"/>
       <c r="L136" s="71" t="s">
         <v>50</v>
       </c>
@@ -10623,35 +10696,37 @@
       <c r="Y136" s="36"/>
       <c r="Z136" s="36"/>
     </row>
-    <row r="137" spans="1:26" ht="119.4" thickBot="1">
+    <row r="137" spans="1:26" ht="225" thickBot="1">
       <c r="A137" s="66"/>
-      <c r="B137" s="116" t="s">
+      <c r="B137" s="104" t="s">
         <v>674</v>
       </c>
       <c r="C137" s="67" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="D137" s="68" t="s">
         <v>44</v>
       </c>
       <c r="E137" s="69" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="F137" s="67" t="s">
-        <v>726</v>
-      </c>
-      <c r="G137" s="75" t="s">
-        <v>64</v>
+        <v>712</v>
+      </c>
+      <c r="G137" s="70" t="s">
+        <v>264</v>
       </c>
       <c r="H137" s="67" t="s">
-        <v>684</v>
-      </c>
-      <c r="I137" s="67"/>
+        <v>713</v>
+      </c>
+      <c r="I137" s="67" t="s">
+        <v>714</v>
+      </c>
       <c r="J137" s="76" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="K137" s="67" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="L137" s="71" t="s">
         <v>50</v>
@@ -10673,45 +10748,107 @@
       <c r="Y137" s="36"/>
       <c r="Z137" s="36"/>
     </row>
-    <row r="138" spans="1:26">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
-      <c r="I138" s="4"/>
-      <c r="J138" s="4"/>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
-      <c r="M138" s="4"/>
-      <c r="N138" s="4"/>
-      <c r="O138" s="4"/>
-      <c r="P138" s="4"/>
-      <c r="Q138" s="4"/>
-      <c r="R138" s="4"/>
-    </row>
-    <row r="139" spans="1:26">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
-      <c r="I139" s="4"/>
-      <c r="J139" s="4"/>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
-      <c r="M139" s="4"/>
-      <c r="N139" s="4"/>
-      <c r="O139" s="4"/>
-      <c r="P139" s="4"/>
-      <c r="Q139" s="4"/>
-      <c r="R139" s="4"/>
+    <row r="138" spans="1:26" ht="145.80000000000001" thickBot="1">
+      <c r="A138" s="66"/>
+      <c r="B138" s="104" t="s">
+        <v>674</v>
+      </c>
+      <c r="C138" s="67" t="s">
+        <v>717</v>
+      </c>
+      <c r="D138" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E138" s="69" t="s">
+        <v>718</v>
+      </c>
+      <c r="F138" s="67" t="s">
+        <v>719</v>
+      </c>
+      <c r="G138" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H138" s="67" t="s">
+        <v>720</v>
+      </c>
+      <c r="I138" s="67" t="s">
+        <v>721</v>
+      </c>
+      <c r="J138" s="76" t="s">
+        <v>722</v>
+      </c>
+      <c r="K138" s="67" t="s">
+        <v>723</v>
+      </c>
+      <c r="L138" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M138" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N138" s="36"/>
+      <c r="O138" s="36"/>
+      <c r="P138" s="36"/>
+      <c r="Q138" s="36"/>
+      <c r="R138" s="36"/>
+      <c r="S138" s="36"/>
+      <c r="T138" s="36"/>
+      <c r="U138" s="36"/>
+      <c r="V138" s="36"/>
+      <c r="W138" s="36"/>
+      <c r="X138" s="36"/>
+      <c r="Y138" s="36"/>
+      <c r="Z138" s="36"/>
+    </row>
+    <row r="139" spans="1:26" ht="119.4" thickBot="1">
+      <c r="A139" s="66"/>
+      <c r="B139" s="106" t="s">
+        <v>674</v>
+      </c>
+      <c r="C139" s="67" t="s">
+        <v>724</v>
+      </c>
+      <c r="D139" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E139" s="69" t="s">
+        <v>725</v>
+      </c>
+      <c r="F139" s="67" t="s">
+        <v>726</v>
+      </c>
+      <c r="G139" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="H139" s="67" t="s">
+        <v>684</v>
+      </c>
+      <c r="I139" s="67"/>
+      <c r="J139" s="76" t="s">
+        <v>727</v>
+      </c>
+      <c r="K139" s="67" t="s">
+        <v>728</v>
+      </c>
+      <c r="L139" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M139" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="N139" s="36"/>
+      <c r="O139" s="36"/>
+      <c r="P139" s="36"/>
+      <c r="Q139" s="36"/>
+      <c r="R139" s="36"/>
+      <c r="S139" s="36"/>
+      <c r="T139" s="36"/>
+      <c r="U139" s="36"/>
+      <c r="V139" s="36"/>
+      <c r="W139" s="36"/>
+      <c r="X139" s="36"/>
+      <c r="Y139" s="36"/>
+      <c r="Z139" s="36"/>
     </row>
     <row r="140" spans="1:26">
       <c r="A140" s="4"/>
@@ -27993,8 +28130,56 @@
       <c r="Q1003" s="4"/>
       <c r="R1003" s="4"/>
     </row>
+    <row r="1004" spans="1:18">
+      <c r="A1004" s="4"/>
+      <c r="B1004" s="4"/>
+      <c r="C1004" s="4"/>
+      <c r="D1004" s="4"/>
+      <c r="E1004" s="4"/>
+      <c r="F1004" s="4"/>
+      <c r="G1004" s="4"/>
+      <c r="H1004" s="4"/>
+      <c r="I1004" s="4"/>
+      <c r="J1004" s="4"/>
+      <c r="K1004" s="4"/>
+      <c r="L1004" s="4"/>
+      <c r="M1004" s="4"/>
+      <c r="N1004" s="4"/>
+      <c r="O1004" s="4"/>
+      <c r="P1004" s="4"/>
+      <c r="Q1004" s="4"/>
+      <c r="R1004" s="4"/>
+    </row>
+    <row r="1005" spans="1:18">
+      <c r="A1005" s="4"/>
+      <c r="B1005" s="4"/>
+      <c r="C1005" s="4"/>
+      <c r="D1005" s="4"/>
+      <c r="E1005" s="4"/>
+      <c r="F1005" s="4"/>
+      <c r="G1005" s="4"/>
+      <c r="H1005" s="4"/>
+      <c r="I1005" s="4"/>
+      <c r="J1005" s="4"/>
+      <c r="K1005" s="4"/>
+      <c r="L1005" s="4"/>
+      <c r="M1005" s="4"/>
+      <c r="N1005" s="4"/>
+      <c r="O1005" s="4"/>
+      <c r="P1005" s="4"/>
+      <c r="Q1005" s="4"/>
+      <c r="R1005" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -28009,14 +28194,6 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="M8">
@@ -28108,28 +28285,32 @@
     <hyperlink ref="B125" r:id="rId79" display="https://jira.ibos.io/browse/MGM-7651"/>
     <hyperlink ref="B126" r:id="rId80" display="https://jira.ibos.io/browse/MGM-7651"/>
     <hyperlink ref="B127" r:id="rId81" display="https://jira.ibos.io/browse/MGM-7162"/>
-    <hyperlink ref="B128" r:id="rId82" display="https://jira.ibos.io/browse/MGM-7873"/>
-    <hyperlink ref="B129" r:id="rId83" display="https://jira.ibos.io/browse/MGM-7861"/>
-    <hyperlink ref="J129" r:id="rId84"/>
-    <hyperlink ref="B130" r:id="rId85" display="https://jira.ibos.io/browse/MGM-7861"/>
-    <hyperlink ref="J130" r:id="rId86"/>
-    <hyperlink ref="B131" r:id="rId87" display="https://jira.ibos.io/browse/MGM-7861"/>
-    <hyperlink ref="J131" r:id="rId88"/>
-    <hyperlink ref="B132" r:id="rId89" display="https://jira.ibos.io/browse/MGM-7861"/>
-    <hyperlink ref="J132" r:id="rId90"/>
-    <hyperlink ref="B133" r:id="rId91" display="https://jira.ibos.io/browse/MGM-7861"/>
-    <hyperlink ref="J133" r:id="rId92"/>
-    <hyperlink ref="B134" r:id="rId93" display="https://jira.ibos.io/browse/MGM-7861"/>
-    <hyperlink ref="J134" r:id="rId94"/>
-    <hyperlink ref="B135" r:id="rId95" display="https://jira.ibos.io/browse/MGM-7861"/>
-    <hyperlink ref="J135" r:id="rId96"/>
-    <hyperlink ref="B136" r:id="rId97" display="https://jira.ibos.io/browse/MGM-7861"/>
-    <hyperlink ref="J136" r:id="rId98"/>
-    <hyperlink ref="B137" r:id="rId99" display="https://jira.ibos.io/browse/MGM-7861"/>
-    <hyperlink ref="J137" r:id="rId100"/>
+    <hyperlink ref="B131" r:id="rId82" display="https://jira.ibos.io/browse/MGM-7861"/>
+    <hyperlink ref="J131" r:id="rId83"/>
+    <hyperlink ref="B132" r:id="rId84" display="https://jira.ibos.io/browse/MGM-7861"/>
+    <hyperlink ref="J132" r:id="rId85"/>
+    <hyperlink ref="B133" r:id="rId86" display="https://jira.ibos.io/browse/MGM-7861"/>
+    <hyperlink ref="J133" r:id="rId87"/>
+    <hyperlink ref="B134" r:id="rId88" display="https://jira.ibos.io/browse/MGM-7861"/>
+    <hyperlink ref="J134" r:id="rId89"/>
+    <hyperlink ref="B135" r:id="rId90" display="https://jira.ibos.io/browse/MGM-7861"/>
+    <hyperlink ref="J135" r:id="rId91"/>
+    <hyperlink ref="B136" r:id="rId92" display="https://jira.ibos.io/browse/MGM-7861"/>
+    <hyperlink ref="J136" r:id="rId93"/>
+    <hyperlink ref="B137" r:id="rId94" display="https://jira.ibos.io/browse/MGM-7861"/>
+    <hyperlink ref="J137" r:id="rId95"/>
+    <hyperlink ref="B138" r:id="rId96" display="https://jira.ibos.io/browse/MGM-7861"/>
+    <hyperlink ref="J138" r:id="rId97"/>
+    <hyperlink ref="B139" r:id="rId98" display="https://jira.ibos.io/browse/MGM-7861"/>
+    <hyperlink ref="J139" r:id="rId99"/>
+    <hyperlink ref="B128" r:id="rId100" display="https://jira.ibos.io/browse/MGM-7873"/>
+    <hyperlink ref="J128" r:id="rId101"/>
+    <hyperlink ref="B129" r:id="rId102" display="https://jira.ibos.io/browse/MGM-7873"/>
+    <hyperlink ref="B130" r:id="rId103" display="https://jira.ibos.io/browse/MGM-7873"/>
+    <hyperlink ref="J130" r:id="rId104"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId101"/>
+  <pageSetup orientation="portrait" r:id="rId105"/>
 </worksheet>
 </file>
 

--- a/Test Case In Managerium.xlsx
+++ b/Test Case In Managerium.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="776">
   <si>
     <t>Product Name</t>
   </si>
@@ -3012,6 +3012,115 @@
   </si>
   <si>
     <t>It will should be showing Add Total Quantity in Product Request PDF</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MGM-7825
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sales order</t>
+    </r>
+  </si>
+  <si>
+    <t>Sales order</t>
+  </si>
+  <si>
+    <t>TC_128</t>
+  </si>
+  <si>
+    <t>Try to create an Sales order and approval</t>
+  </si>
+  <si>
+    <t>Sales -sales order-creaete sales order-fillup all frield-save</t>
+  </si>
+  <si>
+    <t>Item Wheelbarrow Asus (PCS) 
+Quantity (PCS) 3 
+Rate 4</t>
+  </si>
+  <si>
+    <t>it will should be successfully created and approval an Sales order</t>
+  </si>
+  <si>
+    <t>MGM-7825</t>
+  </si>
+  <si>
+    <t>TC_129</t>
+  </si>
+  <si>
+    <t>Try to chaking an order Sales order details</t>
+  </si>
+  <si>
+    <t>Sales -sales order-status</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/9IW0UQc5haAp</t>
+  </si>
+  <si>
+    <t>it will should be Sales order status approve and reverse option working</t>
+  </si>
+  <si>
+    <t>Sales order and Sales Delivery</t>
+  </si>
+  <si>
+    <t>TC_130</t>
+  </si>
+  <si>
+    <t>Try to pertial Delivery For SO and confrim this sales Delivery</t>
+  </si>
+  <si>
+    <t>Sales -Sales Delivery-approve so-Action-Delivery -Delivery For SO-select QTY-save-Delivery list-confrim</t>
+  </si>
+  <si>
+    <t>Delivery Qty 3</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/2AqGoIPO1d8j</t>
+  </si>
+  <si>
+    <t>it will should be successfully sales Deliverythen Sales order status complete</t>
+  </si>
+  <si>
+    <t>TC_131</t>
+  </si>
+  <si>
+    <t>Try to All Delivery For SO and reject this sales Delivery</t>
+  </si>
+  <si>
+    <t>Sales -Sales Delivery-approve so-Action-Delivery -Delivery For SO-select QTY-save-Delivery list-reject</t>
+  </si>
+  <si>
+    <t>Delivery Qty 1</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/J1agXkTKUjl2</t>
+  </si>
+  <si>
+    <t>it will should be successfully sales Delivery then Sales order status approve and partial Delivered showing</t>
+  </si>
+  <si>
+    <t>TC_132</t>
+  </si>
+  <si>
+    <t>Try to Delivery All For SO and confrim this sales Delivery</t>
+  </si>
+  <si>
+    <t>Delivery Qty 2</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/NizUIeNF3jat</t>
+  </si>
+  <si>
+    <t>it will should be successfully sales Delivery then Sales order status complete</t>
   </si>
 </sst>
 </file>
@@ -3831,32 +3940,32 @@
     <xf numFmtId="0" fontId="19" fillId="21" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4081,7 +4190,7 @@
   <dimension ref="A1:Z1005"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K159" sqref="K159"/>
+      <selection activeCell="T141" sqref="T141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
@@ -4096,11 +4205,11 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="46"/>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="115" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="108"/>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="112" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="108"/>
@@ -4108,11 +4217,11 @@
         <v>2</v>
       </c>
       <c r="G1" s="108"/>
-      <c r="H1" s="113">
+      <c r="H1" s="116">
         <v>45615</v>
       </c>
       <c r="I1" s="108"/>
-      <c r="J1" s="107" t="s">
+      <c r="J1" s="114" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="108"/>
@@ -4128,11 +4237,11 @@
     </row>
     <row r="2" spans="1:26" ht="13.8">
       <c r="A2" s="46"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="115" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="108"/>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="112" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="108"/>
@@ -4140,14 +4249,14 @@
         <v>7</v>
       </c>
       <c r="G2" s="108"/>
-      <c r="H2" s="112"/>
+      <c r="H2" s="110"/>
       <c r="I2" s="108"/>
       <c r="J2" s="49" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="50">
         <f>COUNTIF(M8:M1823,"Pass")</f>
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L2" s="51" t="s">
         <v>9</v>
@@ -4161,15 +4270,15 @@
     </row>
     <row r="3" spans="1:26" ht="13.8">
       <c r="A3" s="46"/>
-      <c r="B3" s="115"/>
+      <c r="B3" s="109"/>
       <c r="C3" s="108"/>
-      <c r="D3" s="112"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="108"/>
       <c r="F3" s="111" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="108"/>
-      <c r="H3" s="112"/>
+      <c r="H3" s="110"/>
       <c r="I3" s="108"/>
       <c r="J3" s="52" t="s">
         <v>11</v>
@@ -4190,11 +4299,11 @@
     </row>
     <row r="4" spans="1:26" ht="171.6">
       <c r="A4" s="46"/>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="115" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="108"/>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="112" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="108"/>
@@ -4202,7 +4311,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="108"/>
-      <c r="H4" s="116"/>
+      <c r="H4" s="113"/>
       <c r="I4" s="108"/>
       <c r="J4" s="49" t="s">
         <v>16</v>
@@ -4223,11 +4332,11 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="46"/>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="115" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="108"/>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="112" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="108"/>
@@ -4235,7 +4344,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="108"/>
-      <c r="H5" s="112" t="s">
+      <c r="H5" s="110" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="108"/>
@@ -4244,7 +4353,7 @@
       </c>
       <c r="K5" s="57">
         <f>SUM(K2+K3+K4)</f>
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L5" s="51" t="s">
         <v>23</v>
@@ -4259,7 +4368,7 @@
     <row r="6" spans="1:26">
       <c r="A6" s="58"/>
       <c r="B6" s="58"/>
-      <c r="C6" s="114"/>
+      <c r="C6" s="107"/>
       <c r="D6" s="108"/>
       <c r="E6" s="108"/>
       <c r="F6" s="108"/>
@@ -10850,100 +10959,226 @@
       <c r="Y139" s="36"/>
       <c r="Z139" s="36"/>
     </row>
-    <row r="140" spans="1:26">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
-      <c r="I140" s="4"/>
-      <c r="J140" s="4"/>
-      <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
-      <c r="M140" s="4"/>
+    <row r="140" spans="1:26" ht="79.8" thickBot="1">
+      <c r="A140" s="94">
+        <v>45660</v>
+      </c>
+      <c r="B140" s="97" t="s">
+        <v>745</v>
+      </c>
+      <c r="C140" s="61" t="s">
+        <v>746</v>
+      </c>
+      <c r="D140" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E140" s="63" t="s">
+        <v>747</v>
+      </c>
+      <c r="F140" s="61" t="s">
+        <v>748</v>
+      </c>
+      <c r="G140" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="H140" s="61" t="s">
+        <v>749</v>
+      </c>
+      <c r="I140" s="61" t="s">
+        <v>750</v>
+      </c>
+      <c r="J140" s="61"/>
+      <c r="K140" s="61" t="s">
+        <v>751</v>
+      </c>
+      <c r="L140" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="M140" s="65" t="s">
+        <v>41</v>
+      </c>
       <c r="N140" s="4"/>
       <c r="O140" s="4"/>
       <c r="P140" s="4"/>
       <c r="Q140" s="4"/>
       <c r="R140" s="4"/>
     </row>
-    <row r="141" spans="1:26">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
-      <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
-      <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
-      <c r="M141" s="4"/>
+    <row r="141" spans="1:26" ht="79.8" thickBot="1">
+      <c r="A141" s="73">
+        <v>45660</v>
+      </c>
+      <c r="B141" s="97" t="s">
+        <v>752</v>
+      </c>
+      <c r="C141" s="67" t="s">
+        <v>746</v>
+      </c>
+      <c r="D141" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E141" s="69" t="s">
+        <v>753</v>
+      </c>
+      <c r="F141" s="67" t="s">
+        <v>754</v>
+      </c>
+      <c r="G141" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H141" s="67" t="s">
+        <v>755</v>
+      </c>
+      <c r="I141" s="67"/>
+      <c r="J141" s="76" t="s">
+        <v>756</v>
+      </c>
+      <c r="K141" s="67" t="s">
+        <v>757</v>
+      </c>
+      <c r="L141" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M141" s="72" t="s">
+        <v>41</v>
+      </c>
       <c r="N141" s="4"/>
       <c r="O141" s="4"/>
       <c r="P141" s="4"/>
       <c r="Q141" s="4"/>
       <c r="R141" s="4"/>
     </row>
-    <row r="142" spans="1:26">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
-      <c r="I142" s="4"/>
-      <c r="J142" s="4"/>
-      <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4"/>
+    <row r="142" spans="1:26" ht="106.2" thickBot="1">
+      <c r="A142" s="73">
+        <v>45660</v>
+      </c>
+      <c r="B142" s="97" t="s">
+        <v>752</v>
+      </c>
+      <c r="C142" s="67" t="s">
+        <v>758</v>
+      </c>
+      <c r="D142" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E142" s="69" t="s">
+        <v>759</v>
+      </c>
+      <c r="F142" s="67" t="s">
+        <v>760</v>
+      </c>
+      <c r="G142" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H142" s="67" t="s">
+        <v>761</v>
+      </c>
+      <c r="I142" s="67" t="s">
+        <v>762</v>
+      </c>
+      <c r="J142" s="76" t="s">
+        <v>763</v>
+      </c>
+      <c r="K142" s="67" t="s">
+        <v>764</v>
+      </c>
+      <c r="L142" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M142" s="72" t="s">
+        <v>41</v>
+      </c>
       <c r="N142" s="4"/>
       <c r="O142" s="4"/>
       <c r="P142" s="4"/>
       <c r="Q142" s="4"/>
       <c r="R142" s="4"/>
     </row>
-    <row r="143" spans="1:26">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
-      <c r="I143" s="4"/>
-      <c r="J143" s="4"/>
-      <c r="K143" s="4"/>
-      <c r="L143" s="4"/>
-      <c r="M143" s="4"/>
+    <row r="143" spans="1:26" ht="132.6" thickBot="1">
+      <c r="A143" s="73">
+        <v>45660</v>
+      </c>
+      <c r="B143" s="97" t="s">
+        <v>752</v>
+      </c>
+      <c r="C143" s="67" t="s">
+        <v>758</v>
+      </c>
+      <c r="D143" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E143" s="69" t="s">
+        <v>765</v>
+      </c>
+      <c r="F143" s="67" t="s">
+        <v>766</v>
+      </c>
+      <c r="G143" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H143" s="67" t="s">
+        <v>767</v>
+      </c>
+      <c r="I143" s="67" t="s">
+        <v>768</v>
+      </c>
+      <c r="J143" s="76" t="s">
+        <v>769</v>
+      </c>
+      <c r="K143" s="67" t="s">
+        <v>770</v>
+      </c>
+      <c r="L143" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M143" s="72" t="s">
+        <v>41</v>
+      </c>
       <c r="N143" s="4"/>
       <c r="O143" s="4"/>
       <c r="P143" s="4"/>
       <c r="Q143" s="4"/>
       <c r="R143" s="4"/>
     </row>
-    <row r="144" spans="1:26">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
-      <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
-      <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4"/>
+    <row r="144" spans="1:26" ht="93" thickBot="1">
+      <c r="A144" s="73">
+        <v>45660</v>
+      </c>
+      <c r="B144" s="97" t="s">
+        <v>752</v>
+      </c>
+      <c r="C144" s="67" t="s">
+        <v>758</v>
+      </c>
+      <c r="D144" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E144" s="69" t="s">
+        <v>771</v>
+      </c>
+      <c r="F144" s="67" t="s">
+        <v>772</v>
+      </c>
+      <c r="G144" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H144" s="67" t="s">
+        <v>761</v>
+      </c>
+      <c r="I144" s="67" t="s">
+        <v>773</v>
+      </c>
+      <c r="J144" s="76" t="s">
+        <v>774</v>
+      </c>
+      <c r="K144" s="67" t="s">
+        <v>775</v>
+      </c>
+      <c r="L144" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M144" s="72" t="s">
+        <v>41</v>
+      </c>
       <c r="N144" s="4"/>
       <c r="O144" s="4"/>
       <c r="P144" s="4"/>
@@ -28172,14 +28407,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -28194,6 +28421,14 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="M8">
@@ -28308,9 +28543,18 @@
     <hyperlink ref="B129" r:id="rId102" display="https://jira.ibos.io/browse/MGM-7873"/>
     <hyperlink ref="B130" r:id="rId103" display="https://jira.ibos.io/browse/MGM-7873"/>
     <hyperlink ref="J130" r:id="rId104"/>
+    <hyperlink ref="B140" r:id="rId105" display="https://jira.ibos.io/browse/MGM-7825"/>
+    <hyperlink ref="B141" r:id="rId106" display="https://jira.ibos.io/browse/MGM-7825"/>
+    <hyperlink ref="J141" r:id="rId107"/>
+    <hyperlink ref="B142" r:id="rId108" display="https://jira.ibos.io/browse/MGM-7825"/>
+    <hyperlink ref="J142" r:id="rId109"/>
+    <hyperlink ref="B143" r:id="rId110" display="https://jira.ibos.io/browse/MGM-7825"/>
+    <hyperlink ref="J143" r:id="rId111"/>
+    <hyperlink ref="B144" r:id="rId112" display="https://jira.ibos.io/browse/MGM-7825"/>
+    <hyperlink ref="J144" r:id="rId113"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId105"/>
+  <pageSetup orientation="portrait" r:id="rId114"/>
 </worksheet>
 </file>
 

--- a/Test Case In Managerium.xlsx
+++ b/Test Case In Managerium.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="813">
   <si>
     <t>Product Name</t>
   </si>
@@ -3121,6 +3121,132 @@
   </si>
   <si>
     <t>it will should be successfully sales Delivery then Sales order status complete</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-7921</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Need to develop a new report (SKU Wise Stock Report) – Inventory Report</t>
+    </r>
+  </si>
+  <si>
+    <t>configuration</t>
+  </si>
+  <si>
+    <t>TC_133</t>
+  </si>
+  <si>
+    <t>Create item profile (UOM-PCS, Alt. UOM - Carton, Alt. Unit-20)</t>
+  </si>
+  <si>
+    <t>Configuration-item profile-UOM-PCS, Alt. UOM - Carton, Alt. Unit-20-save</t>
+  </si>
+  <si>
+    <t>UOM-PCS, Alt. UOM - Carton, Alt. Unit-20</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/B4Lo7ZTNM13b</t>
+  </si>
+  <si>
+    <t>it will should be successfully Created item profile</t>
+  </si>
+  <si>
+    <t>MGM-7921 configuration</t>
+  </si>
+  <si>
+    <t>standrad price</t>
+  </si>
+  <si>
+    <t>TC_134</t>
+  </si>
+  <si>
+    <t>setup standrad price</t>
+  </si>
+  <si>
+    <t>Configuration- standrad price-save</t>
+  </si>
+  <si>
+    <t>Trading Price-9 
+Retails Price (MRP)-10</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/f-B2IyWSYmdD</t>
+  </si>
+  <si>
+    <t>it will should be setup standrad price</t>
+  </si>
+  <si>
+    <t>MGM-7921 Purchase</t>
+  </si>
+  <si>
+    <t>TC_135</t>
+  </si>
+  <si>
+    <t>direct purchase receive item</t>
+  </si>
+  <si>
+    <t>purchase-purchase receive</t>
+  </si>
+  <si>
+    <t>it will should be direct purchase receive item</t>
+  </si>
+  <si>
+    <t>MGM-7921 sales</t>
+  </si>
+  <si>
+    <t>sales order</t>
+  </si>
+  <si>
+    <t>TC_136</t>
+  </si>
+  <si>
+    <t>create sales order and approved</t>
+  </si>
+  <si>
+    <t>sales -sales order</t>
+  </si>
+  <si>
+    <t>it will should be created and approved sales order</t>
+  </si>
+  <si>
+    <t>sales delivery</t>
+  </si>
+  <si>
+    <t>TC_137</t>
+  </si>
+  <si>
+    <t>sales -sales delivery</t>
+  </si>
+  <si>
+    <t>it will should be sales delivery</t>
+  </si>
+  <si>
+    <t>MGM-7921 inventory</t>
+  </si>
+  <si>
+    <t>inventory report</t>
+  </si>
+  <si>
+    <t>TC_138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inventory -inventory report-View By-SKU Wise Stock Report
+</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/_5a-IzIcJInk</t>
+  </si>
+  <si>
+    <t>it will should be inventory report-View By-SKU Wise Stock Report</t>
   </si>
 </sst>
 </file>
@@ -3940,32 +4066,32 @@
     <xf numFmtId="0" fontId="19" fillId="21" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4189,8 +4315,8 @@
   </sheetPr>
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T141" sqref="T141"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L143" sqref="L143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
@@ -4205,11 +4331,11 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="46"/>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="109" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="108"/>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="110" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="108"/>
@@ -4217,11 +4343,11 @@
         <v>2</v>
       </c>
       <c r="G1" s="108"/>
-      <c r="H1" s="116">
+      <c r="H1" s="113">
         <v>45615</v>
       </c>
       <c r="I1" s="108"/>
-      <c r="J1" s="114" t="s">
+      <c r="J1" s="107" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="108"/>
@@ -4237,11 +4363,11 @@
     </row>
     <row r="2" spans="1:26" ht="13.8">
       <c r="A2" s="46"/>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="109" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="108"/>
-      <c r="D2" s="112" t="s">
+      <c r="D2" s="110" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="108"/>
@@ -4249,14 +4375,14 @@
         <v>7</v>
       </c>
       <c r="G2" s="108"/>
-      <c r="H2" s="110"/>
+      <c r="H2" s="112"/>
       <c r="I2" s="108"/>
       <c r="J2" s="49" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="50">
         <f>COUNTIF(M8:M1823,"Pass")</f>
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L2" s="51" t="s">
         <v>9</v>
@@ -4270,15 +4396,15 @@
     </row>
     <row r="3" spans="1:26" ht="13.8">
       <c r="A3" s="46"/>
-      <c r="B3" s="109"/>
+      <c r="B3" s="115"/>
       <c r="C3" s="108"/>
-      <c r="D3" s="110"/>
+      <c r="D3" s="112"/>
       <c r="E3" s="108"/>
       <c r="F3" s="111" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="108"/>
-      <c r="H3" s="110"/>
+      <c r="H3" s="112"/>
       <c r="I3" s="108"/>
       <c r="J3" s="52" t="s">
         <v>11</v>
@@ -4299,11 +4425,11 @@
     </row>
     <row r="4" spans="1:26" ht="171.6">
       <c r="A4" s="46"/>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="109" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="108"/>
-      <c r="D4" s="112" t="s">
+      <c r="D4" s="110" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="108"/>
@@ -4311,7 +4437,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="108"/>
-      <c r="H4" s="113"/>
+      <c r="H4" s="116"/>
       <c r="I4" s="108"/>
       <c r="J4" s="49" t="s">
         <v>16</v>
@@ -4332,11 +4458,11 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="46"/>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="109" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="108"/>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="110" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="108"/>
@@ -4344,7 +4470,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="108"/>
-      <c r="H5" s="110" t="s">
+      <c r="H5" s="112" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="108"/>
@@ -4353,7 +4479,7 @@
       </c>
       <c r="K5" s="57">
         <f>SUM(K2+K3+K4)</f>
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L5" s="51" t="s">
         <v>23</v>
@@ -4368,7 +4494,7 @@
     <row r="6" spans="1:26">
       <c r="A6" s="58"/>
       <c r="B6" s="58"/>
-      <c r="C6" s="107"/>
+      <c r="C6" s="114"/>
       <c r="D6" s="108"/>
       <c r="E6" s="108"/>
       <c r="F6" s="108"/>
@@ -11185,120 +11311,262 @@
       <c r="Q144" s="4"/>
       <c r="R144" s="4"/>
     </row>
-    <row r="145" spans="1:18">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-      <c r="H145" s="4"/>
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
-      <c r="K145" s="4"/>
-      <c r="L145" s="4"/>
-      <c r="M145" s="4"/>
+    <row r="145" spans="1:18" ht="106.2" thickBot="1">
+      <c r="A145" s="94">
+        <v>45664</v>
+      </c>
+      <c r="B145" s="74" t="s">
+        <v>776</v>
+      </c>
+      <c r="C145" s="61" t="s">
+        <v>777</v>
+      </c>
+      <c r="D145" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E145" s="63" t="s">
+        <v>778</v>
+      </c>
+      <c r="F145" s="61" t="s">
+        <v>779</v>
+      </c>
+      <c r="G145" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="H145" s="61" t="s">
+        <v>780</v>
+      </c>
+      <c r="I145" s="61" t="s">
+        <v>781</v>
+      </c>
+      <c r="J145" s="79" t="s">
+        <v>782</v>
+      </c>
+      <c r="K145" s="61" t="s">
+        <v>783</v>
+      </c>
+      <c r="L145" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="M145" s="65" t="s">
+        <v>41</v>
+      </c>
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
       <c r="P145" s="4"/>
       <c r="Q145" s="4"/>
       <c r="R145" s="4"/>
     </row>
-    <row r="146" spans="1:18">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
-      <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
-      <c r="K146" s="4"/>
-      <c r="L146" s="4"/>
-      <c r="M146" s="4"/>
+    <row r="146" spans="1:18" ht="53.4" thickBot="1">
+      <c r="A146" s="73">
+        <v>45664</v>
+      </c>
+      <c r="B146" s="67" t="s">
+        <v>784</v>
+      </c>
+      <c r="C146" s="67" t="s">
+        <v>785</v>
+      </c>
+      <c r="D146" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E146" s="69" t="s">
+        <v>786</v>
+      </c>
+      <c r="F146" s="67" t="s">
+        <v>787</v>
+      </c>
+      <c r="G146" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H146" s="67" t="s">
+        <v>788</v>
+      </c>
+      <c r="I146" s="67" t="s">
+        <v>789</v>
+      </c>
+      <c r="J146" s="76" t="s">
+        <v>790</v>
+      </c>
+      <c r="K146" s="67" t="s">
+        <v>791</v>
+      </c>
+      <c r="L146" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M146" s="72" t="s">
+        <v>41</v>
+      </c>
       <c r="N146" s="4"/>
       <c r="O146" s="4"/>
       <c r="P146" s="4"/>
       <c r="Q146" s="4"/>
       <c r="R146" s="4"/>
     </row>
-    <row r="147" spans="1:18">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
-      <c r="I147" s="4"/>
-      <c r="J147" s="4"/>
-      <c r="K147" s="4"/>
-      <c r="L147" s="4"/>
-      <c r="M147" s="4"/>
+    <row r="147" spans="1:18" ht="53.4" thickBot="1">
+      <c r="A147" s="73">
+        <v>45664</v>
+      </c>
+      <c r="B147" s="67" t="s">
+        <v>792</v>
+      </c>
+      <c r="C147" s="67" t="s">
+        <v>274</v>
+      </c>
+      <c r="D147" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E147" s="69" t="s">
+        <v>793</v>
+      </c>
+      <c r="F147" s="67" t="s">
+        <v>794</v>
+      </c>
+      <c r="G147" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H147" s="67" t="s">
+        <v>795</v>
+      </c>
+      <c r="I147" s="67"/>
+      <c r="J147" s="67"/>
+      <c r="K147" s="67" t="s">
+        <v>796</v>
+      </c>
+      <c r="L147" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M147" s="72" t="s">
+        <v>41</v>
+      </c>
       <c r="N147" s="4"/>
       <c r="O147" s="4"/>
       <c r="P147" s="4"/>
       <c r="Q147" s="4"/>
       <c r="R147" s="4"/>
     </row>
-    <row r="148" spans="1:18">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
-      <c r="M148" s="4"/>
+    <row r="148" spans="1:18" ht="53.4" thickBot="1">
+      <c r="A148" s="73">
+        <v>45664</v>
+      </c>
+      <c r="B148" s="67" t="s">
+        <v>797</v>
+      </c>
+      <c r="C148" s="67" t="s">
+        <v>798</v>
+      </c>
+      <c r="D148" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E148" s="69" t="s">
+        <v>799</v>
+      </c>
+      <c r="F148" s="67" t="s">
+        <v>800</v>
+      </c>
+      <c r="G148" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H148" s="67" t="s">
+        <v>801</v>
+      </c>
+      <c r="I148" s="67"/>
+      <c r="J148" s="67"/>
+      <c r="K148" s="67" t="s">
+        <v>802</v>
+      </c>
+      <c r="L148" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M148" s="72" t="s">
+        <v>41</v>
+      </c>
       <c r="N148" s="4"/>
       <c r="O148" s="4"/>
       <c r="P148" s="4"/>
       <c r="Q148" s="4"/>
       <c r="R148" s="4"/>
     </row>
-    <row r="149" spans="1:18">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
-      <c r="K149" s="4"/>
-      <c r="L149" s="4"/>
-      <c r="M149" s="4"/>
+    <row r="149" spans="1:18" ht="40.200000000000003" thickBot="1">
+      <c r="A149" s="73">
+        <v>45664</v>
+      </c>
+      <c r="B149" s="67" t="s">
+        <v>797</v>
+      </c>
+      <c r="C149" s="67" t="s">
+        <v>803</v>
+      </c>
+      <c r="D149" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E149" s="69" t="s">
+        <v>804</v>
+      </c>
+      <c r="F149" s="67" t="s">
+        <v>803</v>
+      </c>
+      <c r="G149" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H149" s="67" t="s">
+        <v>805</v>
+      </c>
+      <c r="I149" s="67"/>
+      <c r="J149" s="67"/>
+      <c r="K149" s="67" t="s">
+        <v>806</v>
+      </c>
+      <c r="L149" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M149" s="72" t="s">
+        <v>41</v>
+      </c>
       <c r="N149" s="4"/>
       <c r="O149" s="4"/>
       <c r="P149" s="4"/>
       <c r="Q149" s="4"/>
       <c r="R149" s="4"/>
     </row>
-    <row r="150" spans="1:18">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
-      <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
-      <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
-      <c r="M150" s="4"/>
+    <row r="150" spans="1:18" ht="66.599999999999994" thickBot="1">
+      <c r="A150" s="73">
+        <v>45664</v>
+      </c>
+      <c r="B150" s="67" t="s">
+        <v>807</v>
+      </c>
+      <c r="C150" s="67" t="s">
+        <v>808</v>
+      </c>
+      <c r="D150" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E150" s="69" t="s">
+        <v>809</v>
+      </c>
+      <c r="F150" s="67" t="s">
+        <v>808</v>
+      </c>
+      <c r="G150" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="H150" s="67" t="s">
+        <v>810</v>
+      </c>
+      <c r="I150" s="67"/>
+      <c r="J150" s="76" t="s">
+        <v>811</v>
+      </c>
+      <c r="K150" s="67" t="s">
+        <v>812</v>
+      </c>
+      <c r="L150" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M150" s="72" t="s">
+        <v>41</v>
+      </c>
       <c r="N150" s="4"/>
       <c r="O150" s="4"/>
       <c r="P150" s="4"/>
@@ -28407,6 +28675,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -28421,14 +28697,6 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="M8">
@@ -28552,9 +28820,13 @@
     <hyperlink ref="J143" r:id="rId111"/>
     <hyperlink ref="B144" r:id="rId112" display="https://jira.ibos.io/browse/MGM-7825"/>
     <hyperlink ref="J144" r:id="rId113"/>
+    <hyperlink ref="B145" r:id="rId114" display="https://jira.ibos.io/browse/MGM-7921"/>
+    <hyperlink ref="J145" r:id="rId115"/>
+    <hyperlink ref="J146" r:id="rId116"/>
+    <hyperlink ref="J150" r:id="rId117"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId114"/>
+  <pageSetup orientation="portrait" r:id="rId118"/>
 </worksheet>
 </file>
 

--- a/Test Case In Managerium.xlsx
+++ b/Test Case In Managerium.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10632" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10632"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="926">
   <si>
     <t>Product Name</t>
   </si>
@@ -3466,6 +3466,178 @@
   </si>
   <si>
     <t>After delete this paid Bill we couldn't create new bill against the same GRN.</t>
+  </si>
+  <si>
+    <t>-M250100246</t>
+  </si>
+  <si>
+    <t>TC_139</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/QSlpwDZiWRcT</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-8400</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Customer Sales (Details)</t>
+    </r>
+  </si>
+  <si>
+    <t>Sales Analytics</t>
+  </si>
+  <si>
+    <t>TC_140</t>
+  </si>
+  <si>
+    <t>Try to checking sales analytics &amp; report Column Renamed Required -Customer Sales (Details)</t>
+  </si>
+  <si>
+    <t>Sales-&gt; Sales Analytics-&gt;Customer Sales (Details)-&gt;click Amaount only-&gt; view</t>
+  </si>
+  <si>
+    <t>It will should be Column Renamed Required -Customer Sales (Details)</t>
+  </si>
+  <si>
+    <t>TC_141</t>
+  </si>
+  <si>
+    <t>Try to checking sales analytics &amp; report Column name Required -Customer Sales (Details) and the Excel file Column name.</t>
+  </si>
+  <si>
+    <t>Sales-&gt; Sales Analytics-&gt;Customer Sales (Details)-&gt;click Amaount only-&gt; view-&gt;excel</t>
+  </si>
+  <si>
+    <t>It will should be sales analytics &amp; report Column name Required wise Customer Sales (Details) and the Excel file Column name.</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-7609</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Production Details Report</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_142</t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-8602</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Purchase Payment </t>
+    </r>
+  </si>
+  <si>
+    <t>Purchase Order</t>
+  </si>
+  <si>
+    <t>TC_143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to Create Purchase Order
+</t>
+  </si>
+  <si>
+    <t>Purchase -&gt;Purchase Order-&gt;Create Purchase Order-add iem-&gt;save</t>
+  </si>
+  <si>
+    <t>Item Name: yttt-red/M 
+Order Qty: 3 
+Rate : 10</t>
+  </si>
+  <si>
+    <t>it will should be successfully Created Purchase Order</t>
+  </si>
+  <si>
+    <t>TC_144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to Purchase Receive
+</t>
+  </si>
+  <si>
+    <t>Purchase-&gt;Purchase Receive-&gt;Actions-Receive</t>
+  </si>
+  <si>
+    <t>Office: MGM Head Office</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/jSsP3UvjAJYV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it will should be successfully Purchase Receive
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplier Payment
+</t>
+  </si>
+  <si>
+    <t>TC_145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to Create Supplier Bill
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplier Payment-&gt; Create Supplier Bill-&gt;Select PO-&gt;save
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office: MGM Head Office
+PO No.: PO-M250200101 
+</t>
+  </si>
+  <si>
+    <t>it will should be successfully Create Supplier Bill-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplier Payment 
+</t>
+  </si>
+  <si>
+    <t>TC_146</t>
+  </si>
+  <si>
+    <t>Try to shwoing PO and GRN in pending bill page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplier Payment-&gt; pending bill
+</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/hRESRJNdLYrX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it will should be successfully shwoing PO and GRN in pending bill
+</t>
   </si>
 </sst>
 </file>
@@ -4264,34 +4436,6 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4417,6 +4561,34 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4639,8 +4811,8 @@
   </sheetPr>
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L143" sqref="L143"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S157" sqref="S157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
@@ -4655,26 +4827,26 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="15"/>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="81" t="s">
+      <c r="C1" s="119"/>
+      <c r="D1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="77"/>
-      <c r="F1" s="80" t="s">
+      <c r="E1" s="119"/>
+      <c r="F1" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="77"/>
-      <c r="H1" s="85">
+      <c r="G1" s="119"/>
+      <c r="H1" s="124">
         <v>45615</v>
       </c>
-      <c r="I1" s="77"/>
-      <c r="J1" s="83" t="s">
+      <c r="I1" s="119"/>
+      <c r="J1" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="77"/>
+      <c r="K1" s="119"/>
       <c r="L1" s="16"/>
       <c r="M1" s="17" t="s">
         <v>4</v>
@@ -4687,26 +4859,26 @@
     </row>
     <row r="2" spans="1:26" ht="13.8">
       <c r="A2" s="15"/>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="119"/>
+      <c r="D2" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="80" t="s">
+      <c r="E2" s="119"/>
+      <c r="F2" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="77"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="119"/>
       <c r="J2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="19">
         <f>COUNTIF(M8:M1823,"Pass")</f>
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="L2" s="20" t="s">
         <v>9</v>
@@ -4720,16 +4892,16 @@
     </row>
     <row r="3" spans="1:26" ht="13.8">
       <c r="A3" s="15"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="80" t="s">
+      <c r="B3" s="126"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="77"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="119"/>
       <c r="J3" s="21" t="s">
         <v>11</v>
       </c>
@@ -4749,20 +4921,20 @@
     </row>
     <row r="4" spans="1:26" ht="171.6">
       <c r="A4" s="15"/>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="81" t="s">
+      <c r="C4" s="119"/>
+      <c r="D4" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="80" t="s">
+      <c r="E4" s="119"/>
+      <c r="F4" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="77"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="119"/>
       <c r="J4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4782,28 +4954,28 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="15"/>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="81" t="s">
+      <c r="C5" s="119"/>
+      <c r="D5" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="80" t="s">
+      <c r="E5" s="119"/>
+      <c r="F5" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="79" t="s">
+      <c r="G5" s="119"/>
+      <c r="H5" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="77"/>
+      <c r="I5" s="119"/>
       <c r="J5" s="25" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="26">
         <f>SUM(K2+K3+K4)</f>
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="L5" s="20" t="s">
         <v>23</v>
@@ -4818,14 +4990,14 @@
     <row r="6" spans="1:26">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
       <c r="K6" s="27"/>
       <c r="L6" s="20" t="s">
         <v>24</v>
@@ -11897,160 +12069,332 @@
       <c r="Q150" s="4"/>
       <c r="R150" s="4"/>
     </row>
-    <row r="151" spans="1:18">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
-      <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
-      <c r="K151" s="4"/>
-      <c r="L151" s="4"/>
-      <c r="M151" s="4"/>
+    <row r="151" spans="1:18" ht="40.200000000000003" thickBot="1">
+      <c r="A151" s="63">
+        <v>45677</v>
+      </c>
+      <c r="B151" s="30" t="s">
+        <v>886</v>
+      </c>
+      <c r="C151" s="30" t="s">
+        <v>541</v>
+      </c>
+      <c r="D151" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E151" s="32" t="s">
+        <v>887</v>
+      </c>
+      <c r="F151" s="30" t="s">
+        <v>852</v>
+      </c>
+      <c r="G151" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="H151" s="30"/>
+      <c r="I151" s="30"/>
+      <c r="J151" s="48" t="s">
+        <v>888</v>
+      </c>
+      <c r="K151" s="30"/>
+      <c r="L151" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="M151" s="34" t="s">
+        <v>41</v>
+      </c>
       <c r="N151" s="4"/>
       <c r="O151" s="4"/>
       <c r="P151" s="4"/>
       <c r="Q151" s="4"/>
       <c r="R151" s="4"/>
     </row>
-    <row r="152" spans="1:18">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
-      <c r="I152" s="4"/>
-      <c r="J152" s="4"/>
-      <c r="K152" s="4"/>
-      <c r="L152" s="4"/>
-      <c r="M152" s="4"/>
+    <row r="152" spans="1:18" ht="93" thickBot="1">
+      <c r="A152" s="42">
+        <v>45694</v>
+      </c>
+      <c r="B152" s="43" t="s">
+        <v>889</v>
+      </c>
+      <c r="C152" s="36" t="s">
+        <v>890</v>
+      </c>
+      <c r="D152" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E152" s="38" t="s">
+        <v>891</v>
+      </c>
+      <c r="F152" s="36" t="s">
+        <v>892</v>
+      </c>
+      <c r="G152" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="H152" s="36" t="s">
+        <v>893</v>
+      </c>
+      <c r="I152" s="36"/>
+      <c r="J152" s="36"/>
+      <c r="K152" s="36" t="s">
+        <v>894</v>
+      </c>
+      <c r="L152" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="M152" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
       <c r="P152" s="4"/>
       <c r="Q152" s="4"/>
       <c r="R152" s="4"/>
     </row>
-    <row r="153" spans="1:18">
-      <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
-      <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
-      <c r="M153" s="4"/>
+    <row r="153" spans="1:18" ht="159" thickBot="1">
+      <c r="A153" s="42">
+        <v>45694</v>
+      </c>
+      <c r="B153" s="43" t="s">
+        <v>889</v>
+      </c>
+      <c r="C153" s="36" t="s">
+        <v>890</v>
+      </c>
+      <c r="D153" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E153" s="38" t="s">
+        <v>895</v>
+      </c>
+      <c r="F153" s="36" t="s">
+        <v>896</v>
+      </c>
+      <c r="G153" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="H153" s="36" t="s">
+        <v>897</v>
+      </c>
+      <c r="I153" s="36"/>
+      <c r="J153" s="36"/>
+      <c r="K153" s="36" t="s">
+        <v>898</v>
+      </c>
+      <c r="L153" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="M153" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="N153" s="4"/>
       <c r="O153" s="4"/>
       <c r="P153" s="4"/>
       <c r="Q153" s="4"/>
       <c r="R153" s="4"/>
     </row>
-    <row r="154" spans="1:18">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
-      <c r="H154" s="4"/>
-      <c r="I154" s="4"/>
-      <c r="J154" s="4"/>
-      <c r="K154" s="4"/>
-      <c r="L154" s="4"/>
-      <c r="M154" s="4"/>
+    <row r="154" spans="1:18" ht="40.200000000000003" thickBot="1">
+      <c r="A154" s="42">
+        <v>45694</v>
+      </c>
+      <c r="B154" s="43" t="s">
+        <v>899</v>
+      </c>
+      <c r="C154" s="36" t="s">
+        <v>582</v>
+      </c>
+      <c r="D154" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E154" s="38" t="s">
+        <v>900</v>
+      </c>
+      <c r="F154" s="36"/>
+      <c r="G154" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="H154" s="36"/>
+      <c r="I154" s="36"/>
+      <c r="J154" s="36"/>
+      <c r="K154" s="36"/>
+      <c r="L154" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="M154" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
       <c r="P154" s="4"/>
       <c r="Q154" s="4"/>
       <c r="R154" s="4"/>
     </row>
-    <row r="155" spans="1:18">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-      <c r="H155" s="4"/>
-      <c r="I155" s="4"/>
-      <c r="J155" s="4"/>
-      <c r="K155" s="4"/>
-      <c r="L155" s="4"/>
-      <c r="M155" s="4"/>
+    <row r="155" spans="1:18" ht="79.8" thickBot="1">
+      <c r="A155" s="42">
+        <v>45701</v>
+      </c>
+      <c r="B155" s="43" t="s">
+        <v>901</v>
+      </c>
+      <c r="C155" s="36" t="s">
+        <v>902</v>
+      </c>
+      <c r="D155" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E155" s="38" t="s">
+        <v>903</v>
+      </c>
+      <c r="F155" s="36" t="s">
+        <v>904</v>
+      </c>
+      <c r="G155" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="H155" s="36" t="s">
+        <v>905</v>
+      </c>
+      <c r="I155" s="36" t="s">
+        <v>906</v>
+      </c>
+      <c r="J155" s="36"/>
+      <c r="K155" s="36" t="s">
+        <v>907</v>
+      </c>
+      <c r="L155" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="M155" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
       <c r="P155" s="4"/>
       <c r="Q155" s="4"/>
       <c r="R155" s="4"/>
     </row>
-    <row r="156" spans="1:18">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="4"/>
-      <c r="I156" s="4"/>
-      <c r="J156" s="4"/>
-      <c r="K156" s="4"/>
-      <c r="L156" s="4"/>
-      <c r="M156" s="4"/>
+    <row r="156" spans="1:18" ht="79.8" thickBot="1">
+      <c r="A156" s="35"/>
+      <c r="B156" s="43" t="s">
+        <v>901</v>
+      </c>
+      <c r="C156" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="D156" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E156" s="38" t="s">
+        <v>908</v>
+      </c>
+      <c r="F156" s="36" t="s">
+        <v>909</v>
+      </c>
+      <c r="G156" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="H156" s="36" t="s">
+        <v>910</v>
+      </c>
+      <c r="I156" s="36" t="s">
+        <v>911</v>
+      </c>
+      <c r="J156" s="45" t="s">
+        <v>912</v>
+      </c>
+      <c r="K156" s="36" t="s">
+        <v>913</v>
+      </c>
+      <c r="L156" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="M156" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
       <c r="P156" s="4"/>
       <c r="Q156" s="4"/>
       <c r="R156" s="4"/>
     </row>
-    <row r="157" spans="1:18">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
-      <c r="H157" s="4"/>
-      <c r="I157" s="4"/>
-      <c r="J157" s="4"/>
-      <c r="K157" s="4"/>
-      <c r="L157" s="4"/>
-      <c r="M157" s="4"/>
+    <row r="157" spans="1:18" ht="66.599999999999994" thickBot="1">
+      <c r="A157" s="35"/>
+      <c r="B157" s="43" t="s">
+        <v>901</v>
+      </c>
+      <c r="C157" s="36" t="s">
+        <v>914</v>
+      </c>
+      <c r="D157" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E157" s="38" t="s">
+        <v>915</v>
+      </c>
+      <c r="F157" s="36" t="s">
+        <v>916</v>
+      </c>
+      <c r="G157" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="H157" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="I157" s="36" t="s">
+        <v>918</v>
+      </c>
+      <c r="J157" s="36"/>
+      <c r="K157" s="36" t="s">
+        <v>919</v>
+      </c>
+      <c r="L157" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="M157" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
       <c r="P157" s="4"/>
       <c r="Q157" s="4"/>
       <c r="R157" s="4"/>
     </row>
-    <row r="158" spans="1:18">
-      <c r="A158" s="4"/>
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
-      <c r="H158" s="4"/>
-      <c r="I158" s="4"/>
-      <c r="J158" s="4"/>
-      <c r="K158" s="4"/>
-      <c r="L158" s="4"/>
-      <c r="M158" s="4"/>
+    <row r="158" spans="1:18" ht="93" thickBot="1">
+      <c r="A158" s="35"/>
+      <c r="B158" s="43" t="s">
+        <v>901</v>
+      </c>
+      <c r="C158" s="36" t="s">
+        <v>920</v>
+      </c>
+      <c r="D158" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E158" s="38" t="s">
+        <v>921</v>
+      </c>
+      <c r="F158" s="36" t="s">
+        <v>922</v>
+      </c>
+      <c r="G158" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="H158" s="36" t="s">
+        <v>923</v>
+      </c>
+      <c r="I158" s="36"/>
+      <c r="J158" s="45" t="s">
+        <v>924</v>
+      </c>
+      <c r="K158" s="36" t="s">
+        <v>925</v>
+      </c>
+      <c r="L158" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="M158" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="N158" s="4"/>
       <c r="O158" s="4"/>
       <c r="P158" s="4"/>
@@ -28999,6 +29343,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -29013,14 +29365,6 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="M8">
@@ -29148,9 +29492,19 @@
     <hyperlink ref="J145" r:id="rId115"/>
     <hyperlink ref="J146" r:id="rId116"/>
     <hyperlink ref="J150" r:id="rId117"/>
+    <hyperlink ref="J151" r:id="rId118"/>
+    <hyperlink ref="B152" r:id="rId119" display="https://jira.ibos.io/browse/MGM-8400"/>
+    <hyperlink ref="B153" r:id="rId120" display="https://jira.ibos.io/browse/MGM-8400"/>
+    <hyperlink ref="B154" r:id="rId121" display="https://jira.ibos.io/browse/MGM-7609"/>
+    <hyperlink ref="B155" r:id="rId122" display="https://jira.ibos.io/browse/MGM-8602"/>
+    <hyperlink ref="B156" r:id="rId123" display="https://jira.ibos.io/browse/MGM-8602"/>
+    <hyperlink ref="J156" r:id="rId124"/>
+    <hyperlink ref="B157" r:id="rId125" display="https://jira.ibos.io/browse/MGM-8602"/>
+    <hyperlink ref="B158" r:id="rId126" display="https://jira.ibos.io/browse/MGM-8602"/>
+    <hyperlink ref="J158" r:id="rId127"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId118"/>
+  <pageSetup orientation="portrait" r:id="rId128"/>
 </worksheet>
 </file>
 
@@ -29161,7 +29515,7 @@
   </sheetPr>
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
@@ -29172,40 +29526,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="76" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="87">
+      <c r="B1" s="77">
         <v>2</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="77" t="s">
         <v>241</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="79" t="s">
         <v>242</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="H1" s="87" t="s">
+      <c r="H1" s="77" t="s">
         <v>244</v>
       </c>
-      <c r="I1" s="87" t="s">
+      <c r="I1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="J1" s="80" t="s">
         <v>810</v>
       </c>
-      <c r="K1" s="91" t="s">
+      <c r="K1" s="81" t="s">
         <v>245</v>
       </c>
-      <c r="L1" s="92"/>
+      <c r="L1" s="82"/>
       <c r="M1" s="60"/>
       <c r="N1" s="60"/>
       <c r="O1" s="60"/>
@@ -29222,17 +29576,17 @@
       <c r="Z1" s="60"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="83" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="94">
+      <c r="B2" s="84">
         <v>45411</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="85" t="s">
         <v>247</v>
       </c>
       <c r="D2" s="40"/>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="86" t="s">
         <v>811</v>
       </c>
       <c r="F2" s="40"/>
@@ -29240,10 +29594,10 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
-      <c r="K2" s="97" t="s">
+      <c r="K2" s="87" t="s">
         <v>248</v>
       </c>
-      <c r="L2" s="98">
+      <c r="L2" s="88">
         <v>45412</v>
       </c>
       <c r="M2" s="60"/>
@@ -29262,7 +29616,7 @@
       <c r="Z2" s="60"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="83" t="s">
         <v>812</v>
       </c>
       <c r="B3" s="40"/>
@@ -29274,10 +29628,10 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
-      <c r="K3" s="99" t="s">
+      <c r="K3" s="89" t="s">
         <v>249</v>
       </c>
-      <c r="L3" s="100">
+      <c r="L3" s="90">
         <v>1</v>
       </c>
       <c r="M3" s="60"/>
@@ -29296,36 +29650,36 @@
       <c r="Z3" s="60"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="83" t="s">
         <v>813</v>
       </c>
-      <c r="B4" s="94">
+      <c r="B4" s="84">
         <v>45622</v>
       </c>
       <c r="C4" s="68"/>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="91" t="s">
         <v>250</v>
       </c>
       <c r="E4" s="40"/>
-      <c r="F4" s="102" t="s">
+      <c r="F4" s="92" t="s">
         <v>251</v>
       </c>
-      <c r="G4" s="103" t="s">
+      <c r="G4" s="93" t="s">
         <v>252</v>
       </c>
-      <c r="H4" s="104" t="s">
+      <c r="H4" s="94" t="s">
         <v>253</v>
       </c>
-      <c r="I4" s="105" t="s">
+      <c r="I4" s="95" t="s">
         <v>254</v>
       </c>
-      <c r="J4" s="106" t="s">
+      <c r="J4" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="K4" s="99" t="s">
+      <c r="K4" s="89" t="s">
         <v>256</v>
       </c>
-      <c r="L4" s="100">
+      <c r="L4" s="90">
         <v>17</v>
       </c>
       <c r="M4" s="60"/>
@@ -29344,40 +29698,40 @@
       <c r="Z4" s="60"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="83" t="s">
         <v>814</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="97" t="s">
         <v>815</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="98" t="s">
         <v>816</v>
       </c>
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="E5" s="101" t="s">
+      <c r="E5" s="91" t="s">
         <v>817</v>
       </c>
-      <c r="F5" s="102" t="s">
+      <c r="F5" s="92" t="s">
         <v>251</v>
       </c>
-      <c r="G5" s="103" t="s">
+      <c r="G5" s="93" t="s">
         <v>818</v>
       </c>
-      <c r="H5" s="109" t="s">
+      <c r="H5" s="99" t="s">
         <v>253</v>
       </c>
-      <c r="I5" s="110" t="s">
+      <c r="I5" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="J5" s="101" t="s">
+      <c r="J5" s="91" t="s">
         <v>819</v>
       </c>
-      <c r="K5" s="111" t="s">
+      <c r="K5" s="101" t="s">
         <v>820</v>
       </c>
-      <c r="L5" s="112"/>
+      <c r="L5" s="102"/>
       <c r="M5" s="60"/>
       <c r="N5" s="60"/>
       <c r="O5" s="60"/>
@@ -29394,40 +29748,40 @@
       <c r="Z5" s="60"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="83" t="s">
         <v>821</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="97" t="s">
         <v>815</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="98" t="s">
         <v>822</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="E6" s="101" t="s">
+      <c r="E6" s="91" t="s">
         <v>823</v>
       </c>
-      <c r="F6" s="102" t="s">
+      <c r="F6" s="92" t="s">
         <v>251</v>
       </c>
-      <c r="G6" s="103" t="s">
+      <c r="G6" s="93" t="s">
         <v>818</v>
       </c>
-      <c r="H6" s="109" t="s">
+      <c r="H6" s="99" t="s">
         <v>253</v>
       </c>
-      <c r="I6" s="110" t="s">
+      <c r="I6" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="J6" s="101" t="s">
+      <c r="J6" s="91" t="s">
         <v>819</v>
       </c>
-      <c r="K6" s="113" t="s">
+      <c r="K6" s="103" t="s">
         <v>257</v>
       </c>
-      <c r="L6" s="114">
+      <c r="L6" s="104">
         <v>13</v>
       </c>
       <c r="M6" s="60"/>
@@ -29446,40 +29800,40 @@
       <c r="Z6" s="60"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="83" t="s">
         <v>824</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="97" t="s">
         <v>815</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="98" t="s">
         <v>825</v>
       </c>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="91" t="s">
         <v>826</v>
       </c>
-      <c r="F7" s="102" t="s">
+      <c r="F7" s="92" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="103" t="s">
+      <c r="G7" s="93" t="s">
         <v>818</v>
       </c>
-      <c r="H7" s="109" t="s">
+      <c r="H7" s="99" t="s">
         <v>253</v>
       </c>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="J7" s="101" t="s">
+      <c r="J7" s="91" t="s">
         <v>819</v>
       </c>
-      <c r="K7" s="115" t="s">
+      <c r="K7" s="105" t="s">
         <v>251</v>
       </c>
-      <c r="L7" s="116">
+      <c r="L7" s="106">
         <v>4</v>
       </c>
       <c r="M7" s="60"/>
@@ -29498,40 +29852,40 @@
       <c r="Z7" s="60"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="83" t="s">
         <v>827</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="97" t="s">
         <v>815</v>
       </c>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="98" t="s">
         <v>828</v>
       </c>
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="E8" s="101" t="s">
+      <c r="E8" s="91" t="s">
         <v>829</v>
       </c>
-      <c r="F8" s="117" t="s">
+      <c r="F8" s="107" t="s">
         <v>830</v>
       </c>
-      <c r="G8" s="103" t="s">
+      <c r="G8" s="93" t="s">
         <v>818</v>
       </c>
-      <c r="H8" s="109" t="s">
+      <c r="H8" s="99" t="s">
         <v>253</v>
       </c>
-      <c r="I8" s="118" t="s">
+      <c r="I8" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="J8" s="101" t="s">
+      <c r="J8" s="91" t="s">
         <v>831</v>
       </c>
-      <c r="K8" s="119" t="s">
+      <c r="K8" s="109" t="s">
         <v>258</v>
       </c>
-      <c r="L8" s="120">
+      <c r="L8" s="110">
         <v>1</v>
       </c>
       <c r="M8" s="60"/>
@@ -29550,40 +29904,40 @@
       <c r="Z8" s="60"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="83" t="s">
         <v>832</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="97" t="s">
         <v>833</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="98" t="s">
         <v>834</v>
       </c>
-      <c r="D9" s="101" t="s">
+      <c r="D9" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="91" t="s">
         <v>835</v>
       </c>
-      <c r="F9" s="117" t="s">
+      <c r="F9" s="107" t="s">
         <v>830</v>
       </c>
-      <c r="G9" s="103" t="s">
+      <c r="G9" s="93" t="s">
         <v>818</v>
       </c>
-      <c r="H9" s="109" t="s">
+      <c r="H9" s="99" t="s">
         <v>253</v>
       </c>
-      <c r="I9" s="118" t="s">
+      <c r="I9" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="J9" s="101" t="s">
+      <c r="J9" s="91" t="s">
         <v>836</v>
       </c>
-      <c r="K9" s="121" t="s">
+      <c r="K9" s="111" t="s">
         <v>259</v>
       </c>
-      <c r="L9" s="100">
+      <c r="L9" s="90">
         <v>0</v>
       </c>
       <c r="M9" s="60"/>
@@ -29602,38 +29956,38 @@
       <c r="Z9" s="60"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="83" t="s">
         <v>837</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="97" t="s">
         <v>838</v>
       </c>
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="98" t="s">
         <v>839</v>
       </c>
-      <c r="D10" s="101" t="s">
+      <c r="D10" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="E10" s="101" t="s">
+      <c r="E10" s="91" t="s">
         <v>840</v>
       </c>
-      <c r="F10" s="117" t="s">
+      <c r="F10" s="107" t="s">
         <v>830</v>
       </c>
-      <c r="G10" s="103" t="s">
+      <c r="G10" s="93" t="s">
         <v>818</v>
       </c>
-      <c r="H10" s="109" t="s">
+      <c r="H10" s="99" t="s">
         <v>253</v>
       </c>
-      <c r="I10" s="118" t="s">
+      <c r="I10" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="J10" s="101" t="s">
+      <c r="J10" s="91" t="s">
         <v>831</v>
       </c>
       <c r="K10" s="68"/>
-      <c r="L10" s="122"/>
+      <c r="L10" s="112"/>
       <c r="M10" s="60"/>
       <c r="N10" s="60"/>
       <c r="O10" s="60"/>
@@ -29650,34 +30004,34 @@
       <c r="Z10" s="60"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="83" t="s">
         <v>841</v>
       </c>
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="97" t="s">
         <v>842</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="98" t="s">
         <v>843</v>
       </c>
-      <c r="D11" s="101" t="s">
+      <c r="D11" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="E11" s="123" t="s">
+      <c r="E11" s="113" t="s">
         <v>844</v>
       </c>
-      <c r="F11" s="117" t="s">
+      <c r="F11" s="107" t="s">
         <v>830</v>
       </c>
-      <c r="G11" s="103" t="s">
+      <c r="G11" s="93" t="s">
         <v>818</v>
       </c>
-      <c r="H11" s="109" t="s">
+      <c r="H11" s="99" t="s">
         <v>253</v>
       </c>
-      <c r="I11" s="118" t="s">
+      <c r="I11" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="J11" s="101" t="s">
+      <c r="J11" s="91" t="s">
         <v>831</v>
       </c>
       <c r="K11" s="40"/>
@@ -29698,34 +30052,34 @@
       <c r="Z11" s="60"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="83" t="s">
         <v>845</v>
       </c>
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="97" t="s">
         <v>846</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="98" t="s">
         <v>847</v>
       </c>
-      <c r="D12" s="101" t="s">
+      <c r="D12" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="E12" s="123" t="s">
+      <c r="E12" s="113" t="s">
         <v>848</v>
       </c>
-      <c r="F12" s="117" t="s">
+      <c r="F12" s="107" t="s">
         <v>830</v>
       </c>
-      <c r="G12" s="103" t="s">
+      <c r="G12" s="93" t="s">
         <v>818</v>
       </c>
-      <c r="H12" s="109" t="s">
+      <c r="H12" s="99" t="s">
         <v>253</v>
       </c>
-      <c r="I12" s="118" t="s">
+      <c r="I12" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="J12" s="101" t="s">
+      <c r="J12" s="91" t="s">
         <v>831</v>
       </c>
       <c r="K12" s="40"/>
@@ -29746,34 +30100,34 @@
       <c r="Z12" s="60"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="83" t="s">
         <v>849</v>
       </c>
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="97" t="s">
         <v>850</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="98" t="s">
         <v>851</v>
       </c>
-      <c r="D13" s="101" t="s">
+      <c r="D13" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="E13" s="101" t="s">
+      <c r="E13" s="91" t="s">
         <v>852</v>
       </c>
-      <c r="F13" s="117" t="s">
+      <c r="F13" s="107" t="s">
         <v>830</v>
       </c>
-      <c r="G13" s="103" t="s">
+      <c r="G13" s="93" t="s">
         <v>818</v>
       </c>
-      <c r="H13" s="109" t="s">
+      <c r="H13" s="99" t="s">
         <v>253</v>
       </c>
-      <c r="I13" s="118" t="s">
+      <c r="I13" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="J13" s="101" t="s">
+      <c r="J13" s="91" t="s">
         <v>853</v>
       </c>
       <c r="K13" s="60"/>
@@ -29794,34 +30148,34 @@
       <c r="Z13" s="60"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="83" t="s">
         <v>854</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="97" t="s">
         <v>855</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="98" t="s">
         <v>856</v>
       </c>
-      <c r="D14" s="101" t="s">
+      <c r="D14" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="E14" s="101" t="s">
+      <c r="E14" s="91" t="s">
         <v>857</v>
       </c>
-      <c r="F14" s="117" t="s">
+      <c r="F14" s="107" t="s">
         <v>830</v>
       </c>
-      <c r="G14" s="103" t="s">
+      <c r="G14" s="93" t="s">
         <v>818</v>
       </c>
-      <c r="H14" s="109" t="s">
+      <c r="H14" s="99" t="s">
         <v>253</v>
       </c>
-      <c r="I14" s="118" t="s">
+      <c r="I14" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="J14" s="124" t="s">
+      <c r="J14" s="114" t="s">
         <v>255</v>
       </c>
       <c r="K14" s="60"/>
@@ -29842,34 +30196,34 @@
       <c r="Z14" s="60"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="83" t="s">
         <v>858</v>
       </c>
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="97" t="s">
         <v>859</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="98" t="s">
         <v>860</v>
       </c>
-      <c r="D15" s="101" t="s">
+      <c r="D15" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="E15" s="101" t="s">
+      <c r="E15" s="91" t="s">
         <v>861</v>
       </c>
-      <c r="F15" s="117" t="s">
+      <c r="F15" s="107" t="s">
         <v>830</v>
       </c>
-      <c r="G15" s="103" t="s">
+      <c r="G15" s="93" t="s">
         <v>818</v>
       </c>
-      <c r="H15" s="109" t="s">
+      <c r="H15" s="99" t="s">
         <v>253</v>
       </c>
-      <c r="I15" s="118" t="s">
+      <c r="I15" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="J15" s="101" t="s">
+      <c r="J15" s="91" t="s">
         <v>862</v>
       </c>
       <c r="K15" s="60"/>
@@ -29890,34 +30244,34 @@
       <c r="Z15" s="60"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="83" t="s">
         <v>863</v>
       </c>
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="97" t="s">
         <v>864</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="98" t="s">
         <v>865</v>
       </c>
-      <c r="D16" s="101" t="s">
+      <c r="D16" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="E16" s="101" t="s">
+      <c r="E16" s="91" t="s">
         <v>866</v>
       </c>
-      <c r="F16" s="117" t="s">
+      <c r="F16" s="107" t="s">
         <v>830</v>
       </c>
-      <c r="G16" s="103" t="s">
+      <c r="G16" s="93" t="s">
         <v>818</v>
       </c>
-      <c r="H16" s="109" t="s">
+      <c r="H16" s="99" t="s">
         <v>253</v>
       </c>
-      <c r="I16" s="118" t="s">
+      <c r="I16" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="J16" s="101" t="s">
+      <c r="J16" s="91" t="s">
         <v>862</v>
       </c>
       <c r="K16" s="60"/>
@@ -29938,34 +30292,34 @@
       <c r="Z16" s="60"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="93" t="s">
+      <c r="A17" s="83" t="s">
         <v>867</v>
       </c>
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="97" t="s">
         <v>868</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="98" t="s">
         <v>869</v>
       </c>
-      <c r="D17" s="101" t="s">
+      <c r="D17" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="E17" s="101" t="s">
+      <c r="E17" s="91" t="s">
         <v>870</v>
       </c>
-      <c r="F17" s="125" t="s">
+      <c r="F17" s="115" t="s">
         <v>258</v>
       </c>
-      <c r="G17" s="103" t="s">
+      <c r="G17" s="93" t="s">
         <v>818</v>
       </c>
-      <c r="H17" s="109" t="s">
+      <c r="H17" s="99" t="s">
         <v>253</v>
       </c>
-      <c r="I17" s="118" t="s">
+      <c r="I17" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="J17" s="126" t="s">
+      <c r="J17" s="116" t="s">
         <v>871</v>
       </c>
       <c r="K17" s="60"/>
@@ -29986,34 +30340,34 @@
       <c r="Z17" s="60"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="83" t="s">
         <v>872</v>
       </c>
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="97" t="s">
         <v>873</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="98" t="s">
         <v>874</v>
       </c>
-      <c r="D18" s="101" t="s">
+      <c r="D18" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="E18" s="101" t="s">
+      <c r="E18" s="91" t="s">
         <v>875</v>
       </c>
-      <c r="F18" s="117" t="s">
+      <c r="F18" s="107" t="s">
         <v>830</v>
       </c>
-      <c r="G18" s="103" t="s">
+      <c r="G18" s="93" t="s">
         <v>818</v>
       </c>
-      <c r="H18" s="109" t="s">
+      <c r="H18" s="99" t="s">
         <v>253</v>
       </c>
-      <c r="I18" s="118" t="s">
+      <c r="I18" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="J18" s="101" t="s">
+      <c r="J18" s="91" t="s">
         <v>836</v>
       </c>
       <c r="K18" s="60"/>
@@ -30034,34 +30388,34 @@
       <c r="Z18" s="60"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="83" t="s">
         <v>876</v>
       </c>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="97" t="s">
         <v>877</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="98" t="s">
         <v>878</v>
       </c>
-      <c r="D19" s="101" t="s">
+      <c r="D19" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="E19" s="101" t="s">
+      <c r="E19" s="91" t="s">
         <v>879</v>
       </c>
-      <c r="F19" s="117" t="s">
+      <c r="F19" s="107" t="s">
         <v>830</v>
       </c>
-      <c r="G19" s="103" t="s">
+      <c r="G19" s="93" t="s">
         <v>818</v>
       </c>
-      <c r="H19" s="109" t="s">
+      <c r="H19" s="99" t="s">
         <v>253</v>
       </c>
-      <c r="I19" s="118" t="s">
+      <c r="I19" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="J19" s="101" t="s">
+      <c r="J19" s="91" t="s">
         <v>862</v>
       </c>
       <c r="K19" s="60"/>
@@ -30082,34 +30436,34 @@
       <c r="Z19" s="60"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="93" t="s">
+      <c r="A20" s="83" t="s">
         <v>880</v>
       </c>
-      <c r="B20" s="107" t="s">
+      <c r="B20" s="97" t="s">
         <v>877</v>
       </c>
-      <c r="C20" s="127" t="s">
+      <c r="C20" s="117" t="s">
         <v>881</v>
       </c>
-      <c r="D20" s="101" t="s">
+      <c r="D20" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="E20" s="101" t="s">
+      <c r="E20" s="91" t="s">
         <v>882</v>
       </c>
-      <c r="F20" s="117" t="s">
+      <c r="F20" s="107" t="s">
         <v>830</v>
       </c>
-      <c r="G20" s="103" t="s">
+      <c r="G20" s="93" t="s">
         <v>818</v>
       </c>
-      <c r="H20" s="109" t="s">
+      <c r="H20" s="99" t="s">
         <v>253</v>
       </c>
-      <c r="I20" s="118" t="s">
+      <c r="I20" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="J20" s="101" t="s">
+      <c r="J20" s="91" t="s">
         <v>853</v>
       </c>
       <c r="K20" s="60"/>
@@ -30130,34 +30484,34 @@
       <c r="Z20" s="60"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="83" t="s">
         <v>883</v>
       </c>
-      <c r="B21" s="107" t="s">
+      <c r="B21" s="97" t="s">
         <v>877</v>
       </c>
-      <c r="C21" s="108" t="s">
+      <c r="C21" s="98" t="s">
         <v>884</v>
       </c>
-      <c r="D21" s="101" t="s">
+      <c r="D21" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="E21" s="101" t="s">
+      <c r="E21" s="91" t="s">
         <v>885</v>
       </c>
-      <c r="F21" s="117" t="s">
+      <c r="F21" s="107" t="s">
         <v>830</v>
       </c>
-      <c r="G21" s="103" t="s">
+      <c r="G21" s="93" t="s">
         <v>818</v>
       </c>
-      <c r="H21" s="109" t="s">
+      <c r="H21" s="99" t="s">
         <v>253</v>
       </c>
-      <c r="I21" s="118" t="s">
+      <c r="I21" s="108" t="s">
         <v>254</v>
       </c>
-      <c r="J21" s="124" t="s">
+      <c r="J21" s="114" t="s">
         <v>255</v>
       </c>
       <c r="K21" s="60"/>

--- a/Test Case In Managerium.xlsx
+++ b/Test Case In Managerium.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="951">
   <si>
     <t>Product Name</t>
   </si>
@@ -3638,6 +3638,105 @@
   <si>
     <t xml:space="preserve">it will should be successfully shwoing PO and GRN in pending bill
 </t>
+  </si>
+  <si>
+    <r>
+      <t>MGM-8826</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Transfer Order from Available Stock</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to Create a New item.
+</t>
+  </si>
+  <si>
+    <t>Configuration-&gt;Item profile-&gt;add item</t>
+  </si>
+  <si>
+    <t>it will should be successfully Create item</t>
+  </si>
+  <si>
+    <t>purchase rececive</t>
+  </si>
+  <si>
+    <t>TC_148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to direct purchase rececive New item.
+</t>
+  </si>
+  <si>
+    <t>purchase -&gt;purchase rececive-&gt;Direct Receive</t>
+  </si>
+  <si>
+    <t>it will should be successfully direct purchase rececive New item.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer Request
+</t>
+  </si>
+  <si>
+    <t>TC_149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to Create Transfer Request 
+New item.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inventory-&gt; "Transfer Request-&gt; create Transfer Request
+</t>
+  </si>
+  <si>
+    <t>it will should be showing Available Stock in new item</t>
+  </si>
+  <si>
+    <t>TC_150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to Create Transfer Request
+New item Available Stock more transfer request
+</t>
+  </si>
+  <si>
+    <t>it will should be Available Stock more item try to transfer , approve time can not not approve tramsfer request.</t>
+  </si>
+  <si>
+    <t>TC_151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to Create Transfer Request New item Available Stock transfer request
+</t>
+  </si>
+  <si>
+    <t>it will should be Available Stock item try to transfer , approve time it can approve tramsfer request.</t>
+  </si>
+  <si>
+    <t>TC_152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to Create Direct Transfer New item Available Stock item more QTY transfer 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inventory-&gt; "Transfer -&gt; create Direct Transfer 
+</t>
+  </si>
+  <si>
+    <t>it will should be Available Stock more item try to Direct transfer time can not doing direct tramsfer .</t>
   </si>
 </sst>
 </file>
@@ -4562,32 +4661,32 @@
     <xf numFmtId="0" fontId="33" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4811,8 +4910,8 @@
   </sheetPr>
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S157" sqref="S157"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O158" sqref="O158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2"/>
@@ -4827,11 +4926,11 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="15"/>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="126" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="119"/>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="123" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="119"/>
@@ -4839,11 +4938,11 @@
         <v>2</v>
       </c>
       <c r="G1" s="119"/>
-      <c r="H1" s="124">
+      <c r="H1" s="127">
         <v>45615</v>
       </c>
       <c r="I1" s="119"/>
-      <c r="J1" s="118" t="s">
+      <c r="J1" s="125" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="119"/>
@@ -4859,11 +4958,11 @@
     </row>
     <row r="2" spans="1:26" ht="13.8">
       <c r="A2" s="15"/>
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="126" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="119"/>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="123" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="119"/>
@@ -4871,14 +4970,14 @@
         <v>7</v>
       </c>
       <c r="G2" s="119"/>
-      <c r="H2" s="123"/>
+      <c r="H2" s="121"/>
       <c r="I2" s="119"/>
       <c r="J2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="19">
         <f>COUNTIF(M8:M1823,"Pass")</f>
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="L2" s="20" t="s">
         <v>9</v>
@@ -4892,15 +4991,15 @@
     </row>
     <row r="3" spans="1:26" ht="13.8">
       <c r="A3" s="15"/>
-      <c r="B3" s="126"/>
+      <c r="B3" s="120"/>
       <c r="C3" s="119"/>
-      <c r="D3" s="123"/>
+      <c r="D3" s="121"/>
       <c r="E3" s="119"/>
       <c r="F3" s="122" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="119"/>
-      <c r="H3" s="123"/>
+      <c r="H3" s="121"/>
       <c r="I3" s="119"/>
       <c r="J3" s="21" t="s">
         <v>11</v>
@@ -4921,11 +5020,11 @@
     </row>
     <row r="4" spans="1:26" ht="171.6">
       <c r="A4" s="15"/>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="126" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="119"/>
-      <c r="D4" s="121" t="s">
+      <c r="D4" s="123" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="119"/>
@@ -4933,7 +5032,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="119"/>
-      <c r="H4" s="127"/>
+      <c r="H4" s="124"/>
       <c r="I4" s="119"/>
       <c r="J4" s="18" t="s">
         <v>16</v>
@@ -4954,11 +5053,11 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="15"/>
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="126" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="119"/>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="123" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="119"/>
@@ -4966,7 +5065,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="119"/>
-      <c r="H5" s="123" t="s">
+      <c r="H5" s="121" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="119"/>
@@ -4975,7 +5074,7 @@
       </c>
       <c r="K5" s="26">
         <f>SUM(K2+K3+K4)</f>
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="L5" s="20" t="s">
         <v>23</v>
@@ -4990,7 +5089,7 @@
     <row r="6" spans="1:26">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
-      <c r="C6" s="125"/>
+      <c r="C6" s="118"/>
       <c r="D6" s="119"/>
       <c r="E6" s="119"/>
       <c r="F6" s="119"/>
@@ -12401,120 +12500,240 @@
       <c r="Q158" s="4"/>
       <c r="R158" s="4"/>
     </row>
-    <row r="159" spans="1:18">
-      <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
-      <c r="H159" s="4"/>
-      <c r="I159" s="4"/>
-      <c r="J159" s="4"/>
-      <c r="K159" s="4"/>
-      <c r="L159" s="4"/>
-      <c r="M159" s="4"/>
+    <row r="159" spans="1:18" ht="66.599999999999994" thickBot="1">
+      <c r="A159" s="70"/>
+      <c r="B159" s="69" t="s">
+        <v>926</v>
+      </c>
+      <c r="C159" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D159" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E159" s="32" t="s">
+        <v>927</v>
+      </c>
+      <c r="F159" s="30" t="s">
+        <v>928</v>
+      </c>
+      <c r="G159" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="H159" s="30" t="s">
+        <v>929</v>
+      </c>
+      <c r="I159" s="30"/>
+      <c r="J159" s="30"/>
+      <c r="K159" s="30" t="s">
+        <v>930</v>
+      </c>
+      <c r="L159" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="M159" s="34" t="s">
+        <v>41</v>
+      </c>
       <c r="N159" s="4"/>
       <c r="O159" s="4"/>
       <c r="P159" s="4"/>
       <c r="Q159" s="4"/>
       <c r="R159" s="4"/>
     </row>
-    <row r="160" spans="1:18">
-      <c r="A160" s="4"/>
-      <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
-      <c r="G160" s="4"/>
-      <c r="H160" s="4"/>
-      <c r="I160" s="4"/>
-      <c r="J160" s="4"/>
-      <c r="K160" s="4"/>
-      <c r="L160" s="4"/>
-      <c r="M160" s="4"/>
+    <row r="160" spans="1:18" ht="93" thickBot="1">
+      <c r="A160" s="35"/>
+      <c r="B160" s="43" t="s">
+        <v>926</v>
+      </c>
+      <c r="C160" s="36" t="s">
+        <v>931</v>
+      </c>
+      <c r="D160" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E160" s="38" t="s">
+        <v>932</v>
+      </c>
+      <c r="F160" s="36" t="s">
+        <v>933</v>
+      </c>
+      <c r="G160" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="H160" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="I160" s="36"/>
+      <c r="J160" s="36"/>
+      <c r="K160" s="36" t="s">
+        <v>935</v>
+      </c>
+      <c r="L160" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="M160" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="N160" s="4"/>
       <c r="O160" s="4"/>
       <c r="P160" s="4"/>
       <c r="Q160" s="4"/>
       <c r="R160" s="4"/>
     </row>
-    <row r="161" spans="1:18">
-      <c r="A161" s="4"/>
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
-      <c r="H161" s="4"/>
-      <c r="I161" s="4"/>
-      <c r="J161" s="4"/>
-      <c r="K161" s="4"/>
-      <c r="L161" s="4"/>
-      <c r="M161" s="4"/>
+    <row r="161" spans="1:18" ht="66.599999999999994" thickBot="1">
+      <c r="A161" s="35"/>
+      <c r="B161" s="43" t="s">
+        <v>926</v>
+      </c>
+      <c r="C161" s="36" t="s">
+        <v>936</v>
+      </c>
+      <c r="D161" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E161" s="38" t="s">
+        <v>937</v>
+      </c>
+      <c r="F161" s="36" t="s">
+        <v>938</v>
+      </c>
+      <c r="G161" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="H161" s="36" t="s">
+        <v>939</v>
+      </c>
+      <c r="I161" s="36"/>
+      <c r="J161" s="36"/>
+      <c r="K161" s="36" t="s">
+        <v>940</v>
+      </c>
+      <c r="L161" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="M161" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="N161" s="4"/>
       <c r="O161" s="4"/>
       <c r="P161" s="4"/>
       <c r="Q161" s="4"/>
       <c r="R161" s="4"/>
     </row>
-    <row r="162" spans="1:18">
-      <c r="A162" s="4"/>
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
-      <c r="H162" s="4"/>
-      <c r="I162" s="4"/>
-      <c r="J162" s="4"/>
-      <c r="K162" s="4"/>
-      <c r="L162" s="4"/>
-      <c r="M162" s="4"/>
+    <row r="162" spans="1:18" ht="132.6" thickBot="1">
+      <c r="A162" s="35"/>
+      <c r="B162" s="43" t="s">
+        <v>926</v>
+      </c>
+      <c r="C162" s="36" t="s">
+        <v>936</v>
+      </c>
+      <c r="D162" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E162" s="38" t="s">
+        <v>941</v>
+      </c>
+      <c r="F162" s="36" t="s">
+        <v>942</v>
+      </c>
+      <c r="G162" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="H162" s="36" t="s">
+        <v>939</v>
+      </c>
+      <c r="I162" s="36"/>
+      <c r="J162" s="36"/>
+      <c r="K162" s="36" t="s">
+        <v>943</v>
+      </c>
+      <c r="L162" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="M162" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="N162" s="4"/>
       <c r="O162" s="4"/>
       <c r="P162" s="4"/>
       <c r="Q162" s="4"/>
       <c r="R162" s="4"/>
     </row>
-    <row r="163" spans="1:18">
-      <c r="A163" s="4"/>
-      <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="4"/>
-      <c r="G163" s="4"/>
-      <c r="H163" s="4"/>
-      <c r="I163" s="4"/>
-      <c r="J163" s="4"/>
-      <c r="K163" s="4"/>
-      <c r="L163" s="4"/>
-      <c r="M163" s="4"/>
+    <row r="163" spans="1:18" ht="106.2" thickBot="1">
+      <c r="A163" s="35"/>
+      <c r="B163" s="43" t="s">
+        <v>926</v>
+      </c>
+      <c r="C163" s="36" t="s">
+        <v>936</v>
+      </c>
+      <c r="D163" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E163" s="38" t="s">
+        <v>944</v>
+      </c>
+      <c r="F163" s="36" t="s">
+        <v>945</v>
+      </c>
+      <c r="G163" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="H163" s="36" t="s">
+        <v>939</v>
+      </c>
+      <c r="I163" s="36"/>
+      <c r="J163" s="36"/>
+      <c r="K163" s="36" t="s">
+        <v>946</v>
+      </c>
+      <c r="L163" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="M163" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="N163" s="4"/>
       <c r="O163" s="4"/>
       <c r="P163" s="4"/>
       <c r="Q163" s="4"/>
       <c r="R163" s="4"/>
     </row>
-    <row r="164" spans="1:18">
-      <c r="A164" s="4"/>
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
-      <c r="G164" s="4"/>
-      <c r="H164" s="4"/>
-      <c r="I164" s="4"/>
-      <c r="J164" s="4"/>
-      <c r="K164" s="4"/>
-      <c r="L164" s="4"/>
-      <c r="M164" s="4"/>
+    <row r="164" spans="1:18" ht="119.4" thickBot="1">
+      <c r="A164" s="35"/>
+      <c r="B164" s="43" t="s">
+        <v>926</v>
+      </c>
+      <c r="C164" s="36" t="s">
+        <v>936</v>
+      </c>
+      <c r="D164" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E164" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="F164" s="36" t="s">
+        <v>948</v>
+      </c>
+      <c r="G164" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="H164" s="36" t="s">
+        <v>949</v>
+      </c>
+      <c r="I164" s="36"/>
+      <c r="J164" s="36"/>
+      <c r="K164" s="36" t="s">
+        <v>950</v>
+      </c>
+      <c r="L164" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="M164" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="N164" s="4"/>
       <c r="O164" s="4"/>
       <c r="P164" s="4"/>
@@ -29343,14 +29562,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -29365,6 +29576,14 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="M8">
@@ -29502,9 +29721,15 @@
     <hyperlink ref="B157" r:id="rId125" display="https://jira.ibos.io/browse/MGM-8602"/>
     <hyperlink ref="B158" r:id="rId126" display="https://jira.ibos.io/browse/MGM-8602"/>
     <hyperlink ref="J158" r:id="rId127"/>
+    <hyperlink ref="B159" r:id="rId128" display="https://jira.ibos.io/browse/MGM-8826"/>
+    <hyperlink ref="B160" r:id="rId129" display="https://jira.ibos.io/browse/MGM-8826"/>
+    <hyperlink ref="B161" r:id="rId130" display="https://jira.ibos.io/browse/MGM-8826"/>
+    <hyperlink ref="B162" r:id="rId131" display="https://jira.ibos.io/browse/MGM-8826"/>
+    <hyperlink ref="B163" r:id="rId132" display="https://jira.ibos.io/browse/MGM-8826"/>
+    <hyperlink ref="B164" r:id="rId133" display="https://jira.ibos.io/browse/MGM-8826"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId128"/>
+  <pageSetup orientation="portrait" r:id="rId134"/>
 </worksheet>
 </file>
 
